--- a/Resources/Steel-Trans/Steel book Trans_MATCHED.xlsx
+++ b/Resources/Steel-Trans/Steel book Trans_MATCHED.xlsx
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -101,15 +101,6 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -737,7 +728,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" s="2" t="inlineStr"/>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Amounts don't match: 57747209.26 vs 57747208.25</t>
+        </is>
+      </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -766,4624 +763,5938 @@
       <c r="L10" s="1" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr"/>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr"/>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr"/>
-      <c r="G11" s="1" t="inlineStr"/>
-      <c r="H11" s="9" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr"/>
+      <c r="H11" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>70624</t>
         </is>
       </c>
-      <c r="J11" s="8" t="inlineStr">
+      <c r="J11" s="14" t="inlineStr">
         <is>
           <t>36010</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr"/>
-      <c r="L11" s="1" t="inlineStr"/>
+      <c r="K11" s="9" t="inlineStr"/>
+      <c r="L11" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr"/>
-      <c r="B12" s="2" t="inlineStr"/>
-      <c r="C12" s="1" t="inlineStr"/>
-      <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 36010.00
+Borrower Amount: 36010.00</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="9" t="inlineStr"/>
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Stardust Telecom Ltd.)</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
-      <c r="I12" s="1" t="inlineStr"/>
-      <c r="J12" s="1" t="inlineStr"/>
-      <c r="K12" s="1" t="inlineStr"/>
-      <c r="L12" s="1" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr"/>
+      <c r="I12" s="9" t="inlineStr"/>
+      <c r="J12" s="9" t="inlineStr"/>
+      <c r="K12" s="9" t="inlineStr"/>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr"/>
-      <c r="B13" s="2" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr"/>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="inlineStr"/>
+      <c r="C13" s="9" t="inlineStr"/>
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E13" s="11" t="inlineStr">
+      <c r="E13" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr"/>
-      <c r="G13" s="1" t="inlineStr"/>
-      <c r="H13" s="1" t="inlineStr"/>
-      <c r="I13" s="1" t="inlineStr"/>
-      <c r="J13" s="1" t="inlineStr"/>
-      <c r="K13" s="1" t="inlineStr"/>
-      <c r="L13" s="1" t="inlineStr"/>
+      <c r="F13" s="9" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr"/>
+      <c r="I13" s="9" t="inlineStr"/>
+      <c r="J13" s="9" t="inlineStr"/>
+      <c r="K13" s="9" t="inlineStr"/>
+      <c r="L13" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr"/>
-      <c r="B14" s="2" t="inlineStr"/>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="A14" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B14" s="18" t="inlineStr"/>
+      <c r="C14" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="D14" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr"/>
-      <c r="H14" s="9" t="inlineStr">
+      <c r="F14" s="17" t="inlineStr"/>
+      <c r="G14" s="17" t="inlineStr"/>
+      <c r="H14" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I14" s="17" t="inlineStr">
         <is>
           <t>70625</t>
         </is>
       </c>
-      <c r="J14" s="8" t="inlineStr">
+      <c r="J14" s="22" t="inlineStr">
         <is>
           <t>99317</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr"/>
-      <c r="L14" s="1" t="inlineStr"/>
+      <c r="K14" s="17" t="inlineStr"/>
+      <c r="L14" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr"/>
-      <c r="B15" s="2" t="inlineStr"/>
-      <c r="C15" s="1" t="inlineStr"/>
-      <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" s="10" t="inlineStr">
+      <c r="A15" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B15" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 99317.00
+Borrower Amount: 99317.00</t>
+        </is>
+      </c>
+      <c r="C15" s="17" t="inlineStr"/>
+      <c r="D15" s="17" t="inlineStr"/>
+      <c r="E15" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Suhel Mia-ID : 11370)</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr"/>
-      <c r="G15" s="1" t="inlineStr"/>
-      <c r="H15" s="1" t="inlineStr"/>
-      <c r="I15" s="1" t="inlineStr"/>
-      <c r="J15" s="1" t="inlineStr"/>
-      <c r="K15" s="1" t="inlineStr"/>
-      <c r="L15" s="1" t="inlineStr"/>
+      <c r="F15" s="17" t="inlineStr"/>
+      <c r="G15" s="17" t="inlineStr"/>
+      <c r="H15" s="17" t="inlineStr"/>
+      <c r="I15" s="17" t="inlineStr"/>
+      <c r="J15" s="17" t="inlineStr"/>
+      <c r="K15" s="17" t="inlineStr"/>
+      <c r="L15" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr"/>
-      <c r="B16" s="2" t="inlineStr"/>
-      <c r="C16" s="1" t="inlineStr"/>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="A16" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B16" s="18" t="inlineStr"/>
+      <c r="C16" s="17" t="inlineStr"/>
+      <c r="D16" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E16" s="11" t="inlineStr">
+      <c r="E16" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr"/>
-      <c r="G16" s="1" t="inlineStr"/>
-      <c r="H16" s="1" t="inlineStr"/>
-      <c r="I16" s="1" t="inlineStr"/>
-      <c r="J16" s="1" t="inlineStr"/>
-      <c r="K16" s="1" t="inlineStr"/>
-      <c r="L16" s="1" t="inlineStr"/>
+      <c r="F16" s="17" t="inlineStr"/>
+      <c r="G16" s="17" t="inlineStr"/>
+      <c r="H16" s="17" t="inlineStr"/>
+      <c r="I16" s="17" t="inlineStr"/>
+      <c r="J16" s="17" t="inlineStr"/>
+      <c r="K16" s="17" t="inlineStr"/>
+      <c r="L16" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr"/>
-      <c r="B17" s="2" t="inlineStr"/>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="inlineStr"/>
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr"/>
-      <c r="G17" s="1" t="inlineStr"/>
-      <c r="H17" s="9" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr"/>
+      <c r="G17" s="9" t="inlineStr"/>
+      <c r="H17" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="I17" s="9" t="inlineStr">
         <is>
           <t>70682</t>
         </is>
       </c>
-      <c r="J17" s="8" t="inlineStr">
+      <c r="J17" s="14" t="inlineStr">
         <is>
           <t>20130</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr"/>
-      <c r="L17" s="1" t="inlineStr"/>
+      <c r="K17" s="9" t="inlineStr"/>
+      <c r="L17" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr"/>
-      <c r="B18" s="2" t="inlineStr"/>
-      <c r="C18" s="1" t="inlineStr"/>
-      <c r="D18" s="1" t="inlineStr"/>
-      <c r="E18" s="10" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 20130.00
+Borrower Amount: 20130.00</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="inlineStr"/>
+      <c r="D18" s="9" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Poritosh Chandra Das-ID: 10199)</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr"/>
-      <c r="G18" s="1" t="inlineStr"/>
-      <c r="H18" s="1" t="inlineStr"/>
-      <c r="I18" s="1" t="inlineStr"/>
-      <c r="J18" s="1" t="inlineStr"/>
-      <c r="K18" s="1" t="inlineStr"/>
-      <c r="L18" s="1" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr"/>
+      <c r="G18" s="9" t="inlineStr"/>
+      <c r="H18" s="9" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr"/>
+      <c r="J18" s="9" t="inlineStr"/>
+      <c r="K18" s="9" t="inlineStr"/>
+      <c r="L18" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr"/>
-      <c r="B19" s="2" t="inlineStr"/>
-      <c r="C19" s="1" t="inlineStr"/>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="inlineStr"/>
+      <c r="C19" s="9" t="inlineStr"/>
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E19" s="11" t="inlineStr">
+      <c r="E19" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr"/>
-      <c r="G19" s="1" t="inlineStr"/>
-      <c r="H19" s="1" t="inlineStr"/>
-      <c r="I19" s="1" t="inlineStr"/>
-      <c r="J19" s="1" t="inlineStr"/>
-      <c r="K19" s="1" t="inlineStr"/>
-      <c r="L19" s="1" t="inlineStr"/>
+      <c r="F19" s="9" t="inlineStr"/>
+      <c r="G19" s="9" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr"/>
+      <c r="I19" s="9" t="inlineStr"/>
+      <c r="J19" s="9" t="inlineStr"/>
+      <c r="K19" s="9" t="inlineStr"/>
+      <c r="L19" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr"/>
-      <c r="B20" s="2" t="inlineStr"/>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="A20" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B20" s="18" t="inlineStr"/>
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="D20" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="E20" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr"/>
-      <c r="G20" s="1" t="inlineStr"/>
-      <c r="H20" s="9" t="inlineStr">
+      <c r="F20" s="17" t="inlineStr"/>
+      <c r="G20" s="17" t="inlineStr"/>
+      <c r="H20" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="I20" s="17" t="inlineStr">
         <is>
           <t>70683</t>
         </is>
       </c>
-      <c r="J20" s="8" t="inlineStr">
+      <c r="J20" s="22" t="inlineStr">
         <is>
           <t>94109</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr"/>
-      <c r="L20" s="1" t="inlineStr"/>
+      <c r="K20" s="17" t="inlineStr"/>
+      <c r="L20" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr"/>
-      <c r="B21" s="2" t="inlineStr"/>
-      <c r="C21" s="1" t="inlineStr"/>
-      <c r="D21" s="1" t="inlineStr"/>
-      <c r="E21" s="10" t="inlineStr">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B21" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 94109.00
+Borrower Amount: 94109.00</t>
+        </is>
+      </c>
+      <c r="C21" s="17" t="inlineStr"/>
+      <c r="D21" s="17" t="inlineStr"/>
+      <c r="E21" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Md. Nor Mohammad-ID : 11711)</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr"/>
-      <c r="G21" s="1" t="inlineStr"/>
-      <c r="H21" s="1" t="inlineStr"/>
-      <c r="I21" s="1" t="inlineStr"/>
-      <c r="J21" s="1" t="inlineStr"/>
-      <c r="K21" s="1" t="inlineStr"/>
-      <c r="L21" s="1" t="inlineStr"/>
+      <c r="F21" s="17" t="inlineStr"/>
+      <c r="G21" s="17" t="inlineStr"/>
+      <c r="H21" s="17" t="inlineStr"/>
+      <c r="I21" s="17" t="inlineStr"/>
+      <c r="J21" s="17" t="inlineStr"/>
+      <c r="K21" s="17" t="inlineStr"/>
+      <c r="L21" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr"/>
-      <c r="B22" s="2" t="inlineStr"/>
-      <c r="C22" s="1" t="inlineStr"/>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="A22" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B22" s="18" t="inlineStr"/>
+      <c r="C22" s="17" t="inlineStr"/>
+      <c r="D22" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E22" s="11" t="inlineStr">
+      <c r="E22" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr"/>
-      <c r="G22" s="1" t="inlineStr"/>
-      <c r="H22" s="1" t="inlineStr"/>
-      <c r="I22" s="1" t="inlineStr"/>
-      <c r="J22" s="1" t="inlineStr"/>
-      <c r="K22" s="1" t="inlineStr"/>
-      <c r="L22" s="1" t="inlineStr"/>
+      <c r="F22" s="17" t="inlineStr"/>
+      <c r="G22" s="17" t="inlineStr"/>
+      <c r="H22" s="17" t="inlineStr"/>
+      <c r="I22" s="17" t="inlineStr"/>
+      <c r="J22" s="17" t="inlineStr"/>
+      <c r="K22" s="17" t="inlineStr"/>
+      <c r="L22" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr"/>
-      <c r="B23" s="2" t="inlineStr"/>
-      <c r="C23" s="6" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E23" s="7" t="inlineStr">
+      <c r="E23" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr"/>
-      <c r="G23" s="1" t="inlineStr"/>
-      <c r="H23" s="9" t="inlineStr">
+      <c r="F23" s="9" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr"/>
+      <c r="H23" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="I23" s="9" t="inlineStr">
         <is>
           <t>70684</t>
         </is>
       </c>
-      <c r="J23" s="8" t="inlineStr">
+      <c r="J23" s="14" t="inlineStr">
         <is>
           <t>13909</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr"/>
-      <c r="L23" s="1" t="inlineStr"/>
+      <c r="K23" s="9" t="inlineStr"/>
+      <c r="L23" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr"/>
-      <c r="B24" s="2" t="inlineStr"/>
-      <c r="C24" s="1" t="inlineStr"/>
-      <c r="D24" s="1" t="inlineStr"/>
-      <c r="E24" s="10" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 13909.00
+Borrower Amount: 13909.00</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="inlineStr"/>
+      <c r="D24" s="9" t="inlineStr"/>
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Md. Salah Uddin-ID : 11134)</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr"/>
-      <c r="G24" s="1" t="inlineStr"/>
-      <c r="H24" s="1" t="inlineStr"/>
-      <c r="I24" s="1" t="inlineStr"/>
-      <c r="J24" s="1" t="inlineStr"/>
-      <c r="K24" s="1" t="inlineStr"/>
-      <c r="L24" s="1" t="inlineStr"/>
+      <c r="F24" s="9" t="inlineStr"/>
+      <c r="G24" s="9" t="inlineStr"/>
+      <c r="H24" s="9" t="inlineStr"/>
+      <c r="I24" s="9" t="inlineStr"/>
+      <c r="J24" s="9" t="inlineStr"/>
+      <c r="K24" s="9" t="inlineStr"/>
+      <c r="L24" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr"/>
-      <c r="B25" s="2" t="inlineStr"/>
-      <c r="C25" s="1" t="inlineStr"/>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="inlineStr"/>
+      <c r="C25" s="9" t="inlineStr"/>
+      <c r="D25" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E25" s="11" t="inlineStr">
+      <c r="E25" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr"/>
-      <c r="G25" s="1" t="inlineStr"/>
-      <c r="H25" s="1" t="inlineStr"/>
-      <c r="I25" s="1" t="inlineStr"/>
-      <c r="J25" s="1" t="inlineStr"/>
-      <c r="K25" s="1" t="inlineStr"/>
-      <c r="L25" s="1" t="inlineStr"/>
+      <c r="F25" s="9" t="inlineStr"/>
+      <c r="G25" s="9" t="inlineStr"/>
+      <c r="H25" s="9" t="inlineStr"/>
+      <c r="I25" s="9" t="inlineStr"/>
+      <c r="J25" s="9" t="inlineStr"/>
+      <c r="K25" s="9" t="inlineStr"/>
+      <c r="L25" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr"/>
-      <c r="B26" s="2" t="inlineStr"/>
-      <c r="C26" s="6" t="inlineStr">
+      <c r="A26" s="17" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B26" s="18" t="inlineStr"/>
+      <c r="C26" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E26" s="7" t="inlineStr">
+      <c r="E26" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr"/>
-      <c r="G26" s="1" t="inlineStr"/>
-      <c r="H26" s="9" t="inlineStr">
+      <c r="F26" s="17" t="inlineStr"/>
+      <c r="G26" s="17" t="inlineStr"/>
+      <c r="H26" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" s="17" t="inlineStr">
         <is>
           <t>70685</t>
         </is>
       </c>
-      <c r="J26" s="8" t="inlineStr">
+      <c r="J26" s="22" t="inlineStr">
         <is>
           <t>93314</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr"/>
-      <c r="L26" s="1" t="inlineStr"/>
+      <c r="K26" s="17" t="inlineStr"/>
+      <c r="L26" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr"/>
-      <c r="B27" s="2" t="inlineStr"/>
-      <c r="C27" s="1" t="inlineStr"/>
-      <c r="D27" s="1" t="inlineStr"/>
-      <c r="E27" s="10" t="inlineStr">
+      <c r="A27" s="17" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B27" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 93314.00
+Borrower Amount: 93314.00</t>
+        </is>
+      </c>
+      <c r="C27" s="17" t="inlineStr"/>
+      <c r="D27" s="17" t="inlineStr"/>
+      <c r="E27" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Md. Ahsan Habib-ID : 12107)</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr"/>
-      <c r="G27" s="1" t="inlineStr"/>
-      <c r="H27" s="1" t="inlineStr"/>
-      <c r="I27" s="1" t="inlineStr"/>
-      <c r="J27" s="1" t="inlineStr"/>
-      <c r="K27" s="1" t="inlineStr"/>
-      <c r="L27" s="1" t="inlineStr"/>
+      <c r="F27" s="17" t="inlineStr"/>
+      <c r="G27" s="17" t="inlineStr"/>
+      <c r="H27" s="17" t="inlineStr"/>
+      <c r="I27" s="17" t="inlineStr"/>
+      <c r="J27" s="17" t="inlineStr"/>
+      <c r="K27" s="17" t="inlineStr"/>
+      <c r="L27" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr"/>
-      <c r="B28" s="2" t="inlineStr"/>
-      <c r="C28" s="1" t="inlineStr"/>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="A28" s="17" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B28" s="18" t="inlineStr"/>
+      <c r="C28" s="17" t="inlineStr"/>
+      <c r="D28" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E28" s="11" t="inlineStr">
+      <c r="E28" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr"/>
-      <c r="G28" s="1" t="inlineStr"/>
-      <c r="H28" s="1" t="inlineStr"/>
-      <c r="I28" s="1" t="inlineStr"/>
-      <c r="J28" s="1" t="inlineStr"/>
-      <c r="K28" s="1" t="inlineStr"/>
-      <c r="L28" s="1" t="inlineStr"/>
+      <c r="F28" s="17" t="inlineStr"/>
+      <c r="G28" s="17" t="inlineStr"/>
+      <c r="H28" s="17" t="inlineStr"/>
+      <c r="I28" s="17" t="inlineStr"/>
+      <c r="J28" s="17" t="inlineStr"/>
+      <c r="K28" s="17" t="inlineStr"/>
+      <c r="L28" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="12" t="inlineStr">
+      <c r="A29" s="9" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B29" s="13" t="inlineStr"/>
-      <c r="C29" s="14" t="inlineStr">
+      <c r="B29" s="10" t="inlineStr"/>
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D29" s="12" t="inlineStr">
+      <c r="D29" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E29" s="15" t="inlineStr">
+      <c r="E29" s="12" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F29" s="12" t="inlineStr"/>
-      <c r="G29" s="12" t="inlineStr"/>
-      <c r="H29" s="16" t="inlineStr">
+      <c r="F29" s="9" t="inlineStr"/>
+      <c r="G29" s="9" t="inlineStr"/>
+      <c r="H29" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I29" s="12" t="inlineStr">
+      <c r="I29" s="9" t="inlineStr">
         <is>
           <t>3435</t>
         </is>
       </c>
-      <c r="J29" s="12" t="inlineStr"/>
-      <c r="K29" s="17" t="inlineStr">
+      <c r="J29" s="9" t="inlineStr"/>
+      <c r="K29" s="14" t="inlineStr">
         <is>
           <t>83402</t>
         </is>
       </c>
-      <c r="L29" s="12" t="inlineStr">
+      <c r="L29" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="inlineStr">
+      <c r="A30" s="9" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B30" s="13" t="inlineStr"/>
-      <c r="C30" s="12" t="inlineStr"/>
-      <c r="D30" s="12" t="inlineStr"/>
-      <c r="E30" s="15" t="inlineStr">
+      <c r="B30" s="10" t="inlineStr"/>
+      <c r="C30" s="9" t="inlineStr"/>
+      <c r="D30" s="9" t="inlineStr"/>
+      <c r="E30" s="12" t="inlineStr">
         <is>
           <t>AP-Pioneer Insurance Company Limited</t>
         </is>
       </c>
-      <c r="F30" s="12" t="inlineStr"/>
-      <c r="G30" s="12" t="inlineStr"/>
-      <c r="H30" s="12" t="inlineStr"/>
-      <c r="I30" s="12" t="inlineStr"/>
-      <c r="J30" s="17" t="inlineStr">
+      <c r="F30" s="9" t="inlineStr"/>
+      <c r="G30" s="9" t="inlineStr"/>
+      <c r="H30" s="9" t="inlineStr"/>
+      <c r="I30" s="9" t="inlineStr"/>
+      <c r="J30" s="14" t="inlineStr">
         <is>
           <t>118425</t>
         </is>
       </c>
-      <c r="K30" s="12" t="inlineStr"/>
-      <c r="L30" s="12" t="inlineStr">
+      <c r="K30" s="9" t="inlineStr"/>
+      <c r="L30" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="inlineStr">
+      <c r="A31" s="9" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B31" s="13" t="inlineStr"/>
-      <c r="C31" s="12" t="inlineStr"/>
-      <c r="D31" s="12" t="inlineStr"/>
-      <c r="E31" s="15" t="inlineStr">
+      <c r="B31" s="10" t="inlineStr"/>
+      <c r="C31" s="9" t="inlineStr"/>
+      <c r="D31" s="9" t="inlineStr"/>
+      <c r="E31" s="12" t="inlineStr">
         <is>
           <t>Sundry Debtor-Pioneer Insurance Company Ltd.</t>
         </is>
       </c>
-      <c r="F31" s="12" t="inlineStr"/>
-      <c r="G31" s="12" t="inlineStr"/>
-      <c r="H31" s="12" t="inlineStr"/>
-      <c r="I31" s="12" t="inlineStr"/>
-      <c r="J31" s="12" t="inlineStr"/>
-      <c r="K31" s="17" t="inlineStr">
+      <c r="F31" s="9" t="inlineStr"/>
+      <c r="G31" s="9" t="inlineStr"/>
+      <c r="H31" s="9" t="inlineStr"/>
+      <c r="I31" s="9" t="inlineStr"/>
+      <c r="J31" s="9" t="inlineStr"/>
+      <c r="K31" s="14" t="inlineStr">
         <is>
           <t>35023</t>
         </is>
       </c>
-      <c r="L31" s="12" t="inlineStr">
+      <c r="L31" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="12" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B32" s="13" t="inlineStr">
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 83402.00
 Borrower Amount: 83402.00</t>
         </is>
       </c>
-      <c r="C32" s="12" t="inlineStr"/>
-      <c r="D32" s="12" t="inlineStr"/>
-      <c r="E32" s="18" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr"/>
+      <c r="D32" s="9" t="inlineStr"/>
+      <c r="E32" s="15" t="inlineStr">
         <is>
           <t>Rectify entry due to LC 12043 was actually transformer LC so AP &amp; SD was shown as transformer unit.</t>
         </is>
       </c>
-      <c r="F32" s="12" t="inlineStr"/>
-      <c r="G32" s="12" t="inlineStr"/>
-      <c r="H32" s="12" t="inlineStr"/>
-      <c r="I32" s="12" t="inlineStr"/>
-      <c r="J32" s="12" t="inlineStr"/>
-      <c r="K32" s="12" t="inlineStr"/>
-      <c r="L32" s="12" t="inlineStr">
+      <c r="F32" s="9" t="inlineStr"/>
+      <c r="G32" s="9" t="inlineStr"/>
+      <c r="H32" s="9" t="inlineStr"/>
+      <c r="I32" s="9" t="inlineStr"/>
+      <c r="J32" s="9" t="inlineStr"/>
+      <c r="K32" s="9" t="inlineStr"/>
+      <c r="L32" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
         <is>
           <t>M001</t>
         </is>
       </c>
-      <c r="B33" s="13" t="inlineStr"/>
-      <c r="C33" s="12" t="inlineStr"/>
-      <c r="D33" s="12" t="inlineStr">
+      <c r="B33" s="10" t="inlineStr"/>
+      <c r="C33" s="9" t="inlineStr"/>
+      <c r="D33" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E33" s="19" t="inlineStr">
+      <c r="E33" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F33" s="12" t="inlineStr"/>
-      <c r="G33" s="12" t="inlineStr"/>
-      <c r="H33" s="12" t="inlineStr"/>
-      <c r="I33" s="12" t="inlineStr"/>
-      <c r="J33" s="12" t="inlineStr"/>
-      <c r="K33" s="12" t="inlineStr"/>
-      <c r="L33" s="12" t="inlineStr">
+      <c r="F33" s="9" t="inlineStr"/>
+      <c r="G33" s="9" t="inlineStr"/>
+      <c r="H33" s="9" t="inlineStr"/>
+      <c r="I33" s="9" t="inlineStr"/>
+      <c r="J33" s="9" t="inlineStr"/>
+      <c r="K33" s="9" t="inlineStr"/>
+      <c r="L33" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr"/>
-      <c r="B34" s="2" t="inlineStr"/>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="A34" s="17" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B34" s="18" t="inlineStr"/>
+      <c r="C34" s="19" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="D34" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E34" s="7" t="inlineStr">
+      <c r="E34" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr"/>
-      <c r="G34" s="1" t="inlineStr"/>
-      <c r="H34" s="9" t="inlineStr">
+      <c r="F34" s="17" t="inlineStr"/>
+      <c r="G34" s="17" t="inlineStr"/>
+      <c r="H34" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="I34" s="17" t="inlineStr">
         <is>
           <t>70691</t>
         </is>
       </c>
-      <c r="J34" s="8" t="inlineStr">
+      <c r="J34" s="22" t="inlineStr">
         <is>
           <t>9075000</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr"/>
-      <c r="L34" s="1" t="inlineStr"/>
+      <c r="K34" s="17" t="inlineStr"/>
+      <c r="L34" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr"/>
-      <c r="B35" s="2" t="inlineStr"/>
-      <c r="C35" s="1" t="inlineStr"/>
-      <c r="D35" s="1" t="inlineStr"/>
-      <c r="E35" s="10" t="inlineStr">
+      <c r="A35" s="17" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B35" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 9075000.00
+Borrower Amount: 9075000.00</t>
+        </is>
+      </c>
+      <c r="C35" s="17" t="inlineStr"/>
+      <c r="D35" s="17" t="inlineStr"/>
+      <c r="E35" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Sundry Parties-Jiangsu Dechun Power Electric Co Ltd)</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr"/>
-      <c r="G35" s="1" t="inlineStr"/>
-      <c r="H35" s="1" t="inlineStr"/>
-      <c r="I35" s="1" t="inlineStr"/>
-      <c r="J35" s="1" t="inlineStr"/>
-      <c r="K35" s="1" t="inlineStr"/>
-      <c r="L35" s="1" t="inlineStr"/>
+      <c r="F35" s="17" t="inlineStr"/>
+      <c r="G35" s="17" t="inlineStr"/>
+      <c r="H35" s="17" t="inlineStr"/>
+      <c r="I35" s="17" t="inlineStr"/>
+      <c r="J35" s="17" t="inlineStr"/>
+      <c r="K35" s="17" t="inlineStr"/>
+      <c r="L35" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr"/>
-      <c r="B36" s="2" t="inlineStr"/>
-      <c r="C36" s="1" t="inlineStr"/>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="A36" s="17" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B36" s="18" t="inlineStr"/>
+      <c r="C36" s="17" t="inlineStr"/>
+      <c r="D36" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E36" s="11" t="inlineStr">
+      <c r="E36" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr"/>
-      <c r="G36" s="1" t="inlineStr"/>
-      <c r="H36" s="1" t="inlineStr"/>
-      <c r="I36" s="1" t="inlineStr"/>
-      <c r="J36" s="1" t="inlineStr"/>
-      <c r="K36" s="1" t="inlineStr"/>
-      <c r="L36" s="1" t="inlineStr"/>
+      <c r="F36" s="17" t="inlineStr"/>
+      <c r="G36" s="17" t="inlineStr"/>
+      <c r="H36" s="17" t="inlineStr"/>
+      <c r="I36" s="17" t="inlineStr"/>
+      <c r="J36" s="17" t="inlineStr"/>
+      <c r="K36" s="17" t="inlineStr"/>
+      <c r="L36" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="20" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
         <is>
           <t>M003</t>
         </is>
       </c>
-      <c r="B37" s="21" t="inlineStr"/>
-      <c r="C37" s="22" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr"/>
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D37" s="20" t="inlineStr">
+      <c r="D37" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E37" s="23" t="inlineStr">
+      <c r="E37" s="12" t="inlineStr">
         <is>
           <t>Interest on ROU-Dhaka Metro-CHA-56-6064 &amp; 6066</t>
         </is>
       </c>
-      <c r="F37" s="20" t="inlineStr"/>
-      <c r="G37" s="20" t="inlineStr"/>
-      <c r="H37" s="24" t="inlineStr">
+      <c r="F37" s="9" t="inlineStr"/>
+      <c r="G37" s="9" t="inlineStr"/>
+      <c r="H37" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I37" s="20" t="inlineStr">
+      <c r="I37" s="9" t="inlineStr">
         <is>
           <t>3449</t>
         </is>
       </c>
-      <c r="J37" s="20" t="inlineStr"/>
-      <c r="K37" s="25" t="inlineStr">
+      <c r="J37" s="9" t="inlineStr"/>
+      <c r="K37" s="14" t="inlineStr">
         <is>
           <t>9539</t>
         </is>
       </c>
-      <c r="L37" s="20" t="inlineStr">
+      <c r="L37" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="20" t="inlineStr">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>M003</t>
         </is>
       </c>
-      <c r="B38" s="21" t="inlineStr">
-        <is>
-          <t>Narration Match
+      <c r="B38" s="10" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: PBL#11060
 Lender Amount: 9539.00
 Borrower Amount: 9539.00</t>
         </is>
       </c>
-      <c r="C38" s="20" t="inlineStr"/>
-      <c r="D38" s="20" t="inlineStr"/>
-      <c r="E38" s="26" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr"/>
+      <c r="D38" s="9" t="inlineStr"/>
+      <c r="E38" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to IDLC Finance Ltd. agt. Interest for the Loan 1026109496388134  Over Due interest for April-2025, Supporting as Email, date on 03 June-2025 also Bank Dr. same date from CIL-PBL-2126312011060</t>
         </is>
       </c>
-      <c r="F38" s="20" t="inlineStr"/>
-      <c r="G38" s="20" t="inlineStr"/>
-      <c r="H38" s="20" t="inlineStr"/>
-      <c r="I38" s="20" t="inlineStr"/>
-      <c r="J38" s="20" t="inlineStr"/>
-      <c r="K38" s="20" t="inlineStr"/>
-      <c r="L38" s="20" t="inlineStr">
+      <c r="F38" s="9" t="inlineStr"/>
+      <c r="G38" s="9" t="inlineStr"/>
+      <c r="H38" s="9" t="inlineStr"/>
+      <c r="I38" s="9" t="inlineStr"/>
+      <c r="J38" s="9" t="inlineStr"/>
+      <c r="K38" s="9" t="inlineStr"/>
+      <c r="L38" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="20" t="inlineStr">
+      <c r="A39" s="9" t="inlineStr">
         <is>
           <t>M003</t>
         </is>
       </c>
-      <c r="B39" s="21" t="inlineStr"/>
-      <c r="C39" s="20" t="inlineStr"/>
-      <c r="D39" s="20" t="inlineStr">
+      <c r="B39" s="10" t="inlineStr"/>
+      <c r="C39" s="9" t="inlineStr"/>
+      <c r="D39" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E39" s="27" t="inlineStr">
+      <c r="E39" s="16" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F39" s="20" t="inlineStr"/>
-      <c r="G39" s="20" t="inlineStr"/>
-      <c r="H39" s="20" t="inlineStr"/>
-      <c r="I39" s="20" t="inlineStr"/>
-      <c r="J39" s="20" t="inlineStr"/>
-      <c r="K39" s="20" t="inlineStr"/>
-      <c r="L39" s="20" t="inlineStr">
+      <c r="F39" s="9" t="inlineStr"/>
+      <c r="G39" s="9" t="inlineStr"/>
+      <c r="H39" s="9" t="inlineStr"/>
+      <c r="I39" s="9" t="inlineStr"/>
+      <c r="J39" s="9" t="inlineStr"/>
+      <c r="K39" s="9" t="inlineStr"/>
+      <c r="L39" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr"/>
-      <c r="B40" s="2" t="inlineStr"/>
-      <c r="C40" s="6" t="inlineStr">
+      <c r="A40" s="17" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B40" s="18" t="inlineStr"/>
+      <c r="C40" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="D40" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E40" s="7" t="inlineStr">
+      <c r="E40" s="20" t="inlineStr">
         <is>
           <t>Dutch Bangla Bank Ltd-SND-A/C-1071200003834 (CIL)</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr"/>
-      <c r="G40" s="1" t="inlineStr"/>
-      <c r="H40" s="9" t="inlineStr">
+      <c r="F40" s="17" t="inlineStr"/>
+      <c r="G40" s="17" t="inlineStr"/>
+      <c r="H40" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="I40" s="17" t="inlineStr">
         <is>
           <t>931</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr"/>
-      <c r="K40" s="8" t="inlineStr">
+      <c r="J40" s="17" t="inlineStr"/>
+      <c r="K40" s="22" t="inlineStr">
         <is>
           <t>3700000</t>
         </is>
       </c>
-      <c r="L40" s="1" t="inlineStr"/>
+      <c r="L40" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr"/>
-      <c r="B41" s="2" t="inlineStr"/>
-      <c r="C41" s="1" t="inlineStr"/>
-      <c r="D41" s="1" t="inlineStr"/>
-      <c r="E41" s="10" t="inlineStr">
+      <c r="A41" s="17" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B41" s="18" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#0313
+Lender Amount: 3700000.00
+Borrower Amount: 3700000.00</t>
+        </is>
+      </c>
+      <c r="C41" s="17" t="inlineStr"/>
+      <c r="D41" s="17" t="inlineStr"/>
+      <c r="E41" s="23" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr"/>
-      <c r="G41" s="1" t="inlineStr"/>
-      <c r="H41" s="1" t="inlineStr"/>
-      <c r="I41" s="1" t="inlineStr"/>
-      <c r="J41" s="1" t="inlineStr"/>
-      <c r="K41" s="1" t="inlineStr"/>
-      <c r="L41" s="1" t="inlineStr"/>
+      <c r="F41" s="17" t="inlineStr"/>
+      <c r="G41" s="17" t="inlineStr"/>
+      <c r="H41" s="17" t="inlineStr"/>
+      <c r="I41" s="17" t="inlineStr"/>
+      <c r="J41" s="17" t="inlineStr"/>
+      <c r="K41" s="17" t="inlineStr"/>
+      <c r="L41" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr"/>
-      <c r="B42" s="2" t="inlineStr"/>
-      <c r="C42" s="1" t="inlineStr"/>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="A42" s="17" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B42" s="18" t="inlineStr"/>
+      <c r="C42" s="17" t="inlineStr"/>
+      <c r="D42" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E42" s="11" t="inlineStr">
+      <c r="E42" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr"/>
-      <c r="G42" s="1" t="inlineStr"/>
-      <c r="H42" s="1" t="inlineStr"/>
-      <c r="I42" s="1" t="inlineStr"/>
-      <c r="J42" s="1" t="inlineStr"/>
-      <c r="K42" s="1" t="inlineStr"/>
-      <c r="L42" s="1" t="inlineStr"/>
+      <c r="F42" s="17" t="inlineStr"/>
+      <c r="G42" s="17" t="inlineStr"/>
+      <c r="H42" s="17" t="inlineStr"/>
+      <c r="I42" s="17" t="inlineStr"/>
+      <c r="J42" s="17" t="inlineStr"/>
+      <c r="K42" s="17" t="inlineStr"/>
+      <c r="L42" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr"/>
-      <c r="B43" s="2" t="inlineStr"/>
-      <c r="C43" s="6" t="inlineStr">
+      <c r="A43" s="9" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="inlineStr"/>
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="D43" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E43" s="7" t="inlineStr">
+      <c r="E43" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr"/>
-      <c r="G43" s="1" t="inlineStr"/>
-      <c r="H43" s="9" t="inlineStr">
+      <c r="F43" s="9" t="inlineStr"/>
+      <c r="G43" s="9" t="inlineStr"/>
+      <c r="H43" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="I43" s="9" t="inlineStr">
         <is>
           <t>70692</t>
         </is>
       </c>
-      <c r="J43" s="8" t="inlineStr">
+      <c r="J43" s="14" t="inlineStr">
         <is>
           <t>297501</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr"/>
-      <c r="L43" s="1" t="inlineStr"/>
+      <c r="K43" s="9" t="inlineStr"/>
+      <c r="L43" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr"/>
-      <c r="B44" s="2" t="inlineStr"/>
-      <c r="C44" s="1" t="inlineStr"/>
-      <c r="D44" s="1" t="inlineStr"/>
-      <c r="E44" s="10" t="inlineStr">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 297501.00
+Borrower Amount: 297501.00</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr"/>
+      <c r="D44" s="9" t="inlineStr"/>
+      <c r="E44" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Kansai Nerolac Paints (Bangladesh) Limited)</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr"/>
-      <c r="G44" s="1" t="inlineStr"/>
-      <c r="H44" s="1" t="inlineStr"/>
-      <c r="I44" s="1" t="inlineStr"/>
-      <c r="J44" s="1" t="inlineStr"/>
-      <c r="K44" s="1" t="inlineStr"/>
-      <c r="L44" s="1" t="inlineStr"/>
+      <c r="F44" s="9" t="inlineStr"/>
+      <c r="G44" s="9" t="inlineStr"/>
+      <c r="H44" s="9" t="inlineStr"/>
+      <c r="I44" s="9" t="inlineStr"/>
+      <c r="J44" s="9" t="inlineStr"/>
+      <c r="K44" s="9" t="inlineStr"/>
+      <c r="L44" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr"/>
-      <c r="B45" s="2" t="inlineStr"/>
-      <c r="C45" s="1" t="inlineStr"/>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="A45" s="9" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="inlineStr"/>
+      <c r="C45" s="9" t="inlineStr"/>
+      <c r="D45" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E45" s="11" t="inlineStr">
+      <c r="E45" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr"/>
-      <c r="G45" s="1" t="inlineStr"/>
-      <c r="H45" s="1" t="inlineStr"/>
-      <c r="I45" s="1" t="inlineStr"/>
-      <c r="J45" s="1" t="inlineStr"/>
-      <c r="K45" s="1" t="inlineStr"/>
-      <c r="L45" s="1" t="inlineStr"/>
+      <c r="F45" s="9" t="inlineStr"/>
+      <c r="G45" s="9" t="inlineStr"/>
+      <c r="H45" s="9" t="inlineStr"/>
+      <c r="I45" s="9" t="inlineStr"/>
+      <c r="J45" s="9" t="inlineStr"/>
+      <c r="K45" s="9" t="inlineStr"/>
+      <c r="L45" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr"/>
-      <c r="B46" s="2" t="inlineStr"/>
-      <c r="C46" s="6" t="inlineStr">
+      <c r="A46" s="17" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B46" s="18" t="inlineStr"/>
+      <c r="C46" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="D46" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E46" s="7" t="inlineStr">
+      <c r="E46" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr"/>
-      <c r="G46" s="1" t="inlineStr"/>
-      <c r="H46" s="9" t="inlineStr">
+      <c r="F46" s="17" t="inlineStr"/>
+      <c r="G46" s="17" t="inlineStr"/>
+      <c r="H46" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="I46" s="17" t="inlineStr">
         <is>
           <t>70693</t>
         </is>
       </c>
-      <c r="J46" s="8" t="inlineStr">
+      <c r="J46" s="22" t="inlineStr">
         <is>
           <t>95000</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr"/>
-      <c r="L46" s="1" t="inlineStr"/>
+      <c r="K46" s="17" t="inlineStr"/>
+      <c r="L46" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr"/>
-      <c r="B47" s="2" t="inlineStr"/>
-      <c r="C47" s="1" t="inlineStr"/>
-      <c r="D47" s="1" t="inlineStr"/>
-      <c r="E47" s="10" t="inlineStr">
+      <c r="A47" s="17" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B47" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 95000.00
+Borrower Amount: 95000.00</t>
+        </is>
+      </c>
+      <c r="C47" s="17" t="inlineStr"/>
+      <c r="D47" s="17" t="inlineStr"/>
+      <c r="E47" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Kansai Nerolac Paints (Bangladesh) Limited)</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr"/>
-      <c r="G47" s="1" t="inlineStr"/>
-      <c r="H47" s="1" t="inlineStr"/>
-      <c r="I47" s="1" t="inlineStr"/>
-      <c r="J47" s="1" t="inlineStr"/>
-      <c r="K47" s="1" t="inlineStr"/>
-      <c r="L47" s="1" t="inlineStr"/>
+      <c r="F47" s="17" t="inlineStr"/>
+      <c r="G47" s="17" t="inlineStr"/>
+      <c r="H47" s="17" t="inlineStr"/>
+      <c r="I47" s="17" t="inlineStr"/>
+      <c r="J47" s="17" t="inlineStr"/>
+      <c r="K47" s="17" t="inlineStr"/>
+      <c r="L47" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr"/>
-      <c r="B48" s="2" t="inlineStr"/>
-      <c r="C48" s="1" t="inlineStr"/>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="A48" s="17" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B48" s="18" t="inlineStr"/>
+      <c r="C48" s="17" t="inlineStr"/>
+      <c r="D48" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E48" s="11" t="inlineStr">
+      <c r="E48" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr"/>
-      <c r="G48" s="1" t="inlineStr"/>
-      <c r="H48" s="1" t="inlineStr"/>
-      <c r="I48" s="1" t="inlineStr"/>
-      <c r="J48" s="1" t="inlineStr"/>
-      <c r="K48" s="1" t="inlineStr"/>
-      <c r="L48" s="1" t="inlineStr"/>
+      <c r="F48" s="17" t="inlineStr"/>
+      <c r="G48" s="17" t="inlineStr"/>
+      <c r="H48" s="17" t="inlineStr"/>
+      <c r="I48" s="17" t="inlineStr"/>
+      <c r="J48" s="17" t="inlineStr"/>
+      <c r="K48" s="17" t="inlineStr"/>
+      <c r="L48" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr"/>
-      <c r="B49" s="2" t="inlineStr"/>
-      <c r="C49" s="6" t="inlineStr">
+      <c r="A49" s="9" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="inlineStr"/>
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="D49" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E49" s="7" t="inlineStr">
+      <c r="E49" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr"/>
-      <c r="G49" s="1" t="inlineStr"/>
-      <c r="H49" s="9" t="inlineStr">
+      <c r="F49" s="9" t="inlineStr"/>
+      <c r="G49" s="9" t="inlineStr"/>
+      <c r="H49" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="I49" s="9" t="inlineStr">
         <is>
           <t>70694</t>
         </is>
       </c>
-      <c r="J49" s="8" t="inlineStr">
+      <c r="J49" s="14" t="inlineStr">
         <is>
           <t>3300</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr"/>
-      <c r="L49" s="1" t="inlineStr"/>
+      <c r="K49" s="9" t="inlineStr"/>
+      <c r="L49" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr"/>
-      <c r="B50" s="2" t="inlineStr"/>
-      <c r="C50" s="1" t="inlineStr"/>
-      <c r="D50" s="1" t="inlineStr"/>
-      <c r="E50" s="10" t="inlineStr">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3300.00
+Borrower Amount: 3300.00</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr"/>
+      <c r="D50" s="9" t="inlineStr"/>
+      <c r="E50" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Computer Archives IT  Services Solution)</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr"/>
-      <c r="G50" s="1" t="inlineStr"/>
-      <c r="H50" s="1" t="inlineStr"/>
-      <c r="I50" s="1" t="inlineStr"/>
-      <c r="J50" s="1" t="inlineStr"/>
-      <c r="K50" s="1" t="inlineStr"/>
-      <c r="L50" s="1" t="inlineStr"/>
+      <c r="F50" s="9" t="inlineStr"/>
+      <c r="G50" s="9" t="inlineStr"/>
+      <c r="H50" s="9" t="inlineStr"/>
+      <c r="I50" s="9" t="inlineStr"/>
+      <c r="J50" s="9" t="inlineStr"/>
+      <c r="K50" s="9" t="inlineStr"/>
+      <c r="L50" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr"/>
-      <c r="B51" s="2" t="inlineStr"/>
-      <c r="C51" s="1" t="inlineStr"/>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="A51" s="9" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="inlineStr"/>
+      <c r="C51" s="9" t="inlineStr"/>
+      <c r="D51" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E51" s="11" t="inlineStr">
+      <c r="E51" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr"/>
-      <c r="G51" s="1" t="inlineStr"/>
-      <c r="H51" s="1" t="inlineStr"/>
-      <c r="I51" s="1" t="inlineStr"/>
-      <c r="J51" s="1" t="inlineStr"/>
-      <c r="K51" s="1" t="inlineStr"/>
-      <c r="L51" s="1" t="inlineStr"/>
+      <c r="F51" s="9" t="inlineStr"/>
+      <c r="G51" s="9" t="inlineStr"/>
+      <c r="H51" s="9" t="inlineStr"/>
+      <c r="I51" s="9" t="inlineStr"/>
+      <c r="J51" s="9" t="inlineStr"/>
+      <c r="K51" s="9" t="inlineStr"/>
+      <c r="L51" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr"/>
-      <c r="B52" s="2" t="inlineStr"/>
-      <c r="C52" s="6" t="inlineStr">
+      <c r="A52" s="17" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B52" s="18" t="inlineStr"/>
+      <c r="C52" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="D52" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E52" s="7" t="inlineStr">
+      <c r="E52" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr"/>
-      <c r="G52" s="1" t="inlineStr"/>
-      <c r="H52" s="9" t="inlineStr">
+      <c r="F52" s="17" t="inlineStr"/>
+      <c r="G52" s="17" t="inlineStr"/>
+      <c r="H52" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="I52" s="17" t="inlineStr">
         <is>
           <t>70695</t>
         </is>
       </c>
-      <c r="J52" s="8" t="inlineStr">
+      <c r="J52" s="22" t="inlineStr">
         <is>
           <t>11250</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr"/>
-      <c r="L52" s="1" t="inlineStr"/>
+      <c r="K52" s="17" t="inlineStr"/>
+      <c r="L52" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr"/>
-      <c r="B53" s="2" t="inlineStr"/>
-      <c r="C53" s="1" t="inlineStr"/>
-      <c r="D53" s="1" t="inlineStr"/>
-      <c r="E53" s="10" t="inlineStr">
+      <c r="A53" s="17" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B53" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11250.00
+Borrower Amount: 11250.00</t>
+        </is>
+      </c>
+      <c r="C53" s="17" t="inlineStr"/>
+      <c r="D53" s="17" t="inlineStr"/>
+      <c r="E53" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(B Art &amp; Block)</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr"/>
-      <c r="G53" s="1" t="inlineStr"/>
-      <c r="H53" s="1" t="inlineStr"/>
-      <c r="I53" s="1" t="inlineStr"/>
-      <c r="J53" s="1" t="inlineStr"/>
-      <c r="K53" s="1" t="inlineStr"/>
-      <c r="L53" s="1" t="inlineStr"/>
+      <c r="F53" s="17" t="inlineStr"/>
+      <c r="G53" s="17" t="inlineStr"/>
+      <c r="H53" s="17" t="inlineStr"/>
+      <c r="I53" s="17" t="inlineStr"/>
+      <c r="J53" s="17" t="inlineStr"/>
+      <c r="K53" s="17" t="inlineStr"/>
+      <c r="L53" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr"/>
-      <c r="B54" s="2" t="inlineStr"/>
-      <c r="C54" s="1" t="inlineStr"/>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="A54" s="17" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B54" s="18" t="inlineStr"/>
+      <c r="C54" s="17" t="inlineStr"/>
+      <c r="D54" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E54" s="11" t="inlineStr">
+      <c r="E54" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr"/>
-      <c r="G54" s="1" t="inlineStr"/>
-      <c r="H54" s="1" t="inlineStr"/>
-      <c r="I54" s="1" t="inlineStr"/>
-      <c r="J54" s="1" t="inlineStr"/>
-      <c r="K54" s="1" t="inlineStr"/>
-      <c r="L54" s="1" t="inlineStr"/>
+      <c r="F54" s="17" t="inlineStr"/>
+      <c r="G54" s="17" t="inlineStr"/>
+      <c r="H54" s="17" t="inlineStr"/>
+      <c r="I54" s="17" t="inlineStr"/>
+      <c r="J54" s="17" t="inlineStr"/>
+      <c r="K54" s="17" t="inlineStr"/>
+      <c r="L54" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr"/>
-      <c r="B55" s="2" t="inlineStr"/>
-      <c r="C55" s="6" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="inlineStr"/>
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E55" s="7" t="inlineStr">
+      <c r="E55" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr"/>
-      <c r="G55" s="1" t="inlineStr"/>
-      <c r="H55" s="9" t="inlineStr">
+      <c r="F55" s="9" t="inlineStr"/>
+      <c r="G55" s="9" t="inlineStr"/>
+      <c r="H55" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="I55" s="9" t="inlineStr">
         <is>
           <t>70697</t>
         </is>
       </c>
-      <c r="J55" s="8" t="inlineStr">
+      <c r="J55" s="14" t="inlineStr">
         <is>
           <t>240723</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr"/>
-      <c r="L55" s="1" t="inlineStr"/>
+      <c r="K55" s="9" t="inlineStr"/>
+      <c r="L55" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr"/>
-      <c r="B56" s="2" t="inlineStr"/>
-      <c r="C56" s="1" t="inlineStr"/>
-      <c r="D56" s="1" t="inlineStr"/>
-      <c r="E56" s="10" t="inlineStr">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 240723.00
+Borrower Amount: 240723.00</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr"/>
+      <c r="D56" s="9" t="inlineStr"/>
+      <c r="E56" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Berger Paints Bangladesh Ltd.)</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr"/>
-      <c r="G56" s="1" t="inlineStr"/>
-      <c r="H56" s="1" t="inlineStr"/>
-      <c r="I56" s="1" t="inlineStr"/>
-      <c r="J56" s="1" t="inlineStr"/>
-      <c r="K56" s="1" t="inlineStr"/>
-      <c r="L56" s="1" t="inlineStr"/>
+      <c r="F56" s="9" t="inlineStr"/>
+      <c r="G56" s="9" t="inlineStr"/>
+      <c r="H56" s="9" t="inlineStr"/>
+      <c r="I56" s="9" t="inlineStr"/>
+      <c r="J56" s="9" t="inlineStr"/>
+      <c r="K56" s="9" t="inlineStr"/>
+      <c r="L56" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr"/>
-      <c r="B57" s="2" t="inlineStr"/>
-      <c r="C57" s="1" t="inlineStr"/>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="A57" s="9" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="inlineStr"/>
+      <c r="C57" s="9" t="inlineStr"/>
+      <c r="D57" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E57" s="11" t="inlineStr">
+      <c r="E57" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr"/>
-      <c r="G57" s="1" t="inlineStr"/>
-      <c r="H57" s="1" t="inlineStr"/>
-      <c r="I57" s="1" t="inlineStr"/>
-      <c r="J57" s="1" t="inlineStr"/>
-      <c r="K57" s="1" t="inlineStr"/>
-      <c r="L57" s="1" t="inlineStr"/>
+      <c r="F57" s="9" t="inlineStr"/>
+      <c r="G57" s="9" t="inlineStr"/>
+      <c r="H57" s="9" t="inlineStr"/>
+      <c r="I57" s="9" t="inlineStr"/>
+      <c r="J57" s="9" t="inlineStr"/>
+      <c r="K57" s="9" t="inlineStr"/>
+      <c r="L57" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr"/>
-      <c r="B58" s="2" t="inlineStr"/>
-      <c r="C58" s="6" t="inlineStr">
+      <c r="A58" s="17" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B58" s="18" t="inlineStr"/>
+      <c r="C58" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="D58" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E58" s="7" t="inlineStr">
+      <c r="E58" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr"/>
-      <c r="G58" s="1" t="inlineStr"/>
-      <c r="H58" s="9" t="inlineStr">
+      <c r="F58" s="17" t="inlineStr"/>
+      <c r="G58" s="17" t="inlineStr"/>
+      <c r="H58" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="I58" s="17" t="inlineStr">
         <is>
           <t>70698</t>
         </is>
       </c>
-      <c r="J58" s="8" t="inlineStr">
+      <c r="J58" s="22" t="inlineStr">
         <is>
           <t>59000</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr"/>
-      <c r="L58" s="1" t="inlineStr"/>
+      <c r="K58" s="17" t="inlineStr"/>
+      <c r="L58" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr"/>
-      <c r="B59" s="2" t="inlineStr"/>
-      <c r="C59" s="1" t="inlineStr"/>
-      <c r="D59" s="1" t="inlineStr"/>
-      <c r="E59" s="10" t="inlineStr">
+      <c r="A59" s="17" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B59" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 59000.00
+Borrower Amount: 59000.00</t>
+        </is>
+      </c>
+      <c r="C59" s="17" t="inlineStr"/>
+      <c r="D59" s="17" t="inlineStr"/>
+      <c r="E59" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Delwar Paint &amp; Hardware)</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr"/>
-      <c r="G59" s="1" t="inlineStr"/>
-      <c r="H59" s="1" t="inlineStr"/>
-      <c r="I59" s="1" t="inlineStr"/>
-      <c r="J59" s="1" t="inlineStr"/>
-      <c r="K59" s="1" t="inlineStr"/>
-      <c r="L59" s="1" t="inlineStr"/>
+      <c r="F59" s="17" t="inlineStr"/>
+      <c r="G59" s="17" t="inlineStr"/>
+      <c r="H59" s="17" t="inlineStr"/>
+      <c r="I59" s="17" t="inlineStr"/>
+      <c r="J59" s="17" t="inlineStr"/>
+      <c r="K59" s="17" t="inlineStr"/>
+      <c r="L59" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr"/>
-      <c r="B60" s="2" t="inlineStr"/>
-      <c r="C60" s="1" t="inlineStr"/>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="A60" s="17" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B60" s="18" t="inlineStr"/>
+      <c r="C60" s="17" t="inlineStr"/>
+      <c r="D60" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E60" s="11" t="inlineStr">
+      <c r="E60" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr"/>
-      <c r="G60" s="1" t="inlineStr"/>
-      <c r="H60" s="1" t="inlineStr"/>
-      <c r="I60" s="1" t="inlineStr"/>
-      <c r="J60" s="1" t="inlineStr"/>
-      <c r="K60" s="1" t="inlineStr"/>
-      <c r="L60" s="1" t="inlineStr"/>
+      <c r="F60" s="17" t="inlineStr"/>
+      <c r="G60" s="17" t="inlineStr"/>
+      <c r="H60" s="17" t="inlineStr"/>
+      <c r="I60" s="17" t="inlineStr"/>
+      <c r="J60" s="17" t="inlineStr"/>
+      <c r="K60" s="17" t="inlineStr"/>
+      <c r="L60" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr"/>
-      <c r="B61" s="2" t="inlineStr"/>
-      <c r="C61" s="6" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="inlineStr"/>
+      <c r="C61" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="D61" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E61" s="7" t="inlineStr">
+      <c r="E61" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr"/>
-      <c r="G61" s="1" t="inlineStr"/>
-      <c r="H61" s="9" t="inlineStr">
+      <c r="F61" s="9" t="inlineStr"/>
+      <c r="G61" s="9" t="inlineStr"/>
+      <c r="H61" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="I61" s="9" t="inlineStr">
         <is>
           <t>70699</t>
         </is>
       </c>
-      <c r="J61" s="8" t="inlineStr">
+      <c r="J61" s="14" t="inlineStr">
         <is>
           <t>3400</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr"/>
-      <c r="L61" s="1" t="inlineStr"/>
+      <c r="K61" s="9" t="inlineStr"/>
+      <c r="L61" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr"/>
-      <c r="B62" s="2" t="inlineStr"/>
-      <c r="C62" s="1" t="inlineStr"/>
-      <c r="D62" s="1" t="inlineStr"/>
-      <c r="E62" s="10" t="inlineStr">
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3400.00
+Borrower Amount: 3400.00</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="inlineStr"/>
+      <c r="D62" s="9" t="inlineStr"/>
+      <c r="E62" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr"/>
-      <c r="G62" s="1" t="inlineStr"/>
-      <c r="H62" s="1" t="inlineStr"/>
-      <c r="I62" s="1" t="inlineStr"/>
-      <c r="J62" s="1" t="inlineStr"/>
-      <c r="K62" s="1" t="inlineStr"/>
-      <c r="L62" s="1" t="inlineStr"/>
+      <c r="F62" s="9" t="inlineStr"/>
+      <c r="G62" s="9" t="inlineStr"/>
+      <c r="H62" s="9" t="inlineStr"/>
+      <c r="I62" s="9" t="inlineStr"/>
+      <c r="J62" s="9" t="inlineStr"/>
+      <c r="K62" s="9" t="inlineStr"/>
+      <c r="L62" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr"/>
-      <c r="B63" s="2" t="inlineStr"/>
-      <c r="C63" s="1" t="inlineStr"/>
-      <c r="D63" s="1" t="inlineStr">
+      <c r="A63" s="9" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="inlineStr"/>
+      <c r="C63" s="9" t="inlineStr"/>
+      <c r="D63" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E63" s="11" t="inlineStr">
+      <c r="E63" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F63" s="1" t="inlineStr"/>
-      <c r="G63" s="1" t="inlineStr"/>
-      <c r="H63" s="1" t="inlineStr"/>
-      <c r="I63" s="1" t="inlineStr"/>
-      <c r="J63" s="1" t="inlineStr"/>
-      <c r="K63" s="1" t="inlineStr"/>
-      <c r="L63" s="1" t="inlineStr"/>
+      <c r="F63" s="9" t="inlineStr"/>
+      <c r="G63" s="9" t="inlineStr"/>
+      <c r="H63" s="9" t="inlineStr"/>
+      <c r="I63" s="9" t="inlineStr"/>
+      <c r="J63" s="9" t="inlineStr"/>
+      <c r="K63" s="9" t="inlineStr"/>
+      <c r="L63" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr"/>
-      <c r="B64" s="2" t="inlineStr"/>
-      <c r="C64" s="6" t="inlineStr">
+      <c r="A64" s="17" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B64" s="18" t="inlineStr"/>
+      <c r="C64" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D64" s="1" t="inlineStr">
+      <c r="D64" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E64" s="7" t="inlineStr">
+      <c r="E64" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F64" s="1" t="inlineStr"/>
-      <c r="G64" s="1" t="inlineStr"/>
-      <c r="H64" s="9" t="inlineStr">
+      <c r="F64" s="17" t="inlineStr"/>
+      <c r="G64" s="17" t="inlineStr"/>
+      <c r="H64" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I64" s="1" t="inlineStr">
+      <c r="I64" s="17" t="inlineStr">
         <is>
           <t>70700</t>
         </is>
       </c>
-      <c r="J64" s="8" t="inlineStr">
+      <c r="J64" s="22" t="inlineStr">
         <is>
           <t>2250</t>
         </is>
       </c>
-      <c r="K64" s="1" t="inlineStr"/>
-      <c r="L64" s="1" t="inlineStr"/>
+      <c r="K64" s="17" t="inlineStr"/>
+      <c r="L64" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr"/>
-      <c r="B65" s="2" t="inlineStr"/>
-      <c r="C65" s="1" t="inlineStr"/>
-      <c r="D65" s="1" t="inlineStr"/>
-      <c r="E65" s="10" t="inlineStr">
+      <c r="A65" s="17" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B65" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 2250.00
+Borrower Amount: 2250.00</t>
+        </is>
+      </c>
+      <c r="C65" s="17" t="inlineStr"/>
+      <c r="D65" s="17" t="inlineStr"/>
+      <c r="E65" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F65" s="1" t="inlineStr"/>
-      <c r="G65" s="1" t="inlineStr"/>
-      <c r="H65" s="1" t="inlineStr"/>
-      <c r="I65" s="1" t="inlineStr"/>
-      <c r="J65" s="1" t="inlineStr"/>
-      <c r="K65" s="1" t="inlineStr"/>
-      <c r="L65" s="1" t="inlineStr"/>
+      <c r="F65" s="17" t="inlineStr"/>
+      <c r="G65" s="17" t="inlineStr"/>
+      <c r="H65" s="17" t="inlineStr"/>
+      <c r="I65" s="17" t="inlineStr"/>
+      <c r="J65" s="17" t="inlineStr"/>
+      <c r="K65" s="17" t="inlineStr"/>
+      <c r="L65" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr"/>
-      <c r="B66" s="2" t="inlineStr"/>
-      <c r="C66" s="1" t="inlineStr"/>
-      <c r="D66" s="1" t="inlineStr">
+      <c r="A66" s="17" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B66" s="18" t="inlineStr"/>
+      <c r="C66" s="17" t="inlineStr"/>
+      <c r="D66" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E66" s="11" t="inlineStr">
+      <c r="E66" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F66" s="1" t="inlineStr"/>
-      <c r="G66" s="1" t="inlineStr"/>
-      <c r="H66" s="1" t="inlineStr"/>
-      <c r="I66" s="1" t="inlineStr"/>
-      <c r="J66" s="1" t="inlineStr"/>
-      <c r="K66" s="1" t="inlineStr"/>
-      <c r="L66" s="1" t="inlineStr"/>
+      <c r="F66" s="17" t="inlineStr"/>
+      <c r="G66" s="17" t="inlineStr"/>
+      <c r="H66" s="17" t="inlineStr"/>
+      <c r="I66" s="17" t="inlineStr"/>
+      <c r="J66" s="17" t="inlineStr"/>
+      <c r="K66" s="17" t="inlineStr"/>
+      <c r="L66" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr"/>
-      <c r="B67" s="2" t="inlineStr"/>
-      <c r="C67" s="6" t="inlineStr">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="inlineStr"/>
+      <c r="C67" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D67" s="1" t="inlineStr">
+      <c r="D67" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E67" s="7" t="inlineStr">
+      <c r="E67" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F67" s="1" t="inlineStr"/>
-      <c r="G67" s="1" t="inlineStr"/>
-      <c r="H67" s="9" t="inlineStr">
+      <c r="F67" s="9" t="inlineStr"/>
+      <c r="G67" s="9" t="inlineStr"/>
+      <c r="H67" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I67" s="1" t="inlineStr">
+      <c r="I67" s="9" t="inlineStr">
         <is>
           <t>70701</t>
         </is>
       </c>
-      <c r="J67" s="8" t="inlineStr">
+      <c r="J67" s="14" t="inlineStr">
         <is>
           <t>4360</t>
         </is>
       </c>
-      <c r="K67" s="1" t="inlineStr"/>
-      <c r="L67" s="1" t="inlineStr"/>
+      <c r="K67" s="9" t="inlineStr"/>
+      <c r="L67" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr"/>
-      <c r="B68" s="2" t="inlineStr"/>
-      <c r="C68" s="1" t="inlineStr"/>
-      <c r="D68" s="1" t="inlineStr"/>
-      <c r="E68" s="10" t="inlineStr">
+      <c r="A68" s="9" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 4360.00
+Borrower Amount: 4360.00</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="inlineStr"/>
+      <c r="D68" s="9" t="inlineStr"/>
+      <c r="E68" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F68" s="1" t="inlineStr"/>
-      <c r="G68" s="1" t="inlineStr"/>
-      <c r="H68" s="1" t="inlineStr"/>
-      <c r="I68" s="1" t="inlineStr"/>
-      <c r="J68" s="1" t="inlineStr"/>
-      <c r="K68" s="1" t="inlineStr"/>
-      <c r="L68" s="1" t="inlineStr"/>
+      <c r="F68" s="9" t="inlineStr"/>
+      <c r="G68" s="9" t="inlineStr"/>
+      <c r="H68" s="9" t="inlineStr"/>
+      <c r="I68" s="9" t="inlineStr"/>
+      <c r="J68" s="9" t="inlineStr"/>
+      <c r="K68" s="9" t="inlineStr"/>
+      <c r="L68" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr"/>
-      <c r="B69" s="2" t="inlineStr"/>
-      <c r="C69" s="1" t="inlineStr"/>
-      <c r="D69" s="1" t="inlineStr">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="inlineStr"/>
+      <c r="C69" s="9" t="inlineStr"/>
+      <c r="D69" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E69" s="11" t="inlineStr">
+      <c r="E69" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F69" s="1" t="inlineStr"/>
-      <c r="G69" s="1" t="inlineStr"/>
-      <c r="H69" s="1" t="inlineStr"/>
-      <c r="I69" s="1" t="inlineStr"/>
-      <c r="J69" s="1" t="inlineStr"/>
-      <c r="K69" s="1" t="inlineStr"/>
-      <c r="L69" s="1" t="inlineStr"/>
+      <c r="F69" s="9" t="inlineStr"/>
+      <c r="G69" s="9" t="inlineStr"/>
+      <c r="H69" s="9" t="inlineStr"/>
+      <c r="I69" s="9" t="inlineStr"/>
+      <c r="J69" s="9" t="inlineStr"/>
+      <c r="K69" s="9" t="inlineStr"/>
+      <c r="L69" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr"/>
-      <c r="B70" s="2" t="inlineStr"/>
-      <c r="C70" s="6" t="inlineStr">
+      <c r="A70" s="17" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B70" s="18" t="inlineStr"/>
+      <c r="C70" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D70" s="1" t="inlineStr">
+      <c r="D70" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E70" s="7" t="inlineStr">
+      <c r="E70" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F70" s="1" t="inlineStr"/>
-      <c r="G70" s="1" t="inlineStr"/>
-      <c r="H70" s="9" t="inlineStr">
+      <c r="F70" s="17" t="inlineStr"/>
+      <c r="G70" s="17" t="inlineStr"/>
+      <c r="H70" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I70" s="1" t="inlineStr">
+      <c r="I70" s="17" t="inlineStr">
         <is>
           <t>70702</t>
         </is>
       </c>
-      <c r="J70" s="8" t="inlineStr">
+      <c r="J70" s="22" t="inlineStr">
         <is>
           <t>14940</t>
         </is>
       </c>
-      <c r="K70" s="1" t="inlineStr"/>
-      <c r="L70" s="1" t="inlineStr"/>
+      <c r="K70" s="17" t="inlineStr"/>
+      <c r="L70" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr"/>
-      <c r="B71" s="2" t="inlineStr"/>
-      <c r="C71" s="1" t="inlineStr"/>
-      <c r="D71" s="1" t="inlineStr"/>
-      <c r="E71" s="10" t="inlineStr">
+      <c r="A71" s="17" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B71" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 14940.00
+Borrower Amount: 14940.00</t>
+        </is>
+      </c>
+      <c r="C71" s="17" t="inlineStr"/>
+      <c r="D71" s="17" t="inlineStr"/>
+      <c r="E71" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F71" s="1" t="inlineStr"/>
-      <c r="G71" s="1" t="inlineStr"/>
-      <c r="H71" s="1" t="inlineStr"/>
-      <c r="I71" s="1" t="inlineStr"/>
-      <c r="J71" s="1" t="inlineStr"/>
-      <c r="K71" s="1" t="inlineStr"/>
-      <c r="L71" s="1" t="inlineStr"/>
+      <c r="F71" s="17" t="inlineStr"/>
+      <c r="G71" s="17" t="inlineStr"/>
+      <c r="H71" s="17" t="inlineStr"/>
+      <c r="I71" s="17" t="inlineStr"/>
+      <c r="J71" s="17" t="inlineStr"/>
+      <c r="K71" s="17" t="inlineStr"/>
+      <c r="L71" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr"/>
-      <c r="B72" s="2" t="inlineStr"/>
-      <c r="C72" s="1" t="inlineStr"/>
-      <c r="D72" s="1" t="inlineStr">
+      <c r="A72" s="17" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B72" s="18" t="inlineStr"/>
+      <c r="C72" s="17" t="inlineStr"/>
+      <c r="D72" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E72" s="11" t="inlineStr">
+      <c r="E72" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F72" s="1" t="inlineStr"/>
-      <c r="G72" s="1" t="inlineStr"/>
-      <c r="H72" s="1" t="inlineStr"/>
-      <c r="I72" s="1" t="inlineStr"/>
-      <c r="J72" s="1" t="inlineStr"/>
-      <c r="K72" s="1" t="inlineStr"/>
-      <c r="L72" s="1" t="inlineStr"/>
+      <c r="F72" s="17" t="inlineStr"/>
+      <c r="G72" s="17" t="inlineStr"/>
+      <c r="H72" s="17" t="inlineStr"/>
+      <c r="I72" s="17" t="inlineStr"/>
+      <c r="J72" s="17" t="inlineStr"/>
+      <c r="K72" s="17" t="inlineStr"/>
+      <c r="L72" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr"/>
-      <c r="B73" s="2" t="inlineStr"/>
-      <c r="C73" s="6" t="inlineStr">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="inlineStr"/>
+      <c r="C73" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D73" s="1" t="inlineStr">
+      <c r="D73" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E73" s="7" t="inlineStr">
+      <c r="E73" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F73" s="1" t="inlineStr"/>
-      <c r="G73" s="1" t="inlineStr"/>
-      <c r="H73" s="9" t="inlineStr">
+      <c r="F73" s="9" t="inlineStr"/>
+      <c r="G73" s="9" t="inlineStr"/>
+      <c r="H73" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I73" s="1" t="inlineStr">
+      <c r="I73" s="9" t="inlineStr">
         <is>
           <t>70703</t>
         </is>
       </c>
-      <c r="J73" s="8" t="inlineStr">
+      <c r="J73" s="14" t="inlineStr">
         <is>
           <t>3027.5</t>
         </is>
       </c>
-      <c r="K73" s="1" t="inlineStr"/>
-      <c r="L73" s="1" t="inlineStr"/>
+      <c r="K73" s="9" t="inlineStr"/>
+      <c r="L73" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr"/>
-      <c r="B74" s="2" t="inlineStr"/>
-      <c r="C74" s="1" t="inlineStr"/>
-      <c r="D74" s="1" t="inlineStr"/>
-      <c r="E74" s="10" t="inlineStr">
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B74" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3027.50
+Borrower Amount: 3027.50</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="inlineStr"/>
+      <c r="D74" s="9" t="inlineStr"/>
+      <c r="E74" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Islam Electric Co.)</t>
         </is>
       </c>
-      <c r="F74" s="1" t="inlineStr"/>
-      <c r="G74" s="1" t="inlineStr"/>
-      <c r="H74" s="1" t="inlineStr"/>
-      <c r="I74" s="1" t="inlineStr"/>
-      <c r="J74" s="1" t="inlineStr"/>
-      <c r="K74" s="1" t="inlineStr"/>
-      <c r="L74" s="1" t="inlineStr"/>
+      <c r="F74" s="9" t="inlineStr"/>
+      <c r="G74" s="9" t="inlineStr"/>
+      <c r="H74" s="9" t="inlineStr"/>
+      <c r="I74" s="9" t="inlineStr"/>
+      <c r="J74" s="9" t="inlineStr"/>
+      <c r="K74" s="9" t="inlineStr"/>
+      <c r="L74" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr"/>
-      <c r="B75" s="2" t="inlineStr"/>
-      <c r="C75" s="1" t="inlineStr"/>
-      <c r="D75" s="1" t="inlineStr">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B75" s="10" t="inlineStr"/>
+      <c r="C75" s="9" t="inlineStr"/>
+      <c r="D75" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E75" s="11" t="inlineStr">
+      <c r="E75" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F75" s="1" t="inlineStr"/>
-      <c r="G75" s="1" t="inlineStr"/>
-      <c r="H75" s="1" t="inlineStr"/>
-      <c r="I75" s="1" t="inlineStr"/>
-      <c r="J75" s="1" t="inlineStr"/>
-      <c r="K75" s="1" t="inlineStr"/>
-      <c r="L75" s="1" t="inlineStr"/>
+      <c r="F75" s="9" t="inlineStr"/>
+      <c r="G75" s="9" t="inlineStr"/>
+      <c r="H75" s="9" t="inlineStr"/>
+      <c r="I75" s="9" t="inlineStr"/>
+      <c r="J75" s="9" t="inlineStr"/>
+      <c r="K75" s="9" t="inlineStr"/>
+      <c r="L75" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr"/>
-      <c r="B76" s="2" t="inlineStr"/>
-      <c r="C76" s="6" t="inlineStr">
+      <c r="A76" s="17" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B76" s="18" t="inlineStr"/>
+      <c r="C76" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D76" s="1" t="inlineStr">
+      <c r="D76" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E76" s="7" t="inlineStr">
+      <c r="E76" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F76" s="1" t="inlineStr"/>
-      <c r="G76" s="1" t="inlineStr"/>
-      <c r="H76" s="9" t="inlineStr">
+      <c r="F76" s="17" t="inlineStr"/>
+      <c r="G76" s="17" t="inlineStr"/>
+      <c r="H76" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I76" s="1" t="inlineStr">
+      <c r="I76" s="17" t="inlineStr">
         <is>
           <t>70704</t>
         </is>
       </c>
-      <c r="J76" s="8" t="inlineStr">
+      <c r="J76" s="22" t="inlineStr">
         <is>
           <t>91900</t>
         </is>
       </c>
-      <c r="K76" s="1" t="inlineStr"/>
-      <c r="L76" s="1" t="inlineStr"/>
+      <c r="K76" s="17" t="inlineStr"/>
+      <c r="L76" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr"/>
-      <c r="B77" s="2" t="inlineStr"/>
-      <c r="C77" s="1" t="inlineStr"/>
-      <c r="D77" s="1" t="inlineStr"/>
-      <c r="E77" s="10" t="inlineStr">
+      <c r="A77" s="17" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B77" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 91900.00
+Borrower Amount: 91900.00</t>
+        </is>
+      </c>
+      <c r="C77" s="17" t="inlineStr"/>
+      <c r="D77" s="17" t="inlineStr"/>
+      <c r="E77" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Islam Electric Co.)</t>
         </is>
       </c>
-      <c r="F77" s="1" t="inlineStr"/>
-      <c r="G77" s="1" t="inlineStr"/>
-      <c r="H77" s="1" t="inlineStr"/>
-      <c r="I77" s="1" t="inlineStr"/>
-      <c r="J77" s="1" t="inlineStr"/>
-      <c r="K77" s="1" t="inlineStr"/>
-      <c r="L77" s="1" t="inlineStr"/>
+      <c r="F77" s="17" t="inlineStr"/>
+      <c r="G77" s="17" t="inlineStr"/>
+      <c r="H77" s="17" t="inlineStr"/>
+      <c r="I77" s="17" t="inlineStr"/>
+      <c r="J77" s="17" t="inlineStr"/>
+      <c r="K77" s="17" t="inlineStr"/>
+      <c r="L77" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr"/>
-      <c r="B78" s="2" t="inlineStr"/>
-      <c r="C78" s="1" t="inlineStr"/>
-      <c r="D78" s="1" t="inlineStr">
+      <c r="A78" s="17" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B78" s="18" t="inlineStr"/>
+      <c r="C78" s="17" t="inlineStr"/>
+      <c r="D78" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E78" s="11" t="inlineStr">
+      <c r="E78" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F78" s="1" t="inlineStr"/>
-      <c r="G78" s="1" t="inlineStr"/>
-      <c r="H78" s="1" t="inlineStr"/>
-      <c r="I78" s="1" t="inlineStr"/>
-      <c r="J78" s="1" t="inlineStr"/>
-      <c r="K78" s="1" t="inlineStr"/>
-      <c r="L78" s="1" t="inlineStr"/>
+      <c r="F78" s="17" t="inlineStr"/>
+      <c r="G78" s="17" t="inlineStr"/>
+      <c r="H78" s="17" t="inlineStr"/>
+      <c r="I78" s="17" t="inlineStr"/>
+      <c r="J78" s="17" t="inlineStr"/>
+      <c r="K78" s="17" t="inlineStr"/>
+      <c r="L78" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr"/>
-      <c r="B79" s="2" t="inlineStr"/>
-      <c r="C79" s="6" t="inlineStr">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="inlineStr"/>
+      <c r="C79" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D79" s="1" t="inlineStr">
+      <c r="D79" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E79" s="7" t="inlineStr">
+      <c r="E79" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F79" s="1" t="inlineStr"/>
-      <c r="G79" s="1" t="inlineStr"/>
-      <c r="H79" s="9" t="inlineStr">
+      <c r="F79" s="9" t="inlineStr"/>
+      <c r="G79" s="9" t="inlineStr"/>
+      <c r="H79" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I79" s="1" t="inlineStr">
+      <c r="I79" s="9" t="inlineStr">
         <is>
           <t>70705</t>
         </is>
       </c>
-      <c r="J79" s="8" t="inlineStr">
+      <c r="J79" s="14" t="inlineStr">
         <is>
           <t>31050</t>
         </is>
       </c>
-      <c r="K79" s="1" t="inlineStr"/>
-      <c r="L79" s="1" t="inlineStr"/>
+      <c r="K79" s="9" t="inlineStr"/>
+      <c r="L79" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr"/>
-      <c r="B80" s="2" t="inlineStr"/>
-      <c r="C80" s="1" t="inlineStr"/>
-      <c r="D80" s="1" t="inlineStr"/>
-      <c r="E80" s="10" t="inlineStr">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 31050.00
+Borrower Amount: 31050.00</t>
+        </is>
+      </c>
+      <c r="C80" s="9" t="inlineStr"/>
+      <c r="D80" s="9" t="inlineStr"/>
+      <c r="E80" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Jononi Enterprise)</t>
         </is>
       </c>
-      <c r="F80" s="1" t="inlineStr"/>
-      <c r="G80" s="1" t="inlineStr"/>
-      <c r="H80" s="1" t="inlineStr"/>
-      <c r="I80" s="1" t="inlineStr"/>
-      <c r="J80" s="1" t="inlineStr"/>
-      <c r="K80" s="1" t="inlineStr"/>
-      <c r="L80" s="1" t="inlineStr"/>
+      <c r="F80" s="9" t="inlineStr"/>
+      <c r="G80" s="9" t="inlineStr"/>
+      <c r="H80" s="9" t="inlineStr"/>
+      <c r="I80" s="9" t="inlineStr"/>
+      <c r="J80" s="9" t="inlineStr"/>
+      <c r="K80" s="9" t="inlineStr"/>
+      <c r="L80" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr"/>
-      <c r="B81" s="2" t="inlineStr"/>
-      <c r="C81" s="1" t="inlineStr"/>
-      <c r="D81" s="1" t="inlineStr">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>M044</t>
+        </is>
+      </c>
+      <c r="B81" s="10" t="inlineStr"/>
+      <c r="C81" s="9" t="inlineStr"/>
+      <c r="D81" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E81" s="11" t="inlineStr">
+      <c r="E81" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F81" s="1" t="inlineStr"/>
-      <c r="G81" s="1" t="inlineStr"/>
-      <c r="H81" s="1" t="inlineStr"/>
-      <c r="I81" s="1" t="inlineStr"/>
-      <c r="J81" s="1" t="inlineStr"/>
-      <c r="K81" s="1" t="inlineStr"/>
-      <c r="L81" s="1" t="inlineStr"/>
+      <c r="F81" s="9" t="inlineStr"/>
+      <c r="G81" s="9" t="inlineStr"/>
+      <c r="H81" s="9" t="inlineStr"/>
+      <c r="I81" s="9" t="inlineStr"/>
+      <c r="J81" s="9" t="inlineStr"/>
+      <c r="K81" s="9" t="inlineStr"/>
+      <c r="L81" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr"/>
-      <c r="B82" s="2" t="inlineStr"/>
-      <c r="C82" s="6" t="inlineStr">
+      <c r="A82" s="17" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B82" s="18" t="inlineStr"/>
+      <c r="C82" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D82" s="1" t="inlineStr">
+      <c r="D82" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E82" s="7" t="inlineStr">
+      <c r="E82" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F82" s="1" t="inlineStr"/>
-      <c r="G82" s="1" t="inlineStr"/>
-      <c r="H82" s="9" t="inlineStr">
+      <c r="F82" s="17" t="inlineStr"/>
+      <c r="G82" s="17" t="inlineStr"/>
+      <c r="H82" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I82" s="1" t="inlineStr">
+      <c r="I82" s="17" t="inlineStr">
         <is>
           <t>70706</t>
         </is>
       </c>
-      <c r="J82" s="8" t="inlineStr">
+      <c r="J82" s="22" t="inlineStr">
         <is>
           <t>20000</t>
         </is>
       </c>
-      <c r="K82" s="1" t="inlineStr"/>
-      <c r="L82" s="1" t="inlineStr"/>
+      <c r="K82" s="17" t="inlineStr"/>
+      <c r="L82" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr"/>
-      <c r="B83" s="2" t="inlineStr"/>
-      <c r="C83" s="1" t="inlineStr"/>
-      <c r="D83" s="1" t="inlineStr"/>
-      <c r="E83" s="10" t="inlineStr">
+      <c r="A83" s="17" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B83" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 20000.00
+Borrower Amount: 20000.00</t>
+        </is>
+      </c>
+      <c r="C83" s="17" t="inlineStr"/>
+      <c r="D83" s="17" t="inlineStr"/>
+      <c r="E83" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(JRS Corporation)</t>
         </is>
       </c>
-      <c r="F83" s="1" t="inlineStr"/>
-      <c r="G83" s="1" t="inlineStr"/>
-      <c r="H83" s="1" t="inlineStr"/>
-      <c r="I83" s="1" t="inlineStr"/>
-      <c r="J83" s="1" t="inlineStr"/>
-      <c r="K83" s="1" t="inlineStr"/>
-      <c r="L83" s="1" t="inlineStr"/>
+      <c r="F83" s="17" t="inlineStr"/>
+      <c r="G83" s="17" t="inlineStr"/>
+      <c r="H83" s="17" t="inlineStr"/>
+      <c r="I83" s="17" t="inlineStr"/>
+      <c r="J83" s="17" t="inlineStr"/>
+      <c r="K83" s="17" t="inlineStr"/>
+      <c r="L83" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr"/>
-      <c r="B84" s="2" t="inlineStr"/>
-      <c r="C84" s="1" t="inlineStr"/>
-      <c r="D84" s="1" t="inlineStr">
+      <c r="A84" s="17" t="inlineStr">
+        <is>
+          <t>M045</t>
+        </is>
+      </c>
+      <c r="B84" s="18" t="inlineStr"/>
+      <c r="C84" s="17" t="inlineStr"/>
+      <c r="D84" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E84" s="11" t="inlineStr">
+      <c r="E84" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F84" s="1" t="inlineStr"/>
-      <c r="G84" s="1" t="inlineStr"/>
-      <c r="H84" s="1" t="inlineStr"/>
-      <c r="I84" s="1" t="inlineStr"/>
-      <c r="J84" s="1" t="inlineStr"/>
-      <c r="K84" s="1" t="inlineStr"/>
-      <c r="L84" s="1" t="inlineStr"/>
+      <c r="F84" s="17" t="inlineStr"/>
+      <c r="G84" s="17" t="inlineStr"/>
+      <c r="H84" s="17" t="inlineStr"/>
+      <c r="I84" s="17" t="inlineStr"/>
+      <c r="J84" s="17" t="inlineStr"/>
+      <c r="K84" s="17" t="inlineStr"/>
+      <c r="L84" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr"/>
-      <c r="B85" s="2" t="inlineStr"/>
-      <c r="C85" s="6" t="inlineStr">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="inlineStr"/>
+      <c r="C85" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D85" s="1" t="inlineStr">
+      <c r="D85" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E85" s="7" t="inlineStr">
+      <c r="E85" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F85" s="1" t="inlineStr"/>
-      <c r="G85" s="1" t="inlineStr"/>
-      <c r="H85" s="9" t="inlineStr">
+      <c r="F85" s="9" t="inlineStr"/>
+      <c r="G85" s="9" t="inlineStr"/>
+      <c r="H85" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I85" s="1" t="inlineStr">
+      <c r="I85" s="9" t="inlineStr">
         <is>
           <t>70707</t>
         </is>
       </c>
-      <c r="J85" s="8" t="inlineStr">
+      <c r="J85" s="14" t="inlineStr">
         <is>
           <t>55440</t>
         </is>
       </c>
-      <c r="K85" s="1" t="inlineStr"/>
-      <c r="L85" s="1" t="inlineStr"/>
+      <c r="K85" s="9" t="inlineStr"/>
+      <c r="L85" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr"/>
-      <c r="B86" s="2" t="inlineStr"/>
-      <c r="C86" s="1" t="inlineStr"/>
-      <c r="D86" s="1" t="inlineStr"/>
-      <c r="E86" s="10" t="inlineStr">
+      <c r="A86" s="9" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 55440.00
+Borrower Amount: 55440.00</t>
+        </is>
+      </c>
+      <c r="C86" s="9" t="inlineStr"/>
+      <c r="D86" s="9" t="inlineStr"/>
+      <c r="E86" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(JRS Corporation)</t>
         </is>
       </c>
-      <c r="F86" s="1" t="inlineStr"/>
-      <c r="G86" s="1" t="inlineStr"/>
-      <c r="H86" s="1" t="inlineStr"/>
-      <c r="I86" s="1" t="inlineStr"/>
-      <c r="J86" s="1" t="inlineStr"/>
-      <c r="K86" s="1" t="inlineStr"/>
-      <c r="L86" s="1" t="inlineStr"/>
+      <c r="F86" s="9" t="inlineStr"/>
+      <c r="G86" s="9" t="inlineStr"/>
+      <c r="H86" s="9" t="inlineStr"/>
+      <c r="I86" s="9" t="inlineStr"/>
+      <c r="J86" s="9" t="inlineStr"/>
+      <c r="K86" s="9" t="inlineStr"/>
+      <c r="L86" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr"/>
-      <c r="B87" s="2" t="inlineStr"/>
-      <c r="C87" s="1" t="inlineStr"/>
-      <c r="D87" s="1" t="inlineStr">
+      <c r="A87" s="9" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B87" s="10" t="inlineStr"/>
+      <c r="C87" s="9" t="inlineStr"/>
+      <c r="D87" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E87" s="11" t="inlineStr">
+      <c r="E87" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F87" s="1" t="inlineStr"/>
-      <c r="G87" s="1" t="inlineStr"/>
-      <c r="H87" s="1" t="inlineStr"/>
-      <c r="I87" s="1" t="inlineStr"/>
-      <c r="J87" s="1" t="inlineStr"/>
-      <c r="K87" s="1" t="inlineStr"/>
-      <c r="L87" s="1" t="inlineStr"/>
+      <c r="F87" s="9" t="inlineStr"/>
+      <c r="G87" s="9" t="inlineStr"/>
+      <c r="H87" s="9" t="inlineStr"/>
+      <c r="I87" s="9" t="inlineStr"/>
+      <c r="J87" s="9" t="inlineStr"/>
+      <c r="K87" s="9" t="inlineStr"/>
+      <c r="L87" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr"/>
-      <c r="B88" s="2" t="inlineStr"/>
-      <c r="C88" s="6" t="inlineStr">
+      <c r="A88" s="17" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B88" s="18" t="inlineStr"/>
+      <c r="C88" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D88" s="1" t="inlineStr">
+      <c r="D88" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E88" s="7" t="inlineStr">
+      <c r="E88" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F88" s="1" t="inlineStr"/>
-      <c r="G88" s="1" t="inlineStr"/>
-      <c r="H88" s="9" t="inlineStr">
+      <c r="F88" s="17" t="inlineStr"/>
+      <c r="G88" s="17" t="inlineStr"/>
+      <c r="H88" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I88" s="1" t="inlineStr">
+      <c r="I88" s="17" t="inlineStr">
         <is>
           <t>70708</t>
         </is>
       </c>
-      <c r="J88" s="8" t="inlineStr">
+      <c r="J88" s="22" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
       </c>
-      <c r="K88" s="1" t="inlineStr"/>
-      <c r="L88" s="1" t="inlineStr"/>
+      <c r="K88" s="17" t="inlineStr"/>
+      <c r="L88" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr"/>
-      <c r="B89" s="2" t="inlineStr"/>
-      <c r="C89" s="1" t="inlineStr"/>
-      <c r="D89" s="1" t="inlineStr"/>
-      <c r="E89" s="10" t="inlineStr">
+      <c r="A89" s="17" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B89" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 4500.00
+Borrower Amount: 4500.00</t>
+        </is>
+      </c>
+      <c r="C89" s="17" t="inlineStr"/>
+      <c r="D89" s="17" t="inlineStr"/>
+      <c r="E89" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S Hafsa Enterprise)</t>
         </is>
       </c>
-      <c r="F89" s="1" t="inlineStr"/>
-      <c r="G89" s="1" t="inlineStr"/>
-      <c r="H89" s="1" t="inlineStr"/>
-      <c r="I89" s="1" t="inlineStr"/>
-      <c r="J89" s="1" t="inlineStr"/>
-      <c r="K89" s="1" t="inlineStr"/>
-      <c r="L89" s="1" t="inlineStr"/>
+      <c r="F89" s="17" t="inlineStr"/>
+      <c r="G89" s="17" t="inlineStr"/>
+      <c r="H89" s="17" t="inlineStr"/>
+      <c r="I89" s="17" t="inlineStr"/>
+      <c r="J89" s="17" t="inlineStr"/>
+      <c r="K89" s="17" t="inlineStr"/>
+      <c r="L89" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr"/>
-      <c r="B90" s="2" t="inlineStr"/>
-      <c r="C90" s="1" t="inlineStr"/>
-      <c r="D90" s="1" t="inlineStr">
+      <c r="A90" s="17" t="inlineStr">
+        <is>
+          <t>M047</t>
+        </is>
+      </c>
+      <c r="B90" s="18" t="inlineStr"/>
+      <c r="C90" s="17" t="inlineStr"/>
+      <c r="D90" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E90" s="11" t="inlineStr">
+      <c r="E90" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F90" s="1" t="inlineStr"/>
-      <c r="G90" s="1" t="inlineStr"/>
-      <c r="H90" s="1" t="inlineStr"/>
-      <c r="I90" s="1" t="inlineStr"/>
-      <c r="J90" s="1" t="inlineStr"/>
-      <c r="K90" s="1" t="inlineStr"/>
-      <c r="L90" s="1" t="inlineStr"/>
+      <c r="F90" s="17" t="inlineStr"/>
+      <c r="G90" s="17" t="inlineStr"/>
+      <c r="H90" s="17" t="inlineStr"/>
+      <c r="I90" s="17" t="inlineStr"/>
+      <c r="J90" s="17" t="inlineStr"/>
+      <c r="K90" s="17" t="inlineStr"/>
+      <c r="L90" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr"/>
-      <c r="B91" s="2" t="inlineStr"/>
-      <c r="C91" s="6" t="inlineStr">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B91" s="10" t="inlineStr"/>
+      <c r="C91" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D91" s="1" t="inlineStr">
+      <c r="D91" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E91" s="7" t="inlineStr">
+      <c r="E91" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F91" s="1" t="inlineStr"/>
-      <c r="G91" s="1" t="inlineStr"/>
-      <c r="H91" s="9" t="inlineStr">
+      <c r="F91" s="9" t="inlineStr"/>
+      <c r="G91" s="9" t="inlineStr"/>
+      <c r="H91" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I91" s="1" t="inlineStr">
+      <c r="I91" s="9" t="inlineStr">
         <is>
           <t>70709</t>
         </is>
       </c>
-      <c r="J91" s="8" t="inlineStr">
+      <c r="J91" s="14" t="inlineStr">
         <is>
           <t>140000</t>
         </is>
       </c>
-      <c r="K91" s="1" t="inlineStr"/>
-      <c r="L91" s="1" t="inlineStr"/>
+      <c r="K91" s="9" t="inlineStr"/>
+      <c r="L91" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr"/>
-      <c r="B92" s="2" t="inlineStr"/>
-      <c r="C92" s="1" t="inlineStr"/>
-      <c r="D92" s="1" t="inlineStr"/>
-      <c r="E92" s="10" t="inlineStr">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B92" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 140000.00
+Borrower Amount: 140000.00</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr"/>
+      <c r="D92" s="9" t="inlineStr"/>
+      <c r="E92" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Ishaque Electric)</t>
         </is>
       </c>
-      <c r="F92" s="1" t="inlineStr"/>
-      <c r="G92" s="1" t="inlineStr"/>
-      <c r="H92" s="1" t="inlineStr"/>
-      <c r="I92" s="1" t="inlineStr"/>
-      <c r="J92" s="1" t="inlineStr"/>
-      <c r="K92" s="1" t="inlineStr"/>
-      <c r="L92" s="1" t="inlineStr"/>
+      <c r="F92" s="9" t="inlineStr"/>
+      <c r="G92" s="9" t="inlineStr"/>
+      <c r="H92" s="9" t="inlineStr"/>
+      <c r="I92" s="9" t="inlineStr"/>
+      <c r="J92" s="9" t="inlineStr"/>
+      <c r="K92" s="9" t="inlineStr"/>
+      <c r="L92" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr"/>
-      <c r="B93" s="2" t="inlineStr"/>
-      <c r="C93" s="1" t="inlineStr"/>
-      <c r="D93" s="1" t="inlineStr">
+      <c r="A93" s="9" t="inlineStr">
+        <is>
+          <t>M048</t>
+        </is>
+      </c>
+      <c r="B93" s="10" t="inlineStr"/>
+      <c r="C93" s="9" t="inlineStr"/>
+      <c r="D93" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E93" s="11" t="inlineStr">
+      <c r="E93" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F93" s="1" t="inlineStr"/>
-      <c r="G93" s="1" t="inlineStr"/>
-      <c r="H93" s="1" t="inlineStr"/>
-      <c r="I93" s="1" t="inlineStr"/>
-      <c r="J93" s="1" t="inlineStr"/>
-      <c r="K93" s="1" t="inlineStr"/>
-      <c r="L93" s="1" t="inlineStr"/>
+      <c r="F93" s="9" t="inlineStr"/>
+      <c r="G93" s="9" t="inlineStr"/>
+      <c r="H93" s="9" t="inlineStr"/>
+      <c r="I93" s="9" t="inlineStr"/>
+      <c r="J93" s="9" t="inlineStr"/>
+      <c r="K93" s="9" t="inlineStr"/>
+      <c r="L93" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr"/>
-      <c r="B94" s="2" t="inlineStr"/>
-      <c r="C94" s="6" t="inlineStr">
+      <c r="A94" s="17" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B94" s="18" t="inlineStr"/>
+      <c r="C94" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D94" s="1" t="inlineStr">
+      <c r="D94" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E94" s="7" t="inlineStr">
+      <c r="E94" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F94" s="1" t="inlineStr"/>
-      <c r="G94" s="1" t="inlineStr"/>
-      <c r="H94" s="9" t="inlineStr">
+      <c r="F94" s="17" t="inlineStr"/>
+      <c r="G94" s="17" t="inlineStr"/>
+      <c r="H94" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I94" s="1" t="inlineStr">
+      <c r="I94" s="17" t="inlineStr">
         <is>
           <t>70710</t>
         </is>
       </c>
-      <c r="J94" s="8" t="inlineStr">
+      <c r="J94" s="22" t="inlineStr">
         <is>
           <t>38240</t>
         </is>
       </c>
-      <c r="K94" s="1" t="inlineStr"/>
-      <c r="L94" s="1" t="inlineStr"/>
+      <c r="K94" s="17" t="inlineStr"/>
+      <c r="L94" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr"/>
-      <c r="B95" s="2" t="inlineStr"/>
-      <c r="C95" s="1" t="inlineStr"/>
-      <c r="D95" s="1" t="inlineStr"/>
-      <c r="E95" s="10" t="inlineStr">
+      <c r="A95" s="17" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B95" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 38240.00
+Borrower Amount: 38240.00</t>
+        </is>
+      </c>
+      <c r="C95" s="17" t="inlineStr"/>
+      <c r="D95" s="17" t="inlineStr"/>
+      <c r="E95" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Ishaque Electric)</t>
         </is>
       </c>
-      <c r="F95" s="1" t="inlineStr"/>
-      <c r="G95" s="1" t="inlineStr"/>
-      <c r="H95" s="1" t="inlineStr"/>
-      <c r="I95" s="1" t="inlineStr"/>
-      <c r="J95" s="1" t="inlineStr"/>
-      <c r="K95" s="1" t="inlineStr"/>
-      <c r="L95" s="1" t="inlineStr"/>
+      <c r="F95" s="17" t="inlineStr"/>
+      <c r="G95" s="17" t="inlineStr"/>
+      <c r="H95" s="17" t="inlineStr"/>
+      <c r="I95" s="17" t="inlineStr"/>
+      <c r="J95" s="17" t="inlineStr"/>
+      <c r="K95" s="17" t="inlineStr"/>
+      <c r="L95" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr"/>
-      <c r="B96" s="2" t="inlineStr"/>
-      <c r="C96" s="1" t="inlineStr"/>
-      <c r="D96" s="1" t="inlineStr">
+      <c r="A96" s="17" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B96" s="18" t="inlineStr"/>
+      <c r="C96" s="17" t="inlineStr"/>
+      <c r="D96" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E96" s="11" t="inlineStr">
+      <c r="E96" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F96" s="1" t="inlineStr"/>
-      <c r="G96" s="1" t="inlineStr"/>
-      <c r="H96" s="1" t="inlineStr"/>
-      <c r="I96" s="1" t="inlineStr"/>
-      <c r="J96" s="1" t="inlineStr"/>
-      <c r="K96" s="1" t="inlineStr"/>
-      <c r="L96" s="1" t="inlineStr"/>
+      <c r="F96" s="17" t="inlineStr"/>
+      <c r="G96" s="17" t="inlineStr"/>
+      <c r="H96" s="17" t="inlineStr"/>
+      <c r="I96" s="17" t="inlineStr"/>
+      <c r="J96" s="17" t="inlineStr"/>
+      <c r="K96" s="17" t="inlineStr"/>
+      <c r="L96" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr"/>
-      <c r="B97" s="2" t="inlineStr"/>
-      <c r="C97" s="6" t="inlineStr">
+      <c r="A97" s="9" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B97" s="10" t="inlineStr"/>
+      <c r="C97" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D97" s="1" t="inlineStr">
+      <c r="D97" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E97" s="7" t="inlineStr">
+      <c r="E97" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F97" s="1" t="inlineStr"/>
-      <c r="G97" s="1" t="inlineStr"/>
-      <c r="H97" s="9" t="inlineStr">
+      <c r="F97" s="9" t="inlineStr"/>
+      <c r="G97" s="9" t="inlineStr"/>
+      <c r="H97" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I97" s="1" t="inlineStr">
+      <c r="I97" s="9" t="inlineStr">
         <is>
           <t>70711</t>
         </is>
       </c>
-      <c r="J97" s="8" t="inlineStr">
+      <c r="J97" s="14" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K97" s="1" t="inlineStr"/>
-      <c r="L97" s="1" t="inlineStr"/>
+      <c r="K97" s="9" t="inlineStr"/>
+      <c r="L97" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr"/>
-      <c r="B98" s="2" t="inlineStr"/>
-      <c r="C98" s="1" t="inlineStr"/>
-      <c r="D98" s="1" t="inlineStr"/>
-      <c r="E98" s="10" t="inlineStr">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B98" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr"/>
+      <c r="D98" s="9" t="inlineStr"/>
+      <c r="E98" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Salam &amp; Brothers)</t>
         </is>
       </c>
-      <c r="F98" s="1" t="inlineStr"/>
-      <c r="G98" s="1" t="inlineStr"/>
-      <c r="H98" s="1" t="inlineStr"/>
-      <c r="I98" s="1" t="inlineStr"/>
-      <c r="J98" s="1" t="inlineStr"/>
-      <c r="K98" s="1" t="inlineStr"/>
-      <c r="L98" s="1" t="inlineStr"/>
+      <c r="F98" s="9" t="inlineStr"/>
+      <c r="G98" s="9" t="inlineStr"/>
+      <c r="H98" s="9" t="inlineStr"/>
+      <c r="I98" s="9" t="inlineStr"/>
+      <c r="J98" s="9" t="inlineStr"/>
+      <c r="K98" s="9" t="inlineStr"/>
+      <c r="L98" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr"/>
-      <c r="B99" s="2" t="inlineStr"/>
-      <c r="C99" s="1" t="inlineStr"/>
-      <c r="D99" s="1" t="inlineStr">
+      <c r="A99" s="9" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B99" s="10" t="inlineStr"/>
+      <c r="C99" s="9" t="inlineStr"/>
+      <c r="D99" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E99" s="11" t="inlineStr">
+      <c r="E99" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F99" s="1" t="inlineStr"/>
-      <c r="G99" s="1" t="inlineStr"/>
-      <c r="H99" s="1" t="inlineStr"/>
-      <c r="I99" s="1" t="inlineStr"/>
-      <c r="J99" s="1" t="inlineStr"/>
-      <c r="K99" s="1" t="inlineStr"/>
-      <c r="L99" s="1" t="inlineStr"/>
+      <c r="F99" s="9" t="inlineStr"/>
+      <c r="G99" s="9" t="inlineStr"/>
+      <c r="H99" s="9" t="inlineStr"/>
+      <c r="I99" s="9" t="inlineStr"/>
+      <c r="J99" s="9" t="inlineStr"/>
+      <c r="K99" s="9" t="inlineStr"/>
+      <c r="L99" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr"/>
-      <c r="B100" s="2" t="inlineStr"/>
-      <c r="C100" s="6" t="inlineStr">
+      <c r="A100" s="17" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B100" s="18" t="inlineStr"/>
+      <c r="C100" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D100" s="1" t="inlineStr">
+      <c r="D100" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E100" s="7" t="inlineStr">
+      <c r="E100" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F100" s="1" t="inlineStr"/>
-      <c r="G100" s="1" t="inlineStr"/>
-      <c r="H100" s="9" t="inlineStr">
+      <c r="F100" s="17" t="inlineStr"/>
+      <c r="G100" s="17" t="inlineStr"/>
+      <c r="H100" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I100" s="1" t="inlineStr">
+      <c r="I100" s="17" t="inlineStr">
         <is>
           <t>70712</t>
         </is>
       </c>
-      <c r="J100" s="8" t="inlineStr">
+      <c r="J100" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K100" s="1" t="inlineStr"/>
-      <c r="L100" s="1" t="inlineStr"/>
+      <c r="K100" s="17" t="inlineStr"/>
+      <c r="L100" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr"/>
-      <c r="B101" s="2" t="inlineStr"/>
-      <c r="C101" s="1" t="inlineStr"/>
-      <c r="D101" s="1" t="inlineStr"/>
-      <c r="E101" s="10" t="inlineStr">
+      <c r="A101" s="17" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B101" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C101" s="17" t="inlineStr"/>
+      <c r="D101" s="17" t="inlineStr"/>
+      <c r="E101" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S United Traders)</t>
         </is>
       </c>
-      <c r="F101" s="1" t="inlineStr"/>
-      <c r="G101" s="1" t="inlineStr"/>
-      <c r="H101" s="1" t="inlineStr"/>
-      <c r="I101" s="1" t="inlineStr"/>
-      <c r="J101" s="1" t="inlineStr"/>
-      <c r="K101" s="1" t="inlineStr"/>
-      <c r="L101" s="1" t="inlineStr"/>
+      <c r="F101" s="17" t="inlineStr"/>
+      <c r="G101" s="17" t="inlineStr"/>
+      <c r="H101" s="17" t="inlineStr"/>
+      <c r="I101" s="17" t="inlineStr"/>
+      <c r="J101" s="17" t="inlineStr"/>
+      <c r="K101" s="17" t="inlineStr"/>
+      <c r="L101" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr"/>
-      <c r="B102" s="2" t="inlineStr"/>
-      <c r="C102" s="1" t="inlineStr"/>
-      <c r="D102" s="1" t="inlineStr">
+      <c r="A102" s="17" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B102" s="18" t="inlineStr"/>
+      <c r="C102" s="17" t="inlineStr"/>
+      <c r="D102" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E102" s="11" t="inlineStr">
+      <c r="E102" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F102" s="1" t="inlineStr"/>
-      <c r="G102" s="1" t="inlineStr"/>
-      <c r="H102" s="1" t="inlineStr"/>
-      <c r="I102" s="1" t="inlineStr"/>
-      <c r="J102" s="1" t="inlineStr"/>
-      <c r="K102" s="1" t="inlineStr"/>
-      <c r="L102" s="1" t="inlineStr"/>
+      <c r="F102" s="17" t="inlineStr"/>
+      <c r="G102" s="17" t="inlineStr"/>
+      <c r="H102" s="17" t="inlineStr"/>
+      <c r="I102" s="17" t="inlineStr"/>
+      <c r="J102" s="17" t="inlineStr"/>
+      <c r="K102" s="17" t="inlineStr"/>
+      <c r="L102" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="12" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B103" s="13" t="inlineStr"/>
-      <c r="C103" s="14" t="inlineStr">
+      <c r="A103" s="9" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B103" s="10" t="inlineStr"/>
+      <c r="C103" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D103" s="12" t="inlineStr">
+      <c r="D103" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E103" s="15" t="inlineStr">
+      <c r="E103" s="12" t="inlineStr">
         <is>
           <t>Dhaka Bank-STD-2051501833-CIL</t>
         </is>
       </c>
-      <c r="F103" s="12" t="inlineStr"/>
-      <c r="G103" s="12" t="inlineStr"/>
-      <c r="H103" s="16" t="inlineStr">
+      <c r="F103" s="9" t="inlineStr"/>
+      <c r="G103" s="9" t="inlineStr"/>
+      <c r="H103" s="13" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I103" s="12" t="inlineStr">
+      <c r="I103" s="9" t="inlineStr">
         <is>
           <t>939</t>
         </is>
       </c>
-      <c r="J103" s="12" t="inlineStr"/>
-      <c r="K103" s="17" t="inlineStr">
+      <c r="J103" s="9" t="inlineStr"/>
+      <c r="K103" s="14" t="inlineStr">
         <is>
           <t>12000000</t>
         </is>
       </c>
-      <c r="L103" s="12" t="inlineStr">
+      <c r="L103" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="12" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B104" s="13" t="inlineStr">
-        <is>
-          <t>Interunit Loan Match: MDB#0313 &lt;-&gt; DBL#1833
+      <c r="A104" s="9" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B104" s="10" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#0313
 Lender Amount: 12000000.00
 Borrower Amount: 12000000.00</t>
         </is>
       </c>
-      <c r="C104" s="12" t="inlineStr"/>
-      <c r="D104" s="12" t="inlineStr"/>
-      <c r="E104" s="18" t="inlineStr">
+      <c r="C104" s="9" t="inlineStr"/>
+      <c r="D104" s="9" t="inlineStr"/>
+      <c r="E104" s="15" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F104" s="12" t="inlineStr"/>
-      <c r="G104" s="12" t="inlineStr"/>
-      <c r="H104" s="12" t="inlineStr"/>
-      <c r="I104" s="12" t="inlineStr"/>
-      <c r="J104" s="12" t="inlineStr"/>
-      <c r="K104" s="12" t="inlineStr"/>
-      <c r="L104" s="12" t="inlineStr">
+      <c r="F104" s="9" t="inlineStr"/>
+      <c r="G104" s="9" t="inlineStr"/>
+      <c r="H104" s="9" t="inlineStr"/>
+      <c r="I104" s="9" t="inlineStr"/>
+      <c r="J104" s="9" t="inlineStr"/>
+      <c r="K104" s="9" t="inlineStr"/>
+      <c r="L104" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="12" t="inlineStr">
-        <is>
-          <t>M016</t>
-        </is>
-      </c>
-      <c r="B105" s="13" t="inlineStr"/>
-      <c r="C105" s="12" t="inlineStr"/>
-      <c r="D105" s="12" t="inlineStr">
+      <c r="A105" s="9" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B105" s="10" t="inlineStr"/>
+      <c r="C105" s="9" t="inlineStr"/>
+      <c r="D105" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E105" s="19" t="inlineStr">
+      <c r="E105" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F105" s="12" t="inlineStr"/>
-      <c r="G105" s="12" t="inlineStr"/>
-      <c r="H105" s="12" t="inlineStr"/>
-      <c r="I105" s="12" t="inlineStr"/>
-      <c r="J105" s="12" t="inlineStr"/>
-      <c r="K105" s="12" t="inlineStr"/>
-      <c r="L105" s="12" t="inlineStr">
+      <c r="F105" s="9" t="inlineStr"/>
+      <c r="G105" s="9" t="inlineStr"/>
+      <c r="H105" s="9" t="inlineStr"/>
+      <c r="I105" s="9" t="inlineStr"/>
+      <c r="J105" s="9" t="inlineStr"/>
+      <c r="K105" s="9" t="inlineStr"/>
+      <c r="L105" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="20" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B106" s="21" t="inlineStr"/>
-      <c r="C106" s="22" t="inlineStr">
+      <c r="A106" s="17" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B106" s="18" t="inlineStr"/>
+      <c r="C106" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D106" s="20" t="inlineStr">
+      <c r="D106" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E106" s="23" t="inlineStr">
+      <c r="E106" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F106" s="20" t="inlineStr"/>
-      <c r="G106" s="20" t="inlineStr"/>
-      <c r="H106" s="24" t="inlineStr">
+      <c r="F106" s="17" t="inlineStr"/>
+      <c r="G106" s="17" t="inlineStr"/>
+      <c r="H106" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I106" s="20" t="inlineStr">
+      <c r="I106" s="17" t="inlineStr">
         <is>
           <t>940</t>
         </is>
       </c>
-      <c r="J106" s="20" t="inlineStr"/>
-      <c r="K106" s="25" t="inlineStr">
+      <c r="J106" s="17" t="inlineStr"/>
+      <c r="K106" s="22" t="inlineStr">
         <is>
           <t>22000000</t>
         </is>
       </c>
-      <c r="L106" s="20" t="inlineStr">
+      <c r="L106" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="20" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B107" s="21" t="inlineStr">
-        <is>
-          <t>Interunit Loan Match: MDB#0313 &lt;-&gt; MDB#0331
+      <c r="A107" s="17" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B107" s="18" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#0313
 Lender Amount: 22000000.00
 Borrower Amount: 22000000.00</t>
         </is>
       </c>
-      <c r="C107" s="20" t="inlineStr"/>
-      <c r="D107" s="20" t="inlineStr"/>
-      <c r="E107" s="26" t="inlineStr">
+      <c r="C107" s="17" t="inlineStr"/>
+      <c r="D107" s="17" t="inlineStr"/>
+      <c r="E107" s="23" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F107" s="20" t="inlineStr"/>
-      <c r="G107" s="20" t="inlineStr"/>
-      <c r="H107" s="20" t="inlineStr"/>
-      <c r="I107" s="20" t="inlineStr"/>
-      <c r="J107" s="20" t="inlineStr"/>
-      <c r="K107" s="20" t="inlineStr"/>
-      <c r="L107" s="20" t="inlineStr">
+      <c r="F107" s="17" t="inlineStr"/>
+      <c r="G107" s="17" t="inlineStr"/>
+      <c r="H107" s="17" t="inlineStr"/>
+      <c r="I107" s="17" t="inlineStr"/>
+      <c r="J107" s="17" t="inlineStr"/>
+      <c r="K107" s="17" t="inlineStr"/>
+      <c r="L107" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="20" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B108" s="21" t="inlineStr"/>
-      <c r="C108" s="20" t="inlineStr"/>
-      <c r="D108" s="20" t="inlineStr">
+      <c r="A108" s="17" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B108" s="18" t="inlineStr"/>
+      <c r="C108" s="17" t="inlineStr"/>
+      <c r="D108" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E108" s="27" t="inlineStr">
+      <c r="E108" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F108" s="20" t="inlineStr"/>
-      <c r="G108" s="20" t="inlineStr"/>
-      <c r="H108" s="20" t="inlineStr"/>
-      <c r="I108" s="20" t="inlineStr"/>
-      <c r="J108" s="20" t="inlineStr"/>
-      <c r="K108" s="20" t="inlineStr"/>
-      <c r="L108" s="20" t="inlineStr">
+      <c r="F108" s="17" t="inlineStr"/>
+      <c r="G108" s="17" t="inlineStr"/>
+      <c r="H108" s="17" t="inlineStr"/>
+      <c r="I108" s="17" t="inlineStr"/>
+      <c r="J108" s="17" t="inlineStr"/>
+      <c r="K108" s="17" t="inlineStr"/>
+      <c r="L108" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr"/>
-      <c r="B109" s="2" t="inlineStr"/>
-      <c r="C109" s="6" t="inlineStr">
+      <c r="A109" s="9" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B109" s="10" t="inlineStr"/>
+      <c r="C109" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D109" s="1" t="inlineStr">
+      <c r="D109" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E109" s="7" t="inlineStr">
+      <c r="E109" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F109" s="1" t="inlineStr"/>
-      <c r="G109" s="1" t="inlineStr"/>
-      <c r="H109" s="9" t="inlineStr">
+      <c r="F109" s="9" t="inlineStr"/>
+      <c r="G109" s="9" t="inlineStr"/>
+      <c r="H109" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I109" s="1" t="inlineStr">
+      <c r="I109" s="9" t="inlineStr">
         <is>
           <t>70714</t>
         </is>
       </c>
-      <c r="J109" s="8" t="inlineStr">
+      <c r="J109" s="14" t="inlineStr">
         <is>
           <t>58108</t>
         </is>
       </c>
-      <c r="K109" s="1" t="inlineStr"/>
-      <c r="L109" s="1" t="inlineStr"/>
+      <c r="K109" s="9" t="inlineStr"/>
+      <c r="L109" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr"/>
-      <c r="B110" s="2" t="inlineStr"/>
-      <c r="C110" s="1" t="inlineStr"/>
-      <c r="D110" s="1" t="inlineStr"/>
-      <c r="E110" s="10" t="inlineStr">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B110" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 58108.00
+Borrower Amount: 58108.00</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr"/>
+      <c r="D110" s="9" t="inlineStr"/>
+      <c r="E110" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Pragati Life Insurance Limited)</t>
         </is>
       </c>
-      <c r="F110" s="1" t="inlineStr"/>
-      <c r="G110" s="1" t="inlineStr"/>
-      <c r="H110" s="1" t="inlineStr"/>
-      <c r="I110" s="1" t="inlineStr"/>
-      <c r="J110" s="1" t="inlineStr"/>
-      <c r="K110" s="1" t="inlineStr"/>
-      <c r="L110" s="1" t="inlineStr"/>
+      <c r="F110" s="9" t="inlineStr"/>
+      <c r="G110" s="9" t="inlineStr"/>
+      <c r="H110" s="9" t="inlineStr"/>
+      <c r="I110" s="9" t="inlineStr"/>
+      <c r="J110" s="9" t="inlineStr"/>
+      <c r="K110" s="9" t="inlineStr"/>
+      <c r="L110" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr"/>
-      <c r="B111" s="2" t="inlineStr"/>
-      <c r="C111" s="1" t="inlineStr"/>
-      <c r="D111" s="1" t="inlineStr">
+      <c r="A111" s="9" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B111" s="10" t="inlineStr"/>
+      <c r="C111" s="9" t="inlineStr"/>
+      <c r="D111" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E111" s="11" t="inlineStr">
+      <c r="E111" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F111" s="1" t="inlineStr"/>
-      <c r="G111" s="1" t="inlineStr"/>
-      <c r="H111" s="1" t="inlineStr"/>
-      <c r="I111" s="1" t="inlineStr"/>
-      <c r="J111" s="1" t="inlineStr"/>
-      <c r="K111" s="1" t="inlineStr"/>
-      <c r="L111" s="1" t="inlineStr"/>
+      <c r="F111" s="9" t="inlineStr"/>
+      <c r="G111" s="9" t="inlineStr"/>
+      <c r="H111" s="9" t="inlineStr"/>
+      <c r="I111" s="9" t="inlineStr"/>
+      <c r="J111" s="9" t="inlineStr"/>
+      <c r="K111" s="9" t="inlineStr"/>
+      <c r="L111" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr"/>
-      <c r="B112" s="2" t="inlineStr"/>
-      <c r="C112" s="6" t="inlineStr">
+      <c r="A112" s="17" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B112" s="18" t="inlineStr"/>
+      <c r="C112" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D112" s="1" t="inlineStr">
+      <c r="D112" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E112" s="7" t="inlineStr">
+      <c r="E112" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F112" s="1" t="inlineStr"/>
-      <c r="G112" s="1" t="inlineStr"/>
-      <c r="H112" s="9" t="inlineStr">
+      <c r="F112" s="17" t="inlineStr"/>
+      <c r="G112" s="17" t="inlineStr"/>
+      <c r="H112" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I112" s="1" t="inlineStr">
+      <c r="I112" s="17" t="inlineStr">
         <is>
           <t>70715</t>
         </is>
       </c>
-      <c r="J112" s="8" t="inlineStr">
+      <c r="J112" s="22" t="inlineStr">
         <is>
           <t>11535</t>
         </is>
       </c>
-      <c r="K112" s="1" t="inlineStr"/>
-      <c r="L112" s="1" t="inlineStr"/>
+      <c r="K112" s="17" t="inlineStr"/>
+      <c r="L112" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr"/>
-      <c r="B113" s="2" t="inlineStr"/>
-      <c r="C113" s="1" t="inlineStr"/>
-      <c r="D113" s="1" t="inlineStr"/>
-      <c r="E113" s="10" t="inlineStr">
+      <c r="A113" s="17" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B113" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11535.00
+Borrower Amount: 11535.00</t>
+        </is>
+      </c>
+      <c r="C113" s="17" t="inlineStr"/>
+      <c r="D113" s="17" t="inlineStr"/>
+      <c r="E113" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(ARK Fire Fighting Manufacture Co.)</t>
         </is>
       </c>
-      <c r="F113" s="1" t="inlineStr"/>
-      <c r="G113" s="1" t="inlineStr"/>
-      <c r="H113" s="1" t="inlineStr"/>
-      <c r="I113" s="1" t="inlineStr"/>
-      <c r="J113" s="1" t="inlineStr"/>
-      <c r="K113" s="1" t="inlineStr"/>
-      <c r="L113" s="1" t="inlineStr"/>
+      <c r="F113" s="17" t="inlineStr"/>
+      <c r="G113" s="17" t="inlineStr"/>
+      <c r="H113" s="17" t="inlineStr"/>
+      <c r="I113" s="17" t="inlineStr"/>
+      <c r="J113" s="17" t="inlineStr"/>
+      <c r="K113" s="17" t="inlineStr"/>
+      <c r="L113" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr"/>
-      <c r="B114" s="2" t="inlineStr"/>
-      <c r="C114" s="1" t="inlineStr"/>
-      <c r="D114" s="1" t="inlineStr">
+      <c r="A114" s="17" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B114" s="18" t="inlineStr"/>
+      <c r="C114" s="17" t="inlineStr"/>
+      <c r="D114" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E114" s="11" t="inlineStr">
+      <c r="E114" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F114" s="1" t="inlineStr"/>
-      <c r="G114" s="1" t="inlineStr"/>
-      <c r="H114" s="1" t="inlineStr"/>
-      <c r="I114" s="1" t="inlineStr"/>
-      <c r="J114" s="1" t="inlineStr"/>
-      <c r="K114" s="1" t="inlineStr"/>
-      <c r="L114" s="1" t="inlineStr"/>
+      <c r="F114" s="17" t="inlineStr"/>
+      <c r="G114" s="17" t="inlineStr"/>
+      <c r="H114" s="17" t="inlineStr"/>
+      <c r="I114" s="17" t="inlineStr"/>
+      <c r="J114" s="17" t="inlineStr"/>
+      <c r="K114" s="17" t="inlineStr"/>
+      <c r="L114" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr"/>
-      <c r="B115" s="2" t="inlineStr"/>
-      <c r="C115" s="6" t="inlineStr">
+      <c r="A115" s="9" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B115" s="10" t="inlineStr"/>
+      <c r="C115" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D115" s="1" t="inlineStr">
+      <c r="D115" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E115" s="7" t="inlineStr">
+      <c r="E115" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F115" s="1" t="inlineStr"/>
-      <c r="G115" s="1" t="inlineStr"/>
-      <c r="H115" s="9" t="inlineStr">
+      <c r="F115" s="9" t="inlineStr"/>
+      <c r="G115" s="9" t="inlineStr"/>
+      <c r="H115" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I115" s="1" t="inlineStr">
+      <c r="I115" s="9" t="inlineStr">
         <is>
           <t>70716</t>
         </is>
       </c>
-      <c r="J115" s="8" t="inlineStr">
+      <c r="J115" s="14" t="inlineStr">
         <is>
           <t>1344000</t>
         </is>
       </c>
-      <c r="K115" s="1" t="inlineStr"/>
-      <c r="L115" s="1" t="inlineStr"/>
+      <c r="K115" s="9" t="inlineStr"/>
+      <c r="L115" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr"/>
-      <c r="B116" s="2" t="inlineStr"/>
-      <c r="C116" s="1" t="inlineStr"/>
-      <c r="D116" s="1" t="inlineStr"/>
-      <c r="E116" s="10" t="inlineStr">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B116" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1344000.00
+Borrower Amount: 1344000.00</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr"/>
+      <c r="D116" s="9" t="inlineStr"/>
+      <c r="E116" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Rangpur Metal Industries Ltd.)</t>
         </is>
       </c>
-      <c r="F116" s="1" t="inlineStr"/>
-      <c r="G116" s="1" t="inlineStr"/>
-      <c r="H116" s="1" t="inlineStr"/>
-      <c r="I116" s="1" t="inlineStr"/>
-      <c r="J116" s="1" t="inlineStr"/>
-      <c r="K116" s="1" t="inlineStr"/>
-      <c r="L116" s="1" t="inlineStr"/>
+      <c r="F116" s="9" t="inlineStr"/>
+      <c r="G116" s="9" t="inlineStr"/>
+      <c r="H116" s="9" t="inlineStr"/>
+      <c r="I116" s="9" t="inlineStr"/>
+      <c r="J116" s="9" t="inlineStr"/>
+      <c r="K116" s="9" t="inlineStr"/>
+      <c r="L116" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr"/>
-      <c r="B117" s="2" t="inlineStr"/>
-      <c r="C117" s="1" t="inlineStr"/>
-      <c r="D117" s="1" t="inlineStr">
+      <c r="A117" s="9" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B117" s="10" t="inlineStr"/>
+      <c r="C117" s="9" t="inlineStr"/>
+      <c r="D117" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E117" s="11" t="inlineStr">
+      <c r="E117" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F117" s="1" t="inlineStr"/>
-      <c r="G117" s="1" t="inlineStr"/>
-      <c r="H117" s="1" t="inlineStr"/>
-      <c r="I117" s="1" t="inlineStr"/>
-      <c r="J117" s="1" t="inlineStr"/>
-      <c r="K117" s="1" t="inlineStr"/>
-      <c r="L117" s="1" t="inlineStr"/>
+      <c r="F117" s="9" t="inlineStr"/>
+      <c r="G117" s="9" t="inlineStr"/>
+      <c r="H117" s="9" t="inlineStr"/>
+      <c r="I117" s="9" t="inlineStr"/>
+      <c r="J117" s="9" t="inlineStr"/>
+      <c r="K117" s="9" t="inlineStr"/>
+      <c r="L117" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr"/>
-      <c r="B118" s="2" t="inlineStr"/>
-      <c r="C118" s="6" t="inlineStr">
+      <c r="A118" s="17" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B118" s="18" t="inlineStr"/>
+      <c r="C118" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D118" s="1" t="inlineStr">
+      <c r="D118" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E118" s="7" t="inlineStr">
+      <c r="E118" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F118" s="1" t="inlineStr"/>
-      <c r="G118" s="1" t="inlineStr"/>
-      <c r="H118" s="9" t="inlineStr">
+      <c r="F118" s="17" t="inlineStr"/>
+      <c r="G118" s="17" t="inlineStr"/>
+      <c r="H118" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I118" s="1" t="inlineStr">
+      <c r="I118" s="17" t="inlineStr">
         <is>
           <t>70717</t>
         </is>
       </c>
-      <c r="J118" s="8" t="inlineStr">
+      <c r="J118" s="22" t="inlineStr">
         <is>
           <t>3457391</t>
         </is>
       </c>
-      <c r="K118" s="1" t="inlineStr"/>
-      <c r="L118" s="1" t="inlineStr"/>
+      <c r="K118" s="17" t="inlineStr"/>
+      <c r="L118" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr"/>
-      <c r="B119" s="2" t="inlineStr"/>
-      <c r="C119" s="1" t="inlineStr"/>
-      <c r="D119" s="1" t="inlineStr"/>
-      <c r="E119" s="10" t="inlineStr">
+      <c r="A119" s="17" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B119" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3457391.00
+Borrower Amount: 3457391.00</t>
+        </is>
+      </c>
+      <c r="C119" s="17" t="inlineStr"/>
+      <c r="D119" s="17" t="inlineStr"/>
+      <c r="E119" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Rangpur Metal Industries Ltd.)</t>
         </is>
       </c>
-      <c r="F119" s="1" t="inlineStr"/>
-      <c r="G119" s="1" t="inlineStr"/>
-      <c r="H119" s="1" t="inlineStr"/>
-      <c r="I119" s="1" t="inlineStr"/>
-      <c r="J119" s="1" t="inlineStr"/>
-      <c r="K119" s="1" t="inlineStr"/>
-      <c r="L119" s="1" t="inlineStr"/>
+      <c r="F119" s="17" t="inlineStr"/>
+      <c r="G119" s="17" t="inlineStr"/>
+      <c r="H119" s="17" t="inlineStr"/>
+      <c r="I119" s="17" t="inlineStr"/>
+      <c r="J119" s="17" t="inlineStr"/>
+      <c r="K119" s="17" t="inlineStr"/>
+      <c r="L119" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr"/>
-      <c r="B120" s="2" t="inlineStr"/>
-      <c r="C120" s="1" t="inlineStr"/>
-      <c r="D120" s="1" t="inlineStr">
+      <c r="A120" s="17" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B120" s="18" t="inlineStr"/>
+      <c r="C120" s="17" t="inlineStr"/>
+      <c r="D120" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E120" s="11" t="inlineStr">
+      <c r="E120" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F120" s="1" t="inlineStr"/>
-      <c r="G120" s="1" t="inlineStr"/>
-      <c r="H120" s="1" t="inlineStr"/>
-      <c r="I120" s="1" t="inlineStr"/>
-      <c r="J120" s="1" t="inlineStr"/>
-      <c r="K120" s="1" t="inlineStr"/>
-      <c r="L120" s="1" t="inlineStr"/>
+      <c r="F120" s="17" t="inlineStr"/>
+      <c r="G120" s="17" t="inlineStr"/>
+      <c r="H120" s="17" t="inlineStr"/>
+      <c r="I120" s="17" t="inlineStr"/>
+      <c r="J120" s="17" t="inlineStr"/>
+      <c r="K120" s="17" t="inlineStr"/>
+      <c r="L120" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr"/>
-      <c r="B121" s="2" t="inlineStr"/>
-      <c r="C121" s="6" t="inlineStr">
+      <c r="A121" s="9" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B121" s="10" t="inlineStr"/>
+      <c r="C121" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D121" s="1" t="inlineStr">
+      <c r="D121" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E121" s="7" t="inlineStr">
+      <c r="E121" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F121" s="1" t="inlineStr"/>
-      <c r="G121" s="1" t="inlineStr"/>
-      <c r="H121" s="9" t="inlineStr">
+      <c r="F121" s="9" t="inlineStr"/>
+      <c r="G121" s="9" t="inlineStr"/>
+      <c r="H121" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I121" s="1" t="inlineStr">
+      <c r="I121" s="9" t="inlineStr">
         <is>
           <t>70718</t>
         </is>
       </c>
-      <c r="J121" s="8" t="inlineStr">
+      <c r="J121" s="14" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="K121" s="1" t="inlineStr"/>
-      <c r="L121" s="1" t="inlineStr"/>
+      <c r="K121" s="9" t="inlineStr"/>
+      <c r="L121" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr"/>
-      <c r="B122" s="2" t="inlineStr"/>
-      <c r="C122" s="1" t="inlineStr"/>
-      <c r="D122" s="1" t="inlineStr"/>
-      <c r="E122" s="10" t="inlineStr">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B122" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1234.00
+Borrower Amount: 1234.00</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr"/>
+      <c r="D122" s="9" t="inlineStr"/>
+      <c r="E122" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Wintel Limited)</t>
         </is>
       </c>
-      <c r="F122" s="1" t="inlineStr"/>
-      <c r="G122" s="1" t="inlineStr"/>
-      <c r="H122" s="1" t="inlineStr"/>
-      <c r="I122" s="1" t="inlineStr"/>
-      <c r="J122" s="1" t="inlineStr"/>
-      <c r="K122" s="1" t="inlineStr"/>
-      <c r="L122" s="1" t="inlineStr"/>
+      <c r="F122" s="9" t="inlineStr"/>
+      <c r="G122" s="9" t="inlineStr"/>
+      <c r="H122" s="9" t="inlineStr"/>
+      <c r="I122" s="9" t="inlineStr"/>
+      <c r="J122" s="9" t="inlineStr"/>
+      <c r="K122" s="9" t="inlineStr"/>
+      <c r="L122" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr"/>
-      <c r="B123" s="2" t="inlineStr"/>
-      <c r="C123" s="1" t="inlineStr"/>
-      <c r="D123" s="1" t="inlineStr">
+      <c r="A123" s="9" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B123" s="10" t="inlineStr"/>
+      <c r="C123" s="9" t="inlineStr"/>
+      <c r="D123" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E123" s="11" t="inlineStr">
+      <c r="E123" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F123" s="1" t="inlineStr"/>
-      <c r="G123" s="1" t="inlineStr"/>
-      <c r="H123" s="1" t="inlineStr"/>
-      <c r="I123" s="1" t="inlineStr"/>
-      <c r="J123" s="1" t="inlineStr"/>
-      <c r="K123" s="1" t="inlineStr"/>
-      <c r="L123" s="1" t="inlineStr"/>
+      <c r="F123" s="9" t="inlineStr"/>
+      <c r="G123" s="9" t="inlineStr"/>
+      <c r="H123" s="9" t="inlineStr"/>
+      <c r="I123" s="9" t="inlineStr"/>
+      <c r="J123" s="9" t="inlineStr"/>
+      <c r="K123" s="9" t="inlineStr"/>
+      <c r="L123" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr"/>
-      <c r="B124" s="2" t="inlineStr"/>
-      <c r="C124" s="6" t="inlineStr">
+      <c r="A124" s="17" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B124" s="18" t="inlineStr"/>
+      <c r="C124" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D124" s="1" t="inlineStr">
+      <c r="D124" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E124" s="7" t="inlineStr">
+      <c r="E124" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F124" s="1" t="inlineStr"/>
-      <c r="G124" s="1" t="inlineStr"/>
-      <c r="H124" s="9" t="inlineStr">
+      <c r="F124" s="17" t="inlineStr"/>
+      <c r="G124" s="17" t="inlineStr"/>
+      <c r="H124" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I124" s="1" t="inlineStr">
+      <c r="I124" s="17" t="inlineStr">
         <is>
           <t>70719</t>
         </is>
       </c>
-      <c r="J124" s="8" t="inlineStr">
+      <c r="J124" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K124" s="1" t="inlineStr"/>
-      <c r="L124" s="1" t="inlineStr"/>
+      <c r="K124" s="17" t="inlineStr"/>
+      <c r="L124" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr"/>
-      <c r="B125" s="2" t="inlineStr"/>
-      <c r="C125" s="1" t="inlineStr"/>
-      <c r="D125" s="1" t="inlineStr"/>
-      <c r="E125" s="10" t="inlineStr">
+      <c r="A125" s="17" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B125" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C125" s="17" t="inlineStr"/>
+      <c r="D125" s="17" t="inlineStr"/>
+      <c r="E125" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(A.B.M Anas Engineering)</t>
         </is>
       </c>
-      <c r="F125" s="1" t="inlineStr"/>
-      <c r="G125" s="1" t="inlineStr"/>
-      <c r="H125" s="1" t="inlineStr"/>
-      <c r="I125" s="1" t="inlineStr"/>
-      <c r="J125" s="1" t="inlineStr"/>
-      <c r="K125" s="1" t="inlineStr"/>
-      <c r="L125" s="1" t="inlineStr"/>
+      <c r="F125" s="17" t="inlineStr"/>
+      <c r="G125" s="17" t="inlineStr"/>
+      <c r="H125" s="17" t="inlineStr"/>
+      <c r="I125" s="17" t="inlineStr"/>
+      <c r="J125" s="17" t="inlineStr"/>
+      <c r="K125" s="17" t="inlineStr"/>
+      <c r="L125" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr"/>
-      <c r="B126" s="2" t="inlineStr"/>
-      <c r="C126" s="1" t="inlineStr"/>
-      <c r="D126" s="1" t="inlineStr">
+      <c r="A126" s="17" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B126" s="18" t="inlineStr"/>
+      <c r="C126" s="17" t="inlineStr"/>
+      <c r="D126" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E126" s="11" t="inlineStr">
+      <c r="E126" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F126" s="1" t="inlineStr"/>
-      <c r="G126" s="1" t="inlineStr"/>
-      <c r="H126" s="1" t="inlineStr"/>
-      <c r="I126" s="1" t="inlineStr"/>
-      <c r="J126" s="1" t="inlineStr"/>
-      <c r="K126" s="1" t="inlineStr"/>
-      <c r="L126" s="1" t="inlineStr"/>
+      <c r="F126" s="17" t="inlineStr"/>
+      <c r="G126" s="17" t="inlineStr"/>
+      <c r="H126" s="17" t="inlineStr"/>
+      <c r="I126" s="17" t="inlineStr"/>
+      <c r="J126" s="17" t="inlineStr"/>
+      <c r="K126" s="17" t="inlineStr"/>
+      <c r="L126" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr"/>
-      <c r="B127" s="2" t="inlineStr"/>
-      <c r="C127" s="6" t="inlineStr">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B127" s="10" t="inlineStr"/>
+      <c r="C127" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D127" s="1" t="inlineStr">
+      <c r="D127" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E127" s="7" t="inlineStr">
+      <c r="E127" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F127" s="1" t="inlineStr"/>
-      <c r="G127" s="1" t="inlineStr"/>
-      <c r="H127" s="9" t="inlineStr">
+      <c r="F127" s="9" t="inlineStr"/>
+      <c r="G127" s="9" t="inlineStr"/>
+      <c r="H127" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I127" s="1" t="inlineStr">
+      <c r="I127" s="9" t="inlineStr">
         <is>
           <t>70720</t>
         </is>
       </c>
-      <c r="J127" s="8" t="inlineStr">
+      <c r="J127" s="14" t="inlineStr">
         <is>
           <t>36900</t>
         </is>
       </c>
-      <c r="K127" s="1" t="inlineStr"/>
-      <c r="L127" s="1" t="inlineStr"/>
+      <c r="K127" s="9" t="inlineStr"/>
+      <c r="L127" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr"/>
-      <c r="B128" s="2" t="inlineStr"/>
-      <c r="C128" s="1" t="inlineStr"/>
-      <c r="D128" s="1" t="inlineStr"/>
-      <c r="E128" s="10" t="inlineStr">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B128" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 36900.00
+Borrower Amount: 36900.00</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr"/>
+      <c r="D128" s="9" t="inlineStr"/>
+      <c r="E128" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(A.B.M Anas Engineering)</t>
         </is>
       </c>
-      <c r="F128" s="1" t="inlineStr"/>
-      <c r="G128" s="1" t="inlineStr"/>
-      <c r="H128" s="1" t="inlineStr"/>
-      <c r="I128" s="1" t="inlineStr"/>
-      <c r="J128" s="1" t="inlineStr"/>
-      <c r="K128" s="1" t="inlineStr"/>
-      <c r="L128" s="1" t="inlineStr"/>
+      <c r="F128" s="9" t="inlineStr"/>
+      <c r="G128" s="9" t="inlineStr"/>
+      <c r="H128" s="9" t="inlineStr"/>
+      <c r="I128" s="9" t="inlineStr"/>
+      <c r="J128" s="9" t="inlineStr"/>
+      <c r="K128" s="9" t="inlineStr"/>
+      <c r="L128" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr"/>
-      <c r="B129" s="2" t="inlineStr"/>
-      <c r="C129" s="1" t="inlineStr"/>
-      <c r="D129" s="1" t="inlineStr">
+      <c r="A129" s="9" t="inlineStr">
+        <is>
+          <t>M064</t>
+        </is>
+      </c>
+      <c r="B129" s="10" t="inlineStr"/>
+      <c r="C129" s="9" t="inlineStr"/>
+      <c r="D129" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E129" s="11" t="inlineStr">
+      <c r="E129" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F129" s="1" t="inlineStr"/>
-      <c r="G129" s="1" t="inlineStr"/>
-      <c r="H129" s="1" t="inlineStr"/>
-      <c r="I129" s="1" t="inlineStr"/>
-      <c r="J129" s="1" t="inlineStr"/>
-      <c r="K129" s="1" t="inlineStr"/>
-      <c r="L129" s="1" t="inlineStr"/>
+      <c r="F129" s="9" t="inlineStr"/>
+      <c r="G129" s="9" t="inlineStr"/>
+      <c r="H129" s="9" t="inlineStr"/>
+      <c r="I129" s="9" t="inlineStr"/>
+      <c r="J129" s="9" t="inlineStr"/>
+      <c r="K129" s="9" t="inlineStr"/>
+      <c r="L129" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr"/>
-      <c r="B130" s="2" t="inlineStr"/>
-      <c r="C130" s="6" t="inlineStr">
+      <c r="A130" s="17" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B130" s="18" t="inlineStr"/>
+      <c r="C130" s="19" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D130" s="1" t="inlineStr">
+      <c r="D130" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E130" s="7" t="inlineStr">
+      <c r="E130" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-(Hypo)-2411000001105</t>
         </is>
       </c>
-      <c r="F130" s="1" t="inlineStr"/>
-      <c r="G130" s="1" t="inlineStr"/>
-      <c r="H130" s="9" t="inlineStr">
+      <c r="F130" s="17" t="inlineStr"/>
+      <c r="G130" s="17" t="inlineStr"/>
+      <c r="H130" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I130" s="1" t="inlineStr">
+      <c r="I130" s="17" t="inlineStr">
         <is>
           <t>70688</t>
         </is>
       </c>
-      <c r="J130" s="8" t="inlineStr">
+      <c r="J130" s="22" t="inlineStr">
         <is>
           <t>1531483</t>
         </is>
       </c>
-      <c r="K130" s="1" t="inlineStr"/>
-      <c r="L130" s="1" t="inlineStr"/>
+      <c r="K130" s="17" t="inlineStr"/>
+      <c r="L130" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr"/>
-      <c r="B131" s="2" t="inlineStr"/>
-      <c r="C131" s="1" t="inlineStr"/>
-      <c r="D131" s="1" t="inlineStr"/>
-      <c r="E131" s="10" t="inlineStr">
+      <c r="A131" s="17" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B131" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1531483.00
+Borrower Amount: 1531483.00</t>
+        </is>
+      </c>
+      <c r="C131" s="17" t="inlineStr"/>
+      <c r="D131" s="17" t="inlineStr"/>
+      <c r="E131" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Sadharan Bima Corporation)</t>
         </is>
       </c>
-      <c r="F131" s="1" t="inlineStr"/>
-      <c r="G131" s="1" t="inlineStr"/>
-      <c r="H131" s="1" t="inlineStr"/>
-      <c r="I131" s="1" t="inlineStr"/>
-      <c r="J131" s="1" t="inlineStr"/>
-      <c r="K131" s="1" t="inlineStr"/>
-      <c r="L131" s="1" t="inlineStr"/>
+      <c r="F131" s="17" t="inlineStr"/>
+      <c r="G131" s="17" t="inlineStr"/>
+      <c r="H131" s="17" t="inlineStr"/>
+      <c r="I131" s="17" t="inlineStr"/>
+      <c r="J131" s="17" t="inlineStr"/>
+      <c r="K131" s="17" t="inlineStr"/>
+      <c r="L131" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr"/>
-      <c r="B132" s="2" t="inlineStr"/>
-      <c r="C132" s="1" t="inlineStr"/>
-      <c r="D132" s="1" t="inlineStr">
+      <c r="A132" s="17" t="inlineStr">
+        <is>
+          <t>M065</t>
+        </is>
+      </c>
+      <c r="B132" s="18" t="inlineStr"/>
+      <c r="C132" s="17" t="inlineStr"/>
+      <c r="D132" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E132" s="11" t="inlineStr">
+      <c r="E132" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F132" s="1" t="inlineStr"/>
-      <c r="G132" s="1" t="inlineStr"/>
-      <c r="H132" s="1" t="inlineStr"/>
-      <c r="I132" s="1" t="inlineStr"/>
-      <c r="J132" s="1" t="inlineStr"/>
-      <c r="K132" s="1" t="inlineStr"/>
-      <c r="L132" s="1" t="inlineStr"/>
+      <c r="F132" s="17" t="inlineStr"/>
+      <c r="G132" s="17" t="inlineStr"/>
+      <c r="H132" s="17" t="inlineStr"/>
+      <c r="I132" s="17" t="inlineStr"/>
+      <c r="J132" s="17" t="inlineStr"/>
+      <c r="K132" s="17" t="inlineStr"/>
+      <c r="L132" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr"/>
-      <c r="B133" s="2" t="inlineStr"/>
-      <c r="C133" s="6" t="inlineStr">
+      <c r="A133" s="9" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B133" s="10" t="inlineStr"/>
+      <c r="C133" s="11" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D133" s="1" t="inlineStr">
+      <c r="D133" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E133" s="7" t="inlineStr">
+      <c r="E133" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-(Hypo)-2411000001105</t>
         </is>
       </c>
-      <c r="F133" s="1" t="inlineStr"/>
-      <c r="G133" s="1" t="inlineStr"/>
-      <c r="H133" s="9" t="inlineStr">
+      <c r="F133" s="9" t="inlineStr"/>
+      <c r="G133" s="9" t="inlineStr"/>
+      <c r="H133" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I133" s="1" t="inlineStr">
+      <c r="I133" s="9" t="inlineStr">
         <is>
           <t>70689</t>
         </is>
       </c>
-      <c r="J133" s="8" t="inlineStr">
+      <c r="J133" s="14" t="inlineStr">
         <is>
           <t>589625</t>
         </is>
       </c>
-      <c r="K133" s="1" t="inlineStr"/>
-      <c r="L133" s="1" t="inlineStr"/>
+      <c r="K133" s="9" t="inlineStr"/>
+      <c r="L133" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr"/>
-      <c r="B134" s="2" t="inlineStr"/>
-      <c r="C134" s="1" t="inlineStr"/>
-      <c r="D134" s="1" t="inlineStr"/>
-      <c r="E134" s="10" t="inlineStr">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B134" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 589625.00
+Borrower Amount: 589625.00</t>
+        </is>
+      </c>
+      <c r="C134" s="9" t="inlineStr"/>
+      <c r="D134" s="9" t="inlineStr"/>
+      <c r="E134" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Narayanganj Palli Biddyut Samity-1)</t>
         </is>
       </c>
-      <c r="F134" s="1" t="inlineStr"/>
-      <c r="G134" s="1" t="inlineStr"/>
-      <c r="H134" s="1" t="inlineStr"/>
-      <c r="I134" s="1" t="inlineStr"/>
-      <c r="J134" s="1" t="inlineStr"/>
-      <c r="K134" s="1" t="inlineStr"/>
-      <c r="L134" s="1" t="inlineStr"/>
+      <c r="F134" s="9" t="inlineStr"/>
+      <c r="G134" s="9" t="inlineStr"/>
+      <c r="H134" s="9" t="inlineStr"/>
+      <c r="I134" s="9" t="inlineStr"/>
+      <c r="J134" s="9" t="inlineStr"/>
+      <c r="K134" s="9" t="inlineStr"/>
+      <c r="L134" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr"/>
-      <c r="B135" s="2" t="inlineStr"/>
-      <c r="C135" s="1" t="inlineStr"/>
-      <c r="D135" s="1" t="inlineStr">
+      <c r="A135" s="9" t="inlineStr">
+        <is>
+          <t>M066</t>
+        </is>
+      </c>
+      <c r="B135" s="10" t="inlineStr"/>
+      <c r="C135" s="9" t="inlineStr"/>
+      <c r="D135" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E135" s="11" t="inlineStr">
+      <c r="E135" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F135" s="1" t="inlineStr"/>
-      <c r="G135" s="1" t="inlineStr"/>
-      <c r="H135" s="1" t="inlineStr"/>
-      <c r="I135" s="1" t="inlineStr"/>
-      <c r="J135" s="1" t="inlineStr"/>
-      <c r="K135" s="1" t="inlineStr"/>
-      <c r="L135" s="1" t="inlineStr"/>
+      <c r="F135" s="9" t="inlineStr"/>
+      <c r="G135" s="9" t="inlineStr"/>
+      <c r="H135" s="9" t="inlineStr"/>
+      <c r="I135" s="9" t="inlineStr"/>
+      <c r="J135" s="9" t="inlineStr"/>
+      <c r="K135" s="9" t="inlineStr"/>
+      <c r="L135" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="12" t="inlineStr">
+      <c r="A136" s="17" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B136" s="13" t="inlineStr"/>
-      <c r="C136" s="14" t="inlineStr">
+      <c r="B136" s="18" t="inlineStr"/>
+      <c r="C136" s="19" t="inlineStr">
         <is>
           <t>21/Jun/2025</t>
         </is>
       </c>
-      <c r="D136" s="12" t="inlineStr">
+      <c r="D136" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E136" s="15" t="inlineStr">
+      <c r="E136" s="20" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F136" s="12" t="inlineStr"/>
-      <c r="G136" s="12" t="inlineStr"/>
-      <c r="H136" s="16" t="inlineStr">
+      <c r="F136" s="17" t="inlineStr"/>
+      <c r="G136" s="17" t="inlineStr"/>
+      <c r="H136" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I136" s="12" t="inlineStr">
+      <c r="I136" s="17" t="inlineStr">
         <is>
           <t>3538</t>
         </is>
       </c>
-      <c r="J136" s="17" t="inlineStr">
+      <c r="J136" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K136" s="12" t="inlineStr"/>
-      <c r="L136" s="12" t="inlineStr">
+      <c r="K136" s="17" t="inlineStr"/>
+      <c r="L136" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="12" t="inlineStr">
+      <c r="A137" s="17" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B137" s="13" t="inlineStr"/>
-      <c r="C137" s="12" t="inlineStr"/>
-      <c r="D137" s="12" t="inlineStr"/>
-      <c r="E137" s="15" t="inlineStr">
+      <c r="B137" s="18" t="inlineStr"/>
+      <c r="C137" s="17" t="inlineStr"/>
+      <c r="D137" s="17" t="inlineStr"/>
+      <c r="E137" s="20" t="inlineStr">
         <is>
           <t>Inter Unit Loan A/C-Pole Unit</t>
         </is>
       </c>
-      <c r="F137" s="12" t="inlineStr"/>
-      <c r="G137" s="12" t="inlineStr"/>
-      <c r="H137" s="12" t="inlineStr"/>
-      <c r="I137" s="12" t="inlineStr"/>
-      <c r="J137" s="17" t="inlineStr">
+      <c r="F137" s="17" t="inlineStr"/>
+      <c r="G137" s="17" t="inlineStr"/>
+      <c r="H137" s="17" t="inlineStr"/>
+      <c r="I137" s="17" t="inlineStr"/>
+      <c r="J137" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K137" s="12" t="inlineStr"/>
-      <c r="L137" s="12" t="inlineStr">
+      <c r="K137" s="17" t="inlineStr"/>
+      <c r="L137" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="12" t="inlineStr">
+      <c r="A138" s="17" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B138" s="13" t="inlineStr"/>
-      <c r="C138" s="12" t="inlineStr"/>
-      <c r="D138" s="12" t="inlineStr"/>
-      <c r="E138" s="15" t="inlineStr">
+      <c r="B138" s="18" t="inlineStr"/>
+      <c r="C138" s="17" t="inlineStr"/>
+      <c r="D138" s="17" t="inlineStr"/>
+      <c r="E138" s="20" t="inlineStr">
         <is>
           <t>Adv-Odoo Bangladesh</t>
         </is>
       </c>
-      <c r="F138" s="12" t="inlineStr"/>
-      <c r="G138" s="12" t="inlineStr"/>
-      <c r="H138" s="12" t="inlineStr"/>
-      <c r="I138" s="12" t="inlineStr"/>
-      <c r="J138" s="12" t="inlineStr"/>
-      <c r="K138" s="17" t="inlineStr">
+      <c r="F138" s="17" t="inlineStr"/>
+      <c r="G138" s="17" t="inlineStr"/>
+      <c r="H138" s="17" t="inlineStr"/>
+      <c r="I138" s="17" t="inlineStr"/>
+      <c r="J138" s="17" t="inlineStr"/>
+      <c r="K138" s="22" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L138" s="12" t="inlineStr">
+      <c r="L138" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="12" t="inlineStr">
+      <c r="A139" s="17" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B139" s="13" t="inlineStr">
+      <c r="B139" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C139" s="12" t="inlineStr"/>
-      <c r="D139" s="12" t="inlineStr"/>
-      <c r="E139" s="18" t="inlineStr">
+      <c r="C139" s="17" t="inlineStr"/>
+      <c r="D139" s="17" t="inlineStr"/>
+      <c r="E139" s="23" t="inlineStr">
         <is>
           <t>Advance Chq no-8163057.  paid to Odoo Bangladesh agt ERP Emplemention. Ref no-IT/2014/11/008. from CIL Steel unit but 50% bill Tk.2,00,000 recorded in CIL-Trancformer and CIL-Pole Tk.2,00,000 So, Now made voucher as interunit loan.</t>
         </is>
       </c>
-      <c r="F139" s="12" t="inlineStr"/>
-      <c r="G139" s="12" t="inlineStr"/>
-      <c r="H139" s="12" t="inlineStr"/>
-      <c r="I139" s="12" t="inlineStr"/>
-      <c r="J139" s="12" t="inlineStr"/>
-      <c r="K139" s="12" t="inlineStr"/>
-      <c r="L139" s="12" t="inlineStr">
+      <c r="F139" s="17" t="inlineStr"/>
+      <c r="G139" s="17" t="inlineStr"/>
+      <c r="H139" s="17" t="inlineStr"/>
+      <c r="I139" s="17" t="inlineStr"/>
+      <c r="J139" s="17" t="inlineStr"/>
+      <c r="K139" s="17" t="inlineStr"/>
+      <c r="L139" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="12" t="inlineStr">
+      <c r="A140" s="17" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B140" s="13" t="inlineStr"/>
-      <c r="C140" s="12" t="inlineStr"/>
-      <c r="D140" s="12" t="inlineStr">
+      <c r="B140" s="18" t="inlineStr"/>
+      <c r="C140" s="17" t="inlineStr"/>
+      <c r="D140" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E140" s="19" t="inlineStr">
+      <c r="E140" s="24" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F140" s="12" t="inlineStr"/>
-      <c r="G140" s="12" t="inlineStr"/>
-      <c r="H140" s="12" t="inlineStr"/>
-      <c r="I140" s="12" t="inlineStr"/>
-      <c r="J140" s="12" t="inlineStr"/>
-      <c r="K140" s="12" t="inlineStr"/>
-      <c r="L140" s="12" t="inlineStr">
+      <c r="F140" s="17" t="inlineStr"/>
+      <c r="G140" s="17" t="inlineStr"/>
+      <c r="H140" s="17" t="inlineStr"/>
+      <c r="I140" s="17" t="inlineStr"/>
+      <c r="J140" s="17" t="inlineStr"/>
+      <c r="K140" s="17" t="inlineStr"/>
+      <c r="L140" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="20" t="inlineStr">
+      <c r="A141" s="9" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B141" s="21" t="inlineStr"/>
-      <c r="C141" s="22" t="inlineStr">
+      <c r="B141" s="10" t="inlineStr"/>
+      <c r="C141" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D141" s="20" t="inlineStr">
+      <c r="D141" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E141" s="23" t="inlineStr">
+      <c r="E141" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F141" s="20" t="inlineStr"/>
-      <c r="G141" s="20" t="inlineStr"/>
-      <c r="H141" s="24" t="inlineStr">
+      <c r="F141" s="9" t="inlineStr"/>
+      <c r="G141" s="9" t="inlineStr"/>
+      <c r="H141" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I141" s="20" t="inlineStr">
+      <c r="I141" s="9" t="inlineStr">
         <is>
           <t>70482</t>
         </is>
       </c>
-      <c r="J141" s="25" t="inlineStr">
+      <c r="J141" s="14" t="inlineStr">
         <is>
           <t>85000</t>
         </is>
       </c>
-      <c r="K141" s="20" t="inlineStr"/>
-      <c r="L141" s="20" t="inlineStr">
+      <c r="K141" s="9" t="inlineStr"/>
+      <c r="L141" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="20" t="inlineStr">
+      <c r="A142" s="9" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B142" s="21" t="inlineStr">
+      <c r="B142" s="10" t="inlineStr">
         <is>
           <t>LC Match: LC-308524012043/24
 Lender Amount: 85000.00
 Borrower Amount: 85000.00</t>
         </is>
       </c>
-      <c r="C142" s="20" t="inlineStr"/>
-      <c r="D142" s="20" t="inlineStr"/>
-      <c r="E142" s="26" t="inlineStr">
+      <c r="C142" s="9" t="inlineStr"/>
+      <c r="D142" s="9" t="inlineStr"/>
+      <c r="E142" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Port,Shipping &amp; Carrying Charges agt LC-308524012043/24-Transformer Unit-[Item-OLTC-Project-PBSH-G-89-Team-A][C-1164524]</t>
         </is>
       </c>
-      <c r="F142" s="20" t="inlineStr"/>
-      <c r="G142" s="20" t="inlineStr"/>
-      <c r="H142" s="20" t="inlineStr"/>
-      <c r="I142" s="20" t="inlineStr"/>
-      <c r="J142" s="20" t="inlineStr"/>
-      <c r="K142" s="20" t="inlineStr"/>
-      <c r="L142" s="20" t="inlineStr">
+      <c r="F142" s="9" t="inlineStr"/>
+      <c r="G142" s="9" t="inlineStr"/>
+      <c r="H142" s="9" t="inlineStr"/>
+      <c r="I142" s="9" t="inlineStr"/>
+      <c r="J142" s="9" t="inlineStr"/>
+      <c r="K142" s="9" t="inlineStr"/>
+      <c r="L142" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="20" t="inlineStr">
+      <c r="A143" s="9" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B143" s="21" t="inlineStr"/>
-      <c r="C143" s="20" t="inlineStr"/>
-      <c r="D143" s="20" t="inlineStr">
+      <c r="B143" s="10" t="inlineStr"/>
+      <c r="C143" s="9" t="inlineStr"/>
+      <c r="D143" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E143" s="27" t="inlineStr">
+      <c r="E143" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F143" s="20" t="inlineStr"/>
-      <c r="G143" s="20" t="inlineStr"/>
-      <c r="H143" s="20" t="inlineStr"/>
-      <c r="I143" s="20" t="inlineStr"/>
-      <c r="J143" s="20" t="inlineStr"/>
-      <c r="K143" s="20" t="inlineStr"/>
-      <c r="L143" s="20" t="inlineStr">
+      <c r="F143" s="9" t="inlineStr"/>
+      <c r="G143" s="9" t="inlineStr"/>
+      <c r="H143" s="9" t="inlineStr"/>
+      <c r="I143" s="9" t="inlineStr"/>
+      <c r="J143" s="9" t="inlineStr"/>
+      <c r="K143" s="9" t="inlineStr"/>
+      <c r="L143" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="12" t="inlineStr">
+      <c r="A144" s="17" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B144" s="13" t="inlineStr"/>
-      <c r="C144" s="14" t="inlineStr">
+      <c r="B144" s="18" t="inlineStr"/>
+      <c r="C144" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D144" s="12" t="inlineStr">
+      <c r="D144" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E144" s="15" t="inlineStr">
+      <c r="E144" s="20" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F144" s="12" t="inlineStr"/>
-      <c r="G144" s="12" t="inlineStr"/>
-      <c r="H144" s="16" t="inlineStr">
+      <c r="F144" s="17" t="inlineStr"/>
+      <c r="G144" s="17" t="inlineStr"/>
+      <c r="H144" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I144" s="12" t="inlineStr">
+      <c r="I144" s="17" t="inlineStr">
         <is>
           <t>70541</t>
         </is>
       </c>
-      <c r="J144" s="17" t="inlineStr">
+      <c r="J144" s="22" t="inlineStr">
         <is>
           <t>272808.31</t>
         </is>
       </c>
-      <c r="K144" s="12" t="inlineStr"/>
-      <c r="L144" s="12" t="inlineStr">
+      <c r="K144" s="17" t="inlineStr"/>
+      <c r="L144" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="12" t="inlineStr">
+      <c r="A145" s="17" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B145" s="13" t="inlineStr">
+      <c r="B145" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 272808.31
 Borrower Amount: 272808.31</t>
         </is>
       </c>
-      <c r="C145" s="12" t="inlineStr"/>
-      <c r="D145" s="12" t="inlineStr"/>
-      <c r="E145" s="18" t="inlineStr">
+      <c r="C145" s="17" t="inlineStr"/>
+      <c r="D145" s="17" t="inlineStr"/>
+      <c r="E145" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2435445106</t>
         </is>
       </c>
-      <c r="F145" s="12" t="inlineStr"/>
-      <c r="G145" s="12" t="inlineStr"/>
-      <c r="H145" s="12" t="inlineStr"/>
-      <c r="I145" s="12" t="inlineStr"/>
-      <c r="J145" s="12" t="inlineStr"/>
-      <c r="K145" s="12" t="inlineStr"/>
-      <c r="L145" s="12" t="inlineStr">
+      <c r="F145" s="17" t="inlineStr"/>
+      <c r="G145" s="17" t="inlineStr"/>
+      <c r="H145" s="17" t="inlineStr"/>
+      <c r="I145" s="17" t="inlineStr"/>
+      <c r="J145" s="17" t="inlineStr"/>
+      <c r="K145" s="17" t="inlineStr"/>
+      <c r="L145" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="12" t="inlineStr">
+      <c r="A146" s="17" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B146" s="13" t="inlineStr"/>
-      <c r="C146" s="12" t="inlineStr"/>
-      <c r="D146" s="12" t="inlineStr">
+      <c r="B146" s="18" t="inlineStr"/>
+      <c r="C146" s="17" t="inlineStr"/>
+      <c r="D146" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E146" s="19" t="inlineStr">
+      <c r="E146" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F146" s="12" t="inlineStr"/>
-      <c r="G146" s="12" t="inlineStr"/>
-      <c r="H146" s="12" t="inlineStr"/>
-      <c r="I146" s="12" t="inlineStr"/>
-      <c r="J146" s="12" t="inlineStr"/>
-      <c r="K146" s="12" t="inlineStr"/>
-      <c r="L146" s="12" t="inlineStr">
+      <c r="F146" s="17" t="inlineStr"/>
+      <c r="G146" s="17" t="inlineStr"/>
+      <c r="H146" s="17" t="inlineStr"/>
+      <c r="I146" s="17" t="inlineStr"/>
+      <c r="J146" s="17" t="inlineStr"/>
+      <c r="K146" s="17" t="inlineStr"/>
+      <c r="L146" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="20" t="inlineStr">
+      <c r="A147" s="9" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B147" s="21" t="inlineStr"/>
-      <c r="C147" s="22" t="inlineStr">
+      <c r="B147" s="10" t="inlineStr"/>
+      <c r="C147" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D147" s="20" t="inlineStr">
+      <c r="D147" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E147" s="23" t="inlineStr">
+      <c r="E147" s="12" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F147" s="20" t="inlineStr"/>
-      <c r="G147" s="20" t="inlineStr"/>
-      <c r="H147" s="24" t="inlineStr">
+      <c r="F147" s="9" t="inlineStr"/>
+      <c r="G147" s="9" t="inlineStr"/>
+      <c r="H147" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I147" s="20" t="inlineStr">
+      <c r="I147" s="9" t="inlineStr">
         <is>
           <t>70548</t>
         </is>
       </c>
-      <c r="J147" s="25" t="inlineStr">
+      <c r="J147" s="14" t="inlineStr">
         <is>
           <t>133619.23</t>
         </is>
       </c>
-      <c r="K147" s="20" t="inlineStr"/>
-      <c r="L147" s="20" t="inlineStr">
+      <c r="K147" s="9" t="inlineStr"/>
+      <c r="L147" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="20" t="inlineStr">
+      <c r="A148" s="9" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B148" s="21" t="inlineStr">
+      <c r="B148" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 133619.23
 Borrower Amount: 133619.23</t>
         </is>
       </c>
-      <c r="C148" s="20" t="inlineStr"/>
-      <c r="D148" s="20" t="inlineStr"/>
-      <c r="E148" s="26" t="inlineStr">
+      <c r="C148" s="9" t="inlineStr"/>
+      <c r="D148" s="9" t="inlineStr"/>
+      <c r="E148" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2503002237</t>
         </is>
       </c>
-      <c r="F148" s="20" t="inlineStr"/>
-      <c r="G148" s="20" t="inlineStr"/>
-      <c r="H148" s="20" t="inlineStr"/>
-      <c r="I148" s="20" t="inlineStr"/>
-      <c r="J148" s="20" t="inlineStr"/>
-      <c r="K148" s="20" t="inlineStr"/>
-      <c r="L148" s="20" t="inlineStr">
+      <c r="F148" s="9" t="inlineStr"/>
+      <c r="G148" s="9" t="inlineStr"/>
+      <c r="H148" s="9" t="inlineStr"/>
+      <c r="I148" s="9" t="inlineStr"/>
+      <c r="J148" s="9" t="inlineStr"/>
+      <c r="K148" s="9" t="inlineStr"/>
+      <c r="L148" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="20" t="inlineStr">
+      <c r="A149" s="9" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B149" s="21" t="inlineStr"/>
-      <c r="C149" s="20" t="inlineStr"/>
-      <c r="D149" s="20" t="inlineStr">
+      <c r="B149" s="10" t="inlineStr"/>
+      <c r="C149" s="9" t="inlineStr"/>
+      <c r="D149" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E149" s="27" t="inlineStr">
+      <c r="E149" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F149" s="20" t="inlineStr"/>
-      <c r="G149" s="20" t="inlineStr"/>
-      <c r="H149" s="20" t="inlineStr"/>
-      <c r="I149" s="20" t="inlineStr"/>
-      <c r="J149" s="20" t="inlineStr"/>
-      <c r="K149" s="20" t="inlineStr"/>
-      <c r="L149" s="20" t="inlineStr">
+      <c r="F149" s="9" t="inlineStr"/>
+      <c r="G149" s="9" t="inlineStr"/>
+      <c r="H149" s="9" t="inlineStr"/>
+      <c r="I149" s="9" t="inlineStr"/>
+      <c r="J149" s="9" t="inlineStr"/>
+      <c r="K149" s="9" t="inlineStr"/>
+      <c r="L149" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="12" t="inlineStr">
+      <c r="A150" s="17" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B150" s="13" t="inlineStr"/>
-      <c r="C150" s="14" t="inlineStr">
+      <c r="B150" s="18" t="inlineStr"/>
+      <c r="C150" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D150" s="12" t="inlineStr">
+      <c r="D150" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E150" s="15" t="inlineStr">
+      <c r="E150" s="20" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F150" s="12" t="inlineStr"/>
-      <c r="G150" s="12" t="inlineStr"/>
-      <c r="H150" s="16" t="inlineStr">
+      <c r="F150" s="17" t="inlineStr"/>
+      <c r="G150" s="17" t="inlineStr"/>
+      <c r="H150" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I150" s="12" t="inlineStr">
+      <c r="I150" s="17" t="inlineStr">
         <is>
           <t>70809</t>
         </is>
       </c>
-      <c r="J150" s="17" t="inlineStr">
+      <c r="J150" s="22" t="inlineStr">
         <is>
           <t>174172.7</t>
         </is>
       </c>
-      <c r="K150" s="12" t="inlineStr"/>
-      <c r="L150" s="12" t="inlineStr">
+      <c r="K150" s="17" t="inlineStr"/>
+      <c r="L150" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="12" t="inlineStr">
+      <c r="A151" s="17" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B151" s="13" t="inlineStr">
+      <c r="B151" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 174172.70
 Borrower Amount: 174172.70</t>
         </is>
       </c>
-      <c r="C151" s="12" t="inlineStr"/>
-      <c r="D151" s="12" t="inlineStr"/>
-      <c r="E151" s="18" t="inlineStr">
+      <c r="C151" s="17" t="inlineStr"/>
+      <c r="D151" s="17" t="inlineStr"/>
+      <c r="E151" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest repayment of Time Loan-CIL Transformer-LD-2432680080</t>
         </is>
       </c>
-      <c r="F151" s="12" t="inlineStr"/>
-      <c r="G151" s="12" t="inlineStr"/>
-      <c r="H151" s="12" t="inlineStr"/>
-      <c r="I151" s="12" t="inlineStr"/>
-      <c r="J151" s="12" t="inlineStr"/>
-      <c r="K151" s="12" t="inlineStr"/>
-      <c r="L151" s="12" t="inlineStr">
+      <c r="F151" s="17" t="inlineStr"/>
+      <c r="G151" s="17" t="inlineStr"/>
+      <c r="H151" s="17" t="inlineStr"/>
+      <c r="I151" s="17" t="inlineStr"/>
+      <c r="J151" s="17" t="inlineStr"/>
+      <c r="K151" s="17" t="inlineStr"/>
+      <c r="L151" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="12" t="inlineStr">
+      <c r="A152" s="17" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B152" s="13" t="inlineStr"/>
-      <c r="C152" s="12" t="inlineStr"/>
-      <c r="D152" s="12" t="inlineStr">
+      <c r="B152" s="18" t="inlineStr"/>
+      <c r="C152" s="17" t="inlineStr"/>
+      <c r="D152" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E152" s="19" t="inlineStr">
+      <c r="E152" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F152" s="12" t="inlineStr"/>
-      <c r="G152" s="12" t="inlineStr"/>
-      <c r="H152" s="12" t="inlineStr"/>
-      <c r="I152" s="12" t="inlineStr"/>
-      <c r="J152" s="12" t="inlineStr"/>
-      <c r="K152" s="12" t="inlineStr"/>
-      <c r="L152" s="12" t="inlineStr">
+      <c r="F152" s="17" t="inlineStr"/>
+      <c r="G152" s="17" t="inlineStr"/>
+      <c r="H152" s="17" t="inlineStr"/>
+      <c r="I152" s="17" t="inlineStr"/>
+      <c r="J152" s="17" t="inlineStr"/>
+      <c r="K152" s="17" t="inlineStr"/>
+      <c r="L152" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr"/>
-      <c r="B153" s="2" t="inlineStr"/>
-      <c r="C153" s="6" t="inlineStr">
+      <c r="A153" s="9" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B153" s="10" t="inlineStr"/>
+      <c r="C153" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D153" s="1" t="inlineStr">
+      <c r="D153" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E153" s="7" t="inlineStr">
+      <c r="E153" s="12" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F153" s="1" t="inlineStr"/>
-      <c r="G153" s="1" t="inlineStr"/>
-      <c r="H153" s="9" t="inlineStr">
+      <c r="F153" s="9" t="inlineStr"/>
+      <c r="G153" s="9" t="inlineStr"/>
+      <c r="H153" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I153" s="1" t="inlineStr">
+      <c r="I153" s="9" t="inlineStr">
         <is>
           <t>70810</t>
         </is>
       </c>
-      <c r="J153" s="8" t="inlineStr">
+      <c r="J153" s="14" t="inlineStr">
         <is>
           <t>83197.81</t>
         </is>
       </c>
-      <c r="K153" s="1" t="inlineStr"/>
-      <c r="L153" s="1" t="inlineStr"/>
+      <c r="K153" s="9" t="inlineStr"/>
+      <c r="L153" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr"/>
-      <c r="B154" s="2" t="inlineStr"/>
-      <c r="C154" s="1" t="inlineStr"/>
-      <c r="D154" s="1" t="inlineStr"/>
-      <c r="E154" s="10" t="inlineStr">
+      <c r="A154" s="9" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B154" s="10" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: PBL#10855
+Lender Amount: 83197.81
+Borrower Amount: 83197.81</t>
+        </is>
+      </c>
+      <c r="C154" s="9" t="inlineStr"/>
+      <c r="D154" s="9" t="inlineStr"/>
+      <c r="E154" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2502802705</t>
         </is>
       </c>
-      <c r="F154" s="1" t="inlineStr"/>
-      <c r="G154" s="1" t="inlineStr"/>
-      <c r="H154" s="1" t="inlineStr"/>
-      <c r="I154" s="1" t="inlineStr"/>
-      <c r="J154" s="1" t="inlineStr"/>
-      <c r="K154" s="1" t="inlineStr"/>
-      <c r="L154" s="1" t="inlineStr"/>
+      <c r="F154" s="9" t="inlineStr"/>
+      <c r="G154" s="9" t="inlineStr"/>
+      <c r="H154" s="9" t="inlineStr"/>
+      <c r="I154" s="9" t="inlineStr"/>
+      <c r="J154" s="9" t="inlineStr"/>
+      <c r="K154" s="9" t="inlineStr"/>
+      <c r="L154" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr"/>
-      <c r="B155" s="2" t="inlineStr"/>
-      <c r="C155" s="1" t="inlineStr"/>
-      <c r="D155" s="1" t="inlineStr">
+      <c r="A155" s="9" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B155" s="10" t="inlineStr"/>
+      <c r="C155" s="9" t="inlineStr"/>
+      <c r="D155" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E155" s="11" t="inlineStr">
+      <c r="E155" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F155" s="1" t="inlineStr"/>
-      <c r="G155" s="1" t="inlineStr"/>
-      <c r="H155" s="1" t="inlineStr"/>
-      <c r="I155" s="1" t="inlineStr"/>
-      <c r="J155" s="1" t="inlineStr"/>
-      <c r="K155" s="1" t="inlineStr"/>
-      <c r="L155" s="1" t="inlineStr"/>
+      <c r="F155" s="9" t="inlineStr"/>
+      <c r="G155" s="9" t="inlineStr"/>
+      <c r="H155" s="9" t="inlineStr"/>
+      <c r="I155" s="9" t="inlineStr"/>
+      <c r="J155" s="9" t="inlineStr"/>
+      <c r="K155" s="9" t="inlineStr"/>
+      <c r="L155" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr"/>
-      <c r="B156" s="2" t="inlineStr"/>
-      <c r="C156" s="6" t="inlineStr">
+      <c r="A156" s="17" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B156" s="18" t="inlineStr"/>
+      <c r="C156" s="19" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D156" s="1" t="inlineStr">
+      <c r="D156" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E156" s="7" t="inlineStr">
+      <c r="E156" s="20" t="inlineStr">
         <is>
           <t>Eastern Bank,STD-1011220144056</t>
         </is>
       </c>
-      <c r="F156" s="1" t="inlineStr"/>
-      <c r="G156" s="1" t="inlineStr"/>
-      <c r="H156" s="9" t="inlineStr">
+      <c r="F156" s="17" t="inlineStr"/>
+      <c r="G156" s="17" t="inlineStr"/>
+      <c r="H156" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I156" s="1" t="inlineStr">
+      <c r="I156" s="17" t="inlineStr">
         <is>
           <t>70557</t>
         </is>
       </c>
-      <c r="J156" s="8" t="inlineStr">
+      <c r="J156" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K156" s="1" t="inlineStr"/>
-      <c r="L156" s="1" t="inlineStr"/>
+      <c r="K156" s="17" t="inlineStr"/>
+      <c r="L156" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr"/>
-      <c r="B157" s="2" t="inlineStr"/>
-      <c r="C157" s="1" t="inlineStr"/>
-      <c r="D157" s="1" t="inlineStr"/>
-      <c r="E157" s="10" t="inlineStr">
+      <c r="A157" s="17" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B157" s="18" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: EBL#4056
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C157" s="17" t="inlineStr"/>
+      <c r="D157" s="17" t="inlineStr"/>
+      <c r="E157" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Inter Unit Loan A/C-Transformer Unit, EBL#44067</t>
         </is>
       </c>
-      <c r="F157" s="1" t="inlineStr"/>
-      <c r="G157" s="1" t="inlineStr"/>
-      <c r="H157" s="1" t="inlineStr"/>
-      <c r="I157" s="1" t="inlineStr"/>
-      <c r="J157" s="1" t="inlineStr"/>
-      <c r="K157" s="1" t="inlineStr"/>
-      <c r="L157" s="1" t="inlineStr"/>
+      <c r="F157" s="17" t="inlineStr"/>
+      <c r="G157" s="17" t="inlineStr"/>
+      <c r="H157" s="17" t="inlineStr"/>
+      <c r="I157" s="17" t="inlineStr"/>
+      <c r="J157" s="17" t="inlineStr"/>
+      <c r="K157" s="17" t="inlineStr"/>
+      <c r="L157" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr"/>
-      <c r="B158" s="2" t="inlineStr"/>
-      <c r="C158" s="1" t="inlineStr"/>
-      <c r="D158" s="1" t="inlineStr">
+      <c r="A158" s="17" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B158" s="18" t="inlineStr"/>
+      <c r="C158" s="17" t="inlineStr"/>
+      <c r="D158" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E158" s="11" t="inlineStr">
+      <c r="E158" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F158" s="1" t="inlineStr"/>
-      <c r="G158" s="1" t="inlineStr"/>
-      <c r="H158" s="1" t="inlineStr"/>
-      <c r="I158" s="1" t="inlineStr"/>
-      <c r="J158" s="1" t="inlineStr"/>
-      <c r="K158" s="1" t="inlineStr"/>
-      <c r="L158" s="1" t="inlineStr"/>
+      <c r="F158" s="17" t="inlineStr"/>
+      <c r="G158" s="17" t="inlineStr"/>
+      <c r="H158" s="17" t="inlineStr"/>
+      <c r="I158" s="17" t="inlineStr"/>
+      <c r="J158" s="17" t="inlineStr"/>
+      <c r="K158" s="17" t="inlineStr"/>
+      <c r="L158" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr"/>
-      <c r="B159" s="2" t="inlineStr"/>
-      <c r="C159" s="6" t="inlineStr">
+      <c r="A159" s="9" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B159" s="10" t="inlineStr"/>
+      <c r="C159" s="11" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D159" s="1" t="inlineStr">
+      <c r="D159" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E159" s="7" t="inlineStr">
+      <c r="E159" s="12" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F159" s="1" t="inlineStr"/>
-      <c r="G159" s="1" t="inlineStr"/>
-      <c r="H159" s="9" t="inlineStr">
+      <c r="F159" s="9" t="inlineStr"/>
+      <c r="G159" s="9" t="inlineStr"/>
+      <c r="H159" s="13" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I159" s="1" t="inlineStr">
+      <c r="I159" s="9" t="inlineStr">
         <is>
           <t>964</t>
         </is>
       </c>
-      <c r="J159" s="1" t="inlineStr"/>
-      <c r="K159" s="8" t="inlineStr">
+      <c r="J159" s="9" t="inlineStr"/>
+      <c r="K159" s="14" t="inlineStr">
         <is>
           <t>50000</t>
         </is>
       </c>
-      <c r="L159" s="1" t="inlineStr"/>
+      <c r="L159" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr"/>
-      <c r="B160" s="2" t="inlineStr"/>
-      <c r="C160" s="1" t="inlineStr"/>
-      <c r="D160" s="1" t="inlineStr"/>
-      <c r="E160" s="10" t="inlineStr">
+      <c r="A160" s="9" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B160" s="10" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: PBL#1060
+Lender Amount: 50000.00
+Borrower Amount: 50000.00</t>
+        </is>
+      </c>
+      <c r="C160" s="9" t="inlineStr"/>
+      <c r="D160" s="9" t="inlineStr"/>
+      <c r="E160" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Inter Unit Loan A/C-Transformer Unit,PBL#1060</t>
         </is>
       </c>
-      <c r="F160" s="1" t="inlineStr"/>
-      <c r="G160" s="1" t="inlineStr"/>
-      <c r="H160" s="1" t="inlineStr"/>
-      <c r="I160" s="1" t="inlineStr"/>
-      <c r="J160" s="1" t="inlineStr"/>
-      <c r="K160" s="1" t="inlineStr"/>
-      <c r="L160" s="1" t="inlineStr"/>
+      <c r="F160" s="9" t="inlineStr"/>
+      <c r="G160" s="9" t="inlineStr"/>
+      <c r="H160" s="9" t="inlineStr"/>
+      <c r="I160" s="9" t="inlineStr"/>
+      <c r="J160" s="9" t="inlineStr"/>
+      <c r="K160" s="9" t="inlineStr"/>
+      <c r="L160" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr"/>
-      <c r="B161" s="2" t="inlineStr"/>
-      <c r="C161" s="1" t="inlineStr"/>
-      <c r="D161" s="1" t="inlineStr">
+      <c r="A161" s="9" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B161" s="10" t="inlineStr"/>
+      <c r="C161" s="9" t="inlineStr"/>
+      <c r="D161" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E161" s="11" t="inlineStr">
+      <c r="E161" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F161" s="1" t="inlineStr"/>
-      <c r="G161" s="1" t="inlineStr"/>
-      <c r="H161" s="1" t="inlineStr"/>
-      <c r="I161" s="1" t="inlineStr"/>
-      <c r="J161" s="1" t="inlineStr"/>
-      <c r="K161" s="1" t="inlineStr"/>
-      <c r="L161" s="1" t="inlineStr"/>
+      <c r="F161" s="9" t="inlineStr"/>
+      <c r="G161" s="9" t="inlineStr"/>
+      <c r="H161" s="9" t="inlineStr"/>
+      <c r="I161" s="9" t="inlineStr"/>
+      <c r="J161" s="9" t="inlineStr"/>
+      <c r="K161" s="9" t="inlineStr"/>
+      <c r="L161" s="9" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="162">
-      <c r="A162" s="20" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B162" s="21" t="inlineStr"/>
-      <c r="C162" s="22" t="inlineStr">
+      <c r="A162" s="17" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B162" s="18" t="inlineStr"/>
+      <c r="C162" s="19" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D162" s="20" t="inlineStr">
+      <c r="D162" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E162" s="23" t="inlineStr">
+      <c r="E162" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F162" s="20" t="inlineStr"/>
-      <c r="G162" s="20" t="inlineStr"/>
-      <c r="H162" s="24" t="inlineStr">
+      <c r="F162" s="17" t="inlineStr"/>
+      <c r="G162" s="17" t="inlineStr"/>
+      <c r="H162" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I162" s="20" t="inlineStr">
+      <c r="I162" s="17" t="inlineStr">
         <is>
           <t>70775</t>
         </is>
       </c>
-      <c r="J162" s="25" t="inlineStr">
+      <c r="J162" s="22" t="inlineStr">
         <is>
           <t>4000000</t>
         </is>
       </c>
-      <c r="K162" s="20" t="inlineStr"/>
-      <c r="L162" s="20" t="inlineStr">
+      <c r="K162" s="17" t="inlineStr"/>
+      <c r="L162" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="20" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B163" s="21" t="inlineStr">
-        <is>
-          <t>Interunit Loan Match: MDB#0313 &lt;-&gt; MDB#0331
+      <c r="A163" s="17" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B163" s="18" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#0331
 Lender Amount: 4000000.00
 Borrower Amount: 4000000.00</t>
         </is>
       </c>
-      <c r="C163" s="20" t="inlineStr"/>
-      <c r="D163" s="20" t="inlineStr"/>
-      <c r="E163" s="26" t="inlineStr">
+      <c r="C163" s="17" t="inlineStr"/>
+      <c r="D163" s="17" t="inlineStr"/>
+      <c r="E163" s="23" t="inlineStr">
         <is>
           <t>Interunit Fund Transfer as Inter Unit Loan A/C-Transformer Unit, MDB#0313</t>
         </is>
       </c>
-      <c r="F163" s="20" t="inlineStr"/>
-      <c r="G163" s="20" t="inlineStr"/>
-      <c r="H163" s="20" t="inlineStr"/>
-      <c r="I163" s="20" t="inlineStr"/>
-      <c r="J163" s="20" t="inlineStr"/>
-      <c r="K163" s="20" t="inlineStr"/>
-      <c r="L163" s="20" t="inlineStr">
+      <c r="F163" s="17" t="inlineStr"/>
+      <c r="G163" s="17" t="inlineStr"/>
+      <c r="H163" s="17" t="inlineStr"/>
+      <c r="I163" s="17" t="inlineStr"/>
+      <c r="J163" s="17" t="inlineStr"/>
+      <c r="K163" s="17" t="inlineStr"/>
+      <c r="L163" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="20" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B164" s="21" t="inlineStr"/>
-      <c r="C164" s="20" t="inlineStr"/>
-      <c r="D164" s="20" t="inlineStr">
+      <c r="A164" s="17" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B164" s="18" t="inlineStr"/>
+      <c r="C164" s="17" t="inlineStr"/>
+      <c r="D164" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E164" s="27" t="inlineStr">
+      <c r="E164" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F164" s="20" t="inlineStr"/>
-      <c r="G164" s="20" t="inlineStr"/>
-      <c r="H164" s="20" t="inlineStr"/>
-      <c r="I164" s="20" t="inlineStr"/>
-      <c r="J164" s="20" t="inlineStr"/>
-      <c r="K164" s="20" t="inlineStr"/>
-      <c r="L164" s="20" t="inlineStr">
+      <c r="F164" s="17" t="inlineStr"/>
+      <c r="G164" s="17" t="inlineStr"/>
+      <c r="H164" s="17" t="inlineStr"/>
+      <c r="I164" s="17" t="inlineStr"/>
+      <c r="J164" s="17" t="inlineStr"/>
+      <c r="K164" s="17" t="inlineStr"/>
+      <c r="L164" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr"/>
-      <c r="B165" s="2" t="inlineStr"/>
-      <c r="C165" s="6" t="inlineStr">
+      <c r="A165" s="9" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B165" s="10" t="inlineStr"/>
+      <c r="C165" s="11" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
         </is>
       </c>
-      <c r="D165" s="1" t="inlineStr">
+      <c r="D165" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E165" s="7" t="inlineStr">
+      <c r="E165" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F165" s="1" t="inlineStr"/>
-      <c r="G165" s="1" t="inlineStr"/>
-      <c r="H165" s="9" t="inlineStr">
+      <c r="F165" s="9" t="inlineStr"/>
+      <c r="G165" s="9" t="inlineStr"/>
+      <c r="H165" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I165" s="1" t="inlineStr">
+      <c r="I165" s="9" t="inlineStr">
         <is>
           <t>70687</t>
         </is>
       </c>
-      <c r="J165" s="8" t="inlineStr">
+      <c r="J165" s="14" t="inlineStr">
         <is>
           <t>5137392</t>
         </is>
       </c>
-      <c r="K165" s="1" t="inlineStr"/>
-      <c r="L165" s="1" t="inlineStr"/>
+      <c r="K165" s="9" t="inlineStr"/>
+      <c r="L165" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr"/>
-      <c r="B166" s="2" t="inlineStr"/>
-      <c r="C166" s="1" t="inlineStr"/>
-      <c r="D166" s="1" t="inlineStr"/>
-      <c r="E166" s="10" t="inlineStr">
+      <c r="A166" s="9" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B166" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 5137392.00
+Borrower Amount: 5137392.00</t>
+        </is>
+      </c>
+      <c r="C166" s="9" t="inlineStr"/>
+      <c r="D166" s="9" t="inlineStr"/>
+      <c r="E166" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(RR Imperial Electricals Limited)</t>
         </is>
       </c>
-      <c r="F166" s="1" t="inlineStr"/>
-      <c r="G166" s="1" t="inlineStr"/>
-      <c r="H166" s="1" t="inlineStr"/>
-      <c r="I166" s="1" t="inlineStr"/>
-      <c r="J166" s="1" t="inlineStr"/>
-      <c r="K166" s="1" t="inlineStr"/>
-      <c r="L166" s="1" t="inlineStr"/>
+      <c r="F166" s="9" t="inlineStr"/>
+      <c r="G166" s="9" t="inlineStr"/>
+      <c r="H166" s="9" t="inlineStr"/>
+      <c r="I166" s="9" t="inlineStr"/>
+      <c r="J166" s="9" t="inlineStr"/>
+      <c r="K166" s="9" t="inlineStr"/>
+      <c r="L166" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr"/>
-      <c r="B167" s="2" t="inlineStr"/>
-      <c r="C167" s="1" t="inlineStr"/>
-      <c r="D167" s="1" t="inlineStr">
+      <c r="A167" s="9" t="inlineStr">
+        <is>
+          <t>M067</t>
+        </is>
+      </c>
+      <c r="B167" s="10" t="inlineStr"/>
+      <c r="C167" s="9" t="inlineStr"/>
+      <c r="D167" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E167" s="11" t="inlineStr">
+      <c r="E167" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F167" s="1" t="inlineStr"/>
-      <c r="G167" s="1" t="inlineStr"/>
-      <c r="H167" s="1" t="inlineStr"/>
-      <c r="I167" s="1" t="inlineStr"/>
-      <c r="J167" s="1" t="inlineStr"/>
-      <c r="K167" s="1" t="inlineStr"/>
-      <c r="L167" s="1" t="inlineStr"/>
+      <c r="F167" s="9" t="inlineStr"/>
+      <c r="G167" s="9" t="inlineStr"/>
+      <c r="H167" s="9" t="inlineStr"/>
+      <c r="I167" s="9" t="inlineStr"/>
+      <c r="J167" s="9" t="inlineStr"/>
+      <c r="K167" s="9" t="inlineStr"/>
+      <c r="L167" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr"/>
-      <c r="B168" s="2" t="inlineStr"/>
-      <c r="C168" s="6" t="inlineStr">
+      <c r="A168" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B168" s="18" t="inlineStr"/>
+      <c r="C168" s="19" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D168" s="1" t="inlineStr">
+      <c r="D168" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E168" s="7" t="inlineStr">
+      <c r="E168" s="20" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F168" s="1" t="inlineStr"/>
-      <c r="G168" s="1" t="inlineStr"/>
-      <c r="H168" s="9" t="inlineStr">
+      <c r="F168" s="17" t="inlineStr"/>
+      <c r="G168" s="17" t="inlineStr"/>
+      <c r="H168" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I168" s="1" t="inlineStr">
+      <c r="I168" s="17" t="inlineStr">
         <is>
           <t>70593</t>
         </is>
       </c>
-      <c r="J168" s="8" t="inlineStr">
+      <c r="J168" s="22" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="K168" s="1" t="inlineStr"/>
-      <c r="L168" s="1" t="inlineStr"/>
+      <c r="K168" s="17" t="inlineStr"/>
+      <c r="L168" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr"/>
-      <c r="B169" s="2" t="inlineStr"/>
-      <c r="C169" s="1" t="inlineStr"/>
-      <c r="D169" s="1" t="inlineStr"/>
-      <c r="E169" s="7" t="inlineStr">
+      <c r="A169" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B169" s="18" t="inlineStr"/>
+      <c r="C169" s="17" t="inlineStr"/>
+      <c r="D169" s="17" t="inlineStr"/>
+      <c r="E169" s="20" t="inlineStr">
         <is>
           <t>Inter Unit Loan A/C-Dredging Unit</t>
         </is>
       </c>
-      <c r="F169" s="1" t="inlineStr"/>
-      <c r="G169" s="1" t="inlineStr"/>
-      <c r="H169" s="1" t="inlineStr"/>
-      <c r="I169" s="1" t="inlineStr"/>
-      <c r="J169" s="8" t="inlineStr">
+      <c r="F169" s="17" t="inlineStr"/>
+      <c r="G169" s="17" t="inlineStr"/>
+      <c r="H169" s="17" t="inlineStr"/>
+      <c r="I169" s="17" t="inlineStr"/>
+      <c r="J169" s="22" t="inlineStr">
         <is>
           <t>3000000</t>
         </is>
       </c>
-      <c r="K169" s="1" t="inlineStr"/>
-      <c r="L169" s="1" t="inlineStr"/>
+      <c r="K169" s="17" t="inlineStr"/>
+      <c r="L169" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr"/>
-      <c r="B170" s="2" t="inlineStr"/>
-      <c r="C170" s="1" t="inlineStr"/>
-      <c r="D170" s="1" t="inlineStr"/>
-      <c r="E170" s="7" t="inlineStr">
+      <c r="A170" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B170" s="18" t="inlineStr"/>
+      <c r="C170" s="17" t="inlineStr"/>
+      <c r="D170" s="17" t="inlineStr"/>
+      <c r="E170" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F170" s="1" t="inlineStr"/>
-      <c r="G170" s="1" t="inlineStr"/>
-      <c r="H170" s="1" t="inlineStr"/>
-      <c r="I170" s="1" t="inlineStr"/>
-      <c r="J170" s="1" t="inlineStr"/>
-      <c r="K170" s="8" t="inlineStr">
+      <c r="F170" s="17" t="inlineStr"/>
+      <c r="G170" s="17" t="inlineStr"/>
+      <c r="H170" s="17" t="inlineStr"/>
+      <c r="I170" s="17" t="inlineStr"/>
+      <c r="J170" s="17" t="inlineStr"/>
+      <c r="K170" s="22" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L170" s="1" t="inlineStr"/>
+      <c r="L170" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr"/>
-      <c r="B171" s="2" t="inlineStr"/>
-      <c r="C171" s="1" t="inlineStr"/>
-      <c r="D171" s="1" t="inlineStr"/>
-      <c r="E171" s="7" t="inlineStr">
+      <c r="A171" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B171" s="18" t="inlineStr"/>
+      <c r="C171" s="17" t="inlineStr"/>
+      <c r="D171" s="17" t="inlineStr"/>
+      <c r="E171" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F171" s="1" t="inlineStr"/>
-      <c r="G171" s="1" t="inlineStr"/>
-      <c r="H171" s="1" t="inlineStr"/>
-      <c r="I171" s="1" t="inlineStr"/>
-      <c r="J171" s="1" t="inlineStr"/>
-      <c r="K171" s="8" t="inlineStr">
+      <c r="F171" s="17" t="inlineStr"/>
+      <c r="G171" s="17" t="inlineStr"/>
+      <c r="H171" s="17" t="inlineStr"/>
+      <c r="I171" s="17" t="inlineStr"/>
+      <c r="J171" s="17" t="inlineStr"/>
+      <c r="K171" s="22" t="inlineStr">
         <is>
           <t>3000000</t>
         </is>
       </c>
-      <c r="L171" s="1" t="inlineStr"/>
+      <c r="L171" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr"/>
-      <c r="B172" s="2" t="inlineStr"/>
-      <c r="C172" s="1" t="inlineStr"/>
-      <c r="D172" s="1" t="inlineStr"/>
-      <c r="E172" s="10" t="inlineStr">
+      <c r="A172" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B172" s="18" t="inlineStr">
+        <is>
+          <t>Interunit Loan Match: MDB#0331
+Lender Amount: 400000.00
+Borrower Amount: 400000.00</t>
+        </is>
+      </c>
+      <c r="C172" s="17" t="inlineStr"/>
+      <c r="D172" s="17" t="inlineStr"/>
+      <c r="E172" s="23" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit, MDB#0313 &amp; Inter Unit Loan A/C-Dredging Unit, MDB#0322</t>
         </is>
       </c>
-      <c r="F172" s="1" t="inlineStr"/>
-      <c r="G172" s="1" t="inlineStr"/>
-      <c r="H172" s="1" t="inlineStr"/>
-      <c r="I172" s="1" t="inlineStr"/>
-      <c r="J172" s="1" t="inlineStr"/>
-      <c r="K172" s="1" t="inlineStr"/>
-      <c r="L172" s="1" t="inlineStr"/>
+      <c r="F172" s="17" t="inlineStr"/>
+      <c r="G172" s="17" t="inlineStr"/>
+      <c r="H172" s="17" t="inlineStr"/>
+      <c r="I172" s="17" t="inlineStr"/>
+      <c r="J172" s="17" t="inlineStr"/>
+      <c r="K172" s="17" t="inlineStr"/>
+      <c r="L172" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr"/>
-      <c r="B173" s="2" t="inlineStr"/>
-      <c r="C173" s="1" t="inlineStr"/>
-      <c r="D173" s="1" t="inlineStr">
+      <c r="A173" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B173" s="18" t="inlineStr"/>
+      <c r="C173" s="17" t="inlineStr"/>
+      <c r="D173" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E173" s="11" t="inlineStr">
+      <c r="E173" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F173" s="1" t="inlineStr"/>
-      <c r="G173" s="1" t="inlineStr"/>
-      <c r="H173" s="1" t="inlineStr"/>
-      <c r="I173" s="1" t="inlineStr"/>
-      <c r="J173" s="1" t="inlineStr"/>
-      <c r="K173" s="1" t="inlineStr"/>
-      <c r="L173" s="1" t="inlineStr"/>
+      <c r="F173" s="17" t="inlineStr"/>
+      <c r="G173" s="17" t="inlineStr"/>
+      <c r="H173" s="17" t="inlineStr"/>
+      <c r="I173" s="17" t="inlineStr"/>
+      <c r="J173" s="17" t="inlineStr"/>
+      <c r="K173" s="17" t="inlineStr"/>
+      <c r="L173" s="17" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr"/>
-      <c r="B174" s="2" t="inlineStr"/>
-      <c r="C174" s="6" t="inlineStr">
+      <c r="A174" s="9" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B174" s="10" t="inlineStr"/>
+      <c r="C174" s="11" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D174" s="1" t="inlineStr">
+      <c r="D174" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E174" s="7" t="inlineStr">
+      <c r="E174" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F174" s="1" t="inlineStr"/>
-      <c r="G174" s="1" t="inlineStr"/>
-      <c r="H174" s="9" t="inlineStr">
+      <c r="F174" s="9" t="inlineStr"/>
+      <c r="G174" s="9" t="inlineStr"/>
+      <c r="H174" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I174" s="1" t="inlineStr">
+      <c r="I174" s="9" t="inlineStr">
         <is>
           <t>70686</t>
         </is>
       </c>
-      <c r="J174" s="8" t="inlineStr">
+      <c r="J174" s="14" t="inlineStr">
         <is>
           <t>11780452</t>
         </is>
       </c>
-      <c r="K174" s="1" t="inlineStr"/>
-      <c r="L174" s="1" t="inlineStr"/>
+      <c r="K174" s="9" t="inlineStr"/>
+      <c r="L174" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr"/>
-      <c r="B175" s="2" t="inlineStr"/>
-      <c r="C175" s="1" t="inlineStr"/>
-      <c r="D175" s="1" t="inlineStr"/>
-      <c r="E175" s="10" t="inlineStr">
+      <c r="A175" s="9" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B175" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11780452.00
+Borrower Amount: 11780452.00</t>
+        </is>
+      </c>
+      <c r="C175" s="9" t="inlineStr"/>
+      <c r="D175" s="9" t="inlineStr"/>
+      <c r="E175" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Rangpur Metal Industries Ltd.)</t>
         </is>
       </c>
-      <c r="F175" s="1" t="inlineStr"/>
-      <c r="G175" s="1" t="inlineStr"/>
-      <c r="H175" s="1" t="inlineStr"/>
-      <c r="I175" s="1" t="inlineStr"/>
-      <c r="J175" s="1" t="inlineStr"/>
-      <c r="K175" s="1" t="inlineStr"/>
-      <c r="L175" s="1" t="inlineStr"/>
+      <c r="F175" s="9" t="inlineStr"/>
+      <c r="G175" s="9" t="inlineStr"/>
+      <c r="H175" s="9" t="inlineStr"/>
+      <c r="I175" s="9" t="inlineStr"/>
+      <c r="J175" s="9" t="inlineStr"/>
+      <c r="K175" s="9" t="inlineStr"/>
+      <c r="L175" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr"/>
-      <c r="B176" s="2" t="inlineStr"/>
-      <c r="C176" s="1" t="inlineStr"/>
-      <c r="D176" s="1" t="inlineStr">
+      <c r="A176" s="9" t="inlineStr">
+        <is>
+          <t>M068</t>
+        </is>
+      </c>
+      <c r="B176" s="10" t="inlineStr"/>
+      <c r="C176" s="9" t="inlineStr"/>
+      <c r="D176" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E176" s="11" t="inlineStr">
+      <c r="E176" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F176" s="1" t="inlineStr"/>
-      <c r="G176" s="1" t="inlineStr"/>
-      <c r="H176" s="1" t="inlineStr"/>
-      <c r="I176" s="1" t="inlineStr"/>
-      <c r="J176" s="1" t="inlineStr"/>
-      <c r="K176" s="1" t="inlineStr"/>
-      <c r="L176" s="1" t="inlineStr"/>
+      <c r="F176" s="9" t="inlineStr"/>
+      <c r="G176" s="9" t="inlineStr"/>
+      <c r="H176" s="9" t="inlineStr"/>
+      <c r="I176" s="9" t="inlineStr"/>
+      <c r="J176" s="9" t="inlineStr"/>
+      <c r="K176" s="9" t="inlineStr"/>
+      <c r="L176" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr"/>
@@ -5400,7 +6711,7 @@
       <c r="H177" s="1" t="inlineStr"/>
       <c r="I177" s="1" t="inlineStr"/>
       <c r="J177" s="1" t="inlineStr"/>
-      <c r="K177" s="28" t="inlineStr">
+      <c r="K177" s="25" t="inlineStr">
         <is>
           <t>95590149.25</t>
         </is>
@@ -5448,7 +6759,7 @@
       <c r="H179" s="1" t="inlineStr"/>
       <c r="I179" s="1" t="inlineStr"/>
       <c r="J179" s="1" t="inlineStr"/>
-      <c r="K179" s="28" t="inlineStr">
+      <c r="K179" s="25" t="inlineStr">
         <is>
           <t>95590149.25</t>
         </is>

--- a/Resources/Steel-Trans/Steel book Trans_MATCHED.xlsx
+++ b/Resources/Steel-Trans/Steel book Trans_MATCHED.xlsx
@@ -765,7 +765,7 @@
     <row r="11">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M030</t>
         </is>
       </c>
       <c r="B11" s="10" t="inlineStr"/>
@@ -811,7 +811,7 @@
     <row r="12">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M030</t>
         </is>
       </c>
       <c r="B12" s="10" t="inlineStr">
@@ -843,7 +843,7 @@
     <row r="13">
       <c r="A13" s="9" t="inlineStr">
         <is>
-          <t>M025</t>
+          <t>M030</t>
         </is>
       </c>
       <c r="B13" s="10" t="inlineStr"/>
@@ -873,7 +873,7 @@
     <row r="14">
       <c r="A14" s="17" t="inlineStr">
         <is>
-          <t>M026</t>
+          <t>M025</t>
         </is>
       </c>
       <c r="B14" s="18" t="inlineStr"/>
@@ -912,19 +912,19 @@
       <c r="K14" s="17" t="inlineStr"/>
       <c r="L14" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="17" t="inlineStr">
         <is>
-          <t>M026</t>
+          <t>M025</t>
         </is>
       </c>
       <c r="B15" s="18" t="inlineStr">
         <is>
-          <t>Manual Match
+          <t>Settlement Match (ID: 11370) - 'Final Settlement' keyword found
 Lender Amount: 99317.00
 Borrower Amount: 99317.00</t>
         </is>
@@ -944,14 +944,14 @@
       <c r="K15" s="17" t="inlineStr"/>
       <c r="L15" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="17" t="inlineStr">
         <is>
-          <t>M026</t>
+          <t>M025</t>
         </is>
       </c>
       <c r="B16" s="18" t="inlineStr"/>
@@ -974,14 +974,14 @@
       <c r="K16" s="17" t="inlineStr"/>
       <c r="L16" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="inlineStr">
         <is>
-          <t>M027</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B17" s="10" t="inlineStr"/>
@@ -1020,19 +1020,19 @@
       <c r="K17" s="9" t="inlineStr"/>
       <c r="L17" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
         <is>
-          <t>M027</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B18" s="10" t="inlineStr">
         <is>
-          <t>Manual Match
+          <t>Settlement Match (ID: 10199) - 'Final Settlement' keyword found
 Lender Amount: 20130.00
 Borrower Amount: 20130.00</t>
         </is>
@@ -1052,14 +1052,14 @@
       <c r="K18" s="9" t="inlineStr"/>
       <c r="L18" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="inlineStr">
         <is>
-          <t>M027</t>
+          <t>M026</t>
         </is>
       </c>
       <c r="B19" s="10" t="inlineStr"/>
@@ -1082,14 +1082,14 @@
       <c r="K19" s="9" t="inlineStr"/>
       <c r="L19" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="17" t="inlineStr">
         <is>
-          <t>M028</t>
+          <t>M027</t>
         </is>
       </c>
       <c r="B20" s="18" t="inlineStr"/>
@@ -1128,19 +1128,19 @@
       <c r="K20" s="17" t="inlineStr"/>
       <c r="L20" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="17" t="inlineStr">
         <is>
-          <t>M028</t>
+          <t>M027</t>
         </is>
       </c>
       <c r="B21" s="18" t="inlineStr">
         <is>
-          <t>Manual Match
+          <t>Settlement Match (ID: 11711) - 'Final Settlement' keyword found
 Lender Amount: 94109.00
 Borrower Amount: 94109.00</t>
         </is>
@@ -1160,14 +1160,14 @@
       <c r="K21" s="17" t="inlineStr"/>
       <c r="L21" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="17" t="inlineStr">
         <is>
-          <t>M028</t>
+          <t>M027</t>
         </is>
       </c>
       <c r="B22" s="18" t="inlineStr"/>
@@ -1190,14 +1190,14 @@
       <c r="K22" s="17" t="inlineStr"/>
       <c r="L22" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="inlineStr">
         <is>
-          <t>M029</t>
+          <t>M028</t>
         </is>
       </c>
       <c r="B23" s="10" t="inlineStr"/>
@@ -1236,19 +1236,19 @@
       <c r="K23" s="9" t="inlineStr"/>
       <c r="L23" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>M029</t>
+          <t>M028</t>
         </is>
       </c>
       <c r="B24" s="10" t="inlineStr">
         <is>
-          <t>Manual Match
+          <t>Settlement Match (ID: 11134) - 'Final Settlement' keyword found
 Lender Amount: 13909.00
 Borrower Amount: 13909.00</t>
         </is>
@@ -1268,14 +1268,14 @@
       <c r="K24" s="9" t="inlineStr"/>
       <c r="L24" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="inlineStr">
         <is>
-          <t>M029</t>
+          <t>M028</t>
         </is>
       </c>
       <c r="B25" s="10" t="inlineStr"/>
@@ -1298,14 +1298,14 @@
       <c r="K25" s="9" t="inlineStr"/>
       <c r="L25" s="9" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="17" t="inlineStr">
         <is>
-          <t>M030</t>
+          <t>M029</t>
         </is>
       </c>
       <c r="B26" s="18" t="inlineStr"/>
@@ -1344,19 +1344,19 @@
       <c r="K26" s="17" t="inlineStr"/>
       <c r="L26" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="17" t="inlineStr">
         <is>
-          <t>M030</t>
+          <t>M029</t>
         </is>
       </c>
       <c r="B27" s="18" t="inlineStr">
         <is>
-          <t>Manual Match
+          <t>Settlement Match (ID: 12107) - 'Final Settlement' keyword found
 Lender Amount: 93314.00
 Borrower Amount: 93314.00</t>
         </is>
@@ -1376,14 +1376,14 @@
       <c r="K27" s="17" t="inlineStr"/>
       <c r="L27" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="17" t="inlineStr">
         <is>
-          <t>M030</t>
+          <t>M029</t>
         </is>
       </c>
       <c r="B28" s="18" t="inlineStr"/>
@@ -1406,7 +1406,7 @@
       <c r="K28" s="17" t="inlineStr"/>
       <c r="L28" s="17" t="inlineStr">
         <is>
-          <t>Manual</t>
+          <t>Settlement</t>
         </is>
       </c>
     </row>

--- a/Resources/Steel-Trans/Steel book Trans_MATCHED.xlsx
+++ b/Resources/Steel-Trans/Steel book Trans_MATCHED.xlsx
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -148,6 +148,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3955,2742 +3964,2566 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="17" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B100" s="18" t="inlineStr"/>
-      <c r="C100" s="19" t="inlineStr">
+      <c r="A100" s="1" t="inlineStr"/>
+      <c r="B100" s="2" t="inlineStr"/>
+      <c r="C100" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D100" s="17" t="inlineStr">
+      <c r="D100" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E100" s="20" t="inlineStr">
+      <c r="E100" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F100" s="17" t="inlineStr"/>
-      <c r="G100" s="17" t="inlineStr"/>
-      <c r="H100" s="21" t="inlineStr">
+      <c r="F100" s="1" t="inlineStr"/>
+      <c r="G100" s="1" t="inlineStr"/>
+      <c r="H100" s="25" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I100" s="17" t="inlineStr">
+      <c r="I100" s="1" t="inlineStr">
         <is>
           <t>70712</t>
         </is>
       </c>
-      <c r="J100" s="22" t="inlineStr">
+      <c r="J100" s="8" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K100" s="17" t="inlineStr"/>
-      <c r="L100" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K100" s="1" t="inlineStr"/>
+      <c r="L100" s="1" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="17" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B101" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 200000.00
-Borrower Amount: 200000.00</t>
-        </is>
-      </c>
-      <c r="C101" s="17" t="inlineStr"/>
-      <c r="D101" s="17" t="inlineStr"/>
-      <c r="E101" s="23" t="inlineStr">
+      <c r="A101" s="1" t="inlineStr"/>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Borrower's narration does not contain lender's short code
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="inlineStr"/>
+      <c r="D101" s="1" t="inlineStr"/>
+      <c r="E101" s="26" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S United Traders)</t>
         </is>
       </c>
-      <c r="F101" s="17" t="inlineStr"/>
-      <c r="G101" s="17" t="inlineStr"/>
-      <c r="H101" s="17" t="inlineStr"/>
-      <c r="I101" s="17" t="inlineStr"/>
-      <c r="J101" s="17" t="inlineStr"/>
-      <c r="K101" s="17" t="inlineStr"/>
-      <c r="L101" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F101" s="1" t="inlineStr"/>
+      <c r="G101" s="1" t="inlineStr"/>
+      <c r="H101" s="1" t="inlineStr"/>
+      <c r="I101" s="1" t="inlineStr"/>
+      <c r="J101" s="1" t="inlineStr"/>
+      <c r="K101" s="1" t="inlineStr"/>
+      <c r="L101" s="1" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="17" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B102" s="18" t="inlineStr"/>
-      <c r="C102" s="17" t="inlineStr"/>
-      <c r="D102" s="17" t="inlineStr">
+      <c r="A102" s="1" t="inlineStr"/>
+      <c r="B102" s="2" t="inlineStr"/>
+      <c r="C102" s="1" t="inlineStr"/>
+      <c r="D102" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E102" s="24" t="inlineStr">
+      <c r="E102" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F102" s="17" t="inlineStr"/>
-      <c r="G102" s="17" t="inlineStr"/>
-      <c r="H102" s="17" t="inlineStr"/>
-      <c r="I102" s="17" t="inlineStr"/>
-      <c r="J102" s="17" t="inlineStr"/>
-      <c r="K102" s="17" t="inlineStr"/>
-      <c r="L102" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F102" s="1" t="inlineStr"/>
+      <c r="G102" s="1" t="inlineStr"/>
+      <c r="H102" s="1" t="inlineStr"/>
+      <c r="I102" s="1" t="inlineStr"/>
+      <c r="J102" s="1" t="inlineStr"/>
+      <c r="K102" s="1" t="inlineStr"/>
+      <c r="L102" s="1" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="9" t="inlineStr">
+      <c r="A103" s="17" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B103" s="10" t="inlineStr"/>
-      <c r="C103" s="11" t="inlineStr">
+      <c r="B103" s="18" t="inlineStr"/>
+      <c r="C103" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D103" s="9" t="inlineStr">
+      <c r="D103" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E103" s="12" t="inlineStr">
+      <c r="E103" s="20" t="inlineStr">
         <is>
           <t>Dhaka Bank-STD-2051501833-CIL</t>
         </is>
       </c>
-      <c r="F103" s="9" t="inlineStr"/>
-      <c r="G103" s="9" t="inlineStr"/>
-      <c r="H103" s="13" t="inlineStr">
+      <c r="F103" s="17" t="inlineStr"/>
+      <c r="G103" s="17" t="inlineStr"/>
+      <c r="H103" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I103" s="9" t="inlineStr">
+      <c r="I103" s="17" t="inlineStr">
         <is>
           <t>939</t>
         </is>
       </c>
-      <c r="J103" s="9" t="inlineStr"/>
-      <c r="K103" s="14" t="inlineStr">
+      <c r="J103" s="17" t="inlineStr"/>
+      <c r="K103" s="22" t="inlineStr">
         <is>
           <t>12000000</t>
         </is>
       </c>
-      <c r="L103" s="9" t="inlineStr">
+      <c r="L103" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="9" t="inlineStr">
+      <c r="A104" s="17" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B104" s="10" t="inlineStr">
+      <c r="B104" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 12000000.00
 Borrower Amount: 12000000.00</t>
         </is>
       </c>
-      <c r="C104" s="9" t="inlineStr"/>
-      <c r="D104" s="9" t="inlineStr"/>
-      <c r="E104" s="15" t="inlineStr">
+      <c r="C104" s="17" t="inlineStr"/>
+      <c r="D104" s="17" t="inlineStr"/>
+      <c r="E104" s="23" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F104" s="9" t="inlineStr"/>
-      <c r="G104" s="9" t="inlineStr"/>
-      <c r="H104" s="9" t="inlineStr"/>
-      <c r="I104" s="9" t="inlineStr"/>
-      <c r="J104" s="9" t="inlineStr"/>
-      <c r="K104" s="9" t="inlineStr"/>
-      <c r="L104" s="9" t="inlineStr">
+      <c r="F104" s="17" t="inlineStr"/>
+      <c r="G104" s="17" t="inlineStr"/>
+      <c r="H104" s="17" t="inlineStr"/>
+      <c r="I104" s="17" t="inlineStr"/>
+      <c r="J104" s="17" t="inlineStr"/>
+      <c r="K104" s="17" t="inlineStr"/>
+      <c r="L104" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="inlineStr">
+      <c r="A105" s="17" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B105" s="10" t="inlineStr"/>
-      <c r="C105" s="9" t="inlineStr"/>
-      <c r="D105" s="9" t="inlineStr">
+      <c r="B105" s="18" t="inlineStr"/>
+      <c r="C105" s="17" t="inlineStr"/>
+      <c r="D105" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E105" s="16" t="inlineStr">
+      <c r="E105" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F105" s="9" t="inlineStr"/>
-      <c r="G105" s="9" t="inlineStr"/>
-      <c r="H105" s="9" t="inlineStr"/>
-      <c r="I105" s="9" t="inlineStr"/>
-      <c r="J105" s="9" t="inlineStr"/>
-      <c r="K105" s="9" t="inlineStr"/>
-      <c r="L105" s="9" t="inlineStr">
+      <c r="F105" s="17" t="inlineStr"/>
+      <c r="G105" s="17" t="inlineStr"/>
+      <c r="H105" s="17" t="inlineStr"/>
+      <c r="I105" s="17" t="inlineStr"/>
+      <c r="J105" s="17" t="inlineStr"/>
+      <c r="K105" s="17" t="inlineStr"/>
+      <c r="L105" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="17" t="inlineStr">
+      <c r="A106" s="9" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B106" s="18" t="inlineStr"/>
-      <c r="C106" s="19" t="inlineStr">
+      <c r="B106" s="10" t="inlineStr"/>
+      <c r="C106" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D106" s="17" t="inlineStr">
+      <c r="D106" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E106" s="20" t="inlineStr">
+      <c r="E106" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F106" s="17" t="inlineStr"/>
-      <c r="G106" s="17" t="inlineStr"/>
-      <c r="H106" s="21" t="inlineStr">
+      <c r="F106" s="9" t="inlineStr"/>
+      <c r="G106" s="9" t="inlineStr"/>
+      <c r="H106" s="13" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I106" s="17" t="inlineStr">
+      <c r="I106" s="9" t="inlineStr">
         <is>
           <t>940</t>
         </is>
       </c>
-      <c r="J106" s="17" t="inlineStr"/>
-      <c r="K106" s="22" t="inlineStr">
+      <c r="J106" s="9" t="inlineStr"/>
+      <c r="K106" s="14" t="inlineStr">
         <is>
           <t>22000000</t>
         </is>
       </c>
-      <c r="L106" s="17" t="inlineStr">
+      <c r="L106" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="17" t="inlineStr">
+      <c r="A107" s="9" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B107" s="18" t="inlineStr">
+      <c r="B107" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 22000000.00
 Borrower Amount: 22000000.00</t>
         </is>
       </c>
-      <c r="C107" s="17" t="inlineStr"/>
-      <c r="D107" s="17" t="inlineStr"/>
-      <c r="E107" s="23" t="inlineStr">
+      <c r="C107" s="9" t="inlineStr"/>
+      <c r="D107" s="9" t="inlineStr"/>
+      <c r="E107" s="15" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F107" s="17" t="inlineStr"/>
-      <c r="G107" s="17" t="inlineStr"/>
-      <c r="H107" s="17" t="inlineStr"/>
-      <c r="I107" s="17" t="inlineStr"/>
-      <c r="J107" s="17" t="inlineStr"/>
-      <c r="K107" s="17" t="inlineStr"/>
-      <c r="L107" s="17" t="inlineStr">
+      <c r="F107" s="9" t="inlineStr"/>
+      <c r="G107" s="9" t="inlineStr"/>
+      <c r="H107" s="9" t="inlineStr"/>
+      <c r="I107" s="9" t="inlineStr"/>
+      <c r="J107" s="9" t="inlineStr"/>
+      <c r="K107" s="9" t="inlineStr"/>
+      <c r="L107" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="17" t="inlineStr">
+      <c r="A108" s="9" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B108" s="18" t="inlineStr"/>
-      <c r="C108" s="17" t="inlineStr"/>
-      <c r="D108" s="17" t="inlineStr">
+      <c r="B108" s="10" t="inlineStr"/>
+      <c r="C108" s="9" t="inlineStr"/>
+      <c r="D108" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E108" s="24" t="inlineStr">
+      <c r="E108" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F108" s="17" t="inlineStr"/>
-      <c r="G108" s="17" t="inlineStr"/>
-      <c r="H108" s="17" t="inlineStr"/>
-      <c r="I108" s="17" t="inlineStr"/>
-      <c r="J108" s="17" t="inlineStr"/>
-      <c r="K108" s="17" t="inlineStr"/>
-      <c r="L108" s="17" t="inlineStr">
+      <c r="F108" s="9" t="inlineStr"/>
+      <c r="G108" s="9" t="inlineStr"/>
+      <c r="H108" s="9" t="inlineStr"/>
+      <c r="I108" s="9" t="inlineStr"/>
+      <c r="J108" s="9" t="inlineStr"/>
+      <c r="K108" s="9" t="inlineStr"/>
+      <c r="L108" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B109" s="10" t="inlineStr"/>
-      <c r="C109" s="11" t="inlineStr">
+      <c r="A109" s="1" t="inlineStr"/>
+      <c r="B109" s="2" t="inlineStr"/>
+      <c r="C109" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D109" s="9" t="inlineStr">
+      <c r="D109" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E109" s="12" t="inlineStr">
+      <c r="E109" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F109" s="9" t="inlineStr"/>
-      <c r="G109" s="9" t="inlineStr"/>
-      <c r="H109" s="13" t="inlineStr">
+      <c r="F109" s="1" t="inlineStr"/>
+      <c r="G109" s="1" t="inlineStr"/>
+      <c r="H109" s="25" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I109" s="9" t="inlineStr">
+      <c r="I109" s="1" t="inlineStr">
         <is>
           <t>70714</t>
         </is>
       </c>
-      <c r="J109" s="14" t="inlineStr">
+      <c r="J109" s="8" t="inlineStr">
         <is>
           <t>58108</t>
         </is>
       </c>
-      <c r="K109" s="9" t="inlineStr"/>
-      <c r="L109" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K109" s="1" t="inlineStr"/>
+      <c r="L109" s="1" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="9" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B110" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 58108.00
-Borrower Amount: 58108.00</t>
-        </is>
-      </c>
-      <c r="C110" s="9" t="inlineStr"/>
-      <c r="D110" s="9" t="inlineStr"/>
-      <c r="E110" s="15" t="inlineStr">
+      <c r="A110" s="1" t="inlineStr"/>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr"/>
+      <c r="D110" s="1" t="inlineStr"/>
+      <c r="E110" s="26" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Pragati Life Insurance Limited)</t>
         </is>
       </c>
-      <c r="F110" s="9" t="inlineStr"/>
-      <c r="G110" s="9" t="inlineStr"/>
-      <c r="H110" s="9" t="inlineStr"/>
-      <c r="I110" s="9" t="inlineStr"/>
-      <c r="J110" s="9" t="inlineStr"/>
-      <c r="K110" s="9" t="inlineStr"/>
-      <c r="L110" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F110" s="1" t="inlineStr"/>
+      <c r="G110" s="1" t="inlineStr"/>
+      <c r="H110" s="1" t="inlineStr"/>
+      <c r="I110" s="1" t="inlineStr"/>
+      <c r="J110" s="1" t="inlineStr"/>
+      <c r="K110" s="1" t="inlineStr"/>
+      <c r="L110" s="1" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="9" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B111" s="10" t="inlineStr"/>
-      <c r="C111" s="9" t="inlineStr"/>
-      <c r="D111" s="9" t="inlineStr">
+      <c r="A111" s="1" t="inlineStr"/>
+      <c r="B111" s="2" t="inlineStr"/>
+      <c r="C111" s="1" t="inlineStr"/>
+      <c r="D111" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E111" s="16" t="inlineStr">
+      <c r="E111" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F111" s="9" t="inlineStr"/>
-      <c r="G111" s="9" t="inlineStr"/>
-      <c r="H111" s="9" t="inlineStr"/>
-      <c r="I111" s="9" t="inlineStr"/>
-      <c r="J111" s="9" t="inlineStr"/>
-      <c r="K111" s="9" t="inlineStr"/>
-      <c r="L111" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F111" s="1" t="inlineStr"/>
+      <c r="G111" s="1" t="inlineStr"/>
+      <c r="H111" s="1" t="inlineStr"/>
+      <c r="I111" s="1" t="inlineStr"/>
+      <c r="J111" s="1" t="inlineStr"/>
+      <c r="K111" s="1" t="inlineStr"/>
+      <c r="L111" s="1" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="17" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B112" s="18" t="inlineStr"/>
-      <c r="C112" s="19" t="inlineStr">
+      <c r="A112" s="1" t="inlineStr"/>
+      <c r="B112" s="2" t="inlineStr"/>
+      <c r="C112" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D112" s="17" t="inlineStr">
+      <c r="D112" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E112" s="20" t="inlineStr">
+      <c r="E112" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F112" s="17" t="inlineStr"/>
-      <c r="G112" s="17" t="inlineStr"/>
-      <c r="H112" s="21" t="inlineStr">
+      <c r="F112" s="1" t="inlineStr"/>
+      <c r="G112" s="1" t="inlineStr"/>
+      <c r="H112" s="25" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I112" s="17" t="inlineStr">
+      <c r="I112" s="1" t="inlineStr">
         <is>
           <t>70715</t>
         </is>
       </c>
-      <c r="J112" s="22" t="inlineStr">
+      <c r="J112" s="8" t="inlineStr">
         <is>
           <t>11535</t>
         </is>
       </c>
-      <c r="K112" s="17" t="inlineStr"/>
-      <c r="L112" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K112" s="1" t="inlineStr"/>
+      <c r="L112" s="1" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="17" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B113" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 11535.00
-Borrower Amount: 11535.00</t>
-        </is>
-      </c>
-      <c r="C113" s="17" t="inlineStr"/>
-      <c r="D113" s="17" t="inlineStr"/>
-      <c r="E113" s="23" t="inlineStr">
+      <c r="A113" s="1" t="inlineStr"/>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr"/>
+      <c r="D113" s="1" t="inlineStr"/>
+      <c r="E113" s="26" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(ARK Fire Fighting Manufacture Co.)</t>
         </is>
       </c>
-      <c r="F113" s="17" t="inlineStr"/>
-      <c r="G113" s="17" t="inlineStr"/>
-      <c r="H113" s="17" t="inlineStr"/>
-      <c r="I113" s="17" t="inlineStr"/>
-      <c r="J113" s="17" t="inlineStr"/>
-      <c r="K113" s="17" t="inlineStr"/>
-      <c r="L113" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F113" s="1" t="inlineStr"/>
+      <c r="G113" s="1" t="inlineStr"/>
+      <c r="H113" s="1" t="inlineStr"/>
+      <c r="I113" s="1" t="inlineStr"/>
+      <c r="J113" s="1" t="inlineStr"/>
+      <c r="K113" s="1" t="inlineStr"/>
+      <c r="L113" s="1" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" s="17" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B114" s="18" t="inlineStr"/>
-      <c r="C114" s="17" t="inlineStr"/>
-      <c r="D114" s="17" t="inlineStr">
+      <c r="A114" s="1" t="inlineStr"/>
+      <c r="B114" s="2" t="inlineStr"/>
+      <c r="C114" s="1" t="inlineStr"/>
+      <c r="D114" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E114" s="24" t="inlineStr">
+      <c r="E114" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F114" s="17" t="inlineStr"/>
-      <c r="G114" s="17" t="inlineStr"/>
-      <c r="H114" s="17" t="inlineStr"/>
-      <c r="I114" s="17" t="inlineStr"/>
-      <c r="J114" s="17" t="inlineStr"/>
-      <c r="K114" s="17" t="inlineStr"/>
-      <c r="L114" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F114" s="1" t="inlineStr"/>
+      <c r="G114" s="1" t="inlineStr"/>
+      <c r="H114" s="1" t="inlineStr"/>
+      <c r="I114" s="1" t="inlineStr"/>
+      <c r="J114" s="1" t="inlineStr"/>
+      <c r="K114" s="1" t="inlineStr"/>
+      <c r="L114" s="1" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="9" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B115" s="10" t="inlineStr"/>
-      <c r="C115" s="11" t="inlineStr">
+      <c r="A115" s="1" t="inlineStr"/>
+      <c r="B115" s="2" t="inlineStr"/>
+      <c r="C115" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D115" s="9" t="inlineStr">
+      <c r="D115" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E115" s="12" t="inlineStr">
+      <c r="E115" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F115" s="9" t="inlineStr"/>
-      <c r="G115" s="9" t="inlineStr"/>
-      <c r="H115" s="13" t="inlineStr">
+      <c r="F115" s="1" t="inlineStr"/>
+      <c r="G115" s="1" t="inlineStr"/>
+      <c r="H115" s="25" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I115" s="9" t="inlineStr">
+      <c r="I115" s="1" t="inlineStr">
         <is>
           <t>70716</t>
         </is>
       </c>
-      <c r="J115" s="14" t="inlineStr">
+      <c r="J115" s="8" t="inlineStr">
         <is>
           <t>1344000</t>
         </is>
       </c>
-      <c r="K115" s="9" t="inlineStr"/>
-      <c r="L115" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K115" s="1" t="inlineStr"/>
+      <c r="L115" s="1" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="9" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B116" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 1344000.00
-Borrower Amount: 1344000.00</t>
-        </is>
-      </c>
-      <c r="C116" s="9" t="inlineStr"/>
-      <c r="D116" s="9" t="inlineStr"/>
-      <c r="E116" s="15" t="inlineStr">
+      <c r="A116" s="1" t="inlineStr"/>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr"/>
+      <c r="D116" s="1" t="inlineStr"/>
+      <c r="E116" s="26" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Rangpur Metal Industries Ltd.)</t>
         </is>
       </c>
-      <c r="F116" s="9" t="inlineStr"/>
-      <c r="G116" s="9" t="inlineStr"/>
-      <c r="H116" s="9" t="inlineStr"/>
-      <c r="I116" s="9" t="inlineStr"/>
-      <c r="J116" s="9" t="inlineStr"/>
-      <c r="K116" s="9" t="inlineStr"/>
-      <c r="L116" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F116" s="1" t="inlineStr"/>
+      <c r="G116" s="1" t="inlineStr"/>
+      <c r="H116" s="1" t="inlineStr"/>
+      <c r="I116" s="1" t="inlineStr"/>
+      <c r="J116" s="1" t="inlineStr"/>
+      <c r="K116" s="1" t="inlineStr"/>
+      <c r="L116" s="1" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" s="9" t="inlineStr">
-        <is>
-          <t>M058</t>
-        </is>
-      </c>
-      <c r="B117" s="10" t="inlineStr"/>
-      <c r="C117" s="9" t="inlineStr"/>
-      <c r="D117" s="9" t="inlineStr">
+      <c r="A117" s="1" t="inlineStr"/>
+      <c r="B117" s="2" t="inlineStr"/>
+      <c r="C117" s="1" t="inlineStr"/>
+      <c r="D117" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E117" s="16" t="inlineStr">
+      <c r="E117" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F117" s="9" t="inlineStr"/>
-      <c r="G117" s="9" t="inlineStr"/>
-      <c r="H117" s="9" t="inlineStr"/>
-      <c r="I117" s="9" t="inlineStr"/>
-      <c r="J117" s="9" t="inlineStr"/>
-      <c r="K117" s="9" t="inlineStr"/>
-      <c r="L117" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F117" s="1" t="inlineStr"/>
+      <c r="G117" s="1" t="inlineStr"/>
+      <c r="H117" s="1" t="inlineStr"/>
+      <c r="I117" s="1" t="inlineStr"/>
+      <c r="J117" s="1" t="inlineStr"/>
+      <c r="K117" s="1" t="inlineStr"/>
+      <c r="L117" s="1" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="17" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B118" s="18" t="inlineStr"/>
-      <c r="C118" s="19" t="inlineStr">
+      <c r="A118" s="1" t="inlineStr"/>
+      <c r="B118" s="2" t="inlineStr"/>
+      <c r="C118" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D118" s="17" t="inlineStr">
+      <c r="D118" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E118" s="20" t="inlineStr">
+      <c r="E118" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F118" s="17" t="inlineStr"/>
-      <c r="G118" s="17" t="inlineStr"/>
-      <c r="H118" s="21" t="inlineStr">
+      <c r="F118" s="1" t="inlineStr"/>
+      <c r="G118" s="1" t="inlineStr"/>
+      <c r="H118" s="25" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I118" s="17" t="inlineStr">
+      <c r="I118" s="1" t="inlineStr">
         <is>
           <t>70717</t>
         </is>
       </c>
-      <c r="J118" s="22" t="inlineStr">
+      <c r="J118" s="8" t="inlineStr">
         <is>
           <t>3457391</t>
         </is>
       </c>
-      <c r="K118" s="17" t="inlineStr"/>
-      <c r="L118" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K118" s="1" t="inlineStr"/>
+      <c r="L118" s="1" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="17" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B119" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 3457391.00
-Borrower Amount: 3457391.00</t>
-        </is>
-      </c>
-      <c r="C119" s="17" t="inlineStr"/>
-      <c r="D119" s="17" t="inlineStr"/>
-      <c r="E119" s="23" t="inlineStr">
+      <c r="A119" s="1" t="inlineStr"/>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr"/>
+      <c r="D119" s="1" t="inlineStr"/>
+      <c r="E119" s="26" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Rangpur Metal Industries Ltd.)</t>
         </is>
       </c>
-      <c r="F119" s="17" t="inlineStr"/>
-      <c r="G119" s="17" t="inlineStr"/>
-      <c r="H119" s="17" t="inlineStr"/>
-      <c r="I119" s="17" t="inlineStr"/>
-      <c r="J119" s="17" t="inlineStr"/>
-      <c r="K119" s="17" t="inlineStr"/>
-      <c r="L119" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F119" s="1" t="inlineStr"/>
+      <c r="G119" s="1" t="inlineStr"/>
+      <c r="H119" s="1" t="inlineStr"/>
+      <c r="I119" s="1" t="inlineStr"/>
+      <c r="J119" s="1" t="inlineStr"/>
+      <c r="K119" s="1" t="inlineStr"/>
+      <c r="L119" s="1" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="17" t="inlineStr">
-        <is>
-          <t>M059</t>
-        </is>
-      </c>
-      <c r="B120" s="18" t="inlineStr"/>
-      <c r="C120" s="17" t="inlineStr"/>
-      <c r="D120" s="17" t="inlineStr">
+      <c r="A120" s="1" t="inlineStr"/>
+      <c r="B120" s="2" t="inlineStr"/>
+      <c r="C120" s="1" t="inlineStr"/>
+      <c r="D120" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E120" s="24" t="inlineStr">
+      <c r="E120" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F120" s="17" t="inlineStr"/>
-      <c r="G120" s="17" t="inlineStr"/>
-      <c r="H120" s="17" t="inlineStr"/>
-      <c r="I120" s="17" t="inlineStr"/>
-      <c r="J120" s="17" t="inlineStr"/>
-      <c r="K120" s="17" t="inlineStr"/>
-      <c r="L120" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F120" s="1" t="inlineStr"/>
+      <c r="G120" s="1" t="inlineStr"/>
+      <c r="H120" s="1" t="inlineStr"/>
+      <c r="I120" s="1" t="inlineStr"/>
+      <c r="J120" s="1" t="inlineStr"/>
+      <c r="K120" s="1" t="inlineStr"/>
+      <c r="L120" s="1" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="9" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B121" s="10" t="inlineStr"/>
-      <c r="C121" s="11" t="inlineStr">
+      <c r="A121" s="1" t="inlineStr"/>
+      <c r="B121" s="2" t="inlineStr"/>
+      <c r="C121" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D121" s="9" t="inlineStr">
+      <c r="D121" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E121" s="12" t="inlineStr">
+      <c r="E121" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F121" s="9" t="inlineStr"/>
-      <c r="G121" s="9" t="inlineStr"/>
-      <c r="H121" s="13" t="inlineStr">
+      <c r="F121" s="1" t="inlineStr"/>
+      <c r="G121" s="1" t="inlineStr"/>
+      <c r="H121" s="25" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I121" s="9" t="inlineStr">
+      <c r="I121" s="1" t="inlineStr">
         <is>
           <t>70718</t>
         </is>
       </c>
-      <c r="J121" s="14" t="inlineStr">
+      <c r="J121" s="8" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="K121" s="9" t="inlineStr"/>
-      <c r="L121" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K121" s="1" t="inlineStr"/>
+      <c r="L121" s="1" t="inlineStr"/>
     </row>
     <row r="122">
-      <c r="A122" s="9" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B122" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 1234.00
-Borrower Amount: 1234.00</t>
-        </is>
-      </c>
-      <c r="C122" s="9" t="inlineStr"/>
-      <c r="D122" s="9" t="inlineStr"/>
-      <c r="E122" s="15" t="inlineStr">
+      <c r="A122" s="1" t="inlineStr"/>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr"/>
+      <c r="D122" s="1" t="inlineStr"/>
+      <c r="E122" s="26" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Wintel Limited)</t>
         </is>
       </c>
-      <c r="F122" s="9" t="inlineStr"/>
-      <c r="G122" s="9" t="inlineStr"/>
-      <c r="H122" s="9" t="inlineStr"/>
-      <c r="I122" s="9" t="inlineStr"/>
-      <c r="J122" s="9" t="inlineStr"/>
-      <c r="K122" s="9" t="inlineStr"/>
-      <c r="L122" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F122" s="1" t="inlineStr"/>
+      <c r="G122" s="1" t="inlineStr"/>
+      <c r="H122" s="1" t="inlineStr"/>
+      <c r="I122" s="1" t="inlineStr"/>
+      <c r="J122" s="1" t="inlineStr"/>
+      <c r="K122" s="1" t="inlineStr"/>
+      <c r="L122" s="1" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="9" t="inlineStr">
-        <is>
-          <t>M060</t>
-        </is>
-      </c>
-      <c r="B123" s="10" t="inlineStr"/>
-      <c r="C123" s="9" t="inlineStr"/>
-      <c r="D123" s="9" t="inlineStr">
+      <c r="A123" s="1" t="inlineStr"/>
+      <c r="B123" s="2" t="inlineStr"/>
+      <c r="C123" s="1" t="inlineStr"/>
+      <c r="D123" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E123" s="16" t="inlineStr">
+      <c r="E123" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F123" s="9" t="inlineStr"/>
-      <c r="G123" s="9" t="inlineStr"/>
-      <c r="H123" s="9" t="inlineStr"/>
-      <c r="I123" s="9" t="inlineStr"/>
-      <c r="J123" s="9" t="inlineStr"/>
-      <c r="K123" s="9" t="inlineStr"/>
-      <c r="L123" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F123" s="1" t="inlineStr"/>
+      <c r="G123" s="1" t="inlineStr"/>
+      <c r="H123" s="1" t="inlineStr"/>
+      <c r="I123" s="1" t="inlineStr"/>
+      <c r="J123" s="1" t="inlineStr"/>
+      <c r="K123" s="1" t="inlineStr"/>
+      <c r="L123" s="1" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="17" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B124" s="18" t="inlineStr"/>
-      <c r="C124" s="19" t="inlineStr">
+      <c r="A124" s="1" t="inlineStr"/>
+      <c r="B124" s="2" t="inlineStr"/>
+      <c r="C124" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D124" s="17" t="inlineStr">
+      <c r="D124" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E124" s="20" t="inlineStr">
+      <c r="E124" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F124" s="17" t="inlineStr"/>
-      <c r="G124" s="17" t="inlineStr"/>
-      <c r="H124" s="21" t="inlineStr">
+      <c r="F124" s="1" t="inlineStr"/>
+      <c r="G124" s="1" t="inlineStr"/>
+      <c r="H124" s="25" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I124" s="17" t="inlineStr">
+      <c r="I124" s="1" t="inlineStr">
         <is>
           <t>70719</t>
         </is>
       </c>
-      <c r="J124" s="22" t="inlineStr">
+      <c r="J124" s="8" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K124" s="17" t="inlineStr"/>
-      <c r="L124" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K124" s="1" t="inlineStr"/>
+      <c r="L124" s="1" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="17" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B125" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 200000.00
-Borrower Amount: 200000.00</t>
-        </is>
-      </c>
-      <c r="C125" s="17" t="inlineStr"/>
-      <c r="D125" s="17" t="inlineStr"/>
-      <c r="E125" s="23" t="inlineStr">
+      <c r="A125" s="1" t="inlineStr"/>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Borrower's narration does not contain lender's short code
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr"/>
+      <c r="D125" s="1" t="inlineStr"/>
+      <c r="E125" s="26" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(A.B.M Anas Engineering)</t>
         </is>
       </c>
-      <c r="F125" s="17" t="inlineStr"/>
-      <c r="G125" s="17" t="inlineStr"/>
-      <c r="H125" s="17" t="inlineStr"/>
-      <c r="I125" s="17" t="inlineStr"/>
-      <c r="J125" s="17" t="inlineStr"/>
-      <c r="K125" s="17" t="inlineStr"/>
-      <c r="L125" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F125" s="1" t="inlineStr"/>
+      <c r="G125" s="1" t="inlineStr"/>
+      <c r="H125" s="1" t="inlineStr"/>
+      <c r="I125" s="1" t="inlineStr"/>
+      <c r="J125" s="1" t="inlineStr"/>
+      <c r="K125" s="1" t="inlineStr"/>
+      <c r="L125" s="1" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" s="17" t="inlineStr">
-        <is>
-          <t>M061</t>
-        </is>
-      </c>
-      <c r="B126" s="18" t="inlineStr"/>
-      <c r="C126" s="17" t="inlineStr"/>
-      <c r="D126" s="17" t="inlineStr">
+      <c r="A126" s="1" t="inlineStr"/>
+      <c r="B126" s="2" t="inlineStr"/>
+      <c r="C126" s="1" t="inlineStr"/>
+      <c r="D126" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E126" s="24" t="inlineStr">
+      <c r="E126" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F126" s="17" t="inlineStr"/>
-      <c r="G126" s="17" t="inlineStr"/>
-      <c r="H126" s="17" t="inlineStr"/>
-      <c r="I126" s="17" t="inlineStr"/>
-      <c r="J126" s="17" t="inlineStr"/>
-      <c r="K126" s="17" t="inlineStr"/>
-      <c r="L126" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F126" s="1" t="inlineStr"/>
+      <c r="G126" s="1" t="inlineStr"/>
+      <c r="H126" s="1" t="inlineStr"/>
+      <c r="I126" s="1" t="inlineStr"/>
+      <c r="J126" s="1" t="inlineStr"/>
+      <c r="K126" s="1" t="inlineStr"/>
+      <c r="L126" s="1" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B127" s="10" t="inlineStr"/>
-      <c r="C127" s="11" t="inlineStr">
+      <c r="A127" s="17" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B127" s="18" t="inlineStr"/>
+      <c r="C127" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D127" s="9" t="inlineStr">
+      <c r="D127" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E127" s="12" t="inlineStr">
+      <c r="E127" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F127" s="9" t="inlineStr"/>
-      <c r="G127" s="9" t="inlineStr"/>
-      <c r="H127" s="13" t="inlineStr">
+      <c r="F127" s="17" t="inlineStr"/>
+      <c r="G127" s="17" t="inlineStr"/>
+      <c r="H127" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I127" s="9" t="inlineStr">
+      <c r="I127" s="17" t="inlineStr">
         <is>
           <t>70720</t>
         </is>
       </c>
-      <c r="J127" s="14" t="inlineStr">
+      <c r="J127" s="22" t="inlineStr">
         <is>
           <t>36900</t>
         </is>
       </c>
-      <c r="K127" s="9" t="inlineStr"/>
-      <c r="L127" s="9" t="inlineStr">
+      <c r="K127" s="17" t="inlineStr"/>
+      <c r="L127" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="9" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B128" s="10" t="inlineStr">
+      <c r="A128" s="17" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B128" s="18" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 36900.00
 Borrower Amount: 36900.00</t>
         </is>
       </c>
-      <c r="C128" s="9" t="inlineStr"/>
-      <c r="D128" s="9" t="inlineStr"/>
-      <c r="E128" s="15" t="inlineStr">
+      <c r="C128" s="17" t="inlineStr"/>
+      <c r="D128" s="17" t="inlineStr"/>
+      <c r="E128" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(A.B.M Anas Engineering)</t>
         </is>
       </c>
-      <c r="F128" s="9" t="inlineStr"/>
-      <c r="G128" s="9" t="inlineStr"/>
-      <c r="H128" s="9" t="inlineStr"/>
-      <c r="I128" s="9" t="inlineStr"/>
-      <c r="J128" s="9" t="inlineStr"/>
-      <c r="K128" s="9" t="inlineStr"/>
-      <c r="L128" s="9" t="inlineStr">
+      <c r="F128" s="17" t="inlineStr"/>
+      <c r="G128" s="17" t="inlineStr"/>
+      <c r="H128" s="17" t="inlineStr"/>
+      <c r="I128" s="17" t="inlineStr"/>
+      <c r="J128" s="17" t="inlineStr"/>
+      <c r="K128" s="17" t="inlineStr"/>
+      <c r="L128" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="9" t="inlineStr">
-        <is>
-          <t>M064</t>
-        </is>
-      </c>
-      <c r="B129" s="10" t="inlineStr"/>
-      <c r="C129" s="9" t="inlineStr"/>
-      <c r="D129" s="9" t="inlineStr">
+      <c r="A129" s="17" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B129" s="18" t="inlineStr"/>
+      <c r="C129" s="17" t="inlineStr"/>
+      <c r="D129" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E129" s="16" t="inlineStr">
+      <c r="E129" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F129" s="9" t="inlineStr"/>
-      <c r="G129" s="9" t="inlineStr"/>
-      <c r="H129" s="9" t="inlineStr"/>
-      <c r="I129" s="9" t="inlineStr"/>
-      <c r="J129" s="9" t="inlineStr"/>
-      <c r="K129" s="9" t="inlineStr"/>
-      <c r="L129" s="9" t="inlineStr">
+      <c r="F129" s="17" t="inlineStr"/>
+      <c r="G129" s="17" t="inlineStr"/>
+      <c r="H129" s="17" t="inlineStr"/>
+      <c r="I129" s="17" t="inlineStr"/>
+      <c r="J129" s="17" t="inlineStr"/>
+      <c r="K129" s="17" t="inlineStr"/>
+      <c r="L129" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="17" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B130" s="18" t="inlineStr"/>
-      <c r="C130" s="19" t="inlineStr">
+      <c r="A130" s="9" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B130" s="10" t="inlineStr"/>
+      <c r="C130" s="11" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D130" s="17" t="inlineStr">
+      <c r="D130" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E130" s="20" t="inlineStr">
+      <c r="E130" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-(Hypo)-2411000001105</t>
         </is>
       </c>
-      <c r="F130" s="17" t="inlineStr"/>
-      <c r="G130" s="17" t="inlineStr"/>
-      <c r="H130" s="21" t="inlineStr">
+      <c r="F130" s="9" t="inlineStr"/>
+      <c r="G130" s="9" t="inlineStr"/>
+      <c r="H130" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I130" s="17" t="inlineStr">
+      <c r="I130" s="9" t="inlineStr">
         <is>
           <t>70688</t>
         </is>
       </c>
-      <c r="J130" s="22" t="inlineStr">
+      <c r="J130" s="14" t="inlineStr">
         <is>
           <t>1531483</t>
         </is>
       </c>
-      <c r="K130" s="17" t="inlineStr"/>
-      <c r="L130" s="17" t="inlineStr">
+      <c r="K130" s="9" t="inlineStr"/>
+      <c r="L130" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="17" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B131" s="18" t="inlineStr">
+      <c r="A131" s="9" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B131" s="10" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 1531483.00
 Borrower Amount: 1531483.00</t>
         </is>
       </c>
-      <c r="C131" s="17" t="inlineStr"/>
-      <c r="D131" s="17" t="inlineStr"/>
-      <c r="E131" s="23" t="inlineStr">
+      <c r="C131" s="9" t="inlineStr"/>
+      <c r="D131" s="9" t="inlineStr"/>
+      <c r="E131" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Sadharan Bima Corporation)</t>
         </is>
       </c>
-      <c r="F131" s="17" t="inlineStr"/>
-      <c r="G131" s="17" t="inlineStr"/>
-      <c r="H131" s="17" t="inlineStr"/>
-      <c r="I131" s="17" t="inlineStr"/>
-      <c r="J131" s="17" t="inlineStr"/>
-      <c r="K131" s="17" t="inlineStr"/>
-      <c r="L131" s="17" t="inlineStr">
+      <c r="F131" s="9" t="inlineStr"/>
+      <c r="G131" s="9" t="inlineStr"/>
+      <c r="H131" s="9" t="inlineStr"/>
+      <c r="I131" s="9" t="inlineStr"/>
+      <c r="J131" s="9" t="inlineStr"/>
+      <c r="K131" s="9" t="inlineStr"/>
+      <c r="L131" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="17" t="inlineStr">
-        <is>
-          <t>M065</t>
-        </is>
-      </c>
-      <c r="B132" s="18" t="inlineStr"/>
-      <c r="C132" s="17" t="inlineStr"/>
-      <c r="D132" s="17" t="inlineStr">
+      <c r="A132" s="9" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B132" s="10" t="inlineStr"/>
+      <c r="C132" s="9" t="inlineStr"/>
+      <c r="D132" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E132" s="24" t="inlineStr">
+      <c r="E132" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F132" s="17" t="inlineStr"/>
-      <c r="G132" s="17" t="inlineStr"/>
-      <c r="H132" s="17" t="inlineStr"/>
-      <c r="I132" s="17" t="inlineStr"/>
-      <c r="J132" s="17" t="inlineStr"/>
-      <c r="K132" s="17" t="inlineStr"/>
-      <c r="L132" s="17" t="inlineStr">
+      <c r="F132" s="9" t="inlineStr"/>
+      <c r="G132" s="9" t="inlineStr"/>
+      <c r="H132" s="9" t="inlineStr"/>
+      <c r="I132" s="9" t="inlineStr"/>
+      <c r="J132" s="9" t="inlineStr"/>
+      <c r="K132" s="9" t="inlineStr"/>
+      <c r="L132" s="9" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="9" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B133" s="10" t="inlineStr"/>
-      <c r="C133" s="11" t="inlineStr">
+      <c r="A133" s="17" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B133" s="18" t="inlineStr"/>
+      <c r="C133" s="19" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D133" s="9" t="inlineStr">
+      <c r="D133" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E133" s="12" t="inlineStr">
+      <c r="E133" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-(Hypo)-2411000001105</t>
         </is>
       </c>
-      <c r="F133" s="9" t="inlineStr"/>
-      <c r="G133" s="9" t="inlineStr"/>
-      <c r="H133" s="13" t="inlineStr">
+      <c r="F133" s="17" t="inlineStr"/>
+      <c r="G133" s="17" t="inlineStr"/>
+      <c r="H133" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I133" s="9" t="inlineStr">
+      <c r="I133" s="17" t="inlineStr">
         <is>
           <t>70689</t>
         </is>
       </c>
-      <c r="J133" s="14" t="inlineStr">
+      <c r="J133" s="22" t="inlineStr">
         <is>
           <t>589625</t>
         </is>
       </c>
-      <c r="K133" s="9" t="inlineStr"/>
-      <c r="L133" s="9" t="inlineStr">
+      <c r="K133" s="17" t="inlineStr"/>
+      <c r="L133" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="9" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B134" s="10" t="inlineStr">
+      <c r="A134" s="17" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B134" s="18" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 589625.00
 Borrower Amount: 589625.00</t>
         </is>
       </c>
-      <c r="C134" s="9" t="inlineStr"/>
-      <c r="D134" s="9" t="inlineStr"/>
-      <c r="E134" s="15" t="inlineStr">
+      <c r="C134" s="17" t="inlineStr"/>
+      <c r="D134" s="17" t="inlineStr"/>
+      <c r="E134" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Narayanganj Palli Biddyut Samity-1)</t>
         </is>
       </c>
-      <c r="F134" s="9" t="inlineStr"/>
-      <c r="G134" s="9" t="inlineStr"/>
-      <c r="H134" s="9" t="inlineStr"/>
-      <c r="I134" s="9" t="inlineStr"/>
-      <c r="J134" s="9" t="inlineStr"/>
-      <c r="K134" s="9" t="inlineStr"/>
-      <c r="L134" s="9" t="inlineStr">
+      <c r="F134" s="17" t="inlineStr"/>
+      <c r="G134" s="17" t="inlineStr"/>
+      <c r="H134" s="17" t="inlineStr"/>
+      <c r="I134" s="17" t="inlineStr"/>
+      <c r="J134" s="17" t="inlineStr"/>
+      <c r="K134" s="17" t="inlineStr"/>
+      <c r="L134" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="9" t="inlineStr">
-        <is>
-          <t>M066</t>
-        </is>
-      </c>
-      <c r="B135" s="10" t="inlineStr"/>
-      <c r="C135" s="9" t="inlineStr"/>
-      <c r="D135" s="9" t="inlineStr">
+      <c r="A135" s="17" t="inlineStr">
+        <is>
+          <t>M055</t>
+        </is>
+      </c>
+      <c r="B135" s="18" t="inlineStr"/>
+      <c r="C135" s="17" t="inlineStr"/>
+      <c r="D135" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E135" s="16" t="inlineStr">
+      <c r="E135" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F135" s="9" t="inlineStr"/>
-      <c r="G135" s="9" t="inlineStr"/>
-      <c r="H135" s="9" t="inlineStr"/>
-      <c r="I135" s="9" t="inlineStr"/>
-      <c r="J135" s="9" t="inlineStr"/>
-      <c r="K135" s="9" t="inlineStr"/>
-      <c r="L135" s="9" t="inlineStr">
+      <c r="F135" s="17" t="inlineStr"/>
+      <c r="G135" s="17" t="inlineStr"/>
+      <c r="H135" s="17" t="inlineStr"/>
+      <c r="I135" s="17" t="inlineStr"/>
+      <c r="J135" s="17" t="inlineStr"/>
+      <c r="K135" s="17" t="inlineStr"/>
+      <c r="L135" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="17" t="inlineStr">
+      <c r="A136" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B136" s="18" t="inlineStr"/>
-      <c r="C136" s="19" t="inlineStr">
+      <c r="B136" s="10" t="inlineStr"/>
+      <c r="C136" s="11" t="inlineStr">
         <is>
           <t>21/Jun/2025</t>
         </is>
       </c>
-      <c r="D136" s="17" t="inlineStr">
+      <c r="D136" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E136" s="20" t="inlineStr">
+      <c r="E136" s="12" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F136" s="17" t="inlineStr"/>
-      <c r="G136" s="17" t="inlineStr"/>
-      <c r="H136" s="21" t="inlineStr">
+      <c r="F136" s="9" t="inlineStr"/>
+      <c r="G136" s="9" t="inlineStr"/>
+      <c r="H136" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I136" s="17" t="inlineStr">
+      <c r="I136" s="9" t="inlineStr">
         <is>
           <t>3538</t>
         </is>
       </c>
-      <c r="J136" s="22" t="inlineStr">
+      <c r="J136" s="14" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K136" s="17" t="inlineStr"/>
-      <c r="L136" s="17" t="inlineStr">
+      <c r="K136" s="9" t="inlineStr"/>
+      <c r="L136" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="17" t="inlineStr">
+      <c r="A137" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B137" s="18" t="inlineStr"/>
-      <c r="C137" s="17" t="inlineStr"/>
-      <c r="D137" s="17" t="inlineStr"/>
-      <c r="E137" s="20" t="inlineStr">
+      <c r="B137" s="10" t="inlineStr"/>
+      <c r="C137" s="9" t="inlineStr"/>
+      <c r="D137" s="9" t="inlineStr"/>
+      <c r="E137" s="12" t="inlineStr">
         <is>
           <t>Inter Unit Loan A/C-Pole Unit</t>
         </is>
       </c>
-      <c r="F137" s="17" t="inlineStr"/>
-      <c r="G137" s="17" t="inlineStr"/>
-      <c r="H137" s="17" t="inlineStr"/>
-      <c r="I137" s="17" t="inlineStr"/>
-      <c r="J137" s="22" t="inlineStr">
+      <c r="F137" s="9" t="inlineStr"/>
+      <c r="G137" s="9" t="inlineStr"/>
+      <c r="H137" s="9" t="inlineStr"/>
+      <c r="I137" s="9" t="inlineStr"/>
+      <c r="J137" s="14" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K137" s="17" t="inlineStr"/>
-      <c r="L137" s="17" t="inlineStr">
+      <c r="K137" s="9" t="inlineStr"/>
+      <c r="L137" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="17" t="inlineStr">
+      <c r="A138" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B138" s="18" t="inlineStr"/>
-      <c r="C138" s="17" t="inlineStr"/>
-      <c r="D138" s="17" t="inlineStr"/>
-      <c r="E138" s="20" t="inlineStr">
+      <c r="B138" s="10" t="inlineStr"/>
+      <c r="C138" s="9" t="inlineStr"/>
+      <c r="D138" s="9" t="inlineStr"/>
+      <c r="E138" s="12" t="inlineStr">
         <is>
           <t>Adv-Odoo Bangladesh</t>
         </is>
       </c>
-      <c r="F138" s="17" t="inlineStr"/>
-      <c r="G138" s="17" t="inlineStr"/>
-      <c r="H138" s="17" t="inlineStr"/>
-      <c r="I138" s="17" t="inlineStr"/>
-      <c r="J138" s="17" t="inlineStr"/>
-      <c r="K138" s="22" t="inlineStr">
+      <c r="F138" s="9" t="inlineStr"/>
+      <c r="G138" s="9" t="inlineStr"/>
+      <c r="H138" s="9" t="inlineStr"/>
+      <c r="I138" s="9" t="inlineStr"/>
+      <c r="J138" s="9" t="inlineStr"/>
+      <c r="K138" s="14" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L138" s="17" t="inlineStr">
+      <c r="L138" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="17" t="inlineStr">
+      <c r="A139" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B139" s="18" t="inlineStr">
+      <c r="B139" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C139" s="17" t="inlineStr"/>
-      <c r="D139" s="17" t="inlineStr"/>
-      <c r="E139" s="23" t="inlineStr">
+      <c r="C139" s="9" t="inlineStr"/>
+      <c r="D139" s="9" t="inlineStr"/>
+      <c r="E139" s="15" t="inlineStr">
         <is>
           <t>Advance Chq no-8163057.  paid to Odoo Bangladesh agt ERP Emplemention. Ref no-IT/2014/11/008. from CIL Steel unit but 50% bill Tk.2,00,000 recorded in CIL-Trancformer and CIL-Pole Tk.2,00,000 So, Now made voucher as interunit loan.</t>
         </is>
       </c>
-      <c r="F139" s="17" t="inlineStr"/>
-      <c r="G139" s="17" t="inlineStr"/>
-      <c r="H139" s="17" t="inlineStr"/>
-      <c r="I139" s="17" t="inlineStr"/>
-      <c r="J139" s="17" t="inlineStr"/>
-      <c r="K139" s="17" t="inlineStr"/>
-      <c r="L139" s="17" t="inlineStr">
+      <c r="F139" s="9" t="inlineStr"/>
+      <c r="G139" s="9" t="inlineStr"/>
+      <c r="H139" s="9" t="inlineStr"/>
+      <c r="I139" s="9" t="inlineStr"/>
+      <c r="J139" s="9" t="inlineStr"/>
+      <c r="K139" s="9" t="inlineStr"/>
+      <c r="L139" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="17" t="inlineStr">
+      <c r="A140" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B140" s="18" t="inlineStr"/>
-      <c r="C140" s="17" t="inlineStr"/>
-      <c r="D140" s="17" t="inlineStr">
+      <c r="B140" s="10" t="inlineStr"/>
+      <c r="C140" s="9" t="inlineStr"/>
+      <c r="D140" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E140" s="24" t="inlineStr">
+      <c r="E140" s="16" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F140" s="17" t="inlineStr"/>
-      <c r="G140" s="17" t="inlineStr"/>
-      <c r="H140" s="17" t="inlineStr"/>
-      <c r="I140" s="17" t="inlineStr"/>
-      <c r="J140" s="17" t="inlineStr"/>
-      <c r="K140" s="17" t="inlineStr"/>
-      <c r="L140" s="17" t="inlineStr">
+      <c r="F140" s="9" t="inlineStr"/>
+      <c r="G140" s="9" t="inlineStr"/>
+      <c r="H140" s="9" t="inlineStr"/>
+      <c r="I140" s="9" t="inlineStr"/>
+      <c r="J140" s="9" t="inlineStr"/>
+      <c r="K140" s="9" t="inlineStr"/>
+      <c r="L140" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="9" t="inlineStr">
+      <c r="A141" s="17" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B141" s="10" t="inlineStr"/>
-      <c r="C141" s="11" t="inlineStr">
+      <c r="B141" s="18" t="inlineStr"/>
+      <c r="C141" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D141" s="9" t="inlineStr">
+      <c r="D141" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E141" s="12" t="inlineStr">
+      <c r="E141" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F141" s="9" t="inlineStr"/>
-      <c r="G141" s="9" t="inlineStr"/>
-      <c r="H141" s="13" t="inlineStr">
+      <c r="F141" s="17" t="inlineStr"/>
+      <c r="G141" s="17" t="inlineStr"/>
+      <c r="H141" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I141" s="9" t="inlineStr">
+      <c r="I141" s="17" t="inlineStr">
         <is>
           <t>70482</t>
         </is>
       </c>
-      <c r="J141" s="14" t="inlineStr">
+      <c r="J141" s="22" t="inlineStr">
         <is>
           <t>85000</t>
         </is>
       </c>
-      <c r="K141" s="9" t="inlineStr"/>
-      <c r="L141" s="9" t="inlineStr">
+      <c r="K141" s="17" t="inlineStr"/>
+      <c r="L141" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="9" t="inlineStr">
+      <c r="A142" s="17" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B142" s="10" t="inlineStr">
+      <c r="B142" s="18" t="inlineStr">
         <is>
           <t>LC Match: LC-308524012043/24
 Lender Amount: 85000.00
 Borrower Amount: 85000.00</t>
         </is>
       </c>
-      <c r="C142" s="9" t="inlineStr"/>
-      <c r="D142" s="9" t="inlineStr"/>
-      <c r="E142" s="15" t="inlineStr">
+      <c r="C142" s="17" t="inlineStr"/>
+      <c r="D142" s="17" t="inlineStr"/>
+      <c r="E142" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Port,Shipping &amp; Carrying Charges agt LC-308524012043/24-Transformer Unit-[Item-OLTC-Project-PBSH-G-89-Team-A][C-1164524]</t>
         </is>
       </c>
-      <c r="F142" s="9" t="inlineStr"/>
-      <c r="G142" s="9" t="inlineStr"/>
-      <c r="H142" s="9" t="inlineStr"/>
-      <c r="I142" s="9" t="inlineStr"/>
-      <c r="J142" s="9" t="inlineStr"/>
-      <c r="K142" s="9" t="inlineStr"/>
-      <c r="L142" s="9" t="inlineStr">
+      <c r="F142" s="17" t="inlineStr"/>
+      <c r="G142" s="17" t="inlineStr"/>
+      <c r="H142" s="17" t="inlineStr"/>
+      <c r="I142" s="17" t="inlineStr"/>
+      <c r="J142" s="17" t="inlineStr"/>
+      <c r="K142" s="17" t="inlineStr"/>
+      <c r="L142" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="9" t="inlineStr">
+      <c r="A143" s="17" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B143" s="10" t="inlineStr"/>
-      <c r="C143" s="9" t="inlineStr"/>
-      <c r="D143" s="9" t="inlineStr">
+      <c r="B143" s="18" t="inlineStr"/>
+      <c r="C143" s="17" t="inlineStr"/>
+      <c r="D143" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E143" s="16" t="inlineStr">
+      <c r="E143" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F143" s="9" t="inlineStr"/>
-      <c r="G143" s="9" t="inlineStr"/>
-      <c r="H143" s="9" t="inlineStr"/>
-      <c r="I143" s="9" t="inlineStr"/>
-      <c r="J143" s="9" t="inlineStr"/>
-      <c r="K143" s="9" t="inlineStr"/>
-      <c r="L143" s="9" t="inlineStr">
+      <c r="F143" s="17" t="inlineStr"/>
+      <c r="G143" s="17" t="inlineStr"/>
+      <c r="H143" s="17" t="inlineStr"/>
+      <c r="I143" s="17" t="inlineStr"/>
+      <c r="J143" s="17" t="inlineStr"/>
+      <c r="K143" s="17" t="inlineStr"/>
+      <c r="L143" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="17" t="inlineStr">
+      <c r="A144" s="9" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B144" s="18" t="inlineStr"/>
-      <c r="C144" s="19" t="inlineStr">
+      <c r="B144" s="10" t="inlineStr"/>
+      <c r="C144" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D144" s="17" t="inlineStr">
+      <c r="D144" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E144" s="20" t="inlineStr">
+      <c r="E144" s="12" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F144" s="17" t="inlineStr"/>
-      <c r="G144" s="17" t="inlineStr"/>
-      <c r="H144" s="21" t="inlineStr">
+      <c r="F144" s="9" t="inlineStr"/>
+      <c r="G144" s="9" t="inlineStr"/>
+      <c r="H144" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I144" s="17" t="inlineStr">
+      <c r="I144" s="9" t="inlineStr">
         <is>
           <t>70541</t>
         </is>
       </c>
-      <c r="J144" s="22" t="inlineStr">
+      <c r="J144" s="14" t="inlineStr">
         <is>
           <t>272808.31</t>
         </is>
       </c>
-      <c r="K144" s="17" t="inlineStr"/>
-      <c r="L144" s="17" t="inlineStr">
+      <c r="K144" s="9" t="inlineStr"/>
+      <c r="L144" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="17" t="inlineStr">
+      <c r="A145" s="9" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B145" s="18" t="inlineStr">
+      <c r="B145" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 272808.31
 Borrower Amount: 272808.31</t>
         </is>
       </c>
-      <c r="C145" s="17" t="inlineStr"/>
-      <c r="D145" s="17" t="inlineStr"/>
-      <c r="E145" s="23" t="inlineStr">
+      <c r="C145" s="9" t="inlineStr"/>
+      <c r="D145" s="9" t="inlineStr"/>
+      <c r="E145" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2435445106</t>
         </is>
       </c>
-      <c r="F145" s="17" t="inlineStr"/>
-      <c r="G145" s="17" t="inlineStr"/>
-      <c r="H145" s="17" t="inlineStr"/>
-      <c r="I145" s="17" t="inlineStr"/>
-      <c r="J145" s="17" t="inlineStr"/>
-      <c r="K145" s="17" t="inlineStr"/>
-      <c r="L145" s="17" t="inlineStr">
+      <c r="F145" s="9" t="inlineStr"/>
+      <c r="G145" s="9" t="inlineStr"/>
+      <c r="H145" s="9" t="inlineStr"/>
+      <c r="I145" s="9" t="inlineStr"/>
+      <c r="J145" s="9" t="inlineStr"/>
+      <c r="K145" s="9" t="inlineStr"/>
+      <c r="L145" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="17" t="inlineStr">
+      <c r="A146" s="9" t="inlineStr">
         <is>
           <t>M009</t>
         </is>
       </c>
-      <c r="B146" s="18" t="inlineStr"/>
-      <c r="C146" s="17" t="inlineStr"/>
-      <c r="D146" s="17" t="inlineStr">
+      <c r="B146" s="10" t="inlineStr"/>
+      <c r="C146" s="9" t="inlineStr"/>
+      <c r="D146" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E146" s="24" t="inlineStr">
+      <c r="E146" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F146" s="17" t="inlineStr"/>
-      <c r="G146" s="17" t="inlineStr"/>
-      <c r="H146" s="17" t="inlineStr"/>
-      <c r="I146" s="17" t="inlineStr"/>
-      <c r="J146" s="17" t="inlineStr"/>
-      <c r="K146" s="17" t="inlineStr"/>
-      <c r="L146" s="17" t="inlineStr">
+      <c r="F146" s="9" t="inlineStr"/>
+      <c r="G146" s="9" t="inlineStr"/>
+      <c r="H146" s="9" t="inlineStr"/>
+      <c r="I146" s="9" t="inlineStr"/>
+      <c r="J146" s="9" t="inlineStr"/>
+      <c r="K146" s="9" t="inlineStr"/>
+      <c r="L146" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="9" t="inlineStr">
+      <c r="A147" s="17" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B147" s="10" t="inlineStr"/>
-      <c r="C147" s="11" t="inlineStr">
+      <c r="B147" s="18" t="inlineStr"/>
+      <c r="C147" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D147" s="9" t="inlineStr">
+      <c r="D147" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E147" s="12" t="inlineStr">
+      <c r="E147" s="20" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F147" s="9" t="inlineStr"/>
-      <c r="G147" s="9" t="inlineStr"/>
-      <c r="H147" s="13" t="inlineStr">
+      <c r="F147" s="17" t="inlineStr"/>
+      <c r="G147" s="17" t="inlineStr"/>
+      <c r="H147" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I147" s="9" t="inlineStr">
+      <c r="I147" s="17" t="inlineStr">
         <is>
           <t>70548</t>
         </is>
       </c>
-      <c r="J147" s="14" t="inlineStr">
+      <c r="J147" s="22" t="inlineStr">
         <is>
           <t>133619.23</t>
         </is>
       </c>
-      <c r="K147" s="9" t="inlineStr"/>
-      <c r="L147" s="9" t="inlineStr">
+      <c r="K147" s="17" t="inlineStr"/>
+      <c r="L147" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="9" t="inlineStr">
+      <c r="A148" s="17" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B148" s="10" t="inlineStr">
+      <c r="B148" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 133619.23
 Borrower Amount: 133619.23</t>
         </is>
       </c>
-      <c r="C148" s="9" t="inlineStr"/>
-      <c r="D148" s="9" t="inlineStr"/>
-      <c r="E148" s="15" t="inlineStr">
+      <c r="C148" s="17" t="inlineStr"/>
+      <c r="D148" s="17" t="inlineStr"/>
+      <c r="E148" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2503002237</t>
         </is>
       </c>
-      <c r="F148" s="9" t="inlineStr"/>
-      <c r="G148" s="9" t="inlineStr"/>
-      <c r="H148" s="9" t="inlineStr"/>
-      <c r="I148" s="9" t="inlineStr"/>
-      <c r="J148" s="9" t="inlineStr"/>
-      <c r="K148" s="9" t="inlineStr"/>
-      <c r="L148" s="9" t="inlineStr">
+      <c r="F148" s="17" t="inlineStr"/>
+      <c r="G148" s="17" t="inlineStr"/>
+      <c r="H148" s="17" t="inlineStr"/>
+      <c r="I148" s="17" t="inlineStr"/>
+      <c r="J148" s="17" t="inlineStr"/>
+      <c r="K148" s="17" t="inlineStr"/>
+      <c r="L148" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="9" t="inlineStr">
+      <c r="A149" s="17" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B149" s="10" t="inlineStr"/>
-      <c r="C149" s="9" t="inlineStr"/>
-      <c r="D149" s="9" t="inlineStr">
+      <c r="B149" s="18" t="inlineStr"/>
+      <c r="C149" s="17" t="inlineStr"/>
+      <c r="D149" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E149" s="16" t="inlineStr">
+      <c r="E149" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F149" s="9" t="inlineStr"/>
-      <c r="G149" s="9" t="inlineStr"/>
-      <c r="H149" s="9" t="inlineStr"/>
-      <c r="I149" s="9" t="inlineStr"/>
-      <c r="J149" s="9" t="inlineStr"/>
-      <c r="K149" s="9" t="inlineStr"/>
-      <c r="L149" s="9" t="inlineStr">
+      <c r="F149" s="17" t="inlineStr"/>
+      <c r="G149" s="17" t="inlineStr"/>
+      <c r="H149" s="17" t="inlineStr"/>
+      <c r="I149" s="17" t="inlineStr"/>
+      <c r="J149" s="17" t="inlineStr"/>
+      <c r="K149" s="17" t="inlineStr"/>
+      <c r="L149" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="17" t="inlineStr">
+      <c r="A150" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B150" s="18" t="inlineStr"/>
-      <c r="C150" s="19" t="inlineStr">
+      <c r="B150" s="10" t="inlineStr"/>
+      <c r="C150" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D150" s="17" t="inlineStr">
+      <c r="D150" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E150" s="20" t="inlineStr">
+      <c r="E150" s="12" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F150" s="17" t="inlineStr"/>
-      <c r="G150" s="17" t="inlineStr"/>
-      <c r="H150" s="21" t="inlineStr">
+      <c r="F150" s="9" t="inlineStr"/>
+      <c r="G150" s="9" t="inlineStr"/>
+      <c r="H150" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I150" s="17" t="inlineStr">
+      <c r="I150" s="9" t="inlineStr">
         <is>
           <t>70809</t>
         </is>
       </c>
-      <c r="J150" s="22" t="inlineStr">
+      <c r="J150" s="14" t="inlineStr">
         <is>
           <t>174172.7</t>
         </is>
       </c>
-      <c r="K150" s="17" t="inlineStr"/>
-      <c r="L150" s="17" t="inlineStr">
+      <c r="K150" s="9" t="inlineStr"/>
+      <c r="L150" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="17" t="inlineStr">
+      <c r="A151" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B151" s="18" t="inlineStr">
+      <c r="B151" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 174172.70
 Borrower Amount: 174172.70</t>
         </is>
       </c>
-      <c r="C151" s="17" t="inlineStr"/>
-      <c r="D151" s="17" t="inlineStr"/>
-      <c r="E151" s="23" t="inlineStr">
+      <c r="C151" s="9" t="inlineStr"/>
+      <c r="D151" s="9" t="inlineStr"/>
+      <c r="E151" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest repayment of Time Loan-CIL Transformer-LD-2432680080</t>
         </is>
       </c>
-      <c r="F151" s="17" t="inlineStr"/>
-      <c r="G151" s="17" t="inlineStr"/>
-      <c r="H151" s="17" t="inlineStr"/>
-      <c r="I151" s="17" t="inlineStr"/>
-      <c r="J151" s="17" t="inlineStr"/>
-      <c r="K151" s="17" t="inlineStr"/>
-      <c r="L151" s="17" t="inlineStr">
+      <c r="F151" s="9" t="inlineStr"/>
+      <c r="G151" s="9" t="inlineStr"/>
+      <c r="H151" s="9" t="inlineStr"/>
+      <c r="I151" s="9" t="inlineStr"/>
+      <c r="J151" s="9" t="inlineStr"/>
+      <c r="K151" s="9" t="inlineStr"/>
+      <c r="L151" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="17" t="inlineStr">
+      <c r="A152" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B152" s="18" t="inlineStr"/>
-      <c r="C152" s="17" t="inlineStr"/>
-      <c r="D152" s="17" t="inlineStr">
+      <c r="B152" s="10" t="inlineStr"/>
+      <c r="C152" s="9" t="inlineStr"/>
+      <c r="D152" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E152" s="24" t="inlineStr">
+      <c r="E152" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F152" s="17" t="inlineStr"/>
-      <c r="G152" s="17" t="inlineStr"/>
-      <c r="H152" s="17" t="inlineStr"/>
-      <c r="I152" s="17" t="inlineStr"/>
-      <c r="J152" s="17" t="inlineStr"/>
-      <c r="K152" s="17" t="inlineStr"/>
-      <c r="L152" s="17" t="inlineStr">
+      <c r="F152" s="9" t="inlineStr"/>
+      <c r="G152" s="9" t="inlineStr"/>
+      <c r="H152" s="9" t="inlineStr"/>
+      <c r="I152" s="9" t="inlineStr"/>
+      <c r="J152" s="9" t="inlineStr"/>
+      <c r="K152" s="9" t="inlineStr"/>
+      <c r="L152" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="9" t="inlineStr">
+      <c r="A153" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B153" s="10" t="inlineStr"/>
-      <c r="C153" s="11" t="inlineStr">
+      <c r="B153" s="18" t="inlineStr"/>
+      <c r="C153" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D153" s="9" t="inlineStr">
+      <c r="D153" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E153" s="12" t="inlineStr">
+      <c r="E153" s="20" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F153" s="9" t="inlineStr"/>
-      <c r="G153" s="9" t="inlineStr"/>
-      <c r="H153" s="13" t="inlineStr">
+      <c r="F153" s="17" t="inlineStr"/>
+      <c r="G153" s="17" t="inlineStr"/>
+      <c r="H153" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I153" s="9" t="inlineStr">
+      <c r="I153" s="17" t="inlineStr">
         <is>
           <t>70810</t>
         </is>
       </c>
-      <c r="J153" s="14" t="inlineStr">
+      <c r="J153" s="22" t="inlineStr">
         <is>
           <t>83197.81</t>
         </is>
       </c>
-      <c r="K153" s="9" t="inlineStr"/>
-      <c r="L153" s="9" t="inlineStr">
+      <c r="K153" s="17" t="inlineStr"/>
+      <c r="L153" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="9" t="inlineStr">
+      <c r="A154" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B154" s="10" t="inlineStr">
+      <c r="B154" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#10855
 Lender Amount: 83197.81
 Borrower Amount: 83197.81</t>
         </is>
       </c>
-      <c r="C154" s="9" t="inlineStr"/>
-      <c r="D154" s="9" t="inlineStr"/>
-      <c r="E154" s="15" t="inlineStr">
+      <c r="C154" s="17" t="inlineStr"/>
+      <c r="D154" s="17" t="inlineStr"/>
+      <c r="E154" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2502802705</t>
         </is>
       </c>
-      <c r="F154" s="9" t="inlineStr"/>
-      <c r="G154" s="9" t="inlineStr"/>
-      <c r="H154" s="9" t="inlineStr"/>
-      <c r="I154" s="9" t="inlineStr"/>
-      <c r="J154" s="9" t="inlineStr"/>
-      <c r="K154" s="9" t="inlineStr"/>
-      <c r="L154" s="9" t="inlineStr">
+      <c r="F154" s="17" t="inlineStr"/>
+      <c r="G154" s="17" t="inlineStr"/>
+      <c r="H154" s="17" t="inlineStr"/>
+      <c r="I154" s="17" t="inlineStr"/>
+      <c r="J154" s="17" t="inlineStr"/>
+      <c r="K154" s="17" t="inlineStr"/>
+      <c r="L154" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="9" t="inlineStr">
+      <c r="A155" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B155" s="10" t="inlineStr"/>
-      <c r="C155" s="9" t="inlineStr"/>
-      <c r="D155" s="9" t="inlineStr">
+      <c r="B155" s="18" t="inlineStr"/>
+      <c r="C155" s="17" t="inlineStr"/>
+      <c r="D155" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E155" s="16" t="inlineStr">
+      <c r="E155" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F155" s="9" t="inlineStr"/>
-      <c r="G155" s="9" t="inlineStr"/>
-      <c r="H155" s="9" t="inlineStr"/>
-      <c r="I155" s="9" t="inlineStr"/>
-      <c r="J155" s="9" t="inlineStr"/>
-      <c r="K155" s="9" t="inlineStr"/>
-      <c r="L155" s="9" t="inlineStr">
+      <c r="F155" s="17" t="inlineStr"/>
+      <c r="G155" s="17" t="inlineStr"/>
+      <c r="H155" s="17" t="inlineStr"/>
+      <c r="I155" s="17" t="inlineStr"/>
+      <c r="J155" s="17" t="inlineStr"/>
+      <c r="K155" s="17" t="inlineStr"/>
+      <c r="L155" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="17" t="inlineStr">
+      <c r="A156" s="9" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B156" s="18" t="inlineStr"/>
-      <c r="C156" s="19" t="inlineStr">
+      <c r="B156" s="10" t="inlineStr"/>
+      <c r="C156" s="11" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D156" s="17" t="inlineStr">
+      <c r="D156" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E156" s="20" t="inlineStr">
+      <c r="E156" s="12" t="inlineStr">
         <is>
           <t>Eastern Bank,STD-1011220144056</t>
         </is>
       </c>
-      <c r="F156" s="17" t="inlineStr"/>
-      <c r="G156" s="17" t="inlineStr"/>
-      <c r="H156" s="21" t="inlineStr">
+      <c r="F156" s="9" t="inlineStr"/>
+      <c r="G156" s="9" t="inlineStr"/>
+      <c r="H156" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I156" s="17" t="inlineStr">
+      <c r="I156" s="9" t="inlineStr">
         <is>
           <t>70557</t>
         </is>
       </c>
-      <c r="J156" s="22" t="inlineStr">
+      <c r="J156" s="14" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K156" s="17" t="inlineStr"/>
-      <c r="L156" s="17" t="inlineStr">
+      <c r="K156" s="9" t="inlineStr"/>
+      <c r="L156" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="17" t="inlineStr">
+      <c r="A157" s="9" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B157" s="18" t="inlineStr">
+      <c r="B157" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: EBL#4056
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C157" s="17" t="inlineStr"/>
-      <c r="D157" s="17" t="inlineStr"/>
-      <c r="E157" s="23" t="inlineStr">
+      <c r="C157" s="9" t="inlineStr"/>
+      <c r="D157" s="9" t="inlineStr"/>
+      <c r="E157" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Inter Unit Loan A/C-Transformer Unit, EBL#44067</t>
         </is>
       </c>
-      <c r="F157" s="17" t="inlineStr"/>
-      <c r="G157" s="17" t="inlineStr"/>
-      <c r="H157" s="17" t="inlineStr"/>
-      <c r="I157" s="17" t="inlineStr"/>
-      <c r="J157" s="17" t="inlineStr"/>
-      <c r="K157" s="17" t="inlineStr"/>
-      <c r="L157" s="17" t="inlineStr">
+      <c r="F157" s="9" t="inlineStr"/>
+      <c r="G157" s="9" t="inlineStr"/>
+      <c r="H157" s="9" t="inlineStr"/>
+      <c r="I157" s="9" t="inlineStr"/>
+      <c r="J157" s="9" t="inlineStr"/>
+      <c r="K157" s="9" t="inlineStr"/>
+      <c r="L157" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="17" t="inlineStr">
+      <c r="A158" s="9" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B158" s="18" t="inlineStr"/>
-      <c r="C158" s="17" t="inlineStr"/>
-      <c r="D158" s="17" t="inlineStr">
+      <c r="B158" s="10" t="inlineStr"/>
+      <c r="C158" s="9" t="inlineStr"/>
+      <c r="D158" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E158" s="24" t="inlineStr">
+      <c r="E158" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F158" s="17" t="inlineStr"/>
-      <c r="G158" s="17" t="inlineStr"/>
-      <c r="H158" s="17" t="inlineStr"/>
-      <c r="I158" s="17" t="inlineStr"/>
-      <c r="J158" s="17" t="inlineStr"/>
-      <c r="K158" s="17" t="inlineStr"/>
-      <c r="L158" s="17" t="inlineStr">
+      <c r="F158" s="9" t="inlineStr"/>
+      <c r="G158" s="9" t="inlineStr"/>
+      <c r="H158" s="9" t="inlineStr"/>
+      <c r="I158" s="9" t="inlineStr"/>
+      <c r="J158" s="9" t="inlineStr"/>
+      <c r="K158" s="9" t="inlineStr"/>
+      <c r="L158" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="9" t="inlineStr">
+      <c r="A159" s="17" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B159" s="10" t="inlineStr"/>
-      <c r="C159" s="11" t="inlineStr">
+      <c r="B159" s="18" t="inlineStr"/>
+      <c r="C159" s="19" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D159" s="9" t="inlineStr">
+      <c r="D159" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E159" s="12" t="inlineStr">
+      <c r="E159" s="20" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F159" s="9" t="inlineStr"/>
-      <c r="G159" s="9" t="inlineStr"/>
-      <c r="H159" s="13" t="inlineStr">
+      <c r="F159" s="17" t="inlineStr"/>
+      <c r="G159" s="17" t="inlineStr"/>
+      <c r="H159" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I159" s="9" t="inlineStr">
+      <c r="I159" s="17" t="inlineStr">
         <is>
           <t>964</t>
         </is>
       </c>
-      <c r="J159" s="9" t="inlineStr"/>
-      <c r="K159" s="14" t="inlineStr">
+      <c r="J159" s="17" t="inlineStr"/>
+      <c r="K159" s="22" t="inlineStr">
         <is>
           <t>50000</t>
         </is>
       </c>
-      <c r="L159" s="9" t="inlineStr">
+      <c r="L159" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="9" t="inlineStr">
+      <c r="A160" s="17" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B160" s="10" t="inlineStr">
+      <c r="B160" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#1060
 Lender Amount: 50000.00
 Borrower Amount: 50000.00</t>
         </is>
       </c>
-      <c r="C160" s="9" t="inlineStr"/>
-      <c r="D160" s="9" t="inlineStr"/>
-      <c r="E160" s="15" t="inlineStr">
+      <c r="C160" s="17" t="inlineStr"/>
+      <c r="D160" s="17" t="inlineStr"/>
+      <c r="E160" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Inter Unit Loan A/C-Transformer Unit,PBL#1060</t>
         </is>
       </c>
-      <c r="F160" s="9" t="inlineStr"/>
-      <c r="G160" s="9" t="inlineStr"/>
-      <c r="H160" s="9" t="inlineStr"/>
-      <c r="I160" s="9" t="inlineStr"/>
-      <c r="J160" s="9" t="inlineStr"/>
-      <c r="K160" s="9" t="inlineStr"/>
-      <c r="L160" s="9" t="inlineStr">
+      <c r="F160" s="17" t="inlineStr"/>
+      <c r="G160" s="17" t="inlineStr"/>
+      <c r="H160" s="17" t="inlineStr"/>
+      <c r="I160" s="17" t="inlineStr"/>
+      <c r="J160" s="17" t="inlineStr"/>
+      <c r="K160" s="17" t="inlineStr"/>
+      <c r="L160" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="9" t="inlineStr">
+      <c r="A161" s="17" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B161" s="10" t="inlineStr"/>
-      <c r="C161" s="9" t="inlineStr"/>
-      <c r="D161" s="9" t="inlineStr">
+      <c r="B161" s="18" t="inlineStr"/>
+      <c r="C161" s="17" t="inlineStr"/>
+      <c r="D161" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E161" s="16" t="inlineStr">
+      <c r="E161" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F161" s="9" t="inlineStr"/>
-      <c r="G161" s="9" t="inlineStr"/>
-      <c r="H161" s="9" t="inlineStr"/>
-      <c r="I161" s="9" t="inlineStr"/>
-      <c r="J161" s="9" t="inlineStr"/>
-      <c r="K161" s="9" t="inlineStr"/>
-      <c r="L161" s="9" t="inlineStr">
+      <c r="F161" s="17" t="inlineStr"/>
+      <c r="G161" s="17" t="inlineStr"/>
+      <c r="H161" s="17" t="inlineStr"/>
+      <c r="I161" s="17" t="inlineStr"/>
+      <c r="J161" s="17" t="inlineStr"/>
+      <c r="K161" s="17" t="inlineStr"/>
+      <c r="L161" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="17" t="inlineStr">
+      <c r="A162" s="9" t="inlineStr">
         <is>
           <t>M023</t>
         </is>
       </c>
-      <c r="B162" s="18" t="inlineStr"/>
-      <c r="C162" s="19" t="inlineStr">
+      <c r="B162" s="10" t="inlineStr"/>
+      <c r="C162" s="11" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D162" s="17" t="inlineStr">
+      <c r="D162" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E162" s="20" t="inlineStr">
+      <c r="E162" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F162" s="17" t="inlineStr"/>
-      <c r="G162" s="17" t="inlineStr"/>
-      <c r="H162" s="21" t="inlineStr">
+      <c r="F162" s="9" t="inlineStr"/>
+      <c r="G162" s="9" t="inlineStr"/>
+      <c r="H162" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I162" s="17" t="inlineStr">
+      <c r="I162" s="9" t="inlineStr">
         <is>
           <t>70775</t>
         </is>
       </c>
-      <c r="J162" s="22" t="inlineStr">
+      <c r="J162" s="14" t="inlineStr">
         <is>
           <t>4000000</t>
         </is>
       </c>
-      <c r="K162" s="17" t="inlineStr"/>
-      <c r="L162" s="17" t="inlineStr">
+      <c r="K162" s="9" t="inlineStr"/>
+      <c r="L162" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="17" t="inlineStr">
+      <c r="A163" s="9" t="inlineStr">
         <is>
           <t>M023</t>
         </is>
       </c>
-      <c r="B163" s="18" t="inlineStr">
+      <c r="B163" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 4000000.00
 Borrower Amount: 4000000.00</t>
         </is>
       </c>
-      <c r="C163" s="17" t="inlineStr"/>
-      <c r="D163" s="17" t="inlineStr"/>
-      <c r="E163" s="23" t="inlineStr">
+      <c r="C163" s="9" t="inlineStr"/>
+      <c r="D163" s="9" t="inlineStr"/>
+      <c r="E163" s="15" t="inlineStr">
         <is>
           <t>Interunit Fund Transfer as Inter Unit Loan A/C-Transformer Unit, MDB#0313</t>
         </is>
       </c>
-      <c r="F163" s="17" t="inlineStr"/>
-      <c r="G163" s="17" t="inlineStr"/>
-      <c r="H163" s="17" t="inlineStr"/>
-      <c r="I163" s="17" t="inlineStr"/>
-      <c r="J163" s="17" t="inlineStr"/>
-      <c r="K163" s="17" t="inlineStr"/>
-      <c r="L163" s="17" t="inlineStr">
+      <c r="F163" s="9" t="inlineStr"/>
+      <c r="G163" s="9" t="inlineStr"/>
+      <c r="H163" s="9" t="inlineStr"/>
+      <c r="I163" s="9" t="inlineStr"/>
+      <c r="J163" s="9" t="inlineStr"/>
+      <c r="K163" s="9" t="inlineStr"/>
+      <c r="L163" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="17" t="inlineStr">
+      <c r="A164" s="9" t="inlineStr">
         <is>
           <t>M023</t>
         </is>
       </c>
-      <c r="B164" s="18" t="inlineStr"/>
-      <c r="C164" s="17" t="inlineStr"/>
-      <c r="D164" s="17" t="inlineStr">
+      <c r="B164" s="10" t="inlineStr"/>
+      <c r="C164" s="9" t="inlineStr"/>
+      <c r="D164" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E164" s="24" t="inlineStr">
+      <c r="E164" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F164" s="17" t="inlineStr"/>
-      <c r="G164" s="17" t="inlineStr"/>
-      <c r="H164" s="17" t="inlineStr"/>
-      <c r="I164" s="17" t="inlineStr"/>
-      <c r="J164" s="17" t="inlineStr"/>
-      <c r="K164" s="17" t="inlineStr"/>
-      <c r="L164" s="17" t="inlineStr">
+      <c r="F164" s="9" t="inlineStr"/>
+      <c r="G164" s="9" t="inlineStr"/>
+      <c r="H164" s="9" t="inlineStr"/>
+      <c r="I164" s="9" t="inlineStr"/>
+      <c r="J164" s="9" t="inlineStr"/>
+      <c r="K164" s="9" t="inlineStr"/>
+      <c r="L164" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="9" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B165" s="10" t="inlineStr"/>
-      <c r="C165" s="11" t="inlineStr">
+      <c r="A165" s="17" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B165" s="18" t="inlineStr"/>
+      <c r="C165" s="19" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
         </is>
       </c>
-      <c r="D165" s="9" t="inlineStr">
+      <c r="D165" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E165" s="12" t="inlineStr">
+      <c r="E165" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F165" s="9" t="inlineStr"/>
-      <c r="G165" s="9" t="inlineStr"/>
-      <c r="H165" s="13" t="inlineStr">
+      <c r="F165" s="17" t="inlineStr"/>
+      <c r="G165" s="17" t="inlineStr"/>
+      <c r="H165" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I165" s="9" t="inlineStr">
+      <c r="I165" s="17" t="inlineStr">
         <is>
           <t>70687</t>
         </is>
       </c>
-      <c r="J165" s="14" t="inlineStr">
+      <c r="J165" s="22" t="inlineStr">
         <is>
           <t>5137392</t>
         </is>
       </c>
-      <c r="K165" s="9" t="inlineStr"/>
-      <c r="L165" s="9" t="inlineStr">
+      <c r="K165" s="17" t="inlineStr"/>
+      <c r="L165" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="9" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B166" s="10" t="inlineStr">
+      <c r="A166" s="17" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B166" s="18" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 5137392.00
 Borrower Amount: 5137392.00</t>
         </is>
       </c>
-      <c r="C166" s="9" t="inlineStr"/>
-      <c r="D166" s="9" t="inlineStr"/>
-      <c r="E166" s="15" t="inlineStr">
+      <c r="C166" s="17" t="inlineStr"/>
+      <c r="D166" s="17" t="inlineStr"/>
+      <c r="E166" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(RR Imperial Electricals Limited)</t>
         </is>
       </c>
-      <c r="F166" s="9" t="inlineStr"/>
-      <c r="G166" s="9" t="inlineStr"/>
-      <c r="H166" s="9" t="inlineStr"/>
-      <c r="I166" s="9" t="inlineStr"/>
-      <c r="J166" s="9" t="inlineStr"/>
-      <c r="K166" s="9" t="inlineStr"/>
-      <c r="L166" s="9" t="inlineStr">
+      <c r="F166" s="17" t="inlineStr"/>
+      <c r="G166" s="17" t="inlineStr"/>
+      <c r="H166" s="17" t="inlineStr"/>
+      <c r="I166" s="17" t="inlineStr"/>
+      <c r="J166" s="17" t="inlineStr"/>
+      <c r="K166" s="17" t="inlineStr"/>
+      <c r="L166" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="9" t="inlineStr">
-        <is>
-          <t>M067</t>
-        </is>
-      </c>
-      <c r="B167" s="10" t="inlineStr"/>
-      <c r="C167" s="9" t="inlineStr"/>
-      <c r="D167" s="9" t="inlineStr">
+      <c r="A167" s="17" t="inlineStr">
+        <is>
+          <t>M056</t>
+        </is>
+      </c>
+      <c r="B167" s="18" t="inlineStr"/>
+      <c r="C167" s="17" t="inlineStr"/>
+      <c r="D167" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E167" s="16" t="inlineStr">
+      <c r="E167" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F167" s="9" t="inlineStr"/>
-      <c r="G167" s="9" t="inlineStr"/>
-      <c r="H167" s="9" t="inlineStr"/>
-      <c r="I167" s="9" t="inlineStr"/>
-      <c r="J167" s="9" t="inlineStr"/>
-      <c r="K167" s="9" t="inlineStr"/>
-      <c r="L167" s="9" t="inlineStr">
+      <c r="F167" s="17" t="inlineStr"/>
+      <c r="G167" s="17" t="inlineStr"/>
+      <c r="H167" s="17" t="inlineStr"/>
+      <c r="I167" s="17" t="inlineStr"/>
+      <c r="J167" s="17" t="inlineStr"/>
+      <c r="K167" s="17" t="inlineStr"/>
+      <c r="L167" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="17" t="inlineStr">
+      <c r="A168" s="9" t="inlineStr">
         <is>
           <t>M024</t>
         </is>
       </c>
-      <c r="B168" s="18" t="inlineStr"/>
-      <c r="C168" s="19" t="inlineStr">
+      <c r="B168" s="10" t="inlineStr"/>
+      <c r="C168" s="11" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D168" s="17" t="inlineStr">
+      <c r="D168" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E168" s="20" t="inlineStr">
+      <c r="E168" s="12" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F168" s="17" t="inlineStr"/>
-      <c r="G168" s="17" t="inlineStr"/>
-      <c r="H168" s="21" t="inlineStr">
+      <c r="F168" s="9" t="inlineStr"/>
+      <c r="G168" s="9" t="inlineStr"/>
+      <c r="H168" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I168" s="17" t="inlineStr">
+      <c r="I168" s="9" t="inlineStr">
         <is>
           <t>70593</t>
         </is>
       </c>
-      <c r="J168" s="22" t="inlineStr">
+      <c r="J168" s="14" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="K168" s="17" t="inlineStr"/>
-      <c r="L168" s="17" t="inlineStr">
+      <c r="K168" s="9" t="inlineStr"/>
+      <c r="L168" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="17" t="inlineStr">
+      <c r="A169" s="9" t="inlineStr">
         <is>
           <t>M024</t>
         </is>
       </c>
-      <c r="B169" s="18" t="inlineStr"/>
-      <c r="C169" s="17" t="inlineStr"/>
-      <c r="D169" s="17" t="inlineStr"/>
-      <c r="E169" s="20" t="inlineStr">
+      <c r="B169" s="10" t="inlineStr"/>
+      <c r="C169" s="9" t="inlineStr"/>
+      <c r="D169" s="9" t="inlineStr"/>
+      <c r="E169" s="12" t="inlineStr">
         <is>
           <t>Inter Unit Loan A/C-Dredging Unit</t>
         </is>
       </c>
-      <c r="F169" s="17" t="inlineStr"/>
-      <c r="G169" s="17" t="inlineStr"/>
-      <c r="H169" s="17" t="inlineStr"/>
-      <c r="I169" s="17" t="inlineStr"/>
-      <c r="J169" s="22" t="inlineStr">
+      <c r="F169" s="9" t="inlineStr"/>
+      <c r="G169" s="9" t="inlineStr"/>
+      <c r="H169" s="9" t="inlineStr"/>
+      <c r="I169" s="9" t="inlineStr"/>
+      <c r="J169" s="14" t="inlineStr">
         <is>
           <t>3000000</t>
         </is>
       </c>
-      <c r="K169" s="17" t="inlineStr"/>
-      <c r="L169" s="17" t="inlineStr">
+      <c r="K169" s="9" t="inlineStr"/>
+      <c r="L169" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="17" t="inlineStr">
+      <c r="A170" s="9" t="inlineStr">
         <is>
           <t>M024</t>
         </is>
       </c>
-      <c r="B170" s="18" t="inlineStr"/>
-      <c r="C170" s="17" t="inlineStr"/>
-      <c r="D170" s="17" t="inlineStr"/>
-      <c r="E170" s="20" t="inlineStr">
+      <c r="B170" s="10" t="inlineStr"/>
+      <c r="C170" s="9" t="inlineStr"/>
+      <c r="D170" s="9" t="inlineStr"/>
+      <c r="E170" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F170" s="17" t="inlineStr"/>
-      <c r="G170" s="17" t="inlineStr"/>
-      <c r="H170" s="17" t="inlineStr"/>
-      <c r="I170" s="17" t="inlineStr"/>
-      <c r="J170" s="17" t="inlineStr"/>
-      <c r="K170" s="22" t="inlineStr">
+      <c r="F170" s="9" t="inlineStr"/>
+      <c r="G170" s="9" t="inlineStr"/>
+      <c r="H170" s="9" t="inlineStr"/>
+      <c r="I170" s="9" t="inlineStr"/>
+      <c r="J170" s="9" t="inlineStr"/>
+      <c r="K170" s="14" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L170" s="17" t="inlineStr">
+      <c r="L170" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="17" t="inlineStr">
+      <c r="A171" s="9" t="inlineStr">
         <is>
           <t>M024</t>
         </is>
       </c>
-      <c r="B171" s="18" t="inlineStr"/>
-      <c r="C171" s="17" t="inlineStr"/>
-      <c r="D171" s="17" t="inlineStr"/>
-      <c r="E171" s="20" t="inlineStr">
+      <c r="B171" s="10" t="inlineStr"/>
+      <c r="C171" s="9" t="inlineStr"/>
+      <c r="D171" s="9" t="inlineStr"/>
+      <c r="E171" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F171" s="17" t="inlineStr"/>
-      <c r="G171" s="17" t="inlineStr"/>
-      <c r="H171" s="17" t="inlineStr"/>
-      <c r="I171" s="17" t="inlineStr"/>
-      <c r="J171" s="17" t="inlineStr"/>
-      <c r="K171" s="22" t="inlineStr">
+      <c r="F171" s="9" t="inlineStr"/>
+      <c r="G171" s="9" t="inlineStr"/>
+      <c r="H171" s="9" t="inlineStr"/>
+      <c r="I171" s="9" t="inlineStr"/>
+      <c r="J171" s="9" t="inlineStr"/>
+      <c r="K171" s="14" t="inlineStr">
         <is>
           <t>3000000</t>
         </is>
       </c>
-      <c r="L171" s="17" t="inlineStr">
+      <c r="L171" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="17" t="inlineStr">
+      <c r="A172" s="9" t="inlineStr">
         <is>
           <t>M024</t>
         </is>
       </c>
-      <c r="B172" s="18" t="inlineStr">
+      <c r="B172" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 400000.00
 Borrower Amount: 400000.00</t>
         </is>
       </c>
-      <c r="C172" s="17" t="inlineStr"/>
-      <c r="D172" s="17" t="inlineStr"/>
-      <c r="E172" s="23" t="inlineStr">
+      <c r="C172" s="9" t="inlineStr"/>
+      <c r="D172" s="9" t="inlineStr"/>
+      <c r="E172" s="15" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit, MDB#0313 &amp; Inter Unit Loan A/C-Dredging Unit, MDB#0322</t>
         </is>
       </c>
-      <c r="F172" s="17" t="inlineStr"/>
-      <c r="G172" s="17" t="inlineStr"/>
-      <c r="H172" s="17" t="inlineStr"/>
-      <c r="I172" s="17" t="inlineStr"/>
-      <c r="J172" s="17" t="inlineStr"/>
-      <c r="K172" s="17" t="inlineStr"/>
-      <c r="L172" s="17" t="inlineStr">
+      <c r="F172" s="9" t="inlineStr"/>
+      <c r="G172" s="9" t="inlineStr"/>
+      <c r="H172" s="9" t="inlineStr"/>
+      <c r="I172" s="9" t="inlineStr"/>
+      <c r="J172" s="9" t="inlineStr"/>
+      <c r="K172" s="9" t="inlineStr"/>
+      <c r="L172" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="17" t="inlineStr">
+      <c r="A173" s="9" t="inlineStr">
         <is>
           <t>M024</t>
         </is>
       </c>
-      <c r="B173" s="18" t="inlineStr"/>
-      <c r="C173" s="17" t="inlineStr"/>
-      <c r="D173" s="17" t="inlineStr">
+      <c r="B173" s="10" t="inlineStr"/>
+      <c r="C173" s="9" t="inlineStr"/>
+      <c r="D173" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E173" s="24" t="inlineStr">
+      <c r="E173" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F173" s="17" t="inlineStr"/>
-      <c r="G173" s="17" t="inlineStr"/>
-      <c r="H173" s="17" t="inlineStr"/>
-      <c r="I173" s="17" t="inlineStr"/>
-      <c r="J173" s="17" t="inlineStr"/>
-      <c r="K173" s="17" t="inlineStr"/>
-      <c r="L173" s="17" t="inlineStr">
+      <c r="F173" s="9" t="inlineStr"/>
+      <c r="G173" s="9" t="inlineStr"/>
+      <c r="H173" s="9" t="inlineStr"/>
+      <c r="I173" s="9" t="inlineStr"/>
+      <c r="J173" s="9" t="inlineStr"/>
+      <c r="K173" s="9" t="inlineStr"/>
+      <c r="L173" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="9" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B174" s="10" t="inlineStr"/>
-      <c r="C174" s="11" t="inlineStr">
+      <c r="A174" s="17" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B174" s="18" t="inlineStr"/>
+      <c r="C174" s="19" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D174" s="9" t="inlineStr">
+      <c r="D174" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E174" s="12" t="inlineStr">
+      <c r="E174" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F174" s="9" t="inlineStr"/>
-      <c r="G174" s="9" t="inlineStr"/>
-      <c r="H174" s="13" t="inlineStr">
+      <c r="F174" s="17" t="inlineStr"/>
+      <c r="G174" s="17" t="inlineStr"/>
+      <c r="H174" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I174" s="9" t="inlineStr">
+      <c r="I174" s="17" t="inlineStr">
         <is>
           <t>70686</t>
         </is>
       </c>
-      <c r="J174" s="14" t="inlineStr">
+      <c r="J174" s="22" t="inlineStr">
         <is>
           <t>11780452</t>
         </is>
       </c>
-      <c r="K174" s="9" t="inlineStr"/>
-      <c r="L174" s="9" t="inlineStr">
+      <c r="K174" s="17" t="inlineStr"/>
+      <c r="L174" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="9" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B175" s="10" t="inlineStr">
+      <c r="A175" s="17" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B175" s="18" t="inlineStr">
         <is>
           <t>Manual Match
 Lender Amount: 11780452.00
 Borrower Amount: 11780452.00</t>
         </is>
       </c>
-      <c r="C175" s="9" t="inlineStr"/>
-      <c r="D175" s="9" t="inlineStr"/>
-      <c r="E175" s="15" t="inlineStr">
+      <c r="C175" s="17" t="inlineStr"/>
+      <c r="D175" s="17" t="inlineStr"/>
+      <c r="E175" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Rangpur Metal Industries Ltd.)</t>
         </is>
       </c>
-      <c r="F175" s="9" t="inlineStr"/>
-      <c r="G175" s="9" t="inlineStr"/>
-      <c r="H175" s="9" t="inlineStr"/>
-      <c r="I175" s="9" t="inlineStr"/>
-      <c r="J175" s="9" t="inlineStr"/>
-      <c r="K175" s="9" t="inlineStr"/>
-      <c r="L175" s="9" t="inlineStr">
+      <c r="F175" s="17" t="inlineStr"/>
+      <c r="G175" s="17" t="inlineStr"/>
+      <c r="H175" s="17" t="inlineStr"/>
+      <c r="I175" s="17" t="inlineStr"/>
+      <c r="J175" s="17" t="inlineStr"/>
+      <c r="K175" s="17" t="inlineStr"/>
+      <c r="L175" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="9" t="inlineStr">
-        <is>
-          <t>M068</t>
-        </is>
-      </c>
-      <c r="B176" s="10" t="inlineStr"/>
-      <c r="C176" s="9" t="inlineStr"/>
-      <c r="D176" s="9" t="inlineStr">
+      <c r="A176" s="17" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B176" s="18" t="inlineStr"/>
+      <c r="C176" s="17" t="inlineStr"/>
+      <c r="D176" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E176" s="16" t="inlineStr">
+      <c r="E176" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F176" s="9" t="inlineStr"/>
-      <c r="G176" s="9" t="inlineStr"/>
-      <c r="H176" s="9" t="inlineStr"/>
-      <c r="I176" s="9" t="inlineStr"/>
-      <c r="J176" s="9" t="inlineStr"/>
-      <c r="K176" s="9" t="inlineStr"/>
-      <c r="L176" s="9" t="inlineStr">
+      <c r="F176" s="17" t="inlineStr"/>
+      <c r="G176" s="17" t="inlineStr"/>
+      <c r="H176" s="17" t="inlineStr"/>
+      <c r="I176" s="17" t="inlineStr"/>
+      <c r="J176" s="17" t="inlineStr"/>
+      <c r="K176" s="17" t="inlineStr"/>
+      <c r="L176" s="17" t="inlineStr">
         <is>
           <t>Manual</t>
         </is>
@@ -6711,7 +6544,7 @@
       <c r="H177" s="1" t="inlineStr"/>
       <c r="I177" s="1" t="inlineStr"/>
       <c r="J177" s="1" t="inlineStr"/>
-      <c r="K177" s="25" t="inlineStr">
+      <c r="K177" s="28" t="inlineStr">
         <is>
           <t>95590149.25</t>
         </is>
@@ -6759,7 +6592,7 @@
       <c r="H179" s="1" t="inlineStr"/>
       <c r="I179" s="1" t="inlineStr"/>
       <c r="J179" s="1" t="inlineStr"/>
-      <c r="K179" s="25" t="inlineStr">
+      <c r="K179" s="28" t="inlineStr">
         <is>
           <t>95590149.25</t>
         </is>

--- a/Resources/Steel-Trans/Steel book Trans_MATCHED.xlsx
+++ b/Resources/Steel-Trans/Steel book Trans_MATCHED.xlsx
@@ -102,6 +102,15 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -148,15 +157,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -737,13 +737,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr"/>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Amounts don't match: 57747209.26 vs 57747208.25</t>
-        </is>
-      </c>
+      <c r="B10" s="2" t="inlineStr"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
@@ -772,3196 +766,2673 @@
       <c r="L10" s="1" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="9" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B11" s="10" t="inlineStr"/>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr"/>
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D11" s="9" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E11" s="12" t="inlineStr">
+      <c r="E11" s="7" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F11" s="9" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr"/>
-      <c r="H11" s="13" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr"/>
+      <c r="G11" s="1" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I11" s="9" t="inlineStr">
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>70624</t>
         </is>
       </c>
-      <c r="J11" s="14" t="inlineStr">
+      <c r="J11" s="8" t="inlineStr">
         <is>
           <t>36010</t>
         </is>
       </c>
-      <c r="K11" s="9" t="inlineStr"/>
-      <c r="L11" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K11" s="1" t="inlineStr"/>
+      <c r="L11" s="1" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B12" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 36010.00
-Borrower Amount: 36010.00</t>
-        </is>
-      </c>
-      <c r="C12" s="9" t="inlineStr"/>
-      <c r="D12" s="9" t="inlineStr"/>
-      <c r="E12" s="15" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 1 block</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Stardust Telecom Ltd.)</t>
         </is>
       </c>
-      <c r="F12" s="9" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr"/>
-      <c r="H12" s="9" t="inlineStr"/>
-      <c r="I12" s="9" t="inlineStr"/>
-      <c r="J12" s="9" t="inlineStr"/>
-      <c r="K12" s="9" t="inlineStr"/>
-      <c r="L12" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F12" s="1" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
+      <c r="J12" s="1" t="inlineStr"/>
+      <c r="K12" s="1" t="inlineStr"/>
+      <c r="L12" s="1" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="inlineStr">
-        <is>
-          <t>M030</t>
-        </is>
-      </c>
-      <c r="B13" s="10" t="inlineStr"/>
-      <c r="C13" s="9" t="inlineStr"/>
-      <c r="D13" s="9" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr"/>
+      <c r="B13" s="2" t="inlineStr"/>
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E13" s="16" t="inlineStr">
+      <c r="E13" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F13" s="9" t="inlineStr"/>
-      <c r="G13" s="9" t="inlineStr"/>
-      <c r="H13" s="9" t="inlineStr"/>
-      <c r="I13" s="9" t="inlineStr"/>
-      <c r="J13" s="9" t="inlineStr"/>
-      <c r="K13" s="9" t="inlineStr"/>
-      <c r="L13" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F13" s="1" t="inlineStr"/>
+      <c r="G13" s="1" t="inlineStr"/>
+      <c r="H13" s="1" t="inlineStr"/>
+      <c r="I13" s="1" t="inlineStr"/>
+      <c r="J13" s="1" t="inlineStr"/>
+      <c r="K13" s="1" t="inlineStr"/>
+      <c r="L13" s="1" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="17" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B14" s="18" t="inlineStr"/>
-      <c r="C14" s="19" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B14" s="13" t="inlineStr"/>
+      <c r="C14" s="14" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D14" s="17" t="inlineStr">
+      <c r="D14" s="12" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E14" s="20" t="inlineStr">
+      <c r="E14" s="15" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F14" s="17" t="inlineStr"/>
-      <c r="G14" s="17" t="inlineStr"/>
-      <c r="H14" s="21" t="inlineStr">
+      <c r="F14" s="12" t="inlineStr"/>
+      <c r="G14" s="12" t="inlineStr"/>
+      <c r="H14" s="16" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I14" s="17" t="inlineStr">
+      <c r="I14" s="12" t="inlineStr">
         <is>
           <t>70625</t>
         </is>
       </c>
-      <c r="J14" s="22" t="inlineStr">
+      <c r="J14" s="17" t="inlineStr">
         <is>
           <t>99317</t>
         </is>
       </c>
-      <c r="K14" s="17" t="inlineStr"/>
-      <c r="L14" s="17" t="inlineStr">
+      <c r="K14" s="12" t="inlineStr"/>
+      <c r="L14" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="17" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B15" s="18" t="inlineStr">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B15" s="13" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11370) - 'Final Settlement' keyword found
 Lender Amount: 99317.00
 Borrower Amount: 99317.00</t>
         </is>
       </c>
-      <c r="C15" s="17" t="inlineStr"/>
-      <c r="D15" s="17" t="inlineStr"/>
-      <c r="E15" s="23" t="inlineStr">
+      <c r="C15" s="12" t="inlineStr"/>
+      <c r="D15" s="12" t="inlineStr"/>
+      <c r="E15" s="18" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Suhel Mia-ID : 11370)</t>
         </is>
       </c>
-      <c r="F15" s="17" t="inlineStr"/>
-      <c r="G15" s="17" t="inlineStr"/>
-      <c r="H15" s="17" t="inlineStr"/>
-      <c r="I15" s="17" t="inlineStr"/>
-      <c r="J15" s="17" t="inlineStr"/>
-      <c r="K15" s="17" t="inlineStr"/>
-      <c r="L15" s="17" t="inlineStr">
+      <c r="F15" s="12" t="inlineStr"/>
+      <c r="G15" s="12" t="inlineStr"/>
+      <c r="H15" s="12" t="inlineStr"/>
+      <c r="I15" s="12" t="inlineStr"/>
+      <c r="J15" s="12" t="inlineStr"/>
+      <c r="K15" s="12" t="inlineStr"/>
+      <c r="L15" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="17" t="inlineStr">
-        <is>
-          <t>M025</t>
-        </is>
-      </c>
-      <c r="B16" s="18" t="inlineStr"/>
-      <c r="C16" s="17" t="inlineStr"/>
-      <c r="D16" s="17" t="inlineStr">
+      <c r="A16" s="12" t="inlineStr">
+        <is>
+          <t>M018</t>
+        </is>
+      </c>
+      <c r="B16" s="13" t="inlineStr"/>
+      <c r="C16" s="12" t="inlineStr"/>
+      <c r="D16" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E16" s="24" t="inlineStr">
+      <c r="E16" s="19" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F16" s="17" t="inlineStr"/>
-      <c r="G16" s="17" t="inlineStr"/>
-      <c r="H16" s="17" t="inlineStr"/>
-      <c r="I16" s="17" t="inlineStr"/>
-      <c r="J16" s="17" t="inlineStr"/>
-      <c r="K16" s="17" t="inlineStr"/>
-      <c r="L16" s="17" t="inlineStr">
+      <c r="F16" s="12" t="inlineStr"/>
+      <c r="G16" s="12" t="inlineStr"/>
+      <c r="H16" s="12" t="inlineStr"/>
+      <c r="I16" s="12" t="inlineStr"/>
+      <c r="J16" s="12" t="inlineStr"/>
+      <c r="K16" s="12" t="inlineStr"/>
+      <c r="L16" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B17" s="10" t="inlineStr"/>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="A17" s="20" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B17" s="21" t="inlineStr"/>
+      <c r="C17" s="22" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D17" s="9" t="inlineStr">
+      <c r="D17" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E17" s="12" t="inlineStr">
+      <c r="E17" s="23" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F17" s="9" t="inlineStr"/>
-      <c r="G17" s="9" t="inlineStr"/>
-      <c r="H17" s="13" t="inlineStr">
+      <c r="F17" s="20" t="inlineStr"/>
+      <c r="G17" s="20" t="inlineStr"/>
+      <c r="H17" s="24" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I17" s="9" t="inlineStr">
+      <c r="I17" s="20" t="inlineStr">
         <is>
           <t>70682</t>
         </is>
       </c>
-      <c r="J17" s="14" t="inlineStr">
+      <c r="J17" s="25" t="inlineStr">
         <is>
           <t>20130</t>
         </is>
       </c>
-      <c r="K17" s="9" t="inlineStr"/>
-      <c r="L17" s="9" t="inlineStr">
+      <c r="K17" s="20" t="inlineStr"/>
+      <c r="L17" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B18" s="10" t="inlineStr">
+      <c r="A18" s="20" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B18" s="21" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 10199) - 'Final Settlement' keyword found
 Lender Amount: 20130.00
 Borrower Amount: 20130.00</t>
         </is>
       </c>
-      <c r="C18" s="9" t="inlineStr"/>
-      <c r="D18" s="9" t="inlineStr"/>
-      <c r="E18" s="15" t="inlineStr">
+      <c r="C18" s="20" t="inlineStr"/>
+      <c r="D18" s="20" t="inlineStr"/>
+      <c r="E18" s="26" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Poritosh Chandra Das-ID: 10199)</t>
         </is>
       </c>
-      <c r="F18" s="9" t="inlineStr"/>
-      <c r="G18" s="9" t="inlineStr"/>
-      <c r="H18" s="9" t="inlineStr"/>
-      <c r="I18" s="9" t="inlineStr"/>
-      <c r="J18" s="9" t="inlineStr"/>
-      <c r="K18" s="9" t="inlineStr"/>
-      <c r="L18" s="9" t="inlineStr">
+      <c r="F18" s="20" t="inlineStr"/>
+      <c r="G18" s="20" t="inlineStr"/>
+      <c r="H18" s="20" t="inlineStr"/>
+      <c r="I18" s="20" t="inlineStr"/>
+      <c r="J18" s="20" t="inlineStr"/>
+      <c r="K18" s="20" t="inlineStr"/>
+      <c r="L18" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="inlineStr">
-        <is>
-          <t>M026</t>
-        </is>
-      </c>
-      <c r="B19" s="10" t="inlineStr"/>
-      <c r="C19" s="9" t="inlineStr"/>
-      <c r="D19" s="9" t="inlineStr">
+      <c r="A19" s="20" t="inlineStr">
+        <is>
+          <t>M019</t>
+        </is>
+      </c>
+      <c r="B19" s="21" t="inlineStr"/>
+      <c r="C19" s="20" t="inlineStr"/>
+      <c r="D19" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E19" s="16" t="inlineStr">
+      <c r="E19" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F19" s="9" t="inlineStr"/>
-      <c r="G19" s="9" t="inlineStr"/>
-      <c r="H19" s="9" t="inlineStr"/>
-      <c r="I19" s="9" t="inlineStr"/>
-      <c r="J19" s="9" t="inlineStr"/>
-      <c r="K19" s="9" t="inlineStr"/>
-      <c r="L19" s="9" t="inlineStr">
+      <c r="F19" s="20" t="inlineStr"/>
+      <c r="G19" s="20" t="inlineStr"/>
+      <c r="H19" s="20" t="inlineStr"/>
+      <c r="I19" s="20" t="inlineStr"/>
+      <c r="J19" s="20" t="inlineStr"/>
+      <c r="K19" s="20" t="inlineStr"/>
+      <c r="L19" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B20" s="18" t="inlineStr"/>
-      <c r="C20" s="19" t="inlineStr">
+      <c r="A20" s="12" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B20" s="13" t="inlineStr"/>
+      <c r="C20" s="14" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D20" s="17" t="inlineStr">
+      <c r="D20" s="12" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E20" s="20" t="inlineStr">
+      <c r="E20" s="15" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F20" s="17" t="inlineStr"/>
-      <c r="G20" s="17" t="inlineStr"/>
-      <c r="H20" s="21" t="inlineStr">
+      <c r="F20" s="12" t="inlineStr"/>
+      <c r="G20" s="12" t="inlineStr"/>
+      <c r="H20" s="16" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I20" s="17" t="inlineStr">
+      <c r="I20" s="12" t="inlineStr">
         <is>
           <t>70683</t>
         </is>
       </c>
-      <c r="J20" s="22" t="inlineStr">
+      <c r="J20" s="17" t="inlineStr">
         <is>
           <t>94109</t>
         </is>
       </c>
-      <c r="K20" s="17" t="inlineStr"/>
-      <c r="L20" s="17" t="inlineStr">
+      <c r="K20" s="12" t="inlineStr"/>
+      <c r="L20" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B21" s="18" t="inlineStr">
+      <c r="A21" s="12" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B21" s="13" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11711) - 'Final Settlement' keyword found
 Lender Amount: 94109.00
 Borrower Amount: 94109.00</t>
         </is>
       </c>
-      <c r="C21" s="17" t="inlineStr"/>
-      <c r="D21" s="17" t="inlineStr"/>
-      <c r="E21" s="23" t="inlineStr">
+      <c r="C21" s="12" t="inlineStr"/>
+      <c r="D21" s="12" t="inlineStr"/>
+      <c r="E21" s="18" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Md. Nor Mohammad-ID : 11711)</t>
         </is>
       </c>
-      <c r="F21" s="17" t="inlineStr"/>
-      <c r="G21" s="17" t="inlineStr"/>
-      <c r="H21" s="17" t="inlineStr"/>
-      <c r="I21" s="17" t="inlineStr"/>
-      <c r="J21" s="17" t="inlineStr"/>
-      <c r="K21" s="17" t="inlineStr"/>
-      <c r="L21" s="17" t="inlineStr">
+      <c r="F21" s="12" t="inlineStr"/>
+      <c r="G21" s="12" t="inlineStr"/>
+      <c r="H21" s="12" t="inlineStr"/>
+      <c r="I21" s="12" t="inlineStr"/>
+      <c r="J21" s="12" t="inlineStr"/>
+      <c r="K21" s="12" t="inlineStr"/>
+      <c r="L21" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="17" t="inlineStr">
-        <is>
-          <t>M027</t>
-        </is>
-      </c>
-      <c r="B22" s="18" t="inlineStr"/>
-      <c r="C22" s="17" t="inlineStr"/>
-      <c r="D22" s="17" t="inlineStr">
+      <c r="A22" s="12" t="inlineStr">
+        <is>
+          <t>M020</t>
+        </is>
+      </c>
+      <c r="B22" s="13" t="inlineStr"/>
+      <c r="C22" s="12" t="inlineStr"/>
+      <c r="D22" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E22" s="24" t="inlineStr">
+      <c r="E22" s="19" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F22" s="17" t="inlineStr"/>
-      <c r="G22" s="17" t="inlineStr"/>
-      <c r="H22" s="17" t="inlineStr"/>
-      <c r="I22" s="17" t="inlineStr"/>
-      <c r="J22" s="17" t="inlineStr"/>
-      <c r="K22" s="17" t="inlineStr"/>
-      <c r="L22" s="17" t="inlineStr">
+      <c r="F22" s="12" t="inlineStr"/>
+      <c r="G22" s="12" t="inlineStr"/>
+      <c r="H22" s="12" t="inlineStr"/>
+      <c r="I22" s="12" t="inlineStr"/>
+      <c r="J22" s="12" t="inlineStr"/>
+      <c r="K22" s="12" t="inlineStr"/>
+      <c r="L22" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="inlineStr">
-        <is>
-          <t>M028</t>
-        </is>
-      </c>
-      <c r="B23" s="10" t="inlineStr"/>
-      <c r="C23" s="11" t="inlineStr">
+      <c r="A23" s="20" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B23" s="21" t="inlineStr"/>
+      <c r="C23" s="22" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D23" s="9" t="inlineStr">
+      <c r="D23" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E23" s="12" t="inlineStr">
+      <c r="E23" s="23" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F23" s="9" t="inlineStr"/>
-      <c r="G23" s="9" t="inlineStr"/>
-      <c r="H23" s="13" t="inlineStr">
+      <c r="F23" s="20" t="inlineStr"/>
+      <c r="G23" s="20" t="inlineStr"/>
+      <c r="H23" s="24" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I23" s="9" t="inlineStr">
+      <c r="I23" s="20" t="inlineStr">
         <is>
           <t>70684</t>
         </is>
       </c>
-      <c r="J23" s="14" t="inlineStr">
+      <c r="J23" s="25" t="inlineStr">
         <is>
           <t>13909</t>
         </is>
       </c>
-      <c r="K23" s="9" t="inlineStr"/>
-      <c r="L23" s="9" t="inlineStr">
+      <c r="K23" s="20" t="inlineStr"/>
+      <c r="L23" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="inlineStr">
-        <is>
-          <t>M028</t>
-        </is>
-      </c>
-      <c r="B24" s="10" t="inlineStr">
+      <c r="A24" s="20" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B24" s="21" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11134) - 'Final Settlement' keyword found
 Lender Amount: 13909.00
 Borrower Amount: 13909.00</t>
         </is>
       </c>
-      <c r="C24" s="9" t="inlineStr"/>
-      <c r="D24" s="9" t="inlineStr"/>
-      <c r="E24" s="15" t="inlineStr">
+      <c r="C24" s="20" t="inlineStr"/>
+      <c r="D24" s="20" t="inlineStr"/>
+      <c r="E24" s="26" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Md. Salah Uddin-ID : 11134)</t>
         </is>
       </c>
-      <c r="F24" s="9" t="inlineStr"/>
-      <c r="G24" s="9" t="inlineStr"/>
-      <c r="H24" s="9" t="inlineStr"/>
-      <c r="I24" s="9" t="inlineStr"/>
-      <c r="J24" s="9" t="inlineStr"/>
-      <c r="K24" s="9" t="inlineStr"/>
-      <c r="L24" s="9" t="inlineStr">
+      <c r="F24" s="20" t="inlineStr"/>
+      <c r="G24" s="20" t="inlineStr"/>
+      <c r="H24" s="20" t="inlineStr"/>
+      <c r="I24" s="20" t="inlineStr"/>
+      <c r="J24" s="20" t="inlineStr"/>
+      <c r="K24" s="20" t="inlineStr"/>
+      <c r="L24" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="inlineStr">
-        <is>
-          <t>M028</t>
-        </is>
-      </c>
-      <c r="B25" s="10" t="inlineStr"/>
-      <c r="C25" s="9" t="inlineStr"/>
-      <c r="D25" s="9" t="inlineStr">
+      <c r="A25" s="20" t="inlineStr">
+        <is>
+          <t>M021</t>
+        </is>
+      </c>
+      <c r="B25" s="21" t="inlineStr"/>
+      <c r="C25" s="20" t="inlineStr"/>
+      <c r="D25" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E25" s="16" t="inlineStr">
+      <c r="E25" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F25" s="9" t="inlineStr"/>
-      <c r="G25" s="9" t="inlineStr"/>
-      <c r="H25" s="9" t="inlineStr"/>
-      <c r="I25" s="9" t="inlineStr"/>
-      <c r="J25" s="9" t="inlineStr"/>
-      <c r="K25" s="9" t="inlineStr"/>
-      <c r="L25" s="9" t="inlineStr">
+      <c r="F25" s="20" t="inlineStr"/>
+      <c r="G25" s="20" t="inlineStr"/>
+      <c r="H25" s="20" t="inlineStr"/>
+      <c r="I25" s="20" t="inlineStr"/>
+      <c r="J25" s="20" t="inlineStr"/>
+      <c r="K25" s="20" t="inlineStr"/>
+      <c r="L25" s="20" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="17" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B26" s="18" t="inlineStr"/>
-      <c r="C26" s="19" t="inlineStr">
+      <c r="A26" s="12" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B26" s="13" t="inlineStr"/>
+      <c r="C26" s="14" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D26" s="17" t="inlineStr">
+      <c r="D26" s="12" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E26" s="20" t="inlineStr">
+      <c r="E26" s="15" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F26" s="17" t="inlineStr"/>
-      <c r="G26" s="17" t="inlineStr"/>
-      <c r="H26" s="21" t="inlineStr">
+      <c r="F26" s="12" t="inlineStr"/>
+      <c r="G26" s="12" t="inlineStr"/>
+      <c r="H26" s="16" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I26" s="17" t="inlineStr">
+      <c r="I26" s="12" t="inlineStr">
         <is>
           <t>70685</t>
         </is>
       </c>
-      <c r="J26" s="22" t="inlineStr">
+      <c r="J26" s="17" t="inlineStr">
         <is>
           <t>93314</t>
         </is>
       </c>
-      <c r="K26" s="17" t="inlineStr"/>
-      <c r="L26" s="17" t="inlineStr">
+      <c r="K26" s="12" t="inlineStr"/>
+      <c r="L26" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="17" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B27" s="18" t="inlineStr">
+      <c r="A27" s="12" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B27" s="13" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 12107) - 'Final Settlement' keyword found
 Lender Amount: 93314.00
 Borrower Amount: 93314.00</t>
         </is>
       </c>
-      <c r="C27" s="17" t="inlineStr"/>
-      <c r="D27" s="17" t="inlineStr"/>
-      <c r="E27" s="23" t="inlineStr">
+      <c r="C27" s="12" t="inlineStr"/>
+      <c r="D27" s="12" t="inlineStr"/>
+      <c r="E27" s="18" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Md. Ahsan Habib-ID : 12107)</t>
         </is>
       </c>
-      <c r="F27" s="17" t="inlineStr"/>
-      <c r="G27" s="17" t="inlineStr"/>
-      <c r="H27" s="17" t="inlineStr"/>
-      <c r="I27" s="17" t="inlineStr"/>
-      <c r="J27" s="17" t="inlineStr"/>
-      <c r="K27" s="17" t="inlineStr"/>
-      <c r="L27" s="17" t="inlineStr">
+      <c r="F27" s="12" t="inlineStr"/>
+      <c r="G27" s="12" t="inlineStr"/>
+      <c r="H27" s="12" t="inlineStr"/>
+      <c r="I27" s="12" t="inlineStr"/>
+      <c r="J27" s="12" t="inlineStr"/>
+      <c r="K27" s="12" t="inlineStr"/>
+      <c r="L27" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="17" t="inlineStr">
-        <is>
-          <t>M029</t>
-        </is>
-      </c>
-      <c r="B28" s="18" t="inlineStr"/>
-      <c r="C28" s="17" t="inlineStr"/>
-      <c r="D28" s="17" t="inlineStr">
+      <c r="A28" s="12" t="inlineStr">
+        <is>
+          <t>M022</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="inlineStr"/>
+      <c r="C28" s="12" t="inlineStr"/>
+      <c r="D28" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E28" s="24" t="inlineStr">
+      <c r="E28" s="19" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F28" s="17" t="inlineStr"/>
-      <c r="G28" s="17" t="inlineStr"/>
-      <c r="H28" s="17" t="inlineStr"/>
-      <c r="I28" s="17" t="inlineStr"/>
-      <c r="J28" s="17" t="inlineStr"/>
-      <c r="K28" s="17" t="inlineStr"/>
-      <c r="L28" s="17" t="inlineStr">
+      <c r="F28" s="12" t="inlineStr"/>
+      <c r="G28" s="12" t="inlineStr"/>
+      <c r="H28" s="12" t="inlineStr"/>
+      <c r="I28" s="12" t="inlineStr"/>
+      <c r="J28" s="12" t="inlineStr"/>
+      <c r="K28" s="12" t="inlineStr"/>
+      <c r="L28" s="12" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="9" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B29" s="10" t="inlineStr"/>
-      <c r="C29" s="11" t="inlineStr">
+      <c r="A29" s="20" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B29" s="21" t="inlineStr"/>
+      <c r="C29" s="22" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D29" s="9" t="inlineStr">
+      <c r="D29" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E29" s="12" t="inlineStr">
+      <c r="E29" s="23" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F29" s="9" t="inlineStr"/>
-      <c r="G29" s="9" t="inlineStr"/>
-      <c r="H29" s="13" t="inlineStr">
+      <c r="F29" s="20" t="inlineStr"/>
+      <c r="G29" s="20" t="inlineStr"/>
+      <c r="H29" s="24" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I29" s="9" t="inlineStr">
+      <c r="I29" s="20" t="inlineStr">
         <is>
           <t>3435</t>
         </is>
       </c>
-      <c r="J29" s="9" t="inlineStr"/>
-      <c r="K29" s="14" t="inlineStr">
+      <c r="J29" s="20" t="inlineStr"/>
+      <c r="K29" s="25" t="inlineStr">
         <is>
           <t>83402</t>
         </is>
       </c>
-      <c r="L29" s="9" t="inlineStr">
+      <c r="L29" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="9" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B30" s="10" t="inlineStr"/>
-      <c r="C30" s="9" t="inlineStr"/>
-      <c r="D30" s="9" t="inlineStr"/>
-      <c r="E30" s="12" t="inlineStr">
+      <c r="A30" s="20" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B30" s="21" t="inlineStr"/>
+      <c r="C30" s="20" t="inlineStr"/>
+      <c r="D30" s="20" t="inlineStr"/>
+      <c r="E30" s="23" t="inlineStr">
         <is>
           <t>AP-Pioneer Insurance Company Limited</t>
         </is>
       </c>
-      <c r="F30" s="9" t="inlineStr"/>
-      <c r="G30" s="9" t="inlineStr"/>
-      <c r="H30" s="9" t="inlineStr"/>
-      <c r="I30" s="9" t="inlineStr"/>
-      <c r="J30" s="14" t="inlineStr">
+      <c r="F30" s="20" t="inlineStr"/>
+      <c r="G30" s="20" t="inlineStr"/>
+      <c r="H30" s="20" t="inlineStr"/>
+      <c r="I30" s="20" t="inlineStr"/>
+      <c r="J30" s="25" t="inlineStr">
         <is>
           <t>118425</t>
         </is>
       </c>
-      <c r="K30" s="9" t="inlineStr"/>
-      <c r="L30" s="9" t="inlineStr">
+      <c r="K30" s="20" t="inlineStr"/>
+      <c r="L30" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="9" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B31" s="10" t="inlineStr"/>
-      <c r="C31" s="9" t="inlineStr"/>
-      <c r="D31" s="9" t="inlineStr"/>
-      <c r="E31" s="12" t="inlineStr">
+      <c r="A31" s="20" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B31" s="21" t="inlineStr"/>
+      <c r="C31" s="20" t="inlineStr"/>
+      <c r="D31" s="20" t="inlineStr"/>
+      <c r="E31" s="23" t="inlineStr">
         <is>
           <t>Sundry Debtor-Pioneer Insurance Company Ltd.</t>
         </is>
       </c>
-      <c r="F31" s="9" t="inlineStr"/>
-      <c r="G31" s="9" t="inlineStr"/>
-      <c r="H31" s="9" t="inlineStr"/>
-      <c r="I31" s="9" t="inlineStr"/>
-      <c r="J31" s="9" t="inlineStr"/>
-      <c r="K31" s="14" t="inlineStr">
+      <c r="F31" s="20" t="inlineStr"/>
+      <c r="G31" s="20" t="inlineStr"/>
+      <c r="H31" s="20" t="inlineStr"/>
+      <c r="I31" s="20" t="inlineStr"/>
+      <c r="J31" s="20" t="inlineStr"/>
+      <c r="K31" s="25" t="inlineStr">
         <is>
           <t>35023</t>
         </is>
       </c>
-      <c r="L31" s="9" t="inlineStr">
+      <c r="L31" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B32" s="10" t="inlineStr">
+      <c r="A32" s="20" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B32" s="21" t="inlineStr">
         <is>
           <t>Narration Match
-Lender Amount: 83402.00
-Borrower Amount: 83402.00</t>
-        </is>
-      </c>
-      <c r="C32" s="9" t="inlineStr"/>
-      <c r="D32" s="9" t="inlineStr"/>
-      <c r="E32" s="15" t="inlineStr">
+Lender Amount: 0.00
+Borrower Amount: 0.00</t>
+        </is>
+      </c>
+      <c r="C32" s="20" t="inlineStr"/>
+      <c r="D32" s="20" t="inlineStr"/>
+      <c r="E32" s="26" t="inlineStr">
         <is>
           <t>Rectify entry due to LC 12043 was actually transformer LC so AP &amp; SD was shown as transformer unit.</t>
         </is>
       </c>
-      <c r="F32" s="9" t="inlineStr"/>
-      <c r="G32" s="9" t="inlineStr"/>
-      <c r="H32" s="9" t="inlineStr"/>
-      <c r="I32" s="9" t="inlineStr"/>
-      <c r="J32" s="9" t="inlineStr"/>
-      <c r="K32" s="9" t="inlineStr"/>
-      <c r="L32" s="9" t="inlineStr">
+      <c r="F32" s="20" t="inlineStr"/>
+      <c r="G32" s="20" t="inlineStr"/>
+      <c r="H32" s="20" t="inlineStr"/>
+      <c r="I32" s="20" t="inlineStr"/>
+      <c r="J32" s="20" t="inlineStr"/>
+      <c r="K32" s="20" t="inlineStr"/>
+      <c r="L32" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="9" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B33" s="10" t="inlineStr"/>
-      <c r="C33" s="9" t="inlineStr"/>
-      <c r="D33" s="9" t="inlineStr">
+      <c r="A33" s="20" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B33" s="21" t="inlineStr"/>
+      <c r="C33" s="20" t="inlineStr"/>
+      <c r="D33" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E33" s="16" t="inlineStr">
+      <c r="E33" s="27" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F33" s="9" t="inlineStr"/>
-      <c r="G33" s="9" t="inlineStr"/>
-      <c r="H33" s="9" t="inlineStr"/>
-      <c r="I33" s="9" t="inlineStr"/>
-      <c r="J33" s="9" t="inlineStr"/>
-      <c r="K33" s="9" t="inlineStr"/>
-      <c r="L33" s="9" t="inlineStr">
+      <c r="F33" s="20" t="inlineStr"/>
+      <c r="G33" s="20" t="inlineStr"/>
+      <c r="H33" s="20" t="inlineStr"/>
+      <c r="I33" s="20" t="inlineStr"/>
+      <c r="J33" s="20" t="inlineStr"/>
+      <c r="K33" s="20" t="inlineStr"/>
+      <c r="L33" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="17" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B34" s="18" t="inlineStr"/>
-      <c r="C34" s="19" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr"/>
+      <c r="B34" s="2" t="inlineStr"/>
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
         </is>
       </c>
-      <c r="D34" s="17" t="inlineStr">
+      <c r="D34" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E34" s="20" t="inlineStr">
+      <c r="E34" s="7" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F34" s="17" t="inlineStr"/>
-      <c r="G34" s="17" t="inlineStr"/>
-      <c r="H34" s="21" t="inlineStr">
+      <c r="F34" s="1" t="inlineStr"/>
+      <c r="G34" s="1" t="inlineStr"/>
+      <c r="H34" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I34" s="17" t="inlineStr">
+      <c r="I34" s="1" t="inlineStr">
         <is>
           <t>70691</t>
         </is>
       </c>
-      <c r="J34" s="22" t="inlineStr">
+      <c r="J34" s="8" t="inlineStr">
         <is>
           <t>9075000</t>
         </is>
       </c>
-      <c r="K34" s="17" t="inlineStr"/>
-      <c r="L34" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K34" s="1" t="inlineStr"/>
+      <c r="L34" s="1" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" s="17" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B35" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 9075000.00
-Borrower Amount: 9075000.00</t>
-        </is>
-      </c>
-      <c r="C35" s="17" t="inlineStr"/>
-      <c r="D35" s="17" t="inlineStr"/>
-      <c r="E35" s="23" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr"/>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 1 block</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr"/>
+      <c r="D35" s="1" t="inlineStr"/>
+      <c r="E35" s="10" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Sundry Parties-Jiangsu Dechun Power Electric Co Ltd)</t>
         </is>
       </c>
-      <c r="F35" s="17" t="inlineStr"/>
-      <c r="G35" s="17" t="inlineStr"/>
-      <c r="H35" s="17" t="inlineStr"/>
-      <c r="I35" s="17" t="inlineStr"/>
-      <c r="J35" s="17" t="inlineStr"/>
-      <c r="K35" s="17" t="inlineStr"/>
-      <c r="L35" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F35" s="1" t="inlineStr"/>
+      <c r="G35" s="1" t="inlineStr"/>
+      <c r="H35" s="1" t="inlineStr"/>
+      <c r="I35" s="1" t="inlineStr"/>
+      <c r="J35" s="1" t="inlineStr"/>
+      <c r="K35" s="1" t="inlineStr"/>
+      <c r="L35" s="1" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" s="17" t="inlineStr">
-        <is>
-          <t>M031</t>
-        </is>
-      </c>
-      <c r="B36" s="18" t="inlineStr"/>
-      <c r="C36" s="17" t="inlineStr"/>
-      <c r="D36" s="17" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr"/>
+      <c r="B36" s="2" t="inlineStr"/>
+      <c r="C36" s="1" t="inlineStr"/>
+      <c r="D36" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E36" s="24" t="inlineStr">
+      <c r="E36" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F36" s="17" t="inlineStr"/>
-      <c r="G36" s="17" t="inlineStr"/>
-      <c r="H36" s="17" t="inlineStr"/>
-      <c r="I36" s="17" t="inlineStr"/>
-      <c r="J36" s="17" t="inlineStr"/>
-      <c r="K36" s="17" t="inlineStr"/>
-      <c r="L36" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F36" s="1" t="inlineStr"/>
+      <c r="G36" s="1" t="inlineStr"/>
+      <c r="H36" s="1" t="inlineStr"/>
+      <c r="I36" s="1" t="inlineStr"/>
+      <c r="J36" s="1" t="inlineStr"/>
+      <c r="K36" s="1" t="inlineStr"/>
+      <c r="L36" s="1" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B37" s="10" t="inlineStr"/>
-      <c r="C37" s="11" t="inlineStr">
+      <c r="A37" s="12" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B37" s="13" t="inlineStr"/>
+      <c r="C37" s="14" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D37" s="9" t="inlineStr">
+      <c r="D37" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E37" s="12" t="inlineStr">
+      <c r="E37" s="15" t="inlineStr">
         <is>
           <t>Interest on ROU-Dhaka Metro-CHA-56-6064 &amp; 6066</t>
         </is>
       </c>
-      <c r="F37" s="9" t="inlineStr"/>
-      <c r="G37" s="9" t="inlineStr"/>
-      <c r="H37" s="13" t="inlineStr">
+      <c r="F37" s="12" t="inlineStr"/>
+      <c r="G37" s="12" t="inlineStr"/>
+      <c r="H37" s="16" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I37" s="9" t="inlineStr">
+      <c r="I37" s="12" t="inlineStr">
         <is>
           <t>3449</t>
         </is>
       </c>
-      <c r="J37" s="9" t="inlineStr"/>
-      <c r="K37" s="14" t="inlineStr">
+      <c r="J37" s="12" t="inlineStr"/>
+      <c r="K37" s="17" t="inlineStr">
         <is>
           <t>9539</t>
         </is>
       </c>
-      <c r="L37" s="9" t="inlineStr">
+      <c r="L37" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="9" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B38" s="10" t="inlineStr">
+      <c r="A38" s="12" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B38" s="13" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#11060
 Lender Amount: 9539.00
 Borrower Amount: 9539.00</t>
         </is>
       </c>
-      <c r="C38" s="9" t="inlineStr"/>
-      <c r="D38" s="9" t="inlineStr"/>
-      <c r="E38" s="15" t="inlineStr">
+      <c r="C38" s="12" t="inlineStr"/>
+      <c r="D38" s="12" t="inlineStr"/>
+      <c r="E38" s="18" t="inlineStr">
         <is>
           <t>Being the amount paid to IDLC Finance Ltd. agt. Interest for the Loan 1026109496388134  Over Due interest for April-2025, Supporting as Email, date on 03 June-2025 also Bank Dr. same date from CIL-PBL-2126312011060</t>
         </is>
       </c>
-      <c r="F38" s="9" t="inlineStr"/>
-      <c r="G38" s="9" t="inlineStr"/>
-      <c r="H38" s="9" t="inlineStr"/>
-      <c r="I38" s="9" t="inlineStr"/>
-      <c r="J38" s="9" t="inlineStr"/>
-      <c r="K38" s="9" t="inlineStr"/>
-      <c r="L38" s="9" t="inlineStr">
+      <c r="F38" s="12" t="inlineStr"/>
+      <c r="G38" s="12" t="inlineStr"/>
+      <c r="H38" s="12" t="inlineStr"/>
+      <c r="I38" s="12" t="inlineStr"/>
+      <c r="J38" s="12" t="inlineStr"/>
+      <c r="K38" s="12" t="inlineStr"/>
+      <c r="L38" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B39" s="10" t="inlineStr"/>
-      <c r="C39" s="9" t="inlineStr"/>
-      <c r="D39" s="9" t="inlineStr">
+      <c r="A39" s="12" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B39" s="13" t="inlineStr"/>
+      <c r="C39" s="12" t="inlineStr"/>
+      <c r="D39" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E39" s="16" t="inlineStr">
+      <c r="E39" s="19" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F39" s="9" t="inlineStr"/>
-      <c r="G39" s="9" t="inlineStr"/>
-      <c r="H39" s="9" t="inlineStr"/>
-      <c r="I39" s="9" t="inlineStr"/>
-      <c r="J39" s="9" t="inlineStr"/>
-      <c r="K39" s="9" t="inlineStr"/>
-      <c r="L39" s="9" t="inlineStr">
+      <c r="F39" s="12" t="inlineStr"/>
+      <c r="G39" s="12" t="inlineStr"/>
+      <c r="H39" s="12" t="inlineStr"/>
+      <c r="I39" s="12" t="inlineStr"/>
+      <c r="J39" s="12" t="inlineStr"/>
+      <c r="K39" s="12" t="inlineStr"/>
+      <c r="L39" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="17" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B40" s="18" t="inlineStr"/>
-      <c r="C40" s="19" t="inlineStr">
+      <c r="A40" s="20" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B40" s="21" t="inlineStr"/>
+      <c r="C40" s="22" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D40" s="17" t="inlineStr">
+      <c r="D40" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E40" s="20" t="inlineStr">
+      <c r="E40" s="23" t="inlineStr">
         <is>
           <t>Dutch Bangla Bank Ltd-SND-A/C-1071200003834 (CIL)</t>
         </is>
       </c>
-      <c r="F40" s="17" t="inlineStr"/>
-      <c r="G40" s="17" t="inlineStr"/>
-      <c r="H40" s="21" t="inlineStr">
+      <c r="F40" s="20" t="inlineStr"/>
+      <c r="G40" s="20" t="inlineStr"/>
+      <c r="H40" s="24" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I40" s="17" t="inlineStr">
+      <c r="I40" s="20" t="inlineStr">
         <is>
           <t>931</t>
         </is>
       </c>
-      <c r="J40" s="17" t="inlineStr"/>
-      <c r="K40" s="22" t="inlineStr">
+      <c r="J40" s="20" t="inlineStr"/>
+      <c r="K40" s="25" t="inlineStr">
         <is>
           <t>3700000</t>
         </is>
       </c>
-      <c r="L40" s="17" t="inlineStr">
+      <c r="L40" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="17" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B41" s="18" t="inlineStr">
+      <c r="A41" s="20" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B41" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 3700000.00
 Borrower Amount: 3700000.00</t>
         </is>
       </c>
-      <c r="C41" s="17" t="inlineStr"/>
-      <c r="D41" s="17" t="inlineStr"/>
-      <c r="E41" s="23" t="inlineStr">
+      <c r="C41" s="20" t="inlineStr"/>
+      <c r="D41" s="20" t="inlineStr"/>
+      <c r="E41" s="26" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F41" s="17" t="inlineStr"/>
-      <c r="G41" s="17" t="inlineStr"/>
-      <c r="H41" s="17" t="inlineStr"/>
-      <c r="I41" s="17" t="inlineStr"/>
-      <c r="J41" s="17" t="inlineStr"/>
-      <c r="K41" s="17" t="inlineStr"/>
-      <c r="L41" s="17" t="inlineStr">
+      <c r="F41" s="20" t="inlineStr"/>
+      <c r="G41" s="20" t="inlineStr"/>
+      <c r="H41" s="20" t="inlineStr"/>
+      <c r="I41" s="20" t="inlineStr"/>
+      <c r="J41" s="20" t="inlineStr"/>
+      <c r="K41" s="20" t="inlineStr"/>
+      <c r="L41" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="17" t="inlineStr">
-        <is>
-          <t>M017</t>
-        </is>
-      </c>
-      <c r="B42" s="18" t="inlineStr"/>
-      <c r="C42" s="17" t="inlineStr"/>
-      <c r="D42" s="17" t="inlineStr">
+      <c r="A42" s="20" t="inlineStr">
+        <is>
+          <t>M010</t>
+        </is>
+      </c>
+      <c r="B42" s="21" t="inlineStr"/>
+      <c r="C42" s="20" t="inlineStr"/>
+      <c r="D42" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E42" s="24" t="inlineStr">
+      <c r="E42" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F42" s="17" t="inlineStr"/>
-      <c r="G42" s="17" t="inlineStr"/>
-      <c r="H42" s="17" t="inlineStr"/>
-      <c r="I42" s="17" t="inlineStr"/>
-      <c r="J42" s="17" t="inlineStr"/>
-      <c r="K42" s="17" t="inlineStr"/>
-      <c r="L42" s="17" t="inlineStr">
+      <c r="F42" s="20" t="inlineStr"/>
+      <c r="G42" s="20" t="inlineStr"/>
+      <c r="H42" s="20" t="inlineStr"/>
+      <c r="I42" s="20" t="inlineStr"/>
+      <c r="J42" s="20" t="inlineStr"/>
+      <c r="K42" s="20" t="inlineStr"/>
+      <c r="L42" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="9" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B43" s="10" t="inlineStr"/>
-      <c r="C43" s="11" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr"/>
+      <c r="B43" s="2" t="inlineStr"/>
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D43" s="9" t="inlineStr">
+      <c r="D43" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E43" s="12" t="inlineStr">
+      <c r="E43" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F43" s="9" t="inlineStr"/>
-      <c r="G43" s="9" t="inlineStr"/>
-      <c r="H43" s="13" t="inlineStr">
+      <c r="F43" s="1" t="inlineStr"/>
+      <c r="G43" s="1" t="inlineStr"/>
+      <c r="H43" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I43" s="9" t="inlineStr">
+      <c r="I43" s="1" t="inlineStr">
         <is>
           <t>70692</t>
         </is>
       </c>
-      <c r="J43" s="14" t="inlineStr">
+      <c r="J43" s="8" t="inlineStr">
         <is>
           <t>297501</t>
         </is>
       </c>
-      <c r="K43" s="9" t="inlineStr"/>
-      <c r="L43" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K43" s="1" t="inlineStr"/>
+      <c r="L43" s="1" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B44" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 297501.00
-Borrower Amount: 297501.00</t>
-        </is>
-      </c>
-      <c r="C44" s="9" t="inlineStr"/>
-      <c r="D44" s="9" t="inlineStr"/>
-      <c r="E44" s="15" t="inlineStr">
+      <c r="A44" s="1" t="inlineStr"/>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr"/>
+      <c r="D44" s="1" t="inlineStr"/>
+      <c r="E44" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Kansai Nerolac Paints (Bangladesh) Limited)</t>
         </is>
       </c>
-      <c r="F44" s="9" t="inlineStr"/>
-      <c r="G44" s="9" t="inlineStr"/>
-      <c r="H44" s="9" t="inlineStr"/>
-      <c r="I44" s="9" t="inlineStr"/>
-      <c r="J44" s="9" t="inlineStr"/>
-      <c r="K44" s="9" t="inlineStr"/>
-      <c r="L44" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F44" s="1" t="inlineStr"/>
+      <c r="G44" s="1" t="inlineStr"/>
+      <c r="H44" s="1" t="inlineStr"/>
+      <c r="I44" s="1" t="inlineStr"/>
+      <c r="J44" s="1" t="inlineStr"/>
+      <c r="K44" s="1" t="inlineStr"/>
+      <c r="L44" s="1" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="inlineStr">
-        <is>
-          <t>M032</t>
-        </is>
-      </c>
-      <c r="B45" s="10" t="inlineStr"/>
-      <c r="C45" s="9" t="inlineStr"/>
-      <c r="D45" s="9" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr"/>
+      <c r="B45" s="2" t="inlineStr"/>
+      <c r="C45" s="1" t="inlineStr"/>
+      <c r="D45" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E45" s="16" t="inlineStr">
+      <c r="E45" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F45" s="9" t="inlineStr"/>
-      <c r="G45" s="9" t="inlineStr"/>
-      <c r="H45" s="9" t="inlineStr"/>
-      <c r="I45" s="9" t="inlineStr"/>
-      <c r="J45" s="9" t="inlineStr"/>
-      <c r="K45" s="9" t="inlineStr"/>
-      <c r="L45" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F45" s="1" t="inlineStr"/>
+      <c r="G45" s="1" t="inlineStr"/>
+      <c r="H45" s="1" t="inlineStr"/>
+      <c r="I45" s="1" t="inlineStr"/>
+      <c r="J45" s="1" t="inlineStr"/>
+      <c r="K45" s="1" t="inlineStr"/>
+      <c r="L45" s="1" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="17" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
-      <c r="B46" s="18" t="inlineStr"/>
-      <c r="C46" s="19" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr"/>
+      <c r="B46" s="2" t="inlineStr"/>
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D46" s="17" t="inlineStr">
+      <c r="D46" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E46" s="20" t="inlineStr">
+      <c r="E46" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F46" s="17" t="inlineStr"/>
-      <c r="G46" s="17" t="inlineStr"/>
-      <c r="H46" s="21" t="inlineStr">
+      <c r="F46" s="1" t="inlineStr"/>
+      <c r="G46" s="1" t="inlineStr"/>
+      <c r="H46" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I46" s="17" t="inlineStr">
+      <c r="I46" s="1" t="inlineStr">
         <is>
           <t>70693</t>
         </is>
       </c>
-      <c r="J46" s="22" t="inlineStr">
+      <c r="J46" s="8" t="inlineStr">
         <is>
           <t>95000</t>
         </is>
       </c>
-      <c r="K46" s="17" t="inlineStr"/>
-      <c r="L46" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K46" s="1" t="inlineStr"/>
+      <c r="L46" s="1" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" s="17" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
-      <c r="B47" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 95000.00
-Borrower Amount: 95000.00</t>
-        </is>
-      </c>
-      <c r="C47" s="17" t="inlineStr"/>
-      <c r="D47" s="17" t="inlineStr"/>
-      <c r="E47" s="23" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr"/>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Borrower's narration does not contain lender's short code</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr"/>
+      <c r="D47" s="1" t="inlineStr"/>
+      <c r="E47" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Kansai Nerolac Paints (Bangladesh) Limited)</t>
         </is>
       </c>
-      <c r="F47" s="17" t="inlineStr"/>
-      <c r="G47" s="17" t="inlineStr"/>
-      <c r="H47" s="17" t="inlineStr"/>
-      <c r="I47" s="17" t="inlineStr"/>
-      <c r="J47" s="17" t="inlineStr"/>
-      <c r="K47" s="17" t="inlineStr"/>
-      <c r="L47" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F47" s="1" t="inlineStr"/>
+      <c r="G47" s="1" t="inlineStr"/>
+      <c r="H47" s="1" t="inlineStr"/>
+      <c r="I47" s="1" t="inlineStr"/>
+      <c r="J47" s="1" t="inlineStr"/>
+      <c r="K47" s="1" t="inlineStr"/>
+      <c r="L47" s="1" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" s="17" t="inlineStr">
-        <is>
-          <t>M033</t>
-        </is>
-      </c>
-      <c r="B48" s="18" t="inlineStr"/>
-      <c r="C48" s="17" t="inlineStr"/>
-      <c r="D48" s="17" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr"/>
+      <c r="B48" s="2" t="inlineStr"/>
+      <c r="C48" s="1" t="inlineStr"/>
+      <c r="D48" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E48" s="24" t="inlineStr">
+      <c r="E48" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F48" s="17" t="inlineStr"/>
-      <c r="G48" s="17" t="inlineStr"/>
-      <c r="H48" s="17" t="inlineStr"/>
-      <c r="I48" s="17" t="inlineStr"/>
-      <c r="J48" s="17" t="inlineStr"/>
-      <c r="K48" s="17" t="inlineStr"/>
-      <c r="L48" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F48" s="1" t="inlineStr"/>
+      <c r="G48" s="1" t="inlineStr"/>
+      <c r="H48" s="1" t="inlineStr"/>
+      <c r="I48" s="1" t="inlineStr"/>
+      <c r="J48" s="1" t="inlineStr"/>
+      <c r="K48" s="1" t="inlineStr"/>
+      <c r="L48" s="1" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" s="9" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B49" s="10" t="inlineStr"/>
-      <c r="C49" s="11" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr"/>
+      <c r="B49" s="2" t="inlineStr"/>
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D49" s="9" t="inlineStr">
+      <c r="D49" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E49" s="12" t="inlineStr">
+      <c r="E49" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F49" s="9" t="inlineStr"/>
-      <c r="G49" s="9" t="inlineStr"/>
-      <c r="H49" s="13" t="inlineStr">
+      <c r="F49" s="1" t="inlineStr"/>
+      <c r="G49" s="1" t="inlineStr"/>
+      <c r="H49" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I49" s="9" t="inlineStr">
+      <c r="I49" s="1" t="inlineStr">
         <is>
           <t>70694</t>
         </is>
       </c>
-      <c r="J49" s="14" t="inlineStr">
+      <c r="J49" s="8" t="inlineStr">
         <is>
           <t>3300</t>
         </is>
       </c>
-      <c r="K49" s="9" t="inlineStr"/>
-      <c r="L49" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K49" s="1" t="inlineStr"/>
+      <c r="L49" s="1" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B50" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 3300.00
-Borrower Amount: 3300.00</t>
-        </is>
-      </c>
-      <c r="C50" s="9" t="inlineStr"/>
-      <c r="D50" s="9" t="inlineStr"/>
-      <c r="E50" s="15" t="inlineStr">
+      <c r="A50" s="1" t="inlineStr"/>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr"/>
+      <c r="D50" s="1" t="inlineStr"/>
+      <c r="E50" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Computer Archives IT  Services Solution)</t>
         </is>
       </c>
-      <c r="F50" s="9" t="inlineStr"/>
-      <c r="G50" s="9" t="inlineStr"/>
-      <c r="H50" s="9" t="inlineStr"/>
-      <c r="I50" s="9" t="inlineStr"/>
-      <c r="J50" s="9" t="inlineStr"/>
-      <c r="K50" s="9" t="inlineStr"/>
-      <c r="L50" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F50" s="1" t="inlineStr"/>
+      <c r="G50" s="1" t="inlineStr"/>
+      <c r="H50" s="1" t="inlineStr"/>
+      <c r="I50" s="1" t="inlineStr"/>
+      <c r="J50" s="1" t="inlineStr"/>
+      <c r="K50" s="1" t="inlineStr"/>
+      <c r="L50" s="1" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="9" t="inlineStr">
-        <is>
-          <t>M034</t>
-        </is>
-      </c>
-      <c r="B51" s="10" t="inlineStr"/>
-      <c r="C51" s="9" t="inlineStr"/>
-      <c r="D51" s="9" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr"/>
+      <c r="B51" s="2" t="inlineStr"/>
+      <c r="C51" s="1" t="inlineStr"/>
+      <c r="D51" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E51" s="16" t="inlineStr">
+      <c r="E51" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F51" s="9" t="inlineStr"/>
-      <c r="G51" s="9" t="inlineStr"/>
-      <c r="H51" s="9" t="inlineStr"/>
-      <c r="I51" s="9" t="inlineStr"/>
-      <c r="J51" s="9" t="inlineStr"/>
-      <c r="K51" s="9" t="inlineStr"/>
-      <c r="L51" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F51" s="1" t="inlineStr"/>
+      <c r="G51" s="1" t="inlineStr"/>
+      <c r="H51" s="1" t="inlineStr"/>
+      <c r="I51" s="1" t="inlineStr"/>
+      <c r="J51" s="1" t="inlineStr"/>
+      <c r="K51" s="1" t="inlineStr"/>
+      <c r="L51" s="1" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="17" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B52" s="18" t="inlineStr"/>
-      <c r="C52" s="19" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr"/>
+      <c r="B52" s="2" t="inlineStr"/>
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D52" s="17" t="inlineStr">
+      <c r="D52" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E52" s="20" t="inlineStr">
+      <c r="E52" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F52" s="17" t="inlineStr"/>
-      <c r="G52" s="17" t="inlineStr"/>
-      <c r="H52" s="21" t="inlineStr">
+      <c r="F52" s="1" t="inlineStr"/>
+      <c r="G52" s="1" t="inlineStr"/>
+      <c r="H52" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I52" s="17" t="inlineStr">
+      <c r="I52" s="1" t="inlineStr">
         <is>
           <t>70695</t>
         </is>
       </c>
-      <c r="J52" s="22" t="inlineStr">
+      <c r="J52" s="8" t="inlineStr">
         <is>
           <t>11250</t>
         </is>
       </c>
-      <c r="K52" s="17" t="inlineStr"/>
-      <c r="L52" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K52" s="1" t="inlineStr"/>
+      <c r="L52" s="1" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" s="17" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B53" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 11250.00
-Borrower Amount: 11250.00</t>
-        </is>
-      </c>
-      <c r="C53" s="17" t="inlineStr"/>
-      <c r="D53" s="17" t="inlineStr"/>
-      <c r="E53" s="23" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr"/>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr"/>
+      <c r="D53" s="1" t="inlineStr"/>
+      <c r="E53" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(B Art &amp; Block)</t>
         </is>
       </c>
-      <c r="F53" s="17" t="inlineStr"/>
-      <c r="G53" s="17" t="inlineStr"/>
-      <c r="H53" s="17" t="inlineStr"/>
-      <c r="I53" s="17" t="inlineStr"/>
-      <c r="J53" s="17" t="inlineStr"/>
-      <c r="K53" s="17" t="inlineStr"/>
-      <c r="L53" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F53" s="1" t="inlineStr"/>
+      <c r="G53" s="1" t="inlineStr"/>
+      <c r="H53" s="1" t="inlineStr"/>
+      <c r="I53" s="1" t="inlineStr"/>
+      <c r="J53" s="1" t="inlineStr"/>
+      <c r="K53" s="1" t="inlineStr"/>
+      <c r="L53" s="1" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="17" t="inlineStr">
-        <is>
-          <t>M035</t>
-        </is>
-      </c>
-      <c r="B54" s="18" t="inlineStr"/>
-      <c r="C54" s="17" t="inlineStr"/>
-      <c r="D54" s="17" t="inlineStr">
+      <c r="A54" s="1" t="inlineStr"/>
+      <c r="B54" s="2" t="inlineStr"/>
+      <c r="C54" s="1" t="inlineStr"/>
+      <c r="D54" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E54" s="24" t="inlineStr">
+      <c r="E54" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F54" s="17" t="inlineStr"/>
-      <c r="G54" s="17" t="inlineStr"/>
-      <c r="H54" s="17" t="inlineStr"/>
-      <c r="I54" s="17" t="inlineStr"/>
-      <c r="J54" s="17" t="inlineStr"/>
-      <c r="K54" s="17" t="inlineStr"/>
-      <c r="L54" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F54" s="1" t="inlineStr"/>
+      <c r="G54" s="1" t="inlineStr"/>
+      <c r="H54" s="1" t="inlineStr"/>
+      <c r="I54" s="1" t="inlineStr"/>
+      <c r="J54" s="1" t="inlineStr"/>
+      <c r="K54" s="1" t="inlineStr"/>
+      <c r="L54" s="1" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B55" s="10" t="inlineStr"/>
-      <c r="C55" s="11" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr"/>
+      <c r="B55" s="2" t="inlineStr"/>
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D55" s="9" t="inlineStr">
+      <c r="D55" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E55" s="12" t="inlineStr">
+      <c r="E55" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F55" s="9" t="inlineStr"/>
-      <c r="G55" s="9" t="inlineStr"/>
-      <c r="H55" s="13" t="inlineStr">
+      <c r="F55" s="1" t="inlineStr"/>
+      <c r="G55" s="1" t="inlineStr"/>
+      <c r="H55" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I55" s="9" t="inlineStr">
+      <c r="I55" s="1" t="inlineStr">
         <is>
           <t>70697</t>
         </is>
       </c>
-      <c r="J55" s="14" t="inlineStr">
+      <c r="J55" s="8" t="inlineStr">
         <is>
           <t>240723</t>
         </is>
       </c>
-      <c r="K55" s="9" t="inlineStr"/>
-      <c r="L55" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K55" s="1" t="inlineStr"/>
+      <c r="L55" s="1" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="9" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B56" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 240723.00
-Borrower Amount: 240723.00</t>
-        </is>
-      </c>
-      <c r="C56" s="9" t="inlineStr"/>
-      <c r="D56" s="9" t="inlineStr"/>
-      <c r="E56" s="15" t="inlineStr">
+      <c r="A56" s="1" t="inlineStr"/>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr"/>
+      <c r="D56" s="1" t="inlineStr"/>
+      <c r="E56" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Berger Paints Bangladesh Ltd.)</t>
         </is>
       </c>
-      <c r="F56" s="9" t="inlineStr"/>
-      <c r="G56" s="9" t="inlineStr"/>
-      <c r="H56" s="9" t="inlineStr"/>
-      <c r="I56" s="9" t="inlineStr"/>
-      <c r="J56" s="9" t="inlineStr"/>
-      <c r="K56" s="9" t="inlineStr"/>
-      <c r="L56" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F56" s="1" t="inlineStr"/>
+      <c r="G56" s="1" t="inlineStr"/>
+      <c r="H56" s="1" t="inlineStr"/>
+      <c r="I56" s="1" t="inlineStr"/>
+      <c r="J56" s="1" t="inlineStr"/>
+      <c r="K56" s="1" t="inlineStr"/>
+      <c r="L56" s="1" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" s="9" t="inlineStr">
-        <is>
-          <t>M036</t>
-        </is>
-      </c>
-      <c r="B57" s="10" t="inlineStr"/>
-      <c r="C57" s="9" t="inlineStr"/>
-      <c r="D57" s="9" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr"/>
+      <c r="B57" s="2" t="inlineStr"/>
+      <c r="C57" s="1" t="inlineStr"/>
+      <c r="D57" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E57" s="16" t="inlineStr">
+      <c r="E57" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F57" s="9" t="inlineStr"/>
-      <c r="G57" s="9" t="inlineStr"/>
-      <c r="H57" s="9" t="inlineStr"/>
-      <c r="I57" s="9" t="inlineStr"/>
-      <c r="J57" s="9" t="inlineStr"/>
-      <c r="K57" s="9" t="inlineStr"/>
-      <c r="L57" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F57" s="1" t="inlineStr"/>
+      <c r="G57" s="1" t="inlineStr"/>
+      <c r="H57" s="1" t="inlineStr"/>
+      <c r="I57" s="1" t="inlineStr"/>
+      <c r="J57" s="1" t="inlineStr"/>
+      <c r="K57" s="1" t="inlineStr"/>
+      <c r="L57" s="1" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="17" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B58" s="18" t="inlineStr"/>
-      <c r="C58" s="19" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr"/>
+      <c r="B58" s="2" t="inlineStr"/>
+      <c r="C58" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D58" s="17" t="inlineStr">
+      <c r="D58" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E58" s="20" t="inlineStr">
+      <c r="E58" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F58" s="17" t="inlineStr"/>
-      <c r="G58" s="17" t="inlineStr"/>
-      <c r="H58" s="21" t="inlineStr">
+      <c r="F58" s="1" t="inlineStr"/>
+      <c r="G58" s="1" t="inlineStr"/>
+      <c r="H58" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I58" s="17" t="inlineStr">
+      <c r="I58" s="1" t="inlineStr">
         <is>
           <t>70698</t>
         </is>
       </c>
-      <c r="J58" s="22" t="inlineStr">
+      <c r="J58" s="8" t="inlineStr">
         <is>
           <t>59000</t>
         </is>
       </c>
-      <c r="K58" s="17" t="inlineStr"/>
-      <c r="L58" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K58" s="1" t="inlineStr"/>
+      <c r="L58" s="1" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" s="17" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B59" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 59000.00
-Borrower Amount: 59000.00</t>
-        </is>
-      </c>
-      <c r="C59" s="17" t="inlineStr"/>
-      <c r="D59" s="17" t="inlineStr"/>
-      <c r="E59" s="23" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr"/>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr"/>
+      <c r="D59" s="1" t="inlineStr"/>
+      <c r="E59" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Delwar Paint &amp; Hardware)</t>
         </is>
       </c>
-      <c r="F59" s="17" t="inlineStr"/>
-      <c r="G59" s="17" t="inlineStr"/>
-      <c r="H59" s="17" t="inlineStr"/>
-      <c r="I59" s="17" t="inlineStr"/>
-      <c r="J59" s="17" t="inlineStr"/>
-      <c r="K59" s="17" t="inlineStr"/>
-      <c r="L59" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F59" s="1" t="inlineStr"/>
+      <c r="G59" s="1" t="inlineStr"/>
+      <c r="H59" s="1" t="inlineStr"/>
+      <c r="I59" s="1" t="inlineStr"/>
+      <c r="J59" s="1" t="inlineStr"/>
+      <c r="K59" s="1" t="inlineStr"/>
+      <c r="L59" s="1" t="inlineStr"/>
     </row>
     <row r="60">
-      <c r="A60" s="17" t="inlineStr">
-        <is>
-          <t>M037</t>
-        </is>
-      </c>
-      <c r="B60" s="18" t="inlineStr"/>
-      <c r="C60" s="17" t="inlineStr"/>
-      <c r="D60" s="17" t="inlineStr">
+      <c r="A60" s="1" t="inlineStr"/>
+      <c r="B60" s="2" t="inlineStr"/>
+      <c r="C60" s="1" t="inlineStr"/>
+      <c r="D60" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E60" s="24" t="inlineStr">
+      <c r="E60" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F60" s="17" t="inlineStr"/>
-      <c r="G60" s="17" t="inlineStr"/>
-      <c r="H60" s="17" t="inlineStr"/>
-      <c r="I60" s="17" t="inlineStr"/>
-      <c r="J60" s="17" t="inlineStr"/>
-      <c r="K60" s="17" t="inlineStr"/>
-      <c r="L60" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F60" s="1" t="inlineStr"/>
+      <c r="G60" s="1" t="inlineStr"/>
+      <c r="H60" s="1" t="inlineStr"/>
+      <c r="I60" s="1" t="inlineStr"/>
+      <c r="J60" s="1" t="inlineStr"/>
+      <c r="K60" s="1" t="inlineStr"/>
+      <c r="L60" s="1" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B61" s="10" t="inlineStr"/>
-      <c r="C61" s="11" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr"/>
+      <c r="B61" s="2" t="inlineStr"/>
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D61" s="9" t="inlineStr">
+      <c r="D61" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E61" s="12" t="inlineStr">
+      <c r="E61" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F61" s="9" t="inlineStr"/>
-      <c r="G61" s="9" t="inlineStr"/>
-      <c r="H61" s="13" t="inlineStr">
+      <c r="F61" s="1" t="inlineStr"/>
+      <c r="G61" s="1" t="inlineStr"/>
+      <c r="H61" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I61" s="9" t="inlineStr">
+      <c r="I61" s="1" t="inlineStr">
         <is>
           <t>70699</t>
         </is>
       </c>
-      <c r="J61" s="14" t="inlineStr">
+      <c r="J61" s="8" t="inlineStr">
         <is>
           <t>3400</t>
         </is>
       </c>
-      <c r="K61" s="9" t="inlineStr"/>
-      <c r="L61" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K61" s="1" t="inlineStr"/>
+      <c r="L61" s="1" t="inlineStr"/>
     </row>
     <row r="62">
-      <c r="A62" s="9" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B62" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 3400.00
-Borrower Amount: 3400.00</t>
-        </is>
-      </c>
-      <c r="C62" s="9" t="inlineStr"/>
-      <c r="D62" s="9" t="inlineStr"/>
-      <c r="E62" s="15" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr"/>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr"/>
+      <c r="D62" s="1" t="inlineStr"/>
+      <c r="E62" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F62" s="9" t="inlineStr"/>
-      <c r="G62" s="9" t="inlineStr"/>
-      <c r="H62" s="9" t="inlineStr"/>
-      <c r="I62" s="9" t="inlineStr"/>
-      <c r="J62" s="9" t="inlineStr"/>
-      <c r="K62" s="9" t="inlineStr"/>
-      <c r="L62" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F62" s="1" t="inlineStr"/>
+      <c r="G62" s="1" t="inlineStr"/>
+      <c r="H62" s="1" t="inlineStr"/>
+      <c r="I62" s="1" t="inlineStr"/>
+      <c r="J62" s="1" t="inlineStr"/>
+      <c r="K62" s="1" t="inlineStr"/>
+      <c r="L62" s="1" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="inlineStr">
-        <is>
-          <t>M038</t>
-        </is>
-      </c>
-      <c r="B63" s="10" t="inlineStr"/>
-      <c r="C63" s="9" t="inlineStr"/>
-      <c r="D63" s="9" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr"/>
+      <c r="B63" s="2" t="inlineStr"/>
+      <c r="C63" s="1" t="inlineStr"/>
+      <c r="D63" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E63" s="16" t="inlineStr">
+      <c r="E63" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F63" s="9" t="inlineStr"/>
-      <c r="G63" s="9" t="inlineStr"/>
-      <c r="H63" s="9" t="inlineStr"/>
-      <c r="I63" s="9" t="inlineStr"/>
-      <c r="J63" s="9" t="inlineStr"/>
-      <c r="K63" s="9" t="inlineStr"/>
-      <c r="L63" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F63" s="1" t="inlineStr"/>
+      <c r="G63" s="1" t="inlineStr"/>
+      <c r="H63" s="1" t="inlineStr"/>
+      <c r="I63" s="1" t="inlineStr"/>
+      <c r="J63" s="1" t="inlineStr"/>
+      <c r="K63" s="1" t="inlineStr"/>
+      <c r="L63" s="1" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" s="17" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B64" s="18" t="inlineStr"/>
-      <c r="C64" s="19" t="inlineStr">
+      <c r="A64" s="1" t="inlineStr"/>
+      <c r="B64" s="2" t="inlineStr"/>
+      <c r="C64" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D64" s="17" t="inlineStr">
+      <c r="D64" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E64" s="20" t="inlineStr">
+      <c r="E64" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F64" s="17" t="inlineStr"/>
-      <c r="G64" s="17" t="inlineStr"/>
-      <c r="H64" s="21" t="inlineStr">
+      <c r="F64" s="1" t="inlineStr"/>
+      <c r="G64" s="1" t="inlineStr"/>
+      <c r="H64" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I64" s="17" t="inlineStr">
+      <c r="I64" s="1" t="inlineStr">
         <is>
           <t>70700</t>
         </is>
       </c>
-      <c r="J64" s="22" t="inlineStr">
+      <c r="J64" s="8" t="inlineStr">
         <is>
           <t>2250</t>
         </is>
       </c>
-      <c r="K64" s="17" t="inlineStr"/>
-      <c r="L64" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K64" s="1" t="inlineStr"/>
+      <c r="L64" s="1" t="inlineStr"/>
     </row>
     <row r="65">
-      <c r="A65" s="17" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B65" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 2250.00
-Borrower Amount: 2250.00</t>
-        </is>
-      </c>
-      <c r="C65" s="17" t="inlineStr"/>
-      <c r="D65" s="17" t="inlineStr"/>
-      <c r="E65" s="23" t="inlineStr">
+      <c r="A65" s="1" t="inlineStr"/>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr"/>
+      <c r="D65" s="1" t="inlineStr"/>
+      <c r="E65" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F65" s="17" t="inlineStr"/>
-      <c r="G65" s="17" t="inlineStr"/>
-      <c r="H65" s="17" t="inlineStr"/>
-      <c r="I65" s="17" t="inlineStr"/>
-      <c r="J65" s="17" t="inlineStr"/>
-      <c r="K65" s="17" t="inlineStr"/>
-      <c r="L65" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F65" s="1" t="inlineStr"/>
+      <c r="G65" s="1" t="inlineStr"/>
+      <c r="H65" s="1" t="inlineStr"/>
+      <c r="I65" s="1" t="inlineStr"/>
+      <c r="J65" s="1" t="inlineStr"/>
+      <c r="K65" s="1" t="inlineStr"/>
+      <c r="L65" s="1" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="17" t="inlineStr">
-        <is>
-          <t>M039</t>
-        </is>
-      </c>
-      <c r="B66" s="18" t="inlineStr"/>
-      <c r="C66" s="17" t="inlineStr"/>
-      <c r="D66" s="17" t="inlineStr">
+      <c r="A66" s="1" t="inlineStr"/>
+      <c r="B66" s="2" t="inlineStr"/>
+      <c r="C66" s="1" t="inlineStr"/>
+      <c r="D66" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E66" s="24" t="inlineStr">
+      <c r="E66" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F66" s="17" t="inlineStr"/>
-      <c r="G66" s="17" t="inlineStr"/>
-      <c r="H66" s="17" t="inlineStr"/>
-      <c r="I66" s="17" t="inlineStr"/>
-      <c r="J66" s="17" t="inlineStr"/>
-      <c r="K66" s="17" t="inlineStr"/>
-      <c r="L66" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F66" s="1" t="inlineStr"/>
+      <c r="G66" s="1" t="inlineStr"/>
+      <c r="H66" s="1" t="inlineStr"/>
+      <c r="I66" s="1" t="inlineStr"/>
+      <c r="J66" s="1" t="inlineStr"/>
+      <c r="K66" s="1" t="inlineStr"/>
+      <c r="L66" s="1" t="inlineStr"/>
     </row>
     <row r="67">
-      <c r="A67" s="9" t="inlineStr">
-        <is>
-          <t>M040</t>
-        </is>
-      </c>
-      <c r="B67" s="10" t="inlineStr"/>
-      <c r="C67" s="11" t="inlineStr">
+      <c r="A67" s="1" t="inlineStr"/>
+      <c r="B67" s="2" t="inlineStr"/>
+      <c r="C67" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D67" s="9" t="inlineStr">
+      <c r="D67" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E67" s="12" t="inlineStr">
+      <c r="E67" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F67" s="9" t="inlineStr"/>
-      <c r="G67" s="9" t="inlineStr"/>
-      <c r="H67" s="13" t="inlineStr">
+      <c r="F67" s="1" t="inlineStr"/>
+      <c r="G67" s="1" t="inlineStr"/>
+      <c r="H67" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I67" s="9" t="inlineStr">
+      <c r="I67" s="1" t="inlineStr">
         <is>
           <t>70701</t>
         </is>
       </c>
-      <c r="J67" s="14" t="inlineStr">
+      <c r="J67" s="8" t="inlineStr">
         <is>
           <t>4360</t>
         </is>
       </c>
-      <c r="K67" s="9" t="inlineStr"/>
-      <c r="L67" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K67" s="1" t="inlineStr"/>
+      <c r="L67" s="1" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="inlineStr">
-        <is>
-          <t>M040</t>
-        </is>
-      </c>
-      <c r="B68" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 4360.00
-Borrower Amount: 4360.00</t>
-        </is>
-      </c>
-      <c r="C68" s="9" t="inlineStr"/>
-      <c r="D68" s="9" t="inlineStr"/>
-      <c r="E68" s="15" t="inlineStr">
+      <c r="A68" s="1" t="inlineStr"/>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr"/>
+      <c r="D68" s="1" t="inlineStr"/>
+      <c r="E68" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F68" s="9" t="inlineStr"/>
-      <c r="G68" s="9" t="inlineStr"/>
-      <c r="H68" s="9" t="inlineStr"/>
-      <c r="I68" s="9" t="inlineStr"/>
-      <c r="J68" s="9" t="inlineStr"/>
-      <c r="K68" s="9" t="inlineStr"/>
-      <c r="L68" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F68" s="1" t="inlineStr"/>
+      <c r="G68" s="1" t="inlineStr"/>
+      <c r="H68" s="1" t="inlineStr"/>
+      <c r="I68" s="1" t="inlineStr"/>
+      <c r="J68" s="1" t="inlineStr"/>
+      <c r="K68" s="1" t="inlineStr"/>
+      <c r="L68" s="1" t="inlineStr"/>
     </row>
     <row r="69">
-      <c r="A69" s="9" t="inlineStr">
-        <is>
-          <t>M040</t>
-        </is>
-      </c>
-      <c r="B69" s="10" t="inlineStr"/>
-      <c r="C69" s="9" t="inlineStr"/>
-      <c r="D69" s="9" t="inlineStr">
+      <c r="A69" s="1" t="inlineStr"/>
+      <c r="B69" s="2" t="inlineStr"/>
+      <c r="C69" s="1" t="inlineStr"/>
+      <c r="D69" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E69" s="16" t="inlineStr">
+      <c r="E69" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F69" s="9" t="inlineStr"/>
-      <c r="G69" s="9" t="inlineStr"/>
-      <c r="H69" s="9" t="inlineStr"/>
-      <c r="I69" s="9" t="inlineStr"/>
-      <c r="J69" s="9" t="inlineStr"/>
-      <c r="K69" s="9" t="inlineStr"/>
-      <c r="L69" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F69" s="1" t="inlineStr"/>
+      <c r="G69" s="1" t="inlineStr"/>
+      <c r="H69" s="1" t="inlineStr"/>
+      <c r="I69" s="1" t="inlineStr"/>
+      <c r="J69" s="1" t="inlineStr"/>
+      <c r="K69" s="1" t="inlineStr"/>
+      <c r="L69" s="1" t="inlineStr"/>
     </row>
     <row r="70">
-      <c r="A70" s="17" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B70" s="18" t="inlineStr"/>
-      <c r="C70" s="19" t="inlineStr">
+      <c r="A70" s="1" t="inlineStr"/>
+      <c r="B70" s="2" t="inlineStr"/>
+      <c r="C70" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D70" s="17" t="inlineStr">
+      <c r="D70" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E70" s="20" t="inlineStr">
+      <c r="E70" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F70" s="17" t="inlineStr"/>
-      <c r="G70" s="17" t="inlineStr"/>
-      <c r="H70" s="21" t="inlineStr">
+      <c r="F70" s="1" t="inlineStr"/>
+      <c r="G70" s="1" t="inlineStr"/>
+      <c r="H70" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I70" s="17" t="inlineStr">
+      <c r="I70" s="1" t="inlineStr">
         <is>
           <t>70702</t>
         </is>
       </c>
-      <c r="J70" s="22" t="inlineStr">
+      <c r="J70" s="8" t="inlineStr">
         <is>
           <t>14940</t>
         </is>
       </c>
-      <c r="K70" s="17" t="inlineStr"/>
-      <c r="L70" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K70" s="1" t="inlineStr"/>
+      <c r="L70" s="1" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="17" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B71" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 14940.00
-Borrower Amount: 14940.00</t>
-        </is>
-      </c>
-      <c r="C71" s="17" t="inlineStr"/>
-      <c r="D71" s="17" t="inlineStr"/>
-      <c r="E71" s="23" t="inlineStr">
+      <c r="A71" s="1" t="inlineStr"/>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C71" s="1" t="inlineStr"/>
+      <c r="D71" s="1" t="inlineStr"/>
+      <c r="E71" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F71" s="17" t="inlineStr"/>
-      <c r="G71" s="17" t="inlineStr"/>
-      <c r="H71" s="17" t="inlineStr"/>
-      <c r="I71" s="17" t="inlineStr"/>
-      <c r="J71" s="17" t="inlineStr"/>
-      <c r="K71" s="17" t="inlineStr"/>
-      <c r="L71" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F71" s="1" t="inlineStr"/>
+      <c r="G71" s="1" t="inlineStr"/>
+      <c r="H71" s="1" t="inlineStr"/>
+      <c r="I71" s="1" t="inlineStr"/>
+      <c r="J71" s="1" t="inlineStr"/>
+      <c r="K71" s="1" t="inlineStr"/>
+      <c r="L71" s="1" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" s="17" t="inlineStr">
-        <is>
-          <t>M041</t>
-        </is>
-      </c>
-      <c r="B72" s="18" t="inlineStr"/>
-      <c r="C72" s="17" t="inlineStr"/>
-      <c r="D72" s="17" t="inlineStr">
+      <c r="A72" s="1" t="inlineStr"/>
+      <c r="B72" s="2" t="inlineStr"/>
+      <c r="C72" s="1" t="inlineStr"/>
+      <c r="D72" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E72" s="24" t="inlineStr">
+      <c r="E72" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F72" s="17" t="inlineStr"/>
-      <c r="G72" s="17" t="inlineStr"/>
-      <c r="H72" s="17" t="inlineStr"/>
-      <c r="I72" s="17" t="inlineStr"/>
-      <c r="J72" s="17" t="inlineStr"/>
-      <c r="K72" s="17" t="inlineStr"/>
-      <c r="L72" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F72" s="1" t="inlineStr"/>
+      <c r="G72" s="1" t="inlineStr"/>
+      <c r="H72" s="1" t="inlineStr"/>
+      <c r="I72" s="1" t="inlineStr"/>
+      <c r="J72" s="1" t="inlineStr"/>
+      <c r="K72" s="1" t="inlineStr"/>
+      <c r="L72" s="1" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" s="9" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B73" s="10" t="inlineStr"/>
-      <c r="C73" s="11" t="inlineStr">
+      <c r="A73" s="1" t="inlineStr"/>
+      <c r="B73" s="2" t="inlineStr"/>
+      <c r="C73" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D73" s="9" t="inlineStr">
+      <c r="D73" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E73" s="12" t="inlineStr">
+      <c r="E73" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F73" s="9" t="inlineStr"/>
-      <c r="G73" s="9" t="inlineStr"/>
-      <c r="H73" s="13" t="inlineStr">
+      <c r="F73" s="1" t="inlineStr"/>
+      <c r="G73" s="1" t="inlineStr"/>
+      <c r="H73" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I73" s="9" t="inlineStr">
+      <c r="I73" s="1" t="inlineStr">
         <is>
           <t>70703</t>
         </is>
       </c>
-      <c r="J73" s="14" t="inlineStr">
+      <c r="J73" s="8" t="inlineStr">
         <is>
           <t>3027.5</t>
         </is>
       </c>
-      <c r="K73" s="9" t="inlineStr"/>
-      <c r="L73" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K73" s="1" t="inlineStr"/>
+      <c r="L73" s="1" t="inlineStr"/>
     </row>
     <row r="74">
-      <c r="A74" s="9" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B74" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 3027.50
-Borrower Amount: 3027.50</t>
-        </is>
-      </c>
-      <c r="C74" s="9" t="inlineStr"/>
-      <c r="D74" s="9" t="inlineStr"/>
-      <c r="E74" s="15" t="inlineStr">
+      <c r="A74" s="1" t="inlineStr"/>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C74" s="1" t="inlineStr"/>
+      <c r="D74" s="1" t="inlineStr"/>
+      <c r="E74" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Islam Electric Co.)</t>
         </is>
       </c>
-      <c r="F74" s="9" t="inlineStr"/>
-      <c r="G74" s="9" t="inlineStr"/>
-      <c r="H74" s="9" t="inlineStr"/>
-      <c r="I74" s="9" t="inlineStr"/>
-      <c r="J74" s="9" t="inlineStr"/>
-      <c r="K74" s="9" t="inlineStr"/>
-      <c r="L74" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F74" s="1" t="inlineStr"/>
+      <c r="G74" s="1" t="inlineStr"/>
+      <c r="H74" s="1" t="inlineStr"/>
+      <c r="I74" s="1" t="inlineStr"/>
+      <c r="J74" s="1" t="inlineStr"/>
+      <c r="K74" s="1" t="inlineStr"/>
+      <c r="L74" s="1" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="inlineStr">
-        <is>
-          <t>M042</t>
-        </is>
-      </c>
-      <c r="B75" s="10" t="inlineStr"/>
-      <c r="C75" s="9" t="inlineStr"/>
-      <c r="D75" s="9" t="inlineStr">
+      <c r="A75" s="1" t="inlineStr"/>
+      <c r="B75" s="2" t="inlineStr"/>
+      <c r="C75" s="1" t="inlineStr"/>
+      <c r="D75" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E75" s="16" t="inlineStr">
+      <c r="E75" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F75" s="9" t="inlineStr"/>
-      <c r="G75" s="9" t="inlineStr"/>
-      <c r="H75" s="9" t="inlineStr"/>
-      <c r="I75" s="9" t="inlineStr"/>
-      <c r="J75" s="9" t="inlineStr"/>
-      <c r="K75" s="9" t="inlineStr"/>
-      <c r="L75" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F75" s="1" t="inlineStr"/>
+      <c r="G75" s="1" t="inlineStr"/>
+      <c r="H75" s="1" t="inlineStr"/>
+      <c r="I75" s="1" t="inlineStr"/>
+      <c r="J75" s="1" t="inlineStr"/>
+      <c r="K75" s="1" t="inlineStr"/>
+      <c r="L75" s="1" t="inlineStr"/>
     </row>
     <row r="76">
-      <c r="A76" s="17" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B76" s="18" t="inlineStr"/>
-      <c r="C76" s="19" t="inlineStr">
+      <c r="A76" s="1" t="inlineStr"/>
+      <c r="B76" s="2" t="inlineStr"/>
+      <c r="C76" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D76" s="17" t="inlineStr">
+      <c r="D76" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E76" s="20" t="inlineStr">
+      <c r="E76" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F76" s="17" t="inlineStr"/>
-      <c r="G76" s="17" t="inlineStr"/>
-      <c r="H76" s="21" t="inlineStr">
+      <c r="F76" s="1" t="inlineStr"/>
+      <c r="G76" s="1" t="inlineStr"/>
+      <c r="H76" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I76" s="17" t="inlineStr">
+      <c r="I76" s="1" t="inlineStr">
         <is>
           <t>70704</t>
         </is>
       </c>
-      <c r="J76" s="22" t="inlineStr">
+      <c r="J76" s="8" t="inlineStr">
         <is>
           <t>91900</t>
         </is>
       </c>
-      <c r="K76" s="17" t="inlineStr"/>
-      <c r="L76" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K76" s="1" t="inlineStr"/>
+      <c r="L76" s="1" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="17" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B77" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 91900.00
-Borrower Amount: 91900.00</t>
-        </is>
-      </c>
-      <c r="C77" s="17" t="inlineStr"/>
-      <c r="D77" s="17" t="inlineStr"/>
-      <c r="E77" s="23" t="inlineStr">
+      <c r="A77" s="1" t="inlineStr"/>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C77" s="1" t="inlineStr"/>
+      <c r="D77" s="1" t="inlineStr"/>
+      <c r="E77" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Islam Electric Co.)</t>
         </is>
       </c>
-      <c r="F77" s="17" t="inlineStr"/>
-      <c r="G77" s="17" t="inlineStr"/>
-      <c r="H77" s="17" t="inlineStr"/>
-      <c r="I77" s="17" t="inlineStr"/>
-      <c r="J77" s="17" t="inlineStr"/>
-      <c r="K77" s="17" t="inlineStr"/>
-      <c r="L77" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F77" s="1" t="inlineStr"/>
+      <c r="G77" s="1" t="inlineStr"/>
+      <c r="H77" s="1" t="inlineStr"/>
+      <c r="I77" s="1" t="inlineStr"/>
+      <c r="J77" s="1" t="inlineStr"/>
+      <c r="K77" s="1" t="inlineStr"/>
+      <c r="L77" s="1" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" s="17" t="inlineStr">
-        <is>
-          <t>M043</t>
-        </is>
-      </c>
-      <c r="B78" s="18" t="inlineStr"/>
-      <c r="C78" s="17" t="inlineStr"/>
-      <c r="D78" s="17" t="inlineStr">
+      <c r="A78" s="1" t="inlineStr"/>
+      <c r="B78" s="2" t="inlineStr"/>
+      <c r="C78" s="1" t="inlineStr"/>
+      <c r="D78" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E78" s="24" t="inlineStr">
+      <c r="E78" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F78" s="17" t="inlineStr"/>
-      <c r="G78" s="17" t="inlineStr"/>
-      <c r="H78" s="17" t="inlineStr"/>
-      <c r="I78" s="17" t="inlineStr"/>
-      <c r="J78" s="17" t="inlineStr"/>
-      <c r="K78" s="17" t="inlineStr"/>
-      <c r="L78" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F78" s="1" t="inlineStr"/>
+      <c r="G78" s="1" t="inlineStr"/>
+      <c r="H78" s="1" t="inlineStr"/>
+      <c r="I78" s="1" t="inlineStr"/>
+      <c r="J78" s="1" t="inlineStr"/>
+      <c r="K78" s="1" t="inlineStr"/>
+      <c r="L78" s="1" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="9" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B79" s="10" t="inlineStr"/>
-      <c r="C79" s="11" t="inlineStr">
+      <c r="A79" s="1" t="inlineStr"/>
+      <c r="B79" s="2" t="inlineStr"/>
+      <c r="C79" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D79" s="9" t="inlineStr">
+      <c r="D79" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E79" s="12" t="inlineStr">
+      <c r="E79" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F79" s="9" t="inlineStr"/>
-      <c r="G79" s="9" t="inlineStr"/>
-      <c r="H79" s="13" t="inlineStr">
+      <c r="F79" s="1" t="inlineStr"/>
+      <c r="G79" s="1" t="inlineStr"/>
+      <c r="H79" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I79" s="9" t="inlineStr">
+      <c r="I79" s="1" t="inlineStr">
         <is>
           <t>70705</t>
         </is>
       </c>
-      <c r="J79" s="14" t="inlineStr">
+      <c r="J79" s="8" t="inlineStr">
         <is>
           <t>31050</t>
         </is>
       </c>
-      <c r="K79" s="9" t="inlineStr"/>
-      <c r="L79" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K79" s="1" t="inlineStr"/>
+      <c r="L79" s="1" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" s="9" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B80" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 31050.00
-Borrower Amount: 31050.00</t>
-        </is>
-      </c>
-      <c r="C80" s="9" t="inlineStr"/>
-      <c r="D80" s="9" t="inlineStr"/>
-      <c r="E80" s="15" t="inlineStr">
+      <c r="A80" s="1" t="inlineStr"/>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C80" s="1" t="inlineStr"/>
+      <c r="D80" s="1" t="inlineStr"/>
+      <c r="E80" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Jononi Enterprise)</t>
         </is>
       </c>
-      <c r="F80" s="9" t="inlineStr"/>
-      <c r="G80" s="9" t="inlineStr"/>
-      <c r="H80" s="9" t="inlineStr"/>
-      <c r="I80" s="9" t="inlineStr"/>
-      <c r="J80" s="9" t="inlineStr"/>
-      <c r="K80" s="9" t="inlineStr"/>
-      <c r="L80" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F80" s="1" t="inlineStr"/>
+      <c r="G80" s="1" t="inlineStr"/>
+      <c r="H80" s="1" t="inlineStr"/>
+      <c r="I80" s="1" t="inlineStr"/>
+      <c r="J80" s="1" t="inlineStr"/>
+      <c r="K80" s="1" t="inlineStr"/>
+      <c r="L80" s="1" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="9" t="inlineStr">
-        <is>
-          <t>M044</t>
-        </is>
-      </c>
-      <c r="B81" s="10" t="inlineStr"/>
-      <c r="C81" s="9" t="inlineStr"/>
-      <c r="D81" s="9" t="inlineStr">
+      <c r="A81" s="1" t="inlineStr"/>
+      <c r="B81" s="2" t="inlineStr"/>
+      <c r="C81" s="1" t="inlineStr"/>
+      <c r="D81" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E81" s="16" t="inlineStr">
+      <c r="E81" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F81" s="9" t="inlineStr"/>
-      <c r="G81" s="9" t="inlineStr"/>
-      <c r="H81" s="9" t="inlineStr"/>
-      <c r="I81" s="9" t="inlineStr"/>
-      <c r="J81" s="9" t="inlineStr"/>
-      <c r="K81" s="9" t="inlineStr"/>
-      <c r="L81" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F81" s="1" t="inlineStr"/>
+      <c r="G81" s="1" t="inlineStr"/>
+      <c r="H81" s="1" t="inlineStr"/>
+      <c r="I81" s="1" t="inlineStr"/>
+      <c r="J81" s="1" t="inlineStr"/>
+      <c r="K81" s="1" t="inlineStr"/>
+      <c r="L81" s="1" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="17" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B82" s="18" t="inlineStr"/>
-      <c r="C82" s="19" t="inlineStr">
+      <c r="A82" s="1" t="inlineStr"/>
+      <c r="B82" s="2" t="inlineStr"/>
+      <c r="C82" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D82" s="17" t="inlineStr">
+      <c r="D82" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E82" s="20" t="inlineStr">
+      <c r="E82" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F82" s="17" t="inlineStr"/>
-      <c r="G82" s="17" t="inlineStr"/>
-      <c r="H82" s="21" t="inlineStr">
+      <c r="F82" s="1" t="inlineStr"/>
+      <c r="G82" s="1" t="inlineStr"/>
+      <c r="H82" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I82" s="17" t="inlineStr">
+      <c r="I82" s="1" t="inlineStr">
         <is>
           <t>70706</t>
         </is>
       </c>
-      <c r="J82" s="22" t="inlineStr">
+      <c r="J82" s="8" t="inlineStr">
         <is>
           <t>20000</t>
         </is>
       </c>
-      <c r="K82" s="17" t="inlineStr"/>
-      <c r="L82" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K82" s="1" t="inlineStr"/>
+      <c r="L82" s="1" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="17" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B83" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 20000.00
-Borrower Amount: 20000.00</t>
-        </is>
-      </c>
-      <c r="C83" s="17" t="inlineStr"/>
-      <c r="D83" s="17" t="inlineStr"/>
-      <c r="E83" s="23" t="inlineStr">
+      <c r="A83" s="1" t="inlineStr"/>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C83" s="1" t="inlineStr"/>
+      <c r="D83" s="1" t="inlineStr"/>
+      <c r="E83" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(JRS Corporation)</t>
         </is>
       </c>
-      <c r="F83" s="17" t="inlineStr"/>
-      <c r="G83" s="17" t="inlineStr"/>
-      <c r="H83" s="17" t="inlineStr"/>
-      <c r="I83" s="17" t="inlineStr"/>
-      <c r="J83" s="17" t="inlineStr"/>
-      <c r="K83" s="17" t="inlineStr"/>
-      <c r="L83" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F83" s="1" t="inlineStr"/>
+      <c r="G83" s="1" t="inlineStr"/>
+      <c r="H83" s="1" t="inlineStr"/>
+      <c r="I83" s="1" t="inlineStr"/>
+      <c r="J83" s="1" t="inlineStr"/>
+      <c r="K83" s="1" t="inlineStr"/>
+      <c r="L83" s="1" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" s="17" t="inlineStr">
-        <is>
-          <t>M045</t>
-        </is>
-      </c>
-      <c r="B84" s="18" t="inlineStr"/>
-      <c r="C84" s="17" t="inlineStr"/>
-      <c r="D84" s="17" t="inlineStr">
+      <c r="A84" s="1" t="inlineStr"/>
+      <c r="B84" s="2" t="inlineStr"/>
+      <c r="C84" s="1" t="inlineStr"/>
+      <c r="D84" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E84" s="24" t="inlineStr">
+      <c r="E84" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F84" s="17" t="inlineStr"/>
-      <c r="G84" s="17" t="inlineStr"/>
-      <c r="H84" s="17" t="inlineStr"/>
-      <c r="I84" s="17" t="inlineStr"/>
-      <c r="J84" s="17" t="inlineStr"/>
-      <c r="K84" s="17" t="inlineStr"/>
-      <c r="L84" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F84" s="1" t="inlineStr"/>
+      <c r="G84" s="1" t="inlineStr"/>
+      <c r="H84" s="1" t="inlineStr"/>
+      <c r="I84" s="1" t="inlineStr"/>
+      <c r="J84" s="1" t="inlineStr"/>
+      <c r="K84" s="1" t="inlineStr"/>
+      <c r="L84" s="1" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B85" s="10" t="inlineStr"/>
-      <c r="C85" s="11" t="inlineStr">
+      <c r="A85" s="1" t="inlineStr"/>
+      <c r="B85" s="2" t="inlineStr"/>
+      <c r="C85" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D85" s="9" t="inlineStr">
+      <c r="D85" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E85" s="12" t="inlineStr">
+      <c r="E85" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F85" s="9" t="inlineStr"/>
-      <c r="G85" s="9" t="inlineStr"/>
-      <c r="H85" s="13" t="inlineStr">
+      <c r="F85" s="1" t="inlineStr"/>
+      <c r="G85" s="1" t="inlineStr"/>
+      <c r="H85" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I85" s="9" t="inlineStr">
+      <c r="I85" s="1" t="inlineStr">
         <is>
           <t>70707</t>
         </is>
       </c>
-      <c r="J85" s="14" t="inlineStr">
+      <c r="J85" s="8" t="inlineStr">
         <is>
           <t>55440</t>
         </is>
       </c>
-      <c r="K85" s="9" t="inlineStr"/>
-      <c r="L85" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K85" s="1" t="inlineStr"/>
+      <c r="L85" s="1" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" s="9" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B86" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 55440.00
-Borrower Amount: 55440.00</t>
-        </is>
-      </c>
-      <c r="C86" s="9" t="inlineStr"/>
-      <c r="D86" s="9" t="inlineStr"/>
-      <c r="E86" s="15" t="inlineStr">
+      <c r="A86" s="1" t="inlineStr"/>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C86" s="1" t="inlineStr"/>
+      <c r="D86" s="1" t="inlineStr"/>
+      <c r="E86" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(JRS Corporation)</t>
         </is>
       </c>
-      <c r="F86" s="9" t="inlineStr"/>
-      <c r="G86" s="9" t="inlineStr"/>
-      <c r="H86" s="9" t="inlineStr"/>
-      <c r="I86" s="9" t="inlineStr"/>
-      <c r="J86" s="9" t="inlineStr"/>
-      <c r="K86" s="9" t="inlineStr"/>
-      <c r="L86" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F86" s="1" t="inlineStr"/>
+      <c r="G86" s="1" t="inlineStr"/>
+      <c r="H86" s="1" t="inlineStr"/>
+      <c r="I86" s="1" t="inlineStr"/>
+      <c r="J86" s="1" t="inlineStr"/>
+      <c r="K86" s="1" t="inlineStr"/>
+      <c r="L86" s="1" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="9" t="inlineStr">
-        <is>
-          <t>M046</t>
-        </is>
-      </c>
-      <c r="B87" s="10" t="inlineStr"/>
-      <c r="C87" s="9" t="inlineStr"/>
-      <c r="D87" s="9" t="inlineStr">
+      <c r="A87" s="1" t="inlineStr"/>
+      <c r="B87" s="2" t="inlineStr"/>
+      <c r="C87" s="1" t="inlineStr"/>
+      <c r="D87" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E87" s="16" t="inlineStr">
+      <c r="E87" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F87" s="9" t="inlineStr"/>
-      <c r="G87" s="9" t="inlineStr"/>
-      <c r="H87" s="9" t="inlineStr"/>
-      <c r="I87" s="9" t="inlineStr"/>
-      <c r="J87" s="9" t="inlineStr"/>
-      <c r="K87" s="9" t="inlineStr"/>
-      <c r="L87" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F87" s="1" t="inlineStr"/>
+      <c r="G87" s="1" t="inlineStr"/>
+      <c r="H87" s="1" t="inlineStr"/>
+      <c r="I87" s="1" t="inlineStr"/>
+      <c r="J87" s="1" t="inlineStr"/>
+      <c r="K87" s="1" t="inlineStr"/>
+      <c r="L87" s="1" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="17" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B88" s="18" t="inlineStr"/>
-      <c r="C88" s="19" t="inlineStr">
+      <c r="A88" s="1" t="inlineStr"/>
+      <c r="B88" s="2" t="inlineStr"/>
+      <c r="C88" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D88" s="17" t="inlineStr">
+      <c r="D88" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E88" s="20" t="inlineStr">
+      <c r="E88" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F88" s="17" t="inlineStr"/>
-      <c r="G88" s="17" t="inlineStr"/>
-      <c r="H88" s="21" t="inlineStr">
+      <c r="F88" s="1" t="inlineStr"/>
+      <c r="G88" s="1" t="inlineStr"/>
+      <c r="H88" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I88" s="17" t="inlineStr">
+      <c r="I88" s="1" t="inlineStr">
         <is>
           <t>70708</t>
         </is>
       </c>
-      <c r="J88" s="22" t="inlineStr">
+      <c r="J88" s="8" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
       </c>
-      <c r="K88" s="17" t="inlineStr"/>
-      <c r="L88" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K88" s="1" t="inlineStr"/>
+      <c r="L88" s="1" t="inlineStr"/>
     </row>
     <row r="89">
-      <c r="A89" s="17" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B89" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 4500.00
-Borrower Amount: 4500.00</t>
-        </is>
-      </c>
-      <c r="C89" s="17" t="inlineStr"/>
-      <c r="D89" s="17" t="inlineStr"/>
-      <c r="E89" s="23" t="inlineStr">
+      <c r="A89" s="1" t="inlineStr"/>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr"/>
+      <c r="D89" s="1" t="inlineStr"/>
+      <c r="E89" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S Hafsa Enterprise)</t>
         </is>
       </c>
-      <c r="F89" s="17" t="inlineStr"/>
-      <c r="G89" s="17" t="inlineStr"/>
-      <c r="H89" s="17" t="inlineStr"/>
-      <c r="I89" s="17" t="inlineStr"/>
-      <c r="J89" s="17" t="inlineStr"/>
-      <c r="K89" s="17" t="inlineStr"/>
-      <c r="L89" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F89" s="1" t="inlineStr"/>
+      <c r="G89" s="1" t="inlineStr"/>
+      <c r="H89" s="1" t="inlineStr"/>
+      <c r="I89" s="1" t="inlineStr"/>
+      <c r="J89" s="1" t="inlineStr"/>
+      <c r="K89" s="1" t="inlineStr"/>
+      <c r="L89" s="1" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="17" t="inlineStr">
-        <is>
-          <t>M047</t>
-        </is>
-      </c>
-      <c r="B90" s="18" t="inlineStr"/>
-      <c r="C90" s="17" t="inlineStr"/>
-      <c r="D90" s="17" t="inlineStr">
+      <c r="A90" s="1" t="inlineStr"/>
+      <c r="B90" s="2" t="inlineStr"/>
+      <c r="C90" s="1" t="inlineStr"/>
+      <c r="D90" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E90" s="24" t="inlineStr">
+      <c r="E90" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F90" s="17" t="inlineStr"/>
-      <c r="G90" s="17" t="inlineStr"/>
-      <c r="H90" s="17" t="inlineStr"/>
-      <c r="I90" s="17" t="inlineStr"/>
-      <c r="J90" s="17" t="inlineStr"/>
-      <c r="K90" s="17" t="inlineStr"/>
-      <c r="L90" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F90" s="1" t="inlineStr"/>
+      <c r="G90" s="1" t="inlineStr"/>
+      <c r="H90" s="1" t="inlineStr"/>
+      <c r="I90" s="1" t="inlineStr"/>
+      <c r="J90" s="1" t="inlineStr"/>
+      <c r="K90" s="1" t="inlineStr"/>
+      <c r="L90" s="1" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="9" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B91" s="10" t="inlineStr"/>
-      <c r="C91" s="11" t="inlineStr">
+      <c r="A91" s="1" t="inlineStr"/>
+      <c r="B91" s="2" t="inlineStr"/>
+      <c r="C91" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D91" s="9" t="inlineStr">
+      <c r="D91" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E91" s="12" t="inlineStr">
+      <c r="E91" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F91" s="9" t="inlineStr"/>
-      <c r="G91" s="9" t="inlineStr"/>
-      <c r="H91" s="13" t="inlineStr">
+      <c r="F91" s="1" t="inlineStr"/>
+      <c r="G91" s="1" t="inlineStr"/>
+      <c r="H91" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I91" s="9" t="inlineStr">
+      <c r="I91" s="1" t="inlineStr">
         <is>
           <t>70709</t>
         </is>
       </c>
-      <c r="J91" s="14" t="inlineStr">
+      <c r="J91" s="8" t="inlineStr">
         <is>
           <t>140000</t>
         </is>
       </c>
-      <c r="K91" s="9" t="inlineStr"/>
-      <c r="L91" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K91" s="1" t="inlineStr"/>
+      <c r="L91" s="1" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="9" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B92" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 140000.00
-Borrower Amount: 140000.00</t>
-        </is>
-      </c>
-      <c r="C92" s="9" t="inlineStr"/>
-      <c r="D92" s="9" t="inlineStr"/>
-      <c r="E92" s="15" t="inlineStr">
+      <c r="A92" s="1" t="inlineStr"/>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C92" s="1" t="inlineStr"/>
+      <c r="D92" s="1" t="inlineStr"/>
+      <c r="E92" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Ishaque Electric)</t>
         </is>
       </c>
-      <c r="F92" s="9" t="inlineStr"/>
-      <c r="G92" s="9" t="inlineStr"/>
-      <c r="H92" s="9" t="inlineStr"/>
-      <c r="I92" s="9" t="inlineStr"/>
-      <c r="J92" s="9" t="inlineStr"/>
-      <c r="K92" s="9" t="inlineStr"/>
-      <c r="L92" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F92" s="1" t="inlineStr"/>
+      <c r="G92" s="1" t="inlineStr"/>
+      <c r="H92" s="1" t="inlineStr"/>
+      <c r="I92" s="1" t="inlineStr"/>
+      <c r="J92" s="1" t="inlineStr"/>
+      <c r="K92" s="1" t="inlineStr"/>
+      <c r="L92" s="1" t="inlineStr"/>
     </row>
     <row r="93">
-      <c r="A93" s="9" t="inlineStr">
-        <is>
-          <t>M048</t>
-        </is>
-      </c>
-      <c r="B93" s="10" t="inlineStr"/>
-      <c r="C93" s="9" t="inlineStr"/>
-      <c r="D93" s="9" t="inlineStr">
+      <c r="A93" s="1" t="inlineStr"/>
+      <c r="B93" s="2" t="inlineStr"/>
+      <c r="C93" s="1" t="inlineStr"/>
+      <c r="D93" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E93" s="16" t="inlineStr">
+      <c r="E93" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F93" s="9" t="inlineStr"/>
-      <c r="G93" s="9" t="inlineStr"/>
-      <c r="H93" s="9" t="inlineStr"/>
-      <c r="I93" s="9" t="inlineStr"/>
-      <c r="J93" s="9" t="inlineStr"/>
-      <c r="K93" s="9" t="inlineStr"/>
-      <c r="L93" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F93" s="1" t="inlineStr"/>
+      <c r="G93" s="1" t="inlineStr"/>
+      <c r="H93" s="1" t="inlineStr"/>
+      <c r="I93" s="1" t="inlineStr"/>
+      <c r="J93" s="1" t="inlineStr"/>
+      <c r="K93" s="1" t="inlineStr"/>
+      <c r="L93" s="1" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" s="17" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B94" s="18" t="inlineStr"/>
-      <c r="C94" s="19" t="inlineStr">
+      <c r="A94" s="1" t="inlineStr"/>
+      <c r="B94" s="2" t="inlineStr"/>
+      <c r="C94" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D94" s="17" t="inlineStr">
+      <c r="D94" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E94" s="20" t="inlineStr">
+      <c r="E94" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F94" s="17" t="inlineStr"/>
-      <c r="G94" s="17" t="inlineStr"/>
-      <c r="H94" s="21" t="inlineStr">
+      <c r="F94" s="1" t="inlineStr"/>
+      <c r="G94" s="1" t="inlineStr"/>
+      <c r="H94" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I94" s="17" t="inlineStr">
+      <c r="I94" s="1" t="inlineStr">
         <is>
           <t>70710</t>
         </is>
       </c>
-      <c r="J94" s="22" t="inlineStr">
+      <c r="J94" s="8" t="inlineStr">
         <is>
           <t>38240</t>
         </is>
       </c>
-      <c r="K94" s="17" t="inlineStr"/>
-      <c r="L94" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K94" s="1" t="inlineStr"/>
+      <c r="L94" s="1" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="17" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B95" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 38240.00
-Borrower Amount: 38240.00</t>
-        </is>
-      </c>
-      <c r="C95" s="17" t="inlineStr"/>
-      <c r="D95" s="17" t="inlineStr"/>
-      <c r="E95" s="23" t="inlineStr">
+      <c r="A95" s="1" t="inlineStr"/>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C95" s="1" t="inlineStr"/>
+      <c r="D95" s="1" t="inlineStr"/>
+      <c r="E95" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Ishaque Electric)</t>
         </is>
       </c>
-      <c r="F95" s="17" t="inlineStr"/>
-      <c r="G95" s="17" t="inlineStr"/>
-      <c r="H95" s="17" t="inlineStr"/>
-      <c r="I95" s="17" t="inlineStr"/>
-      <c r="J95" s="17" t="inlineStr"/>
-      <c r="K95" s="17" t="inlineStr"/>
-      <c r="L95" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F95" s="1" t="inlineStr"/>
+      <c r="G95" s="1" t="inlineStr"/>
+      <c r="H95" s="1" t="inlineStr"/>
+      <c r="I95" s="1" t="inlineStr"/>
+      <c r="J95" s="1" t="inlineStr"/>
+      <c r="K95" s="1" t="inlineStr"/>
+      <c r="L95" s="1" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="17" t="inlineStr">
-        <is>
-          <t>M049</t>
-        </is>
-      </c>
-      <c r="B96" s="18" t="inlineStr"/>
-      <c r="C96" s="17" t="inlineStr"/>
-      <c r="D96" s="17" t="inlineStr">
+      <c r="A96" s="1" t="inlineStr"/>
+      <c r="B96" s="2" t="inlineStr"/>
+      <c r="C96" s="1" t="inlineStr"/>
+      <c r="D96" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E96" s="24" t="inlineStr">
+      <c r="E96" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F96" s="17" t="inlineStr"/>
-      <c r="G96" s="17" t="inlineStr"/>
-      <c r="H96" s="17" t="inlineStr"/>
-      <c r="I96" s="17" t="inlineStr"/>
-      <c r="J96" s="17" t="inlineStr"/>
-      <c r="K96" s="17" t="inlineStr"/>
-      <c r="L96" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F96" s="1" t="inlineStr"/>
+      <c r="G96" s="1" t="inlineStr"/>
+      <c r="H96" s="1" t="inlineStr"/>
+      <c r="I96" s="1" t="inlineStr"/>
+      <c r="J96" s="1" t="inlineStr"/>
+      <c r="K96" s="1" t="inlineStr"/>
+      <c r="L96" s="1" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B97" s="10" t="inlineStr"/>
-      <c r="C97" s="11" t="inlineStr">
+      <c r="A97" s="1" t="inlineStr"/>
+      <c r="B97" s="2" t="inlineStr"/>
+      <c r="C97" s="6" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D97" s="9" t="inlineStr">
+      <c r="D97" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E97" s="12" t="inlineStr">
+      <c r="E97" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F97" s="9" t="inlineStr"/>
-      <c r="G97" s="9" t="inlineStr"/>
-      <c r="H97" s="13" t="inlineStr">
+      <c r="F97" s="1" t="inlineStr"/>
+      <c r="G97" s="1" t="inlineStr"/>
+      <c r="H97" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I97" s="9" t="inlineStr">
+      <c r="I97" s="1" t="inlineStr">
         <is>
           <t>70711</t>
         </is>
       </c>
-      <c r="J97" s="14" t="inlineStr">
+      <c r="J97" s="8" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K97" s="9" t="inlineStr"/>
-      <c r="L97" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K97" s="1" t="inlineStr"/>
+      <c r="L97" s="1" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="9" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B98" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 200000.00
-Borrower Amount: 200000.00</t>
-        </is>
-      </c>
-      <c r="C98" s="9" t="inlineStr"/>
-      <c r="D98" s="9" t="inlineStr"/>
-      <c r="E98" s="15" t="inlineStr">
+      <c r="A98" s="1" t="inlineStr"/>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Borrower's narration does not contain lender's short code
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr"/>
+      <c r="D98" s="1" t="inlineStr"/>
+      <c r="E98" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Salam &amp; Brothers)</t>
         </is>
       </c>
-      <c r="F98" s="9" t="inlineStr"/>
-      <c r="G98" s="9" t="inlineStr"/>
-      <c r="H98" s="9" t="inlineStr"/>
-      <c r="I98" s="9" t="inlineStr"/>
-      <c r="J98" s="9" t="inlineStr"/>
-      <c r="K98" s="9" t="inlineStr"/>
-      <c r="L98" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F98" s="1" t="inlineStr"/>
+      <c r="G98" s="1" t="inlineStr"/>
+      <c r="H98" s="1" t="inlineStr"/>
+      <c r="I98" s="1" t="inlineStr"/>
+      <c r="J98" s="1" t="inlineStr"/>
+      <c r="K98" s="1" t="inlineStr"/>
+      <c r="L98" s="1" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="inlineStr">
-        <is>
-          <t>M050</t>
-        </is>
-      </c>
-      <c r="B99" s="10" t="inlineStr"/>
-      <c r="C99" s="9" t="inlineStr"/>
-      <c r="D99" s="9" t="inlineStr">
+      <c r="A99" s="1" t="inlineStr"/>
+      <c r="B99" s="2" t="inlineStr"/>
+      <c r="C99" s="1" t="inlineStr"/>
+      <c r="D99" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E99" s="16" t="inlineStr">
+      <c r="E99" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F99" s="9" t="inlineStr"/>
-      <c r="G99" s="9" t="inlineStr"/>
-      <c r="H99" s="9" t="inlineStr"/>
-      <c r="I99" s="9" t="inlineStr"/>
-      <c r="J99" s="9" t="inlineStr"/>
-      <c r="K99" s="9" t="inlineStr"/>
-      <c r="L99" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F99" s="1" t="inlineStr"/>
+      <c r="G99" s="1" t="inlineStr"/>
+      <c r="H99" s="1" t="inlineStr"/>
+      <c r="I99" s="1" t="inlineStr"/>
+      <c r="J99" s="1" t="inlineStr"/>
+      <c r="K99" s="1" t="inlineStr"/>
+      <c r="L99" s="1" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr"/>
@@ -3983,7 +3454,7 @@
       </c>
       <c r="F100" s="1" t="inlineStr"/>
       <c r="G100" s="1" t="inlineStr"/>
-      <c r="H100" s="25" t="inlineStr">
+      <c r="H100" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
@@ -4013,7 +3484,7 @@
       </c>
       <c r="C101" s="1" t="inlineStr"/>
       <c r="D101" s="1" t="inlineStr"/>
-      <c r="E101" s="26" t="inlineStr">
+      <c r="E101" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S United Traders)</t>
         </is>
@@ -4035,7 +3506,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E102" s="27" t="inlineStr">
+      <c r="E102" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4049,216 +3520,216 @@
       <c r="L102" s="1" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="17" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B103" s="18" t="inlineStr"/>
-      <c r="C103" s="19" t="inlineStr">
+      <c r="A103" s="12" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B103" s="13" t="inlineStr"/>
+      <c r="C103" s="14" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D103" s="17" t="inlineStr">
+      <c r="D103" s="12" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E103" s="20" t="inlineStr">
+      <c r="E103" s="15" t="inlineStr">
         <is>
           <t>Dhaka Bank-STD-2051501833-CIL</t>
         </is>
       </c>
-      <c r="F103" s="17" t="inlineStr"/>
-      <c r="G103" s="17" t="inlineStr"/>
-      <c r="H103" s="21" t="inlineStr">
+      <c r="F103" s="12" t="inlineStr"/>
+      <c r="G103" s="12" t="inlineStr"/>
+      <c r="H103" s="16" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I103" s="17" t="inlineStr">
+      <c r="I103" s="12" t="inlineStr">
         <is>
           <t>939</t>
         </is>
       </c>
-      <c r="J103" s="17" t="inlineStr"/>
-      <c r="K103" s="22" t="inlineStr">
+      <c r="J103" s="12" t="inlineStr"/>
+      <c r="K103" s="17" t="inlineStr">
         <is>
           <t>12000000</t>
         </is>
       </c>
-      <c r="L103" s="17" t="inlineStr">
+      <c r="L103" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="17" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B104" s="18" t="inlineStr">
+      <c r="A104" s="12" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B104" s="13" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 12000000.00
 Borrower Amount: 12000000.00</t>
         </is>
       </c>
-      <c r="C104" s="17" t="inlineStr"/>
-      <c r="D104" s="17" t="inlineStr"/>
-      <c r="E104" s="23" t="inlineStr">
+      <c r="C104" s="12" t="inlineStr"/>
+      <c r="D104" s="12" t="inlineStr"/>
+      <c r="E104" s="18" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F104" s="17" t="inlineStr"/>
-      <c r="G104" s="17" t="inlineStr"/>
-      <c r="H104" s="17" t="inlineStr"/>
-      <c r="I104" s="17" t="inlineStr"/>
-      <c r="J104" s="17" t="inlineStr"/>
-      <c r="K104" s="17" t="inlineStr"/>
-      <c r="L104" s="17" t="inlineStr">
+      <c r="F104" s="12" t="inlineStr"/>
+      <c r="G104" s="12" t="inlineStr"/>
+      <c r="H104" s="12" t="inlineStr"/>
+      <c r="I104" s="12" t="inlineStr"/>
+      <c r="J104" s="12" t="inlineStr"/>
+      <c r="K104" s="12" t="inlineStr"/>
+      <c r="L104" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="17" t="inlineStr">
-        <is>
-          <t>M018</t>
-        </is>
-      </c>
-      <c r="B105" s="18" t="inlineStr"/>
-      <c r="C105" s="17" t="inlineStr"/>
-      <c r="D105" s="17" t="inlineStr">
+      <c r="A105" s="12" t="inlineStr">
+        <is>
+          <t>M011</t>
+        </is>
+      </c>
+      <c r="B105" s="13" t="inlineStr"/>
+      <c r="C105" s="12" t="inlineStr"/>
+      <c r="D105" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E105" s="24" t="inlineStr">
+      <c r="E105" s="19" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F105" s="17" t="inlineStr"/>
-      <c r="G105" s="17" t="inlineStr"/>
-      <c r="H105" s="17" t="inlineStr"/>
-      <c r="I105" s="17" t="inlineStr"/>
-      <c r="J105" s="17" t="inlineStr"/>
-      <c r="K105" s="17" t="inlineStr"/>
-      <c r="L105" s="17" t="inlineStr">
+      <c r="F105" s="12" t="inlineStr"/>
+      <c r="G105" s="12" t="inlineStr"/>
+      <c r="H105" s="12" t="inlineStr"/>
+      <c r="I105" s="12" t="inlineStr"/>
+      <c r="J105" s="12" t="inlineStr"/>
+      <c r="K105" s="12" t="inlineStr"/>
+      <c r="L105" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B106" s="10" t="inlineStr"/>
-      <c r="C106" s="11" t="inlineStr">
+      <c r="A106" s="20" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B106" s="21" t="inlineStr"/>
+      <c r="C106" s="22" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D106" s="9" t="inlineStr">
+      <c r="D106" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E106" s="12" t="inlineStr">
+      <c r="E106" s="23" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F106" s="9" t="inlineStr"/>
-      <c r="G106" s="9" t="inlineStr"/>
-      <c r="H106" s="13" t="inlineStr">
+      <c r="F106" s="20" t="inlineStr"/>
+      <c r="G106" s="20" t="inlineStr"/>
+      <c r="H106" s="24" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I106" s="9" t="inlineStr">
+      <c r="I106" s="20" t="inlineStr">
         <is>
           <t>940</t>
         </is>
       </c>
-      <c r="J106" s="9" t="inlineStr"/>
-      <c r="K106" s="14" t="inlineStr">
+      <c r="J106" s="20" t="inlineStr"/>
+      <c r="K106" s="25" t="inlineStr">
         <is>
           <t>22000000</t>
         </is>
       </c>
-      <c r="L106" s="9" t="inlineStr">
+      <c r="L106" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="9" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B107" s="10" t="inlineStr">
+      <c r="A107" s="20" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B107" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 22000000.00
 Borrower Amount: 22000000.00</t>
         </is>
       </c>
-      <c r="C107" s="9" t="inlineStr"/>
-      <c r="D107" s="9" t="inlineStr"/>
-      <c r="E107" s="15" t="inlineStr">
+      <c r="C107" s="20" t="inlineStr"/>
+      <c r="D107" s="20" t="inlineStr"/>
+      <c r="E107" s="26" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F107" s="9" t="inlineStr"/>
-      <c r="G107" s="9" t="inlineStr"/>
-      <c r="H107" s="9" t="inlineStr"/>
-      <c r="I107" s="9" t="inlineStr"/>
-      <c r="J107" s="9" t="inlineStr"/>
-      <c r="K107" s="9" t="inlineStr"/>
-      <c r="L107" s="9" t="inlineStr">
+      <c r="F107" s="20" t="inlineStr"/>
+      <c r="G107" s="20" t="inlineStr"/>
+      <c r="H107" s="20" t="inlineStr"/>
+      <c r="I107" s="20" t="inlineStr"/>
+      <c r="J107" s="20" t="inlineStr"/>
+      <c r="K107" s="20" t="inlineStr"/>
+      <c r="L107" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="9" t="inlineStr">
-        <is>
-          <t>M019</t>
-        </is>
-      </c>
-      <c r="B108" s="10" t="inlineStr"/>
-      <c r="C108" s="9" t="inlineStr"/>
-      <c r="D108" s="9" t="inlineStr">
+      <c r="A108" s="20" t="inlineStr">
+        <is>
+          <t>M012</t>
+        </is>
+      </c>
+      <c r="B108" s="21" t="inlineStr"/>
+      <c r="C108" s="20" t="inlineStr"/>
+      <c r="D108" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E108" s="16" t="inlineStr">
+      <c r="E108" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F108" s="9" t="inlineStr"/>
-      <c r="G108" s="9" t="inlineStr"/>
-      <c r="H108" s="9" t="inlineStr"/>
-      <c r="I108" s="9" t="inlineStr"/>
-      <c r="J108" s="9" t="inlineStr"/>
-      <c r="K108" s="9" t="inlineStr"/>
-      <c r="L108" s="9" t="inlineStr">
+      <c r="F108" s="20" t="inlineStr"/>
+      <c r="G108" s="20" t="inlineStr"/>
+      <c r="H108" s="20" t="inlineStr"/>
+      <c r="I108" s="20" t="inlineStr"/>
+      <c r="J108" s="20" t="inlineStr"/>
+      <c r="K108" s="20" t="inlineStr"/>
+      <c r="L108" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
@@ -4284,7 +3755,7 @@
       </c>
       <c r="F109" s="1" t="inlineStr"/>
       <c r="G109" s="1" t="inlineStr"/>
-      <c r="H109" s="25" t="inlineStr">
+      <c r="H109" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
@@ -4311,7 +3782,7 @@
       </c>
       <c r="C110" s="1" t="inlineStr"/>
       <c r="D110" s="1" t="inlineStr"/>
-      <c r="E110" s="26" t="inlineStr">
+      <c r="E110" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Pragati Life Insurance Limited)</t>
         </is>
@@ -4333,7 +3804,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E111" s="27" t="inlineStr">
+      <c r="E111" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4366,7 +3837,7 @@
       </c>
       <c r="F112" s="1" t="inlineStr"/>
       <c r="G112" s="1" t="inlineStr"/>
-      <c r="H112" s="25" t="inlineStr">
+      <c r="H112" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
@@ -4393,7 +3864,7 @@
       </c>
       <c r="C113" s="1" t="inlineStr"/>
       <c r="D113" s="1" t="inlineStr"/>
-      <c r="E113" s="26" t="inlineStr">
+      <c r="E113" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(ARK Fire Fighting Manufacture Co.)</t>
         </is>
@@ -4415,7 +3886,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E114" s="27" t="inlineStr">
+      <c r="E114" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4448,7 +3919,7 @@
       </c>
       <c r="F115" s="1" t="inlineStr"/>
       <c r="G115" s="1" t="inlineStr"/>
-      <c r="H115" s="25" t="inlineStr">
+      <c r="H115" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
@@ -4475,7 +3946,7 @@
       </c>
       <c r="C116" s="1" t="inlineStr"/>
       <c r="D116" s="1" t="inlineStr"/>
-      <c r="E116" s="26" t="inlineStr">
+      <c r="E116" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Rangpur Metal Industries Ltd.)</t>
         </is>
@@ -4497,7 +3968,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E117" s="27" t="inlineStr">
+      <c r="E117" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4530,7 +4001,7 @@
       </c>
       <c r="F118" s="1" t="inlineStr"/>
       <c r="G118" s="1" t="inlineStr"/>
-      <c r="H118" s="25" t="inlineStr">
+      <c r="H118" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
@@ -4557,7 +4028,7 @@
       </c>
       <c r="C119" s="1" t="inlineStr"/>
       <c r="D119" s="1" t="inlineStr"/>
-      <c r="E119" s="26" t="inlineStr">
+      <c r="E119" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Rangpur Metal Industries Ltd.)</t>
         </is>
@@ -4579,7 +4050,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E120" s="27" t="inlineStr">
+      <c r="E120" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4612,7 +4083,7 @@
       </c>
       <c r="F121" s="1" t="inlineStr"/>
       <c r="G121" s="1" t="inlineStr"/>
-      <c r="H121" s="25" t="inlineStr">
+      <c r="H121" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
@@ -4639,7 +4110,7 @@
       </c>
       <c r="C122" s="1" t="inlineStr"/>
       <c r="D122" s="1" t="inlineStr"/>
-      <c r="E122" s="26" t="inlineStr">
+      <c r="E122" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Wintel Limited)</t>
         </is>
@@ -4661,7 +4132,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E123" s="27" t="inlineStr">
+      <c r="E123" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4694,7 +4165,7 @@
       </c>
       <c r="F124" s="1" t="inlineStr"/>
       <c r="G124" s="1" t="inlineStr"/>
-      <c r="H124" s="25" t="inlineStr">
+      <c r="H124" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
@@ -4724,7 +4195,7 @@
       </c>
       <c r="C125" s="1" t="inlineStr"/>
       <c r="D125" s="1" t="inlineStr"/>
-      <c r="E125" s="26" t="inlineStr">
+      <c r="E125" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(A.B.M Anas Engineering)</t>
         </is>
@@ -4746,7 +4217,7 @@
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E126" s="27" t="inlineStr">
+      <c r="E126" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
@@ -4760,1774 +4231,1653 @@
       <c r="L126" s="1" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" s="17" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B127" s="18" t="inlineStr"/>
-      <c r="C127" s="19" t="inlineStr">
+      <c r="A127" s="1" t="inlineStr"/>
+      <c r="B127" s="2" t="inlineStr"/>
+      <c r="C127" s="6" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D127" s="17" t="inlineStr">
+      <c r="D127" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E127" s="20" t="inlineStr">
+      <c r="E127" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F127" s="17" t="inlineStr"/>
-      <c r="G127" s="17" t="inlineStr"/>
-      <c r="H127" s="21" t="inlineStr">
+      <c r="F127" s="1" t="inlineStr"/>
+      <c r="G127" s="1" t="inlineStr"/>
+      <c r="H127" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I127" s="17" t="inlineStr">
+      <c r="I127" s="1" t="inlineStr">
         <is>
           <t>70720</t>
         </is>
       </c>
-      <c r="J127" s="22" t="inlineStr">
+      <c r="J127" s="8" t="inlineStr">
         <is>
           <t>36900</t>
         </is>
       </c>
-      <c r="K127" s="17" t="inlineStr"/>
-      <c r="L127" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K127" s="1" t="inlineStr"/>
+      <c r="L127" s="1" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" s="17" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B128" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 36900.00
-Borrower Amount: 36900.00</t>
-        </is>
-      </c>
-      <c r="C128" s="17" t="inlineStr"/>
-      <c r="D128" s="17" t="inlineStr"/>
-      <c r="E128" s="23" t="inlineStr">
+      <c r="A128" s="1" t="inlineStr"/>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C128" s="1" t="inlineStr"/>
+      <c r="D128" s="1" t="inlineStr"/>
+      <c r="E128" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(A.B.M Anas Engineering)</t>
         </is>
       </c>
-      <c r="F128" s="17" t="inlineStr"/>
-      <c r="G128" s="17" t="inlineStr"/>
-      <c r="H128" s="17" t="inlineStr"/>
-      <c r="I128" s="17" t="inlineStr"/>
-      <c r="J128" s="17" t="inlineStr"/>
-      <c r="K128" s="17" t="inlineStr"/>
-      <c r="L128" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F128" s="1" t="inlineStr"/>
+      <c r="G128" s="1" t="inlineStr"/>
+      <c r="H128" s="1" t="inlineStr"/>
+      <c r="I128" s="1" t="inlineStr"/>
+      <c r="J128" s="1" t="inlineStr"/>
+      <c r="K128" s="1" t="inlineStr"/>
+      <c r="L128" s="1" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" s="17" t="inlineStr">
-        <is>
-          <t>M053</t>
-        </is>
-      </c>
-      <c r="B129" s="18" t="inlineStr"/>
-      <c r="C129" s="17" t="inlineStr"/>
-      <c r="D129" s="17" t="inlineStr">
+      <c r="A129" s="1" t="inlineStr"/>
+      <c r="B129" s="2" t="inlineStr"/>
+      <c r="C129" s="1" t="inlineStr"/>
+      <c r="D129" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E129" s="24" t="inlineStr">
+      <c r="E129" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F129" s="17" t="inlineStr"/>
-      <c r="G129" s="17" t="inlineStr"/>
-      <c r="H129" s="17" t="inlineStr"/>
-      <c r="I129" s="17" t="inlineStr"/>
-      <c r="J129" s="17" t="inlineStr"/>
-      <c r="K129" s="17" t="inlineStr"/>
-      <c r="L129" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F129" s="1" t="inlineStr"/>
+      <c r="G129" s="1" t="inlineStr"/>
+      <c r="H129" s="1" t="inlineStr"/>
+      <c r="I129" s="1" t="inlineStr"/>
+      <c r="J129" s="1" t="inlineStr"/>
+      <c r="K129" s="1" t="inlineStr"/>
+      <c r="L129" s="1" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" s="9" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B130" s="10" t="inlineStr"/>
-      <c r="C130" s="11" t="inlineStr">
+      <c r="A130" s="1" t="inlineStr"/>
+      <c r="B130" s="2" t="inlineStr"/>
+      <c r="C130" s="6" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D130" s="9" t="inlineStr">
+      <c r="D130" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E130" s="12" t="inlineStr">
+      <c r="E130" s="7" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-(Hypo)-2411000001105</t>
         </is>
       </c>
-      <c r="F130" s="9" t="inlineStr"/>
-      <c r="G130" s="9" t="inlineStr"/>
-      <c r="H130" s="13" t="inlineStr">
+      <c r="F130" s="1" t="inlineStr"/>
+      <c r="G130" s="1" t="inlineStr"/>
+      <c r="H130" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I130" s="9" t="inlineStr">
+      <c r="I130" s="1" t="inlineStr">
         <is>
           <t>70688</t>
         </is>
       </c>
-      <c r="J130" s="14" t="inlineStr">
+      <c r="J130" s="8" t="inlineStr">
         <is>
           <t>1531483</t>
         </is>
       </c>
-      <c r="K130" s="9" t="inlineStr"/>
-      <c r="L130" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K130" s="1" t="inlineStr"/>
+      <c r="L130" s="1" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" s="9" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B131" s="10" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 1531483.00
-Borrower Amount: 1531483.00</t>
-        </is>
-      </c>
-      <c r="C131" s="9" t="inlineStr"/>
-      <c r="D131" s="9" t="inlineStr"/>
-      <c r="E131" s="15" t="inlineStr">
+      <c r="A131" s="1" t="inlineStr"/>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 1 block
+2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
+        </is>
+      </c>
+      <c r="C131" s="1" t="inlineStr"/>
+      <c r="D131" s="1" t="inlineStr"/>
+      <c r="E131" s="10" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Sadharan Bima Corporation)</t>
         </is>
       </c>
-      <c r="F131" s="9" t="inlineStr"/>
-      <c r="G131" s="9" t="inlineStr"/>
-      <c r="H131" s="9" t="inlineStr"/>
-      <c r="I131" s="9" t="inlineStr"/>
-      <c r="J131" s="9" t="inlineStr"/>
-      <c r="K131" s="9" t="inlineStr"/>
-      <c r="L131" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F131" s="1" t="inlineStr"/>
+      <c r="G131" s="1" t="inlineStr"/>
+      <c r="H131" s="1" t="inlineStr"/>
+      <c r="I131" s="1" t="inlineStr"/>
+      <c r="J131" s="1" t="inlineStr"/>
+      <c r="K131" s="1" t="inlineStr"/>
+      <c r="L131" s="1" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="9" t="inlineStr">
-        <is>
-          <t>M054</t>
-        </is>
-      </c>
-      <c r="B132" s="10" t="inlineStr"/>
-      <c r="C132" s="9" t="inlineStr"/>
-      <c r="D132" s="9" t="inlineStr">
+      <c r="A132" s="1" t="inlineStr"/>
+      <c r="B132" s="2" t="inlineStr"/>
+      <c r="C132" s="1" t="inlineStr"/>
+      <c r="D132" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E132" s="16" t="inlineStr">
+      <c r="E132" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F132" s="9" t="inlineStr"/>
-      <c r="G132" s="9" t="inlineStr"/>
-      <c r="H132" s="9" t="inlineStr"/>
-      <c r="I132" s="9" t="inlineStr"/>
-      <c r="J132" s="9" t="inlineStr"/>
-      <c r="K132" s="9" t="inlineStr"/>
-      <c r="L132" s="9" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F132" s="1" t="inlineStr"/>
+      <c r="G132" s="1" t="inlineStr"/>
+      <c r="H132" s="1" t="inlineStr"/>
+      <c r="I132" s="1" t="inlineStr"/>
+      <c r="J132" s="1" t="inlineStr"/>
+      <c r="K132" s="1" t="inlineStr"/>
+      <c r="L132" s="1" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" s="17" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B133" s="18" t="inlineStr"/>
-      <c r="C133" s="19" t="inlineStr">
+      <c r="A133" s="1" t="inlineStr"/>
+      <c r="B133" s="2" t="inlineStr"/>
+      <c r="C133" s="6" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D133" s="17" t="inlineStr">
+      <c r="D133" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E133" s="20" t="inlineStr">
+      <c r="E133" s="7" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-(Hypo)-2411000001105</t>
         </is>
       </c>
-      <c r="F133" s="17" t="inlineStr"/>
-      <c r="G133" s="17" t="inlineStr"/>
-      <c r="H133" s="21" t="inlineStr">
+      <c r="F133" s="1" t="inlineStr"/>
+      <c r="G133" s="1" t="inlineStr"/>
+      <c r="H133" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I133" s="17" t="inlineStr">
+      <c r="I133" s="1" t="inlineStr">
         <is>
           <t>70689</t>
         </is>
       </c>
-      <c r="J133" s="22" t="inlineStr">
+      <c r="J133" s="8" t="inlineStr">
         <is>
           <t>589625</t>
         </is>
       </c>
-      <c r="K133" s="17" t="inlineStr"/>
-      <c r="L133" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K133" s="1" t="inlineStr"/>
+      <c r="L133" s="1" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" s="17" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B134" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 589625.00
-Borrower Amount: 589625.00</t>
-        </is>
-      </c>
-      <c r="C134" s="17" t="inlineStr"/>
-      <c r="D134" s="17" t="inlineStr"/>
-      <c r="E134" s="23" t="inlineStr">
+      <c r="A134" s="1" t="inlineStr"/>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 1 block</t>
+        </is>
+      </c>
+      <c r="C134" s="1" t="inlineStr"/>
+      <c r="D134" s="1" t="inlineStr"/>
+      <c r="E134" s="10" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Narayanganj Palli Biddyut Samity-1)</t>
         </is>
       </c>
-      <c r="F134" s="17" t="inlineStr"/>
-      <c r="G134" s="17" t="inlineStr"/>
-      <c r="H134" s="17" t="inlineStr"/>
-      <c r="I134" s="17" t="inlineStr"/>
-      <c r="J134" s="17" t="inlineStr"/>
-      <c r="K134" s="17" t="inlineStr"/>
-      <c r="L134" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F134" s="1" t="inlineStr"/>
+      <c r="G134" s="1" t="inlineStr"/>
+      <c r="H134" s="1" t="inlineStr"/>
+      <c r="I134" s="1" t="inlineStr"/>
+      <c r="J134" s="1" t="inlineStr"/>
+      <c r="K134" s="1" t="inlineStr"/>
+      <c r="L134" s="1" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="17" t="inlineStr">
-        <is>
-          <t>M055</t>
-        </is>
-      </c>
-      <c r="B135" s="18" t="inlineStr"/>
-      <c r="C135" s="17" t="inlineStr"/>
-      <c r="D135" s="17" t="inlineStr">
+      <c r="A135" s="1" t="inlineStr"/>
+      <c r="B135" s="2" t="inlineStr"/>
+      <c r="C135" s="1" t="inlineStr"/>
+      <c r="D135" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E135" s="24" t="inlineStr">
+      <c r="E135" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F135" s="17" t="inlineStr"/>
-      <c r="G135" s="17" t="inlineStr"/>
-      <c r="H135" s="17" t="inlineStr"/>
-      <c r="I135" s="17" t="inlineStr"/>
-      <c r="J135" s="17" t="inlineStr"/>
-      <c r="K135" s="17" t="inlineStr"/>
-      <c r="L135" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F135" s="1" t="inlineStr"/>
+      <c r="G135" s="1" t="inlineStr"/>
+      <c r="H135" s="1" t="inlineStr"/>
+      <c r="I135" s="1" t="inlineStr"/>
+      <c r="J135" s="1" t="inlineStr"/>
+      <c r="K135" s="1" t="inlineStr"/>
+      <c r="L135" s="1" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="9" t="inlineStr">
+      <c r="A136" s="12" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B136" s="13" t="inlineStr"/>
+      <c r="C136" s="14" t="inlineStr">
+        <is>
+          <t>21/Jun/2025</t>
+        </is>
+      </c>
+      <c r="D136" s="12" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="E136" s="15" t="inlineStr">
+        <is>
+          <t>(as per details)</t>
+        </is>
+      </c>
+      <c r="F136" s="12" t="inlineStr"/>
+      <c r="G136" s="12" t="inlineStr"/>
+      <c r="H136" s="16" t="inlineStr">
+        <is>
+          <t>Journal</t>
+        </is>
+      </c>
+      <c r="I136" s="12" t="inlineStr">
+        <is>
+          <t>3538</t>
+        </is>
+      </c>
+      <c r="J136" s="17" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
+      <c r="K136" s="12" t="inlineStr"/>
+      <c r="L136" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="12" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B137" s="13" t="inlineStr"/>
+      <c r="C137" s="12" t="inlineStr"/>
+      <c r="D137" s="12" t="inlineStr"/>
+      <c r="E137" s="15" t="inlineStr">
+        <is>
+          <t>Inter Unit Loan A/C-Pole Unit</t>
+        </is>
+      </c>
+      <c r="F137" s="12" t="inlineStr"/>
+      <c r="G137" s="12" t="inlineStr"/>
+      <c r="H137" s="12" t="inlineStr"/>
+      <c r="I137" s="12" t="inlineStr"/>
+      <c r="J137" s="17" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
+      <c r="K137" s="12" t="inlineStr"/>
+      <c r="L137" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="12" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B138" s="13" t="inlineStr"/>
+      <c r="C138" s="12" t="inlineStr"/>
+      <c r="D138" s="12" t="inlineStr"/>
+      <c r="E138" s="15" t="inlineStr">
+        <is>
+          <t>Adv-Odoo Bangladesh</t>
+        </is>
+      </c>
+      <c r="F138" s="12" t="inlineStr"/>
+      <c r="G138" s="12" t="inlineStr"/>
+      <c r="H138" s="12" t="inlineStr"/>
+      <c r="I138" s="12" t="inlineStr"/>
+      <c r="J138" s="12" t="inlineStr"/>
+      <c r="K138" s="17" t="inlineStr">
+        <is>
+          <t>400000</t>
+        </is>
+      </c>
+      <c r="L138" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="12" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B139" s="13" t="inlineStr">
+        <is>
+          <t>Narration Match
+Lender Amount: 0.00
+Borrower Amount: 0.00</t>
+        </is>
+      </c>
+      <c r="C139" s="12" t="inlineStr"/>
+      <c r="D139" s="12" t="inlineStr"/>
+      <c r="E139" s="18" t="inlineStr">
+        <is>
+          <t>Advance Chq no-8163057.  paid to Odoo Bangladesh agt ERP Emplemention. Ref no-IT/2014/11/008. from CIL Steel unit but 50% bill Tk.2,00,000 recorded in CIL-Trancformer and CIL-Pole Tk.2,00,000 So, Now made voucher as interunit loan.</t>
+        </is>
+      </c>
+      <c r="F139" s="12" t="inlineStr"/>
+      <c r="G139" s="12" t="inlineStr"/>
+      <c r="H139" s="12" t="inlineStr"/>
+      <c r="I139" s="12" t="inlineStr"/>
+      <c r="J139" s="12" t="inlineStr"/>
+      <c r="K139" s="12" t="inlineStr"/>
+      <c r="L139" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="12" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B140" s="13" t="inlineStr"/>
+      <c r="C140" s="12" t="inlineStr"/>
+      <c r="D140" s="12" t="inlineStr">
+        <is>
+          <t>Entered By :</t>
+        </is>
+      </c>
+      <c r="E140" s="19" t="inlineStr">
+        <is>
+          <t>ziaul</t>
+        </is>
+      </c>
+      <c r="F140" s="12" t="inlineStr"/>
+      <c r="G140" s="12" t="inlineStr"/>
+      <c r="H140" s="12" t="inlineStr"/>
+      <c r="I140" s="12" t="inlineStr"/>
+      <c r="J140" s="12" t="inlineStr"/>
+      <c r="K140" s="12" t="inlineStr"/>
+      <c r="L140" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="20" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B136" s="10" t="inlineStr"/>
-      <c r="C136" s="11" t="inlineStr">
-        <is>
-          <t>21/Jun/2025</t>
-        </is>
-      </c>
-      <c r="D136" s="9" t="inlineStr">
+      <c r="B141" s="21" t="inlineStr"/>
+      <c r="C141" s="22" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
+      </c>
+      <c r="D141" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E136" s="12" t="inlineStr">
-        <is>
-          <t>(as per details)</t>
-        </is>
-      </c>
-      <c r="F136" s="9" t="inlineStr"/>
-      <c r="G136" s="9" t="inlineStr"/>
-      <c r="H136" s="13" t="inlineStr">
-        <is>
-          <t>Journal</t>
-        </is>
-      </c>
-      <c r="I136" s="9" t="inlineStr">
-        <is>
-          <t>3538</t>
-        </is>
-      </c>
-      <c r="J136" s="14" t="inlineStr">
-        <is>
-          <t>200000</t>
-        </is>
-      </c>
-      <c r="K136" s="9" t="inlineStr"/>
-      <c r="L136" s="9" t="inlineStr">
+      <c r="E141" s="23" t="inlineStr">
+        <is>
+          <t>Midland-CE-0011-1060000331-CI</t>
+        </is>
+      </c>
+      <c r="F141" s="20" t="inlineStr"/>
+      <c r="G141" s="20" t="inlineStr"/>
+      <c r="H141" s="24" t="inlineStr">
+        <is>
+          <t>Bank Payment</t>
+        </is>
+      </c>
+      <c r="I141" s="20" t="inlineStr">
+        <is>
+          <t>70482</t>
+        </is>
+      </c>
+      <c r="J141" s="25" t="inlineStr">
+        <is>
+          <t>85000</t>
+        </is>
+      </c>
+      <c r="K141" s="20" t="inlineStr"/>
+      <c r="L141" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="9" t="inlineStr">
+    <row r="142">
+      <c r="A142" s="20" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B137" s="10" t="inlineStr"/>
-      <c r="C137" s="9" t="inlineStr"/>
-      <c r="D137" s="9" t="inlineStr"/>
-      <c r="E137" s="12" t="inlineStr">
-        <is>
-          <t>Inter Unit Loan A/C-Pole Unit</t>
-        </is>
-      </c>
-      <c r="F137" s="9" t="inlineStr"/>
-      <c r="G137" s="9" t="inlineStr"/>
-      <c r="H137" s="9" t="inlineStr"/>
-      <c r="I137" s="9" t="inlineStr"/>
-      <c r="J137" s="14" t="inlineStr">
-        <is>
-          <t>200000</t>
-        </is>
-      </c>
-      <c r="K137" s="9" t="inlineStr"/>
-      <c r="L137" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="9" t="inlineStr">
-        <is>
-          <t>M005</t>
-        </is>
-      </c>
-      <c r="B138" s="10" t="inlineStr"/>
-      <c r="C138" s="9" t="inlineStr"/>
-      <c r="D138" s="9" t="inlineStr"/>
-      <c r="E138" s="12" t="inlineStr">
-        <is>
-          <t>Adv-Odoo Bangladesh</t>
-        </is>
-      </c>
-      <c r="F138" s="9" t="inlineStr"/>
-      <c r="G138" s="9" t="inlineStr"/>
-      <c r="H138" s="9" t="inlineStr"/>
-      <c r="I138" s="9" t="inlineStr"/>
-      <c r="J138" s="9" t="inlineStr"/>
-      <c r="K138" s="14" t="inlineStr">
-        <is>
-          <t>400000</t>
-        </is>
-      </c>
-      <c r="L138" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="9" t="inlineStr">
-        <is>
-          <t>M005</t>
-        </is>
-      </c>
-      <c r="B139" s="10" t="inlineStr">
-        <is>
-          <t>Narration Match
-Lender Amount: 200000.00
-Borrower Amount: 200000.00</t>
-        </is>
-      </c>
-      <c r="C139" s="9" t="inlineStr"/>
-      <c r="D139" s="9" t="inlineStr"/>
-      <c r="E139" s="15" t="inlineStr">
-        <is>
-          <t>Advance Chq no-8163057.  paid to Odoo Bangladesh agt ERP Emplemention. Ref no-IT/2014/11/008. from CIL Steel unit but 50% bill Tk.2,00,000 recorded in CIL-Trancformer and CIL-Pole Tk.2,00,000 So, Now made voucher as interunit loan.</t>
-        </is>
-      </c>
-      <c r="F139" s="9" t="inlineStr"/>
-      <c r="G139" s="9" t="inlineStr"/>
-      <c r="H139" s="9" t="inlineStr"/>
-      <c r="I139" s="9" t="inlineStr"/>
-      <c r="J139" s="9" t="inlineStr"/>
-      <c r="K139" s="9" t="inlineStr"/>
-      <c r="L139" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="9" t="inlineStr">
-        <is>
-          <t>M005</t>
-        </is>
-      </c>
-      <c r="B140" s="10" t="inlineStr"/>
-      <c r="C140" s="9" t="inlineStr"/>
-      <c r="D140" s="9" t="inlineStr">
-        <is>
-          <t>Entered By :</t>
-        </is>
-      </c>
-      <c r="E140" s="16" t="inlineStr">
-        <is>
-          <t>ziaul</t>
-        </is>
-      </c>
-      <c r="F140" s="9" t="inlineStr"/>
-      <c r="G140" s="9" t="inlineStr"/>
-      <c r="H140" s="9" t="inlineStr"/>
-      <c r="I140" s="9" t="inlineStr"/>
-      <c r="J140" s="9" t="inlineStr"/>
-      <c r="K140" s="9" t="inlineStr"/>
-      <c r="L140" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="17" t="inlineStr">
-        <is>
-          <t>M007</t>
-        </is>
-      </c>
-      <c r="B141" s="18" t="inlineStr"/>
-      <c r="C141" s="19" t="inlineStr">
-        <is>
-          <t>23/Jun/2025</t>
-        </is>
-      </c>
-      <c r="D141" s="17" t="inlineStr">
-        <is>
-          <t>Cr</t>
-        </is>
-      </c>
-      <c r="E141" s="20" t="inlineStr">
-        <is>
-          <t>Midland-CE-0011-1060000331-CI</t>
-        </is>
-      </c>
-      <c r="F141" s="17" t="inlineStr"/>
-      <c r="G141" s="17" t="inlineStr"/>
-      <c r="H141" s="21" t="inlineStr">
-        <is>
-          <t>Bank Payment</t>
-        </is>
-      </c>
-      <c r="I141" s="17" t="inlineStr">
-        <is>
-          <t>70482</t>
-        </is>
-      </c>
-      <c r="J141" s="22" t="inlineStr">
-        <is>
-          <t>85000</t>
-        </is>
-      </c>
-      <c r="K141" s="17" t="inlineStr"/>
-      <c r="L141" s="17" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="17" t="inlineStr">
-        <is>
-          <t>M007</t>
-        </is>
-      </c>
-      <c r="B142" s="18" t="inlineStr">
+      <c r="B142" s="21" t="inlineStr">
         <is>
           <t>LC Match: LC-308524012043/24
 Lender Amount: 85000.00
 Borrower Amount: 85000.00</t>
         </is>
       </c>
-      <c r="C142" s="17" t="inlineStr"/>
-      <c r="D142" s="17" t="inlineStr"/>
-      <c r="E142" s="23" t="inlineStr">
+      <c r="C142" s="20" t="inlineStr"/>
+      <c r="D142" s="20" t="inlineStr"/>
+      <c r="E142" s="26" t="inlineStr">
         <is>
           <t>Amount being paid as Port,Shipping &amp; Carrying Charges agt LC-308524012043/24-Transformer Unit-[Item-OLTC-Project-PBSH-G-89-Team-A][C-1164524]</t>
         </is>
       </c>
-      <c r="F142" s="17" t="inlineStr"/>
-      <c r="G142" s="17" t="inlineStr"/>
-      <c r="H142" s="17" t="inlineStr"/>
-      <c r="I142" s="17" t="inlineStr"/>
-      <c r="J142" s="17" t="inlineStr"/>
-      <c r="K142" s="17" t="inlineStr"/>
-      <c r="L142" s="17" t="inlineStr">
+      <c r="F142" s="20" t="inlineStr"/>
+      <c r="G142" s="20" t="inlineStr"/>
+      <c r="H142" s="20" t="inlineStr"/>
+      <c r="I142" s="20" t="inlineStr"/>
+      <c r="J142" s="20" t="inlineStr"/>
+      <c r="K142" s="20" t="inlineStr"/>
+      <c r="L142" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="17" t="inlineStr">
+      <c r="A143" s="20" t="inlineStr">
+        <is>
+          <t>M005</t>
+        </is>
+      </c>
+      <c r="B143" s="21" t="inlineStr"/>
+      <c r="C143" s="20" t="inlineStr"/>
+      <c r="D143" s="20" t="inlineStr">
+        <is>
+          <t>Entered By :</t>
+        </is>
+      </c>
+      <c r="E143" s="27" t="inlineStr">
+        <is>
+          <t>shabbirul</t>
+        </is>
+      </c>
+      <c r="F143" s="20" t="inlineStr"/>
+      <c r="G143" s="20" t="inlineStr"/>
+      <c r="H143" s="20" t="inlineStr"/>
+      <c r="I143" s="20" t="inlineStr"/>
+      <c r="J143" s="20" t="inlineStr"/>
+      <c r="K143" s="20" t="inlineStr"/>
+      <c r="L143" s="20" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="12" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B143" s="18" t="inlineStr"/>
-      <c r="C143" s="17" t="inlineStr"/>
-      <c r="D143" s="17" t="inlineStr">
+      <c r="B144" s="13" t="inlineStr"/>
+      <c r="C144" s="14" t="inlineStr">
+        <is>
+          <t>23/Jun/2025</t>
+        </is>
+      </c>
+      <c r="D144" s="12" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="E144" s="15" t="inlineStr">
+        <is>
+          <t>Prime Bank-CD-2126117010855</t>
+        </is>
+      </c>
+      <c r="F144" s="12" t="inlineStr"/>
+      <c r="G144" s="12" t="inlineStr"/>
+      <c r="H144" s="16" t="inlineStr">
+        <is>
+          <t>Bank Payment</t>
+        </is>
+      </c>
+      <c r="I144" s="12" t="inlineStr">
+        <is>
+          <t>70541</t>
+        </is>
+      </c>
+      <c r="J144" s="17" t="inlineStr">
+        <is>
+          <t>272808.31</t>
+        </is>
+      </c>
+      <c r="K144" s="12" t="inlineStr"/>
+      <c r="L144" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="12" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B145" s="13" t="inlineStr">
+        <is>
+          <t>Narration Match
+Lender Amount: 0.00
+Borrower Amount: 0.00</t>
+        </is>
+      </c>
+      <c r="C145" s="12" t="inlineStr"/>
+      <c r="D145" s="12" t="inlineStr"/>
+      <c r="E145" s="18" t="inlineStr">
+        <is>
+          <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2435445106</t>
+        </is>
+      </c>
+      <c r="F145" s="12" t="inlineStr"/>
+      <c r="G145" s="12" t="inlineStr"/>
+      <c r="H145" s="12" t="inlineStr"/>
+      <c r="I145" s="12" t="inlineStr"/>
+      <c r="J145" s="12" t="inlineStr"/>
+      <c r="K145" s="12" t="inlineStr"/>
+      <c r="L145" s="12" t="inlineStr">
+        <is>
+          <t>Narration</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="12" t="inlineStr">
+        <is>
+          <t>M007</t>
+        </is>
+      </c>
+      <c r="B146" s="13" t="inlineStr"/>
+      <c r="C146" s="12" t="inlineStr"/>
+      <c r="D146" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E143" s="24" t="inlineStr">
+      <c r="E146" s="19" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F143" s="17" t="inlineStr"/>
-      <c r="G143" s="17" t="inlineStr"/>
-      <c r="H143" s="17" t="inlineStr"/>
-      <c r="I143" s="17" t="inlineStr"/>
-      <c r="J143" s="17" t="inlineStr"/>
-      <c r="K143" s="17" t="inlineStr"/>
-      <c r="L143" s="17" t="inlineStr">
+      <c r="F146" s="12" t="inlineStr"/>
+      <c r="G146" s="12" t="inlineStr"/>
+      <c r="H146" s="12" t="inlineStr"/>
+      <c r="I146" s="12" t="inlineStr"/>
+      <c r="J146" s="12" t="inlineStr"/>
+      <c r="K146" s="12" t="inlineStr"/>
+      <c r="L146" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="9" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B144" s="10" t="inlineStr"/>
-      <c r="C144" s="11" t="inlineStr">
+    <row r="147">
+      <c r="A147" s="20" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B147" s="21" t="inlineStr"/>
+      <c r="C147" s="22" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D144" s="9" t="inlineStr">
+      <c r="D147" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E144" s="12" t="inlineStr">
+      <c r="E147" s="23" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F144" s="9" t="inlineStr"/>
-      <c r="G144" s="9" t="inlineStr"/>
-      <c r="H144" s="13" t="inlineStr">
+      <c r="F147" s="20" t="inlineStr"/>
+      <c r="G147" s="20" t="inlineStr"/>
+      <c r="H147" s="24" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I144" s="9" t="inlineStr">
-        <is>
-          <t>70541</t>
-        </is>
-      </c>
-      <c r="J144" s="14" t="inlineStr">
-        <is>
-          <t>272808.31</t>
-        </is>
-      </c>
-      <c r="K144" s="9" t="inlineStr"/>
-      <c r="L144" s="9" t="inlineStr">
+      <c r="I147" s="20" t="inlineStr">
+        <is>
+          <t>70548</t>
+        </is>
+      </c>
+      <c r="J147" s="25" t="inlineStr">
+        <is>
+          <t>133619.23</t>
+        </is>
+      </c>
+      <c r="K147" s="20" t="inlineStr"/>
+      <c r="L147" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="9" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B145" s="10" t="inlineStr">
+    <row r="148">
+      <c r="A148" s="20" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B148" s="21" t="inlineStr">
         <is>
           <t>Narration Match
-Lender Amount: 272808.31
-Borrower Amount: 272808.31</t>
-        </is>
-      </c>
-      <c r="C145" s="9" t="inlineStr"/>
-      <c r="D145" s="9" t="inlineStr"/>
-      <c r="E145" s="15" t="inlineStr">
-        <is>
-          <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2435445106</t>
-        </is>
-      </c>
-      <c r="F145" s="9" t="inlineStr"/>
-      <c r="G145" s="9" t="inlineStr"/>
-      <c r="H145" s="9" t="inlineStr"/>
-      <c r="I145" s="9" t="inlineStr"/>
-      <c r="J145" s="9" t="inlineStr"/>
-      <c r="K145" s="9" t="inlineStr"/>
-      <c r="L145" s="9" t="inlineStr">
+Lender Amount: 0.00
+Borrower Amount: 0.00</t>
+        </is>
+      </c>
+      <c r="C148" s="20" t="inlineStr"/>
+      <c r="D148" s="20" t="inlineStr"/>
+      <c r="E148" s="26" t="inlineStr">
+        <is>
+          <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2503002237</t>
+        </is>
+      </c>
+      <c r="F148" s="20" t="inlineStr"/>
+      <c r="G148" s="20" t="inlineStr"/>
+      <c r="H148" s="20" t="inlineStr"/>
+      <c r="I148" s="20" t="inlineStr"/>
+      <c r="J148" s="20" t="inlineStr"/>
+      <c r="K148" s="20" t="inlineStr"/>
+      <c r="L148" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="9" t="inlineStr">
-        <is>
-          <t>M009</t>
-        </is>
-      </c>
-      <c r="B146" s="10" t="inlineStr"/>
-      <c r="C146" s="9" t="inlineStr"/>
-      <c r="D146" s="9" t="inlineStr">
+    <row r="149">
+      <c r="A149" s="20" t="inlineStr">
+        <is>
+          <t>M002</t>
+        </is>
+      </c>
+      <c r="B149" s="21" t="inlineStr"/>
+      <c r="C149" s="20" t="inlineStr"/>
+      <c r="D149" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E146" s="16" t="inlineStr">
+      <c r="E149" s="27" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F146" s="9" t="inlineStr"/>
-      <c r="G146" s="9" t="inlineStr"/>
-      <c r="H146" s="9" t="inlineStr"/>
-      <c r="I146" s="9" t="inlineStr"/>
-      <c r="J146" s="9" t="inlineStr"/>
-      <c r="K146" s="9" t="inlineStr"/>
-      <c r="L146" s="9" t="inlineStr">
+      <c r="F149" s="20" t="inlineStr"/>
+      <c r="G149" s="20" t="inlineStr"/>
+      <c r="H149" s="20" t="inlineStr"/>
+      <c r="I149" s="20" t="inlineStr"/>
+      <c r="J149" s="20" t="inlineStr"/>
+      <c r="K149" s="20" t="inlineStr"/>
+      <c r="L149" s="20" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="17" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
-      <c r="B147" s="18" t="inlineStr"/>
-      <c r="C147" s="19" t="inlineStr">
+    <row r="150">
+      <c r="A150" s="12" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B150" s="13" t="inlineStr"/>
+      <c r="C150" s="14" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D147" s="17" t="inlineStr">
+      <c r="D150" s="12" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E147" s="20" t="inlineStr">
+      <c r="E150" s="15" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F147" s="17" t="inlineStr"/>
-      <c r="G147" s="17" t="inlineStr"/>
-      <c r="H147" s="21" t="inlineStr">
+      <c r="F150" s="12" t="inlineStr"/>
+      <c r="G150" s="12" t="inlineStr"/>
+      <c r="H150" s="16" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I147" s="17" t="inlineStr">
-        <is>
-          <t>70548</t>
-        </is>
-      </c>
-      <c r="J147" s="22" t="inlineStr">
-        <is>
-          <t>133619.23</t>
-        </is>
-      </c>
-      <c r="K147" s="17" t="inlineStr"/>
-      <c r="L147" s="17" t="inlineStr">
+      <c r="I150" s="12" t="inlineStr">
+        <is>
+          <t>70809</t>
+        </is>
+      </c>
+      <c r="J150" s="17" t="inlineStr">
+        <is>
+          <t>174172.7</t>
+        </is>
+      </c>
+      <c r="K150" s="12" t="inlineStr"/>
+      <c r="L150" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="17" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
-      <c r="B148" s="18" t="inlineStr">
+    <row r="151">
+      <c r="A151" s="12" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B151" s="13" t="inlineStr">
         <is>
           <t>Narration Match
-Lender Amount: 133619.23
-Borrower Amount: 133619.23</t>
-        </is>
-      </c>
-      <c r="C148" s="17" t="inlineStr"/>
-      <c r="D148" s="17" t="inlineStr"/>
-      <c r="E148" s="23" t="inlineStr">
-        <is>
-          <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2503002237</t>
-        </is>
-      </c>
-      <c r="F148" s="17" t="inlineStr"/>
-      <c r="G148" s="17" t="inlineStr"/>
-      <c r="H148" s="17" t="inlineStr"/>
-      <c r="I148" s="17" t="inlineStr"/>
-      <c r="J148" s="17" t="inlineStr"/>
-      <c r="K148" s="17" t="inlineStr"/>
-      <c r="L148" s="17" t="inlineStr">
+Lender Amount: 0.00
+Borrower Amount: 0.00</t>
+        </is>
+      </c>
+      <c r="C151" s="12" t="inlineStr"/>
+      <c r="D151" s="12" t="inlineStr"/>
+      <c r="E151" s="18" t="inlineStr">
+        <is>
+          <t>Amount being paid as Principal &amp; Interest repayment of Time Loan-CIL Transformer-LD-2432680080</t>
+        </is>
+      </c>
+      <c r="F151" s="12" t="inlineStr"/>
+      <c r="G151" s="12" t="inlineStr"/>
+      <c r="H151" s="12" t="inlineStr"/>
+      <c r="I151" s="12" t="inlineStr"/>
+      <c r="J151" s="12" t="inlineStr"/>
+      <c r="K151" s="12" t="inlineStr"/>
+      <c r="L151" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="17" t="inlineStr">
-        <is>
-          <t>M011</t>
-        </is>
-      </c>
-      <c r="B149" s="18" t="inlineStr"/>
-      <c r="C149" s="17" t="inlineStr"/>
-      <c r="D149" s="17" t="inlineStr">
+    <row r="152">
+      <c r="A152" s="12" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B152" s="13" t="inlineStr"/>
+      <c r="C152" s="12" t="inlineStr"/>
+      <c r="D152" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E149" s="24" t="inlineStr">
+      <c r="E152" s="19" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F149" s="17" t="inlineStr"/>
-      <c r="G149" s="17" t="inlineStr"/>
-      <c r="H149" s="17" t="inlineStr"/>
-      <c r="I149" s="17" t="inlineStr"/>
-      <c r="J149" s="17" t="inlineStr"/>
-      <c r="K149" s="17" t="inlineStr"/>
-      <c r="L149" s="17" t="inlineStr">
+      <c r="F152" s="12" t="inlineStr"/>
+      <c r="G152" s="12" t="inlineStr"/>
+      <c r="H152" s="12" t="inlineStr"/>
+      <c r="I152" s="12" t="inlineStr"/>
+      <c r="J152" s="12" t="inlineStr"/>
+      <c r="K152" s="12" t="inlineStr"/>
+      <c r="L152" s="12" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="9" t="inlineStr">
+    <row r="153">
+      <c r="A153" s="20" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B150" s="10" t="inlineStr"/>
-      <c r="C150" s="11" t="inlineStr">
+      <c r="B153" s="21" t="inlineStr"/>
+      <c r="C153" s="22" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D150" s="9" t="inlineStr">
+      <c r="D153" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E150" s="12" t="inlineStr">
+      <c r="E153" s="23" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F150" s="9" t="inlineStr"/>
-      <c r="G150" s="9" t="inlineStr"/>
-      <c r="H150" s="13" t="inlineStr">
+      <c r="F153" s="20" t="inlineStr"/>
+      <c r="G153" s="20" t="inlineStr"/>
+      <c r="H153" s="24" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I150" s="9" t="inlineStr">
-        <is>
-          <t>70809</t>
-        </is>
-      </c>
-      <c r="J150" s="14" t="inlineStr">
-        <is>
-          <t>174172.7</t>
-        </is>
-      </c>
-      <c r="K150" s="9" t="inlineStr"/>
-      <c r="L150" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="9" t="inlineStr">
+      <c r="I153" s="20" t="inlineStr">
+        <is>
+          <t>70810</t>
+        </is>
+      </c>
+      <c r="J153" s="25" t="inlineStr">
+        <is>
+          <t>83197.81</t>
+        </is>
+      </c>
+      <c r="K153" s="20" t="inlineStr"/>
+      <c r="L153" s="20" t="inlineStr">
+        <is>
+          <t>Interunit</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="20" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B151" s="10" t="inlineStr">
-        <is>
-          <t>Narration Match
-Lender Amount: 174172.70
-Borrower Amount: 174172.70</t>
-        </is>
-      </c>
-      <c r="C151" s="9" t="inlineStr"/>
-      <c r="D151" s="9" t="inlineStr"/>
-      <c r="E151" s="15" t="inlineStr">
-        <is>
-          <t>Amount being paid as Principal &amp; Interest repayment of Time Loan-CIL Transformer-LD-2432680080</t>
-        </is>
-      </c>
-      <c r="F151" s="9" t="inlineStr"/>
-      <c r="G151" s="9" t="inlineStr"/>
-      <c r="H151" s="9" t="inlineStr"/>
-      <c r="I151" s="9" t="inlineStr"/>
-      <c r="J151" s="9" t="inlineStr"/>
-      <c r="K151" s="9" t="inlineStr"/>
-      <c r="L151" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="9" t="inlineStr">
-        <is>
-          <t>M013</t>
-        </is>
-      </c>
-      <c r="B152" s="10" t="inlineStr"/>
-      <c r="C152" s="9" t="inlineStr"/>
-      <c r="D152" s="9" t="inlineStr">
-        <is>
-          <t>Entered By :</t>
-        </is>
-      </c>
-      <c r="E152" s="16" t="inlineStr">
-        <is>
-          <t>shabbirul</t>
-        </is>
-      </c>
-      <c r="F152" s="9" t="inlineStr"/>
-      <c r="G152" s="9" t="inlineStr"/>
-      <c r="H152" s="9" t="inlineStr"/>
-      <c r="I152" s="9" t="inlineStr"/>
-      <c r="J152" s="9" t="inlineStr"/>
-      <c r="K152" s="9" t="inlineStr"/>
-      <c r="L152" s="9" t="inlineStr">
-        <is>
-          <t>Narration</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="17" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B153" s="18" t="inlineStr"/>
-      <c r="C153" s="19" t="inlineStr">
-        <is>
-          <t>23/Jun/2025</t>
-        </is>
-      </c>
-      <c r="D153" s="17" t="inlineStr">
-        <is>
-          <t>Cr</t>
-        </is>
-      </c>
-      <c r="E153" s="20" t="inlineStr">
-        <is>
-          <t>Prime Bank-CD-2126117010855</t>
-        </is>
-      </c>
-      <c r="F153" s="17" t="inlineStr"/>
-      <c r="G153" s="17" t="inlineStr"/>
-      <c r="H153" s="21" t="inlineStr">
-        <is>
-          <t>Bank Payment</t>
-        </is>
-      </c>
-      <c r="I153" s="17" t="inlineStr">
-        <is>
-          <t>70810</t>
-        </is>
-      </c>
-      <c r="J153" s="22" t="inlineStr">
-        <is>
-          <t>83197.81</t>
-        </is>
-      </c>
-      <c r="K153" s="17" t="inlineStr"/>
-      <c r="L153" s="17" t="inlineStr">
-        <is>
-          <t>Interunit</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="17" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B154" s="18" t="inlineStr">
+      <c r="B154" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#10855
 Lender Amount: 83197.81
 Borrower Amount: 83197.81</t>
         </is>
       </c>
-      <c r="C154" s="17" t="inlineStr"/>
-      <c r="D154" s="17" t="inlineStr"/>
-      <c r="E154" s="23" t="inlineStr">
+      <c r="C154" s="20" t="inlineStr"/>
+      <c r="D154" s="20" t="inlineStr"/>
+      <c r="E154" s="26" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2502802705</t>
         </is>
       </c>
-      <c r="F154" s="17" t="inlineStr"/>
-      <c r="G154" s="17" t="inlineStr"/>
-      <c r="H154" s="17" t="inlineStr"/>
-      <c r="I154" s="17" t="inlineStr"/>
-      <c r="J154" s="17" t="inlineStr"/>
-      <c r="K154" s="17" t="inlineStr"/>
-      <c r="L154" s="17" t="inlineStr">
+      <c r="F154" s="20" t="inlineStr"/>
+      <c r="G154" s="20" t="inlineStr"/>
+      <c r="H154" s="20" t="inlineStr"/>
+      <c r="I154" s="20" t="inlineStr"/>
+      <c r="J154" s="20" t="inlineStr"/>
+      <c r="K154" s="20" t="inlineStr"/>
+      <c r="L154" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="17" t="inlineStr">
-        <is>
-          <t>M020</t>
-        </is>
-      </c>
-      <c r="B155" s="18" t="inlineStr"/>
-      <c r="C155" s="17" t="inlineStr"/>
-      <c r="D155" s="17" t="inlineStr">
+      <c r="A155" s="20" t="inlineStr">
+        <is>
+          <t>M013</t>
+        </is>
+      </c>
+      <c r="B155" s="21" t="inlineStr"/>
+      <c r="C155" s="20" t="inlineStr"/>
+      <c r="D155" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E155" s="24" t="inlineStr">
+      <c r="E155" s="27" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F155" s="17" t="inlineStr"/>
-      <c r="G155" s="17" t="inlineStr"/>
-      <c r="H155" s="17" t="inlineStr"/>
-      <c r="I155" s="17" t="inlineStr"/>
-      <c r="J155" s="17" t="inlineStr"/>
-      <c r="K155" s="17" t="inlineStr"/>
-      <c r="L155" s="17" t="inlineStr">
+      <c r="F155" s="20" t="inlineStr"/>
+      <c r="G155" s="20" t="inlineStr"/>
+      <c r="H155" s="20" t="inlineStr"/>
+      <c r="I155" s="20" t="inlineStr"/>
+      <c r="J155" s="20" t="inlineStr"/>
+      <c r="K155" s="20" t="inlineStr"/>
+      <c r="L155" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="9" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B156" s="10" t="inlineStr"/>
-      <c r="C156" s="11" t="inlineStr">
+      <c r="A156" s="12" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B156" s="13" t="inlineStr"/>
+      <c r="C156" s="14" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D156" s="9" t="inlineStr">
+      <c r="D156" s="12" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E156" s="12" t="inlineStr">
+      <c r="E156" s="15" t="inlineStr">
         <is>
           <t>Eastern Bank,STD-1011220144056</t>
         </is>
       </c>
-      <c r="F156" s="9" t="inlineStr"/>
-      <c r="G156" s="9" t="inlineStr"/>
-      <c r="H156" s="13" t="inlineStr">
+      <c r="F156" s="12" t="inlineStr"/>
+      <c r="G156" s="12" t="inlineStr"/>
+      <c r="H156" s="16" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I156" s="9" t="inlineStr">
+      <c r="I156" s="12" t="inlineStr">
         <is>
           <t>70557</t>
         </is>
       </c>
-      <c r="J156" s="14" t="inlineStr">
+      <c r="J156" s="17" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K156" s="9" t="inlineStr"/>
-      <c r="L156" s="9" t="inlineStr">
+      <c r="K156" s="12" t="inlineStr"/>
+      <c r="L156" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="9" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B157" s="10" t="inlineStr">
+      <c r="A157" s="12" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B157" s="13" t="inlineStr">
         <is>
           <t>Interunit Loan Match: EBL#4056
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C157" s="9" t="inlineStr"/>
-      <c r="D157" s="9" t="inlineStr"/>
-      <c r="E157" s="15" t="inlineStr">
+      <c r="C157" s="12" t="inlineStr"/>
+      <c r="D157" s="12" t="inlineStr"/>
+      <c r="E157" s="18" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Inter Unit Loan A/C-Transformer Unit, EBL#44067</t>
         </is>
       </c>
-      <c r="F157" s="9" t="inlineStr"/>
-      <c r="G157" s="9" t="inlineStr"/>
-      <c r="H157" s="9" t="inlineStr"/>
-      <c r="I157" s="9" t="inlineStr"/>
-      <c r="J157" s="9" t="inlineStr"/>
-      <c r="K157" s="9" t="inlineStr"/>
-      <c r="L157" s="9" t="inlineStr">
+      <c r="F157" s="12" t="inlineStr"/>
+      <c r="G157" s="12" t="inlineStr"/>
+      <c r="H157" s="12" t="inlineStr"/>
+      <c r="I157" s="12" t="inlineStr"/>
+      <c r="J157" s="12" t="inlineStr"/>
+      <c r="K157" s="12" t="inlineStr"/>
+      <c r="L157" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="9" t="inlineStr">
-        <is>
-          <t>M021</t>
-        </is>
-      </c>
-      <c r="B158" s="10" t="inlineStr"/>
-      <c r="C158" s="9" t="inlineStr"/>
-      <c r="D158" s="9" t="inlineStr">
+      <c r="A158" s="12" t="inlineStr">
+        <is>
+          <t>M014</t>
+        </is>
+      </c>
+      <c r="B158" s="13" t="inlineStr"/>
+      <c r="C158" s="12" t="inlineStr"/>
+      <c r="D158" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E158" s="16" t="inlineStr">
+      <c r="E158" s="19" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F158" s="9" t="inlineStr"/>
-      <c r="G158" s="9" t="inlineStr"/>
-      <c r="H158" s="9" t="inlineStr"/>
-      <c r="I158" s="9" t="inlineStr"/>
-      <c r="J158" s="9" t="inlineStr"/>
-      <c r="K158" s="9" t="inlineStr"/>
-      <c r="L158" s="9" t="inlineStr">
+      <c r="F158" s="12" t="inlineStr"/>
+      <c r="G158" s="12" t="inlineStr"/>
+      <c r="H158" s="12" t="inlineStr"/>
+      <c r="I158" s="12" t="inlineStr"/>
+      <c r="J158" s="12" t="inlineStr"/>
+      <c r="K158" s="12" t="inlineStr"/>
+      <c r="L158" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="17" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B159" s="18" t="inlineStr"/>
-      <c r="C159" s="19" t="inlineStr">
+      <c r="A159" s="20" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B159" s="21" t="inlineStr"/>
+      <c r="C159" s="22" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D159" s="17" t="inlineStr">
+      <c r="D159" s="20" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E159" s="20" t="inlineStr">
+      <c r="E159" s="23" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F159" s="17" t="inlineStr"/>
-      <c r="G159" s="17" t="inlineStr"/>
-      <c r="H159" s="21" t="inlineStr">
+      <c r="F159" s="20" t="inlineStr"/>
+      <c r="G159" s="20" t="inlineStr"/>
+      <c r="H159" s="24" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I159" s="17" t="inlineStr">
+      <c r="I159" s="20" t="inlineStr">
         <is>
           <t>964</t>
         </is>
       </c>
-      <c r="J159" s="17" t="inlineStr"/>
-      <c r="K159" s="22" t="inlineStr">
+      <c r="J159" s="20" t="inlineStr"/>
+      <c r="K159" s="25" t="inlineStr">
         <is>
           <t>50000</t>
         </is>
       </c>
-      <c r="L159" s="17" t="inlineStr">
+      <c r="L159" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="17" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B160" s="18" t="inlineStr">
+      <c r="A160" s="20" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B160" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#1060
 Lender Amount: 50000.00
 Borrower Amount: 50000.00</t>
         </is>
       </c>
-      <c r="C160" s="17" t="inlineStr"/>
-      <c r="D160" s="17" t="inlineStr"/>
-      <c r="E160" s="23" t="inlineStr">
+      <c r="C160" s="20" t="inlineStr"/>
+      <c r="D160" s="20" t="inlineStr"/>
+      <c r="E160" s="26" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Inter Unit Loan A/C-Transformer Unit,PBL#1060</t>
         </is>
       </c>
-      <c r="F160" s="17" t="inlineStr"/>
-      <c r="G160" s="17" t="inlineStr"/>
-      <c r="H160" s="17" t="inlineStr"/>
-      <c r="I160" s="17" t="inlineStr"/>
-      <c r="J160" s="17" t="inlineStr"/>
-      <c r="K160" s="17" t="inlineStr"/>
-      <c r="L160" s="17" t="inlineStr">
+      <c r="F160" s="20" t="inlineStr"/>
+      <c r="G160" s="20" t="inlineStr"/>
+      <c r="H160" s="20" t="inlineStr"/>
+      <c r="I160" s="20" t="inlineStr"/>
+      <c r="J160" s="20" t="inlineStr"/>
+      <c r="K160" s="20" t="inlineStr"/>
+      <c r="L160" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="17" t="inlineStr">
-        <is>
-          <t>M022</t>
-        </is>
-      </c>
-      <c r="B161" s="18" t="inlineStr"/>
-      <c r="C161" s="17" t="inlineStr"/>
-      <c r="D161" s="17" t="inlineStr">
+      <c r="A161" s="20" t="inlineStr">
+        <is>
+          <t>M015</t>
+        </is>
+      </c>
+      <c r="B161" s="21" t="inlineStr"/>
+      <c r="C161" s="20" t="inlineStr"/>
+      <c r="D161" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E161" s="24" t="inlineStr">
+      <c r="E161" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F161" s="17" t="inlineStr"/>
-      <c r="G161" s="17" t="inlineStr"/>
-      <c r="H161" s="17" t="inlineStr"/>
-      <c r="I161" s="17" t="inlineStr"/>
-      <c r="J161" s="17" t="inlineStr"/>
-      <c r="K161" s="17" t="inlineStr"/>
-      <c r="L161" s="17" t="inlineStr">
+      <c r="F161" s="20" t="inlineStr"/>
+      <c r="G161" s="20" t="inlineStr"/>
+      <c r="H161" s="20" t="inlineStr"/>
+      <c r="I161" s="20" t="inlineStr"/>
+      <c r="J161" s="20" t="inlineStr"/>
+      <c r="K161" s="20" t="inlineStr"/>
+      <c r="L161" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="9" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B162" s="10" t="inlineStr"/>
-      <c r="C162" s="11" t="inlineStr">
+      <c r="A162" s="12" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B162" s="13" t="inlineStr"/>
+      <c r="C162" s="14" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D162" s="9" t="inlineStr">
+      <c r="D162" s="12" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E162" s="12" t="inlineStr">
+      <c r="E162" s="15" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F162" s="9" t="inlineStr"/>
-      <c r="G162" s="9" t="inlineStr"/>
-      <c r="H162" s="13" t="inlineStr">
+      <c r="F162" s="12" t="inlineStr"/>
+      <c r="G162" s="12" t="inlineStr"/>
+      <c r="H162" s="16" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I162" s="9" t="inlineStr">
+      <c r="I162" s="12" t="inlineStr">
         <is>
           <t>70775</t>
         </is>
       </c>
-      <c r="J162" s="14" t="inlineStr">
+      <c r="J162" s="17" t="inlineStr">
         <is>
           <t>4000000</t>
         </is>
       </c>
-      <c r="K162" s="9" t="inlineStr"/>
-      <c r="L162" s="9" t="inlineStr">
+      <c r="K162" s="12" t="inlineStr"/>
+      <c r="L162" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="9" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B163" s="10" t="inlineStr">
+      <c r="A163" s="12" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B163" s="13" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 4000000.00
 Borrower Amount: 4000000.00</t>
         </is>
       </c>
-      <c r="C163" s="9" t="inlineStr"/>
-      <c r="D163" s="9" t="inlineStr"/>
-      <c r="E163" s="15" t="inlineStr">
+      <c r="C163" s="12" t="inlineStr"/>
+      <c r="D163" s="12" t="inlineStr"/>
+      <c r="E163" s="18" t="inlineStr">
         <is>
           <t>Interunit Fund Transfer as Inter Unit Loan A/C-Transformer Unit, MDB#0313</t>
         </is>
       </c>
-      <c r="F163" s="9" t="inlineStr"/>
-      <c r="G163" s="9" t="inlineStr"/>
-      <c r="H163" s="9" t="inlineStr"/>
-      <c r="I163" s="9" t="inlineStr"/>
-      <c r="J163" s="9" t="inlineStr"/>
-      <c r="K163" s="9" t="inlineStr"/>
-      <c r="L163" s="9" t="inlineStr">
+      <c r="F163" s="12" t="inlineStr"/>
+      <c r="G163" s="12" t="inlineStr"/>
+      <c r="H163" s="12" t="inlineStr"/>
+      <c r="I163" s="12" t="inlineStr"/>
+      <c r="J163" s="12" t="inlineStr"/>
+      <c r="K163" s="12" t="inlineStr"/>
+      <c r="L163" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="9" t="inlineStr">
-        <is>
-          <t>M023</t>
-        </is>
-      </c>
-      <c r="B164" s="10" t="inlineStr"/>
-      <c r="C164" s="9" t="inlineStr"/>
-      <c r="D164" s="9" t="inlineStr">
+      <c r="A164" s="12" t="inlineStr">
+        <is>
+          <t>M016</t>
+        </is>
+      </c>
+      <c r="B164" s="13" t="inlineStr"/>
+      <c r="C164" s="12" t="inlineStr"/>
+      <c r="D164" s="12" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E164" s="16" t="inlineStr">
+      <c r="E164" s="19" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F164" s="9" t="inlineStr"/>
-      <c r="G164" s="9" t="inlineStr"/>
-      <c r="H164" s="9" t="inlineStr"/>
-      <c r="I164" s="9" t="inlineStr"/>
-      <c r="J164" s="9" t="inlineStr"/>
-      <c r="K164" s="9" t="inlineStr"/>
-      <c r="L164" s="9" t="inlineStr">
+      <c r="F164" s="12" t="inlineStr"/>
+      <c r="G164" s="12" t="inlineStr"/>
+      <c r="H164" s="12" t="inlineStr"/>
+      <c r="I164" s="12" t="inlineStr"/>
+      <c r="J164" s="12" t="inlineStr"/>
+      <c r="K164" s="12" t="inlineStr"/>
+      <c r="L164" s="12" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="17" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B165" s="18" t="inlineStr"/>
-      <c r="C165" s="19" t="inlineStr">
+      <c r="A165" s="1" t="inlineStr"/>
+      <c r="B165" s="2" t="inlineStr"/>
+      <c r="C165" s="6" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
         </is>
       </c>
-      <c r="D165" s="17" t="inlineStr">
+      <c r="D165" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E165" s="20" t="inlineStr">
+      <c r="E165" s="7" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F165" s="17" t="inlineStr"/>
-      <c r="G165" s="17" t="inlineStr"/>
-      <c r="H165" s="21" t="inlineStr">
+      <c r="F165" s="1" t="inlineStr"/>
+      <c r="G165" s="1" t="inlineStr"/>
+      <c r="H165" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I165" s="17" t="inlineStr">
+      <c r="I165" s="1" t="inlineStr">
         <is>
           <t>70687</t>
         </is>
       </c>
-      <c r="J165" s="22" t="inlineStr">
+      <c r="J165" s="8" t="inlineStr">
         <is>
           <t>5137392</t>
         </is>
       </c>
-      <c r="K165" s="17" t="inlineStr"/>
-      <c r="L165" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K165" s="1" t="inlineStr"/>
+      <c r="L165" s="1" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="17" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B166" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 5137392.00
-Borrower Amount: 5137392.00</t>
-        </is>
-      </c>
-      <c r="C166" s="17" t="inlineStr"/>
-      <c r="D166" s="17" t="inlineStr"/>
-      <c r="E166" s="23" t="inlineStr">
+      <c r="A166" s="1" t="inlineStr"/>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>No match found - No matching criteria met</t>
+        </is>
+      </c>
+      <c r="C166" s="1" t="inlineStr"/>
+      <c r="D166" s="1" t="inlineStr"/>
+      <c r="E166" s="10" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(RR Imperial Electricals Limited)</t>
         </is>
       </c>
-      <c r="F166" s="17" t="inlineStr"/>
-      <c r="G166" s="17" t="inlineStr"/>
-      <c r="H166" s="17" t="inlineStr"/>
-      <c r="I166" s="17" t="inlineStr"/>
-      <c r="J166" s="17" t="inlineStr"/>
-      <c r="K166" s="17" t="inlineStr"/>
-      <c r="L166" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F166" s="1" t="inlineStr"/>
+      <c r="G166" s="1" t="inlineStr"/>
+      <c r="H166" s="1" t="inlineStr"/>
+      <c r="I166" s="1" t="inlineStr"/>
+      <c r="J166" s="1" t="inlineStr"/>
+      <c r="K166" s="1" t="inlineStr"/>
+      <c r="L166" s="1" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="17" t="inlineStr">
-        <is>
-          <t>M056</t>
-        </is>
-      </c>
-      <c r="B167" s="18" t="inlineStr"/>
-      <c r="C167" s="17" t="inlineStr"/>
-      <c r="D167" s="17" t="inlineStr">
+      <c r="A167" s="1" t="inlineStr"/>
+      <c r="B167" s="2" t="inlineStr"/>
+      <c r="C167" s="1" t="inlineStr"/>
+      <c r="D167" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E167" s="24" t="inlineStr">
+      <c r="E167" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F167" s="17" t="inlineStr"/>
-      <c r="G167" s="17" t="inlineStr"/>
-      <c r="H167" s="17" t="inlineStr"/>
-      <c r="I167" s="17" t="inlineStr"/>
-      <c r="J167" s="17" t="inlineStr"/>
-      <c r="K167" s="17" t="inlineStr"/>
-      <c r="L167" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F167" s="1" t="inlineStr"/>
+      <c r="G167" s="1" t="inlineStr"/>
+      <c r="H167" s="1" t="inlineStr"/>
+      <c r="I167" s="1" t="inlineStr"/>
+      <c r="J167" s="1" t="inlineStr"/>
+      <c r="K167" s="1" t="inlineStr"/>
+      <c r="L167" s="1" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="9" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B168" s="10" t="inlineStr"/>
-      <c r="C168" s="11" t="inlineStr">
+      <c r="A168" s="20" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B168" s="21" t="inlineStr"/>
+      <c r="C168" s="22" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D168" s="9" t="inlineStr">
+      <c r="D168" s="20" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E168" s="12" t="inlineStr">
+      <c r="E168" s="23" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F168" s="9" t="inlineStr"/>
-      <c r="G168" s="9" t="inlineStr"/>
-      <c r="H168" s="13" t="inlineStr">
+      <c r="F168" s="20" t="inlineStr"/>
+      <c r="G168" s="20" t="inlineStr"/>
+      <c r="H168" s="24" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I168" s="9" t="inlineStr">
+      <c r="I168" s="20" t="inlineStr">
         <is>
           <t>70593</t>
         </is>
       </c>
-      <c r="J168" s="14" t="inlineStr">
+      <c r="J168" s="25" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="K168" s="9" t="inlineStr"/>
-      <c r="L168" s="9" t="inlineStr">
+      <c r="K168" s="20" t="inlineStr"/>
+      <c r="L168" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="9" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B169" s="10" t="inlineStr"/>
-      <c r="C169" s="9" t="inlineStr"/>
-      <c r="D169" s="9" t="inlineStr"/>
-      <c r="E169" s="12" t="inlineStr">
+      <c r="A169" s="20" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B169" s="21" t="inlineStr"/>
+      <c r="C169" s="20" t="inlineStr"/>
+      <c r="D169" s="20" t="inlineStr"/>
+      <c r="E169" s="23" t="inlineStr">
         <is>
           <t>Inter Unit Loan A/C-Dredging Unit</t>
         </is>
       </c>
-      <c r="F169" s="9" t="inlineStr"/>
-      <c r="G169" s="9" t="inlineStr"/>
-      <c r="H169" s="9" t="inlineStr"/>
-      <c r="I169" s="9" t="inlineStr"/>
-      <c r="J169" s="14" t="inlineStr">
+      <c r="F169" s="20" t="inlineStr"/>
+      <c r="G169" s="20" t="inlineStr"/>
+      <c r="H169" s="20" t="inlineStr"/>
+      <c r="I169" s="20" t="inlineStr"/>
+      <c r="J169" s="25" t="inlineStr">
         <is>
           <t>3000000</t>
         </is>
       </c>
-      <c r="K169" s="9" t="inlineStr"/>
-      <c r="L169" s="9" t="inlineStr">
+      <c r="K169" s="20" t="inlineStr"/>
+      <c r="L169" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="9" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B170" s="10" t="inlineStr"/>
-      <c r="C170" s="9" t="inlineStr"/>
-      <c r="D170" s="9" t="inlineStr"/>
-      <c r="E170" s="12" t="inlineStr">
+      <c r="A170" s="20" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B170" s="21" t="inlineStr"/>
+      <c r="C170" s="20" t="inlineStr"/>
+      <c r="D170" s="20" t="inlineStr"/>
+      <c r="E170" s="23" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F170" s="9" t="inlineStr"/>
-      <c r="G170" s="9" t="inlineStr"/>
-      <c r="H170" s="9" t="inlineStr"/>
-      <c r="I170" s="9" t="inlineStr"/>
-      <c r="J170" s="9" t="inlineStr"/>
-      <c r="K170" s="14" t="inlineStr">
+      <c r="F170" s="20" t="inlineStr"/>
+      <c r="G170" s="20" t="inlineStr"/>
+      <c r="H170" s="20" t="inlineStr"/>
+      <c r="I170" s="20" t="inlineStr"/>
+      <c r="J170" s="20" t="inlineStr"/>
+      <c r="K170" s="25" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L170" s="9" t="inlineStr">
+      <c r="L170" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="9" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B171" s="10" t="inlineStr"/>
-      <c r="C171" s="9" t="inlineStr"/>
-      <c r="D171" s="9" t="inlineStr"/>
-      <c r="E171" s="12" t="inlineStr">
+      <c r="A171" s="20" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B171" s="21" t="inlineStr"/>
+      <c r="C171" s="20" t="inlineStr"/>
+      <c r="D171" s="20" t="inlineStr"/>
+      <c r="E171" s="23" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F171" s="9" t="inlineStr"/>
-      <c r="G171" s="9" t="inlineStr"/>
-      <c r="H171" s="9" t="inlineStr"/>
-      <c r="I171" s="9" t="inlineStr"/>
-      <c r="J171" s="9" t="inlineStr"/>
-      <c r="K171" s="14" t="inlineStr">
+      <c r="F171" s="20" t="inlineStr"/>
+      <c r="G171" s="20" t="inlineStr"/>
+      <c r="H171" s="20" t="inlineStr"/>
+      <c r="I171" s="20" t="inlineStr"/>
+      <c r="J171" s="20" t="inlineStr"/>
+      <c r="K171" s="25" t="inlineStr">
         <is>
           <t>3000000</t>
         </is>
       </c>
-      <c r="L171" s="9" t="inlineStr">
+      <c r="L171" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="9" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B172" s="10" t="inlineStr">
+      <c r="A172" s="20" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B172" s="21" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 400000.00
 Borrower Amount: 400000.00</t>
         </is>
       </c>
-      <c r="C172" s="9" t="inlineStr"/>
-      <c r="D172" s="9" t="inlineStr"/>
-      <c r="E172" s="15" t="inlineStr">
+      <c r="C172" s="20" t="inlineStr"/>
+      <c r="D172" s="20" t="inlineStr"/>
+      <c r="E172" s="26" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit, MDB#0313 &amp; Inter Unit Loan A/C-Dredging Unit, MDB#0322</t>
         </is>
       </c>
-      <c r="F172" s="9" t="inlineStr"/>
-      <c r="G172" s="9" t="inlineStr"/>
-      <c r="H172" s="9" t="inlineStr"/>
-      <c r="I172" s="9" t="inlineStr"/>
-      <c r="J172" s="9" t="inlineStr"/>
-      <c r="K172" s="9" t="inlineStr"/>
-      <c r="L172" s="9" t="inlineStr">
+      <c r="F172" s="20" t="inlineStr"/>
+      <c r="G172" s="20" t="inlineStr"/>
+      <c r="H172" s="20" t="inlineStr"/>
+      <c r="I172" s="20" t="inlineStr"/>
+      <c r="J172" s="20" t="inlineStr"/>
+      <c r="K172" s="20" t="inlineStr"/>
+      <c r="L172" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="9" t="inlineStr">
-        <is>
-          <t>M024</t>
-        </is>
-      </c>
-      <c r="B173" s="10" t="inlineStr"/>
-      <c r="C173" s="9" t="inlineStr"/>
-      <c r="D173" s="9" t="inlineStr">
+      <c r="A173" s="20" t="inlineStr">
+        <is>
+          <t>M017</t>
+        </is>
+      </c>
+      <c r="B173" s="21" t="inlineStr"/>
+      <c r="C173" s="20" t="inlineStr"/>
+      <c r="D173" s="20" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E173" s="16" t="inlineStr">
+      <c r="E173" s="27" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F173" s="9" t="inlineStr"/>
-      <c r="G173" s="9" t="inlineStr"/>
-      <c r="H173" s="9" t="inlineStr"/>
-      <c r="I173" s="9" t="inlineStr"/>
-      <c r="J173" s="9" t="inlineStr"/>
-      <c r="K173" s="9" t="inlineStr"/>
-      <c r="L173" s="9" t="inlineStr">
+      <c r="F173" s="20" t="inlineStr"/>
+      <c r="G173" s="20" t="inlineStr"/>
+      <c r="H173" s="20" t="inlineStr"/>
+      <c r="I173" s="20" t="inlineStr"/>
+      <c r="J173" s="20" t="inlineStr"/>
+      <c r="K173" s="20" t="inlineStr"/>
+      <c r="L173" s="20" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="17" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B174" s="18" t="inlineStr"/>
-      <c r="C174" s="19" t="inlineStr">
+      <c r="A174" s="1" t="inlineStr"/>
+      <c r="B174" s="2" t="inlineStr"/>
+      <c r="C174" s="6" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D174" s="17" t="inlineStr">
+      <c r="D174" s="1" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E174" s="20" t="inlineStr">
+      <c r="E174" s="7" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F174" s="17" t="inlineStr"/>
-      <c r="G174" s="17" t="inlineStr"/>
-      <c r="H174" s="21" t="inlineStr">
+      <c r="F174" s="1" t="inlineStr"/>
+      <c r="G174" s="1" t="inlineStr"/>
+      <c r="H174" s="9" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I174" s="17" t="inlineStr">
+      <c r="I174" s="1" t="inlineStr">
         <is>
           <t>70686</t>
         </is>
       </c>
-      <c r="J174" s="22" t="inlineStr">
+      <c r="J174" s="8" t="inlineStr">
         <is>
           <t>11780452</t>
         </is>
       </c>
-      <c r="K174" s="17" t="inlineStr"/>
-      <c r="L174" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="K174" s="1" t="inlineStr"/>
+      <c r="L174" s="1" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" s="17" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B175" s="18" t="inlineStr">
-        <is>
-          <t>Manual Match
-Lender Amount: 11780452.00
-Borrower Amount: 11780452.00</t>
-        </is>
-      </c>
-      <c r="C175" s="17" t="inlineStr"/>
-      <c r="D175" s="17" t="inlineStr"/>
-      <c r="E175" s="23" t="inlineStr">
+      <c r="A175" s="1" t="inlineStr"/>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>Unmatched Record
+Reasons:
+1. No interunit account found in File 1 block</t>
+        </is>
+      </c>
+      <c r="C175" s="1" t="inlineStr"/>
+      <c r="D175" s="1" t="inlineStr"/>
+      <c r="E175" s="10" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Rangpur Metal Industries Ltd.)</t>
         </is>
       </c>
-      <c r="F175" s="17" t="inlineStr"/>
-      <c r="G175" s="17" t="inlineStr"/>
-      <c r="H175" s="17" t="inlineStr"/>
-      <c r="I175" s="17" t="inlineStr"/>
-      <c r="J175" s="17" t="inlineStr"/>
-      <c r="K175" s="17" t="inlineStr"/>
-      <c r="L175" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F175" s="1" t="inlineStr"/>
+      <c r="G175" s="1" t="inlineStr"/>
+      <c r="H175" s="1" t="inlineStr"/>
+      <c r="I175" s="1" t="inlineStr"/>
+      <c r="J175" s="1" t="inlineStr"/>
+      <c r="K175" s="1" t="inlineStr"/>
+      <c r="L175" s="1" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="17" t="inlineStr">
-        <is>
-          <t>M057</t>
-        </is>
-      </c>
-      <c r="B176" s="18" t="inlineStr"/>
-      <c r="C176" s="17" t="inlineStr"/>
-      <c r="D176" s="17" t="inlineStr">
+      <c r="A176" s="1" t="inlineStr"/>
+      <c r="B176" s="2" t="inlineStr"/>
+      <c r="C176" s="1" t="inlineStr"/>
+      <c r="D176" s="1" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E176" s="24" t="inlineStr">
+      <c r="E176" s="11" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F176" s="17" t="inlineStr"/>
-      <c r="G176" s="17" t="inlineStr"/>
-      <c r="H176" s="17" t="inlineStr"/>
-      <c r="I176" s="17" t="inlineStr"/>
-      <c r="J176" s="17" t="inlineStr"/>
-      <c r="K176" s="17" t="inlineStr"/>
-      <c r="L176" s="17" t="inlineStr">
-        <is>
-          <t>Manual</t>
-        </is>
-      </c>
+      <c r="F176" s="1" t="inlineStr"/>
+      <c r="G176" s="1" t="inlineStr"/>
+      <c r="H176" s="1" t="inlineStr"/>
+      <c r="I176" s="1" t="inlineStr"/>
+      <c r="J176" s="1" t="inlineStr"/>
+      <c r="K176" s="1" t="inlineStr"/>
+      <c r="L176" s="1" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr"/>

--- a/Resources/Steel-Trans/Steel book Trans_MATCHED.xlsx
+++ b/Resources/Steel-Trans/Steel book Trans_MATCHED.xlsx
@@ -76,7 +76,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -101,15 +101,6 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -766,5118 +757,5938 @@
       <c r="L10" s="1" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr"/>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr"/>
+      <c r="C11" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E11" s="7" t="inlineStr">
+      <c r="E11" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr"/>
-      <c r="G11" s="1" t="inlineStr"/>
-      <c r="H11" s="9" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr"/>
+      <c r="H11" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="I11" s="9" t="inlineStr">
         <is>
           <t>70624</t>
         </is>
       </c>
-      <c r="J11" s="8" t="inlineStr">
+      <c r="J11" s="14" t="inlineStr">
         <is>
           <t>36010</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr"/>
-      <c r="L11" s="1" t="inlineStr"/>
+      <c r="K11" s="9" t="inlineStr"/>
+      <c r="L11" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr"/>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 1 block</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr"/>
-      <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="10" t="inlineStr">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 36010.00
+Borrower Amount: 36010.00</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="9" t="inlineStr"/>
+      <c r="E12" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Stardust Telecom Ltd.)</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr"/>
-      <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
-      <c r="I12" s="1" t="inlineStr"/>
-      <c r="J12" s="1" t="inlineStr"/>
-      <c r="K12" s="1" t="inlineStr"/>
-      <c r="L12" s="1" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr"/>
+      <c r="I12" s="9" t="inlineStr"/>
+      <c r="J12" s="9" t="inlineStr"/>
+      <c r="K12" s="9" t="inlineStr"/>
+      <c r="L12" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr"/>
-      <c r="B13" s="2" t="inlineStr"/>
-      <c r="C13" s="1" t="inlineStr"/>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>M023</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="inlineStr"/>
+      <c r="C13" s="9" t="inlineStr"/>
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E13" s="11" t="inlineStr">
+      <c r="E13" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr"/>
-      <c r="G13" s="1" t="inlineStr"/>
-      <c r="H13" s="1" t="inlineStr"/>
-      <c r="I13" s="1" t="inlineStr"/>
-      <c r="J13" s="1" t="inlineStr"/>
-      <c r="K13" s="1" t="inlineStr"/>
-      <c r="L13" s="1" t="inlineStr"/>
+      <c r="F13" s="9" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr"/>
+      <c r="I13" s="9" t="inlineStr"/>
+      <c r="J13" s="9" t="inlineStr"/>
+      <c r="K13" s="9" t="inlineStr"/>
+      <c r="L13" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="inlineStr">
+      <c r="A14" s="17" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B14" s="13" t="inlineStr"/>
-      <c r="C14" s="14" t="inlineStr">
+      <c r="B14" s="18" t="inlineStr"/>
+      <c r="C14" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D14" s="12" t="inlineStr">
+      <c r="D14" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E14" s="15" t="inlineStr">
+      <c r="E14" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F14" s="12" t="inlineStr"/>
-      <c r="G14" s="12" t="inlineStr"/>
-      <c r="H14" s="16" t="inlineStr">
+      <c r="F14" s="17" t="inlineStr"/>
+      <c r="G14" s="17" t="inlineStr"/>
+      <c r="H14" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I14" s="12" t="inlineStr">
+      <c r="I14" s="17" t="inlineStr">
         <is>
           <t>70625</t>
         </is>
       </c>
-      <c r="J14" s="17" t="inlineStr">
+      <c r="J14" s="22" t="inlineStr">
         <is>
           <t>99317</t>
         </is>
       </c>
-      <c r="K14" s="12" t="inlineStr"/>
-      <c r="L14" s="12" t="inlineStr">
+      <c r="K14" s="17" t="inlineStr"/>
+      <c r="L14" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="inlineStr">
+      <c r="A15" s="17" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B15" s="13" t="inlineStr">
+      <c r="B15" s="18" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11370) - 'Final Settlement' keyword found
 Lender Amount: 99317.00
 Borrower Amount: 99317.00</t>
         </is>
       </c>
-      <c r="C15" s="12" t="inlineStr"/>
-      <c r="D15" s="12" t="inlineStr"/>
-      <c r="E15" s="18" t="inlineStr">
+      <c r="C15" s="17" t="inlineStr"/>
+      <c r="D15" s="17" t="inlineStr"/>
+      <c r="E15" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Suhel Mia-ID : 11370)</t>
         </is>
       </c>
-      <c r="F15" s="12" t="inlineStr"/>
-      <c r="G15" s="12" t="inlineStr"/>
-      <c r="H15" s="12" t="inlineStr"/>
-      <c r="I15" s="12" t="inlineStr"/>
-      <c r="J15" s="12" t="inlineStr"/>
-      <c r="K15" s="12" t="inlineStr"/>
-      <c r="L15" s="12" t="inlineStr">
+      <c r="F15" s="17" t="inlineStr"/>
+      <c r="G15" s="17" t="inlineStr"/>
+      <c r="H15" s="17" t="inlineStr"/>
+      <c r="I15" s="17" t="inlineStr"/>
+      <c r="J15" s="17" t="inlineStr"/>
+      <c r="K15" s="17" t="inlineStr"/>
+      <c r="L15" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="inlineStr">
+      <c r="A16" s="17" t="inlineStr">
         <is>
           <t>M018</t>
         </is>
       </c>
-      <c r="B16" s="13" t="inlineStr"/>
-      <c r="C16" s="12" t="inlineStr"/>
-      <c r="D16" s="12" t="inlineStr">
+      <c r="B16" s="18" t="inlineStr"/>
+      <c r="C16" s="17" t="inlineStr"/>
+      <c r="D16" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E16" s="19" t="inlineStr">
+      <c r="E16" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F16" s="12" t="inlineStr"/>
-      <c r="G16" s="12" t="inlineStr"/>
-      <c r="H16" s="12" t="inlineStr"/>
-      <c r="I16" s="12" t="inlineStr"/>
-      <c r="J16" s="12" t="inlineStr"/>
-      <c r="K16" s="12" t="inlineStr"/>
-      <c r="L16" s="12" t="inlineStr">
+      <c r="F16" s="17" t="inlineStr"/>
+      <c r="G16" s="17" t="inlineStr"/>
+      <c r="H16" s="17" t="inlineStr"/>
+      <c r="I16" s="17" t="inlineStr"/>
+      <c r="J16" s="17" t="inlineStr"/>
+      <c r="K16" s="17" t="inlineStr"/>
+      <c r="L16" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="20" t="inlineStr">
+      <c r="A17" s="9" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B17" s="21" t="inlineStr"/>
-      <c r="C17" s="22" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr"/>
+      <c r="C17" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D17" s="20" t="inlineStr">
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E17" s="23" t="inlineStr">
+      <c r="E17" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F17" s="20" t="inlineStr"/>
-      <c r="G17" s="20" t="inlineStr"/>
-      <c r="H17" s="24" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr"/>
+      <c r="G17" s="9" t="inlineStr"/>
+      <c r="H17" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I17" s="20" t="inlineStr">
+      <c r="I17" s="9" t="inlineStr">
         <is>
           <t>70682</t>
         </is>
       </c>
-      <c r="J17" s="25" t="inlineStr">
+      <c r="J17" s="14" t="inlineStr">
         <is>
           <t>20130</t>
         </is>
       </c>
-      <c r="K17" s="20" t="inlineStr"/>
-      <c r="L17" s="20" t="inlineStr">
+      <c r="K17" s="9" t="inlineStr"/>
+      <c r="L17" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="20" t="inlineStr">
+      <c r="A18" s="9" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B18" s="21" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 10199) - 'Final Settlement' keyword found
 Lender Amount: 20130.00
 Borrower Amount: 20130.00</t>
         </is>
       </c>
-      <c r="C18" s="20" t="inlineStr"/>
-      <c r="D18" s="20" t="inlineStr"/>
-      <c r="E18" s="26" t="inlineStr">
+      <c r="C18" s="9" t="inlineStr"/>
+      <c r="D18" s="9" t="inlineStr"/>
+      <c r="E18" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Poritosh Chandra Das-ID: 10199)</t>
         </is>
       </c>
-      <c r="F18" s="20" t="inlineStr"/>
-      <c r="G18" s="20" t="inlineStr"/>
-      <c r="H18" s="20" t="inlineStr"/>
-      <c r="I18" s="20" t="inlineStr"/>
-      <c r="J18" s="20" t="inlineStr"/>
-      <c r="K18" s="20" t="inlineStr"/>
-      <c r="L18" s="20" t="inlineStr">
+      <c r="F18" s="9" t="inlineStr"/>
+      <c r="G18" s="9" t="inlineStr"/>
+      <c r="H18" s="9" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr"/>
+      <c r="J18" s="9" t="inlineStr"/>
+      <c r="K18" s="9" t="inlineStr"/>
+      <c r="L18" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="20" t="inlineStr">
+      <c r="A19" s="9" t="inlineStr">
         <is>
           <t>M019</t>
         </is>
       </c>
-      <c r="B19" s="21" t="inlineStr"/>
-      <c r="C19" s="20" t="inlineStr"/>
-      <c r="D19" s="20" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr"/>
+      <c r="C19" s="9" t="inlineStr"/>
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E19" s="27" t="inlineStr">
+      <c r="E19" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F19" s="20" t="inlineStr"/>
-      <c r="G19" s="20" t="inlineStr"/>
-      <c r="H19" s="20" t="inlineStr"/>
-      <c r="I19" s="20" t="inlineStr"/>
-      <c r="J19" s="20" t="inlineStr"/>
-      <c r="K19" s="20" t="inlineStr"/>
-      <c r="L19" s="20" t="inlineStr">
+      <c r="F19" s="9" t="inlineStr"/>
+      <c r="G19" s="9" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr"/>
+      <c r="I19" s="9" t="inlineStr"/>
+      <c r="J19" s="9" t="inlineStr"/>
+      <c r="K19" s="9" t="inlineStr"/>
+      <c r="L19" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="inlineStr">
+      <c r="A20" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B20" s="13" t="inlineStr"/>
-      <c r="C20" s="14" t="inlineStr">
+      <c r="B20" s="18" t="inlineStr"/>
+      <c r="C20" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D20" s="12" t="inlineStr">
+      <c r="D20" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E20" s="15" t="inlineStr">
+      <c r="E20" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F20" s="12" t="inlineStr"/>
-      <c r="G20" s="12" t="inlineStr"/>
-      <c r="H20" s="16" t="inlineStr">
+      <c r="F20" s="17" t="inlineStr"/>
+      <c r="G20" s="17" t="inlineStr"/>
+      <c r="H20" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I20" s="12" t="inlineStr">
+      <c r="I20" s="17" t="inlineStr">
         <is>
           <t>70683</t>
         </is>
       </c>
-      <c r="J20" s="17" t="inlineStr">
+      <c r="J20" s="22" t="inlineStr">
         <is>
           <t>94109</t>
         </is>
       </c>
-      <c r="K20" s="12" t="inlineStr"/>
-      <c r="L20" s="12" t="inlineStr">
+      <c r="K20" s="17" t="inlineStr"/>
+      <c r="L20" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="inlineStr">
+      <c r="A21" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B21" s="13" t="inlineStr">
+      <c r="B21" s="18" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11711) - 'Final Settlement' keyword found
 Lender Amount: 94109.00
 Borrower Amount: 94109.00</t>
         </is>
       </c>
-      <c r="C21" s="12" t="inlineStr"/>
-      <c r="D21" s="12" t="inlineStr"/>
-      <c r="E21" s="18" t="inlineStr">
+      <c r="C21" s="17" t="inlineStr"/>
+      <c r="D21" s="17" t="inlineStr"/>
+      <c r="E21" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Md. Nor Mohammad-ID : 11711)</t>
         </is>
       </c>
-      <c r="F21" s="12" t="inlineStr"/>
-      <c r="G21" s="12" t="inlineStr"/>
-      <c r="H21" s="12" t="inlineStr"/>
-      <c r="I21" s="12" t="inlineStr"/>
-      <c r="J21" s="12" t="inlineStr"/>
-      <c r="K21" s="12" t="inlineStr"/>
-      <c r="L21" s="12" t="inlineStr">
+      <c r="F21" s="17" t="inlineStr"/>
+      <c r="G21" s="17" t="inlineStr"/>
+      <c r="H21" s="17" t="inlineStr"/>
+      <c r="I21" s="17" t="inlineStr"/>
+      <c r="J21" s="17" t="inlineStr"/>
+      <c r="K21" s="17" t="inlineStr"/>
+      <c r="L21" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="inlineStr">
+      <c r="A22" s="17" t="inlineStr">
         <is>
           <t>M020</t>
         </is>
       </c>
-      <c r="B22" s="13" t="inlineStr"/>
-      <c r="C22" s="12" t="inlineStr"/>
-      <c r="D22" s="12" t="inlineStr">
+      <c r="B22" s="18" t="inlineStr"/>
+      <c r="C22" s="17" t="inlineStr"/>
+      <c r="D22" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E22" s="19" t="inlineStr">
+      <c r="E22" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F22" s="12" t="inlineStr"/>
-      <c r="G22" s="12" t="inlineStr"/>
-      <c r="H22" s="12" t="inlineStr"/>
-      <c r="I22" s="12" t="inlineStr"/>
-      <c r="J22" s="12" t="inlineStr"/>
-      <c r="K22" s="12" t="inlineStr"/>
-      <c r="L22" s="12" t="inlineStr">
+      <c r="F22" s="17" t="inlineStr"/>
+      <c r="G22" s="17" t="inlineStr"/>
+      <c r="H22" s="17" t="inlineStr"/>
+      <c r="I22" s="17" t="inlineStr"/>
+      <c r="J22" s="17" t="inlineStr"/>
+      <c r="K22" s="17" t="inlineStr"/>
+      <c r="L22" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="20" t="inlineStr">
+      <c r="A23" s="9" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B23" s="21" t="inlineStr"/>
-      <c r="C23" s="22" t="inlineStr">
+      <c r="B23" s="10" t="inlineStr"/>
+      <c r="C23" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D23" s="20" t="inlineStr">
+      <c r="D23" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E23" s="23" t="inlineStr">
+      <c r="E23" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F23" s="20" t="inlineStr"/>
-      <c r="G23" s="20" t="inlineStr"/>
-      <c r="H23" s="24" t="inlineStr">
+      <c r="F23" s="9" t="inlineStr"/>
+      <c r="G23" s="9" t="inlineStr"/>
+      <c r="H23" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I23" s="20" t="inlineStr">
+      <c r="I23" s="9" t="inlineStr">
         <is>
           <t>70684</t>
         </is>
       </c>
-      <c r="J23" s="25" t="inlineStr">
+      <c r="J23" s="14" t="inlineStr">
         <is>
           <t>13909</t>
         </is>
       </c>
-      <c r="K23" s="20" t="inlineStr"/>
-      <c r="L23" s="20" t="inlineStr">
+      <c r="K23" s="9" t="inlineStr"/>
+      <c r="L23" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="inlineStr">
+      <c r="A24" s="9" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B24" s="21" t="inlineStr">
+      <c r="B24" s="10" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 11134) - 'Final Settlement' keyword found
 Lender Amount: 13909.00
 Borrower Amount: 13909.00</t>
         </is>
       </c>
-      <c r="C24" s="20" t="inlineStr"/>
-      <c r="D24" s="20" t="inlineStr"/>
-      <c r="E24" s="26" t="inlineStr">
+      <c r="C24" s="9" t="inlineStr"/>
+      <c r="D24" s="9" t="inlineStr"/>
+      <c r="E24" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Md. Salah Uddin-ID : 11134)</t>
         </is>
       </c>
-      <c r="F24" s="20" t="inlineStr"/>
-      <c r="G24" s="20" t="inlineStr"/>
-      <c r="H24" s="20" t="inlineStr"/>
-      <c r="I24" s="20" t="inlineStr"/>
-      <c r="J24" s="20" t="inlineStr"/>
-      <c r="K24" s="20" t="inlineStr"/>
-      <c r="L24" s="20" t="inlineStr">
+      <c r="F24" s="9" t="inlineStr"/>
+      <c r="G24" s="9" t="inlineStr"/>
+      <c r="H24" s="9" t="inlineStr"/>
+      <c r="I24" s="9" t="inlineStr"/>
+      <c r="J24" s="9" t="inlineStr"/>
+      <c r="K24" s="9" t="inlineStr"/>
+      <c r="L24" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="inlineStr">
+      <c r="A25" s="9" t="inlineStr">
         <is>
           <t>M021</t>
         </is>
       </c>
-      <c r="B25" s="21" t="inlineStr"/>
-      <c r="C25" s="20" t="inlineStr"/>
-      <c r="D25" s="20" t="inlineStr">
+      <c r="B25" s="10" t="inlineStr"/>
+      <c r="C25" s="9" t="inlineStr"/>
+      <c r="D25" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E25" s="27" t="inlineStr">
+      <c r="E25" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F25" s="20" t="inlineStr"/>
-      <c r="G25" s="20" t="inlineStr"/>
-      <c r="H25" s="20" t="inlineStr"/>
-      <c r="I25" s="20" t="inlineStr"/>
-      <c r="J25" s="20" t="inlineStr"/>
-      <c r="K25" s="20" t="inlineStr"/>
-      <c r="L25" s="20" t="inlineStr">
+      <c r="F25" s="9" t="inlineStr"/>
+      <c r="G25" s="9" t="inlineStr"/>
+      <c r="H25" s="9" t="inlineStr"/>
+      <c r="I25" s="9" t="inlineStr"/>
+      <c r="J25" s="9" t="inlineStr"/>
+      <c r="K25" s="9" t="inlineStr"/>
+      <c r="L25" s="9" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="inlineStr">
+      <c r="A26" s="17" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B26" s="13" t="inlineStr"/>
-      <c r="C26" s="14" t="inlineStr">
+      <c r="B26" s="18" t="inlineStr"/>
+      <c r="C26" s="19" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D26" s="12" t="inlineStr">
+      <c r="D26" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E26" s="15" t="inlineStr">
+      <c r="E26" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F26" s="12" t="inlineStr"/>
-      <c r="G26" s="12" t="inlineStr"/>
-      <c r="H26" s="16" t="inlineStr">
+      <c r="F26" s="17" t="inlineStr"/>
+      <c r="G26" s="17" t="inlineStr"/>
+      <c r="H26" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I26" s="12" t="inlineStr">
+      <c r="I26" s="17" t="inlineStr">
         <is>
           <t>70685</t>
         </is>
       </c>
-      <c r="J26" s="17" t="inlineStr">
+      <c r="J26" s="22" t="inlineStr">
         <is>
           <t>93314</t>
         </is>
       </c>
-      <c r="K26" s="12" t="inlineStr"/>
-      <c r="L26" s="12" t="inlineStr">
+      <c r="K26" s="17" t="inlineStr"/>
+      <c r="L26" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="inlineStr">
+      <c r="A27" s="17" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B27" s="13" t="inlineStr">
+      <c r="B27" s="18" t="inlineStr">
         <is>
           <t>Settlement Match (ID: 12107) - 'Final Settlement' keyword found
 Lender Amount: 93314.00
 Borrower Amount: 93314.00</t>
         </is>
       </c>
-      <c r="C27" s="12" t="inlineStr"/>
-      <c r="D27" s="12" t="inlineStr"/>
-      <c r="E27" s="18" t="inlineStr">
+      <c r="C27" s="17" t="inlineStr"/>
+      <c r="D27" s="17" t="inlineStr"/>
+      <c r="E27" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Md. Ahsan Habib-ID : 12107)</t>
         </is>
       </c>
-      <c r="F27" s="12" t="inlineStr"/>
-      <c r="G27" s="12" t="inlineStr"/>
-      <c r="H27" s="12" t="inlineStr"/>
-      <c r="I27" s="12" t="inlineStr"/>
-      <c r="J27" s="12" t="inlineStr"/>
-      <c r="K27" s="12" t="inlineStr"/>
-      <c r="L27" s="12" t="inlineStr">
+      <c r="F27" s="17" t="inlineStr"/>
+      <c r="G27" s="17" t="inlineStr"/>
+      <c r="H27" s="17" t="inlineStr"/>
+      <c r="I27" s="17" t="inlineStr"/>
+      <c r="J27" s="17" t="inlineStr"/>
+      <c r="K27" s="17" t="inlineStr"/>
+      <c r="L27" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="inlineStr">
+      <c r="A28" s="17" t="inlineStr">
         <is>
           <t>M022</t>
         </is>
       </c>
-      <c r="B28" s="13" t="inlineStr"/>
-      <c r="C28" s="12" t="inlineStr"/>
-      <c r="D28" s="12" t="inlineStr">
+      <c r="B28" s="18" t="inlineStr"/>
+      <c r="C28" s="17" t="inlineStr"/>
+      <c r="D28" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E28" s="19" t="inlineStr">
+      <c r="E28" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F28" s="12" t="inlineStr"/>
-      <c r="G28" s="12" t="inlineStr"/>
-      <c r="H28" s="12" t="inlineStr"/>
-      <c r="I28" s="12" t="inlineStr"/>
-      <c r="J28" s="12" t="inlineStr"/>
-      <c r="K28" s="12" t="inlineStr"/>
-      <c r="L28" s="12" t="inlineStr">
+      <c r="F28" s="17" t="inlineStr"/>
+      <c r="G28" s="17" t="inlineStr"/>
+      <c r="H28" s="17" t="inlineStr"/>
+      <c r="I28" s="17" t="inlineStr"/>
+      <c r="J28" s="17" t="inlineStr"/>
+      <c r="K28" s="17" t="inlineStr"/>
+      <c r="L28" s="17" t="inlineStr">
         <is>
           <t>Settlement</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="20" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B29" s="21" t="inlineStr"/>
-      <c r="C29" s="22" t="inlineStr">
+      <c r="A29" s="9" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="inlineStr"/>
+      <c r="C29" s="11" t="inlineStr">
         <is>
           <t>01/Jun/2025</t>
         </is>
       </c>
-      <c r="D29" s="20" t="inlineStr">
+      <c r="D29" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E29" s="23" t="inlineStr">
+      <c r="E29" s="12" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F29" s="20" t="inlineStr"/>
-      <c r="G29" s="20" t="inlineStr"/>
-      <c r="H29" s="24" t="inlineStr">
+      <c r="F29" s="9" t="inlineStr"/>
+      <c r="G29" s="9" t="inlineStr"/>
+      <c r="H29" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I29" s="20" t="inlineStr">
+      <c r="I29" s="9" t="inlineStr">
         <is>
           <t>3435</t>
         </is>
       </c>
-      <c r="J29" s="20" t="inlineStr"/>
-      <c r="K29" s="25" t="inlineStr">
+      <c r="J29" s="9" t="inlineStr"/>
+      <c r="K29" s="14" t="inlineStr">
         <is>
           <t>83402</t>
         </is>
       </c>
-      <c r="L29" s="20" t="inlineStr">
+      <c r="L29" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="20" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B30" s="21" t="inlineStr"/>
-      <c r="C30" s="20" t="inlineStr"/>
-      <c r="D30" s="20" t="inlineStr"/>
-      <c r="E30" s="23" t="inlineStr">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="inlineStr"/>
+      <c r="C30" s="9" t="inlineStr"/>
+      <c r="D30" s="9" t="inlineStr"/>
+      <c r="E30" s="12" t="inlineStr">
         <is>
           <t>AP-Pioneer Insurance Company Limited</t>
         </is>
       </c>
-      <c r="F30" s="20" t="inlineStr"/>
-      <c r="G30" s="20" t="inlineStr"/>
-      <c r="H30" s="20" t="inlineStr"/>
-      <c r="I30" s="20" t="inlineStr"/>
-      <c r="J30" s="25" t="inlineStr">
+      <c r="F30" s="9" t="inlineStr"/>
+      <c r="G30" s="9" t="inlineStr"/>
+      <c r="H30" s="9" t="inlineStr"/>
+      <c r="I30" s="9" t="inlineStr"/>
+      <c r="J30" s="14" t="inlineStr">
         <is>
           <t>118425</t>
         </is>
       </c>
-      <c r="K30" s="20" t="inlineStr"/>
-      <c r="L30" s="20" t="inlineStr">
+      <c r="K30" s="9" t="inlineStr"/>
+      <c r="L30" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="20" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B31" s="21" t="inlineStr"/>
-      <c r="C31" s="20" t="inlineStr"/>
-      <c r="D31" s="20" t="inlineStr"/>
-      <c r="E31" s="23" t="inlineStr">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="inlineStr"/>
+      <c r="C31" s="9" t="inlineStr"/>
+      <c r="D31" s="9" t="inlineStr"/>
+      <c r="E31" s="12" t="inlineStr">
         <is>
           <t>Sundry Debtor-Pioneer Insurance Company Ltd.</t>
         </is>
       </c>
-      <c r="F31" s="20" t="inlineStr"/>
-      <c r="G31" s="20" t="inlineStr"/>
-      <c r="H31" s="20" t="inlineStr"/>
-      <c r="I31" s="20" t="inlineStr"/>
-      <c r="J31" s="20" t="inlineStr"/>
-      <c r="K31" s="25" t="inlineStr">
+      <c r="F31" s="9" t="inlineStr"/>
+      <c r="G31" s="9" t="inlineStr"/>
+      <c r="H31" s="9" t="inlineStr"/>
+      <c r="I31" s="9" t="inlineStr"/>
+      <c r="J31" s="9" t="inlineStr"/>
+      <c r="K31" s="14" t="inlineStr">
         <is>
           <t>35023</t>
         </is>
       </c>
-      <c r="L31" s="20" t="inlineStr">
+      <c r="L31" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="20" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B32" s="21" t="inlineStr">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 0.00
 Borrower Amount: 0.00</t>
         </is>
       </c>
-      <c r="C32" s="20" t="inlineStr"/>
-      <c r="D32" s="20" t="inlineStr"/>
-      <c r="E32" s="26" t="inlineStr">
+      <c r="C32" s="9" t="inlineStr"/>
+      <c r="D32" s="9" t="inlineStr"/>
+      <c r="E32" s="15" t="inlineStr">
         <is>
           <t>Rectify entry due to LC 12043 was actually transformer LC so AP &amp; SD was shown as transformer unit.</t>
         </is>
       </c>
-      <c r="F32" s="20" t="inlineStr"/>
-      <c r="G32" s="20" t="inlineStr"/>
-      <c r="H32" s="20" t="inlineStr"/>
-      <c r="I32" s="20" t="inlineStr"/>
-      <c r="J32" s="20" t="inlineStr"/>
-      <c r="K32" s="20" t="inlineStr"/>
-      <c r="L32" s="20" t="inlineStr">
+      <c r="F32" s="9" t="inlineStr"/>
+      <c r="G32" s="9" t="inlineStr"/>
+      <c r="H32" s="9" t="inlineStr"/>
+      <c r="I32" s="9" t="inlineStr"/>
+      <c r="J32" s="9" t="inlineStr"/>
+      <c r="K32" s="9" t="inlineStr"/>
+      <c r="L32" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="20" t="inlineStr">
-        <is>
-          <t>M003</t>
-        </is>
-      </c>
-      <c r="B33" s="21" t="inlineStr"/>
-      <c r="C33" s="20" t="inlineStr"/>
-      <c r="D33" s="20" t="inlineStr">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>M006</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="inlineStr"/>
+      <c r="C33" s="9" t="inlineStr"/>
+      <c r="D33" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E33" s="27" t="inlineStr">
+      <c r="E33" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F33" s="20" t="inlineStr"/>
-      <c r="G33" s="20" t="inlineStr"/>
-      <c r="H33" s="20" t="inlineStr"/>
-      <c r="I33" s="20" t="inlineStr"/>
-      <c r="J33" s="20" t="inlineStr"/>
-      <c r="K33" s="20" t="inlineStr"/>
-      <c r="L33" s="20" t="inlineStr">
+      <c r="F33" s="9" t="inlineStr"/>
+      <c r="G33" s="9" t="inlineStr"/>
+      <c r="H33" s="9" t="inlineStr"/>
+      <c r="I33" s="9" t="inlineStr"/>
+      <c r="J33" s="9" t="inlineStr"/>
+      <c r="K33" s="9" t="inlineStr"/>
+      <c r="L33" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr"/>
-      <c r="B34" s="2" t="inlineStr"/>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="A34" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B34" s="18" t="inlineStr"/>
+      <c r="C34" s="19" t="inlineStr">
         <is>
           <t>02/Jun/2025</t>
         </is>
       </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="D34" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E34" s="7" t="inlineStr">
+      <c r="E34" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr"/>
-      <c r="G34" s="1" t="inlineStr"/>
-      <c r="H34" s="9" t="inlineStr">
+      <c r="F34" s="17" t="inlineStr"/>
+      <c r="G34" s="17" t="inlineStr"/>
+      <c r="H34" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="I34" s="17" t="inlineStr">
         <is>
           <t>70691</t>
         </is>
       </c>
-      <c r="J34" s="8" t="inlineStr">
+      <c r="J34" s="22" t="inlineStr">
         <is>
           <t>9075000</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr"/>
-      <c r="L34" s="1" t="inlineStr"/>
+      <c r="K34" s="17" t="inlineStr"/>
+      <c r="L34" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr"/>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 1 block</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr"/>
-      <c r="D35" s="1" t="inlineStr"/>
-      <c r="E35" s="10" t="inlineStr">
+      <c r="A35" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B35" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 9075000.00
+Borrower Amount: 9075000.00</t>
+        </is>
+      </c>
+      <c r="C35" s="17" t="inlineStr"/>
+      <c r="D35" s="17" t="inlineStr"/>
+      <c r="E35" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Sundry Parties-Jiangsu Dechun Power Electric Co Ltd)</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr"/>
-      <c r="G35" s="1" t="inlineStr"/>
-      <c r="H35" s="1" t="inlineStr"/>
-      <c r="I35" s="1" t="inlineStr"/>
-      <c r="J35" s="1" t="inlineStr"/>
-      <c r="K35" s="1" t="inlineStr"/>
-      <c r="L35" s="1" t="inlineStr"/>
+      <c r="F35" s="17" t="inlineStr"/>
+      <c r="G35" s="17" t="inlineStr"/>
+      <c r="H35" s="17" t="inlineStr"/>
+      <c r="I35" s="17" t="inlineStr"/>
+      <c r="J35" s="17" t="inlineStr"/>
+      <c r="K35" s="17" t="inlineStr"/>
+      <c r="L35" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr"/>
-      <c r="B36" s="2" t="inlineStr"/>
-      <c r="C36" s="1" t="inlineStr"/>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="A36" s="17" t="inlineStr">
+        <is>
+          <t>M024</t>
+        </is>
+      </c>
+      <c r="B36" s="18" t="inlineStr"/>
+      <c r="C36" s="17" t="inlineStr"/>
+      <c r="D36" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E36" s="11" t="inlineStr">
+      <c r="E36" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr"/>
-      <c r="G36" s="1" t="inlineStr"/>
-      <c r="H36" s="1" t="inlineStr"/>
-      <c r="I36" s="1" t="inlineStr"/>
-      <c r="J36" s="1" t="inlineStr"/>
-      <c r="K36" s="1" t="inlineStr"/>
-      <c r="L36" s="1" t="inlineStr"/>
+      <c r="F36" s="17" t="inlineStr"/>
+      <c r="G36" s="17" t="inlineStr"/>
+      <c r="H36" s="17" t="inlineStr"/>
+      <c r="I36" s="17" t="inlineStr"/>
+      <c r="J36" s="17" t="inlineStr"/>
+      <c r="K36" s="17" t="inlineStr"/>
+      <c r="L36" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>M006</t>
-        </is>
-      </c>
-      <c r="B37" s="13" t="inlineStr"/>
-      <c r="C37" s="14" t="inlineStr">
+      <c r="A37" s="9" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B37" s="10" t="inlineStr"/>
+      <c r="C37" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D37" s="12" t="inlineStr">
+      <c r="D37" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E37" s="15" t="inlineStr">
+      <c r="E37" s="12" t="inlineStr">
         <is>
           <t>Interest on ROU-Dhaka Metro-CHA-56-6064 &amp; 6066</t>
         </is>
       </c>
-      <c r="F37" s="12" t="inlineStr"/>
-      <c r="G37" s="12" t="inlineStr"/>
-      <c r="H37" s="16" t="inlineStr">
+      <c r="F37" s="9" t="inlineStr"/>
+      <c r="G37" s="9" t="inlineStr"/>
+      <c r="H37" s="13" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I37" s="12" t="inlineStr">
+      <c r="I37" s="9" t="inlineStr">
         <is>
           <t>3449</t>
         </is>
       </c>
-      <c r="J37" s="12" t="inlineStr"/>
-      <c r="K37" s="17" t="inlineStr">
+      <c r="J37" s="9" t="inlineStr"/>
+      <c r="K37" s="14" t="inlineStr">
         <is>
           <t>9539</t>
         </is>
       </c>
-      <c r="L37" s="12" t="inlineStr">
+      <c r="L37" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="inlineStr">
-        <is>
-          <t>M006</t>
-        </is>
-      </c>
-      <c r="B38" s="13" t="inlineStr">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B38" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#11060
 Lender Amount: 9539.00
 Borrower Amount: 9539.00</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr"/>
-      <c r="D38" s="12" t="inlineStr"/>
-      <c r="E38" s="18" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr"/>
+      <c r="D38" s="9" t="inlineStr"/>
+      <c r="E38" s="15" t="inlineStr">
         <is>
           <t>Being the amount paid to IDLC Finance Ltd. agt. Interest for the Loan 1026109496388134  Over Due interest for April-2025, Supporting as Email, date on 03 June-2025 also Bank Dr. same date from CIL-PBL-2126312011060</t>
         </is>
       </c>
-      <c r="F38" s="12" t="inlineStr"/>
-      <c r="G38" s="12" t="inlineStr"/>
-      <c r="H38" s="12" t="inlineStr"/>
-      <c r="I38" s="12" t="inlineStr"/>
-      <c r="J38" s="12" t="inlineStr"/>
-      <c r="K38" s="12" t="inlineStr"/>
-      <c r="L38" s="12" t="inlineStr">
+      <c r="F38" s="9" t="inlineStr"/>
+      <c r="G38" s="9" t="inlineStr"/>
+      <c r="H38" s="9" t="inlineStr"/>
+      <c r="I38" s="9" t="inlineStr"/>
+      <c r="J38" s="9" t="inlineStr"/>
+      <c r="K38" s="9" t="inlineStr"/>
+      <c r="L38" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="inlineStr">
-        <is>
-          <t>M006</t>
-        </is>
-      </c>
-      <c r="B39" s="13" t="inlineStr"/>
-      <c r="C39" s="12" t="inlineStr"/>
-      <c r="D39" s="12" t="inlineStr">
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>M004</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="inlineStr"/>
+      <c r="C39" s="9" t="inlineStr"/>
+      <c r="D39" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E39" s="19" t="inlineStr">
+      <c r="E39" s="16" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F39" s="12" t="inlineStr"/>
-      <c r="G39" s="12" t="inlineStr"/>
-      <c r="H39" s="12" t="inlineStr"/>
-      <c r="I39" s="12" t="inlineStr"/>
-      <c r="J39" s="12" t="inlineStr"/>
-      <c r="K39" s="12" t="inlineStr"/>
-      <c r="L39" s="12" t="inlineStr">
+      <c r="F39" s="9" t="inlineStr"/>
+      <c r="G39" s="9" t="inlineStr"/>
+      <c r="H39" s="9" t="inlineStr"/>
+      <c r="I39" s="9" t="inlineStr"/>
+      <c r="J39" s="9" t="inlineStr"/>
+      <c r="K39" s="9" t="inlineStr"/>
+      <c r="L39" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="20" t="inlineStr">
+      <c r="A40" s="17" t="inlineStr">
         <is>
           <t>M010</t>
         </is>
       </c>
-      <c r="B40" s="21" t="inlineStr"/>
-      <c r="C40" s="22" t="inlineStr">
+      <c r="B40" s="18" t="inlineStr"/>
+      <c r="C40" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D40" s="20" t="inlineStr">
+      <c r="D40" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E40" s="23" t="inlineStr">
+      <c r="E40" s="20" t="inlineStr">
         <is>
           <t>Dutch Bangla Bank Ltd-SND-A/C-1071200003834 (CIL)</t>
         </is>
       </c>
-      <c r="F40" s="20" t="inlineStr"/>
-      <c r="G40" s="20" t="inlineStr"/>
-      <c r="H40" s="24" t="inlineStr">
+      <c r="F40" s="17" t="inlineStr"/>
+      <c r="G40" s="17" t="inlineStr"/>
+      <c r="H40" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I40" s="20" t="inlineStr">
+      <c r="I40" s="17" t="inlineStr">
         <is>
           <t>931</t>
         </is>
       </c>
-      <c r="J40" s="20" t="inlineStr"/>
-      <c r="K40" s="25" t="inlineStr">
+      <c r="J40" s="17" t="inlineStr"/>
+      <c r="K40" s="22" t="inlineStr">
         <is>
           <t>3700000</t>
         </is>
       </c>
-      <c r="L40" s="20" t="inlineStr">
+      <c r="L40" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="20" t="inlineStr">
+      <c r="A41" s="17" t="inlineStr">
         <is>
           <t>M010</t>
         </is>
       </c>
-      <c r="B41" s="21" t="inlineStr">
+      <c r="B41" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 3700000.00
 Borrower Amount: 3700000.00</t>
         </is>
       </c>
-      <c r="C41" s="20" t="inlineStr"/>
-      <c r="D41" s="20" t="inlineStr"/>
-      <c r="E41" s="26" t="inlineStr">
+      <c r="C41" s="17" t="inlineStr"/>
+      <c r="D41" s="17" t="inlineStr"/>
+      <c r="E41" s="23" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F41" s="20" t="inlineStr"/>
-      <c r="G41" s="20" t="inlineStr"/>
-      <c r="H41" s="20" t="inlineStr"/>
-      <c r="I41" s="20" t="inlineStr"/>
-      <c r="J41" s="20" t="inlineStr"/>
-      <c r="K41" s="20" t="inlineStr"/>
-      <c r="L41" s="20" t="inlineStr">
+      <c r="F41" s="17" t="inlineStr"/>
+      <c r="G41" s="17" t="inlineStr"/>
+      <c r="H41" s="17" t="inlineStr"/>
+      <c r="I41" s="17" t="inlineStr"/>
+      <c r="J41" s="17" t="inlineStr"/>
+      <c r="K41" s="17" t="inlineStr"/>
+      <c r="L41" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="20" t="inlineStr">
+      <c r="A42" s="17" t="inlineStr">
         <is>
           <t>M010</t>
         </is>
       </c>
-      <c r="B42" s="21" t="inlineStr"/>
-      <c r="C42" s="20" t="inlineStr"/>
-      <c r="D42" s="20" t="inlineStr">
+      <c r="B42" s="18" t="inlineStr"/>
+      <c r="C42" s="17" t="inlineStr"/>
+      <c r="D42" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E42" s="27" t="inlineStr">
+      <c r="E42" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F42" s="20" t="inlineStr"/>
-      <c r="G42" s="20" t="inlineStr"/>
-      <c r="H42" s="20" t="inlineStr"/>
-      <c r="I42" s="20" t="inlineStr"/>
-      <c r="J42" s="20" t="inlineStr"/>
-      <c r="K42" s="20" t="inlineStr"/>
-      <c r="L42" s="20" t="inlineStr">
+      <c r="F42" s="17" t="inlineStr"/>
+      <c r="G42" s="17" t="inlineStr"/>
+      <c r="H42" s="17" t="inlineStr"/>
+      <c r="I42" s="17" t="inlineStr"/>
+      <c r="J42" s="17" t="inlineStr"/>
+      <c r="K42" s="17" t="inlineStr"/>
+      <c r="L42" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr"/>
-      <c r="B43" s="2" t="inlineStr"/>
-      <c r="C43" s="6" t="inlineStr">
+      <c r="A43" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="inlineStr"/>
+      <c r="C43" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="D43" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E43" s="7" t="inlineStr">
+      <c r="E43" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr"/>
-      <c r="G43" s="1" t="inlineStr"/>
-      <c r="H43" s="9" t="inlineStr">
+      <c r="F43" s="9" t="inlineStr"/>
+      <c r="G43" s="9" t="inlineStr"/>
+      <c r="H43" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="I43" s="9" t="inlineStr">
         <is>
           <t>70692</t>
         </is>
       </c>
-      <c r="J43" s="8" t="inlineStr">
+      <c r="J43" s="14" t="inlineStr">
         <is>
           <t>297501</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr"/>
-      <c r="L43" s="1" t="inlineStr"/>
+      <c r="K43" s="9" t="inlineStr"/>
+      <c r="L43" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr"/>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr"/>
-      <c r="D44" s="1" t="inlineStr"/>
-      <c r="E44" s="10" t="inlineStr">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 297501.00
+Borrower Amount: 297501.00</t>
+        </is>
+      </c>
+      <c r="C44" s="9" t="inlineStr"/>
+      <c r="D44" s="9" t="inlineStr"/>
+      <c r="E44" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Kansai Nerolac Paints (Bangladesh) Limited)</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr"/>
-      <c r="G44" s="1" t="inlineStr"/>
-      <c r="H44" s="1" t="inlineStr"/>
-      <c r="I44" s="1" t="inlineStr"/>
-      <c r="J44" s="1" t="inlineStr"/>
-      <c r="K44" s="1" t="inlineStr"/>
-      <c r="L44" s="1" t="inlineStr"/>
+      <c r="F44" s="9" t="inlineStr"/>
+      <c r="G44" s="9" t="inlineStr"/>
+      <c r="H44" s="9" t="inlineStr"/>
+      <c r="I44" s="9" t="inlineStr"/>
+      <c r="J44" s="9" t="inlineStr"/>
+      <c r="K44" s="9" t="inlineStr"/>
+      <c r="L44" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr"/>
-      <c r="B45" s="2" t="inlineStr"/>
-      <c r="C45" s="1" t="inlineStr"/>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="A45" s="9" t="inlineStr">
+        <is>
+          <t>M025</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="inlineStr"/>
+      <c r="C45" s="9" t="inlineStr"/>
+      <c r="D45" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E45" s="11" t="inlineStr">
+      <c r="E45" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr"/>
-      <c r="G45" s="1" t="inlineStr"/>
-      <c r="H45" s="1" t="inlineStr"/>
-      <c r="I45" s="1" t="inlineStr"/>
-      <c r="J45" s="1" t="inlineStr"/>
-      <c r="K45" s="1" t="inlineStr"/>
-      <c r="L45" s="1" t="inlineStr"/>
+      <c r="F45" s="9" t="inlineStr"/>
+      <c r="G45" s="9" t="inlineStr"/>
+      <c r="H45" s="9" t="inlineStr"/>
+      <c r="I45" s="9" t="inlineStr"/>
+      <c r="J45" s="9" t="inlineStr"/>
+      <c r="K45" s="9" t="inlineStr"/>
+      <c r="L45" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr"/>
-      <c r="B46" s="2" t="inlineStr"/>
-      <c r="C46" s="6" t="inlineStr">
+      <c r="A46" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B46" s="18" t="inlineStr"/>
+      <c r="C46" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="D46" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E46" s="7" t="inlineStr">
+      <c r="E46" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr"/>
-      <c r="G46" s="1" t="inlineStr"/>
-      <c r="H46" s="9" t="inlineStr">
+      <c r="F46" s="17" t="inlineStr"/>
+      <c r="G46" s="17" t="inlineStr"/>
+      <c r="H46" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="I46" s="17" t="inlineStr">
         <is>
           <t>70693</t>
         </is>
       </c>
-      <c r="J46" s="8" t="inlineStr">
+      <c r="J46" s="22" t="inlineStr">
         <is>
           <t>95000</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr"/>
-      <c r="L46" s="1" t="inlineStr"/>
+      <c r="K46" s="17" t="inlineStr"/>
+      <c r="L46" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr"/>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Borrower's narration does not contain lender's short code</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr"/>
-      <c r="D47" s="1" t="inlineStr"/>
-      <c r="E47" s="10" t="inlineStr">
+      <c r="A47" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B47" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 95000.00
+Borrower Amount: 95000.00</t>
+        </is>
+      </c>
+      <c r="C47" s="17" t="inlineStr"/>
+      <c r="D47" s="17" t="inlineStr"/>
+      <c r="E47" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Kansai Nerolac Paints (Bangladesh) Limited)</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr"/>
-      <c r="G47" s="1" t="inlineStr"/>
-      <c r="H47" s="1" t="inlineStr"/>
-      <c r="I47" s="1" t="inlineStr"/>
-      <c r="J47" s="1" t="inlineStr"/>
-      <c r="K47" s="1" t="inlineStr"/>
-      <c r="L47" s="1" t="inlineStr"/>
+      <c r="F47" s="17" t="inlineStr"/>
+      <c r="G47" s="17" t="inlineStr"/>
+      <c r="H47" s="17" t="inlineStr"/>
+      <c r="I47" s="17" t="inlineStr"/>
+      <c r="J47" s="17" t="inlineStr"/>
+      <c r="K47" s="17" t="inlineStr"/>
+      <c r="L47" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr"/>
-      <c r="B48" s="2" t="inlineStr"/>
-      <c r="C48" s="1" t="inlineStr"/>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="A48" s="17" t="inlineStr">
+        <is>
+          <t>M026</t>
+        </is>
+      </c>
+      <c r="B48" s="18" t="inlineStr"/>
+      <c r="C48" s="17" t="inlineStr"/>
+      <c r="D48" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E48" s="11" t="inlineStr">
+      <c r="E48" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr"/>
-      <c r="G48" s="1" t="inlineStr"/>
-      <c r="H48" s="1" t="inlineStr"/>
-      <c r="I48" s="1" t="inlineStr"/>
-      <c r="J48" s="1" t="inlineStr"/>
-      <c r="K48" s="1" t="inlineStr"/>
-      <c r="L48" s="1" t="inlineStr"/>
+      <c r="F48" s="17" t="inlineStr"/>
+      <c r="G48" s="17" t="inlineStr"/>
+      <c r="H48" s="17" t="inlineStr"/>
+      <c r="I48" s="17" t="inlineStr"/>
+      <c r="J48" s="17" t="inlineStr"/>
+      <c r="K48" s="17" t="inlineStr"/>
+      <c r="L48" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr"/>
-      <c r="B49" s="2" t="inlineStr"/>
-      <c r="C49" s="6" t="inlineStr">
+      <c r="A49" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B49" s="10" t="inlineStr"/>
+      <c r="C49" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="D49" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E49" s="7" t="inlineStr">
+      <c r="E49" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr"/>
-      <c r="G49" s="1" t="inlineStr"/>
-      <c r="H49" s="9" t="inlineStr">
+      <c r="F49" s="9" t="inlineStr"/>
+      <c r="G49" s="9" t="inlineStr"/>
+      <c r="H49" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="I49" s="9" t="inlineStr">
         <is>
           <t>70694</t>
         </is>
       </c>
-      <c r="J49" s="8" t="inlineStr">
+      <c r="J49" s="14" t="inlineStr">
         <is>
           <t>3300</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr"/>
-      <c r="L49" s="1" t="inlineStr"/>
+      <c r="K49" s="9" t="inlineStr"/>
+      <c r="L49" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr"/>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr"/>
-      <c r="D50" s="1" t="inlineStr"/>
-      <c r="E50" s="10" t="inlineStr">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B50" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3300.00
+Borrower Amount: 3300.00</t>
+        </is>
+      </c>
+      <c r="C50" s="9" t="inlineStr"/>
+      <c r="D50" s="9" t="inlineStr"/>
+      <c r="E50" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Computer Archives IT  Services Solution)</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr"/>
-      <c r="G50" s="1" t="inlineStr"/>
-      <c r="H50" s="1" t="inlineStr"/>
-      <c r="I50" s="1" t="inlineStr"/>
-      <c r="J50" s="1" t="inlineStr"/>
-      <c r="K50" s="1" t="inlineStr"/>
-      <c r="L50" s="1" t="inlineStr"/>
+      <c r="F50" s="9" t="inlineStr"/>
+      <c r="G50" s="9" t="inlineStr"/>
+      <c r="H50" s="9" t="inlineStr"/>
+      <c r="I50" s="9" t="inlineStr"/>
+      <c r="J50" s="9" t="inlineStr"/>
+      <c r="K50" s="9" t="inlineStr"/>
+      <c r="L50" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr"/>
-      <c r="B51" s="2" t="inlineStr"/>
-      <c r="C51" s="1" t="inlineStr"/>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="A51" s="9" t="inlineStr">
+        <is>
+          <t>M027</t>
+        </is>
+      </c>
+      <c r="B51" s="10" t="inlineStr"/>
+      <c r="C51" s="9" t="inlineStr"/>
+      <c r="D51" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E51" s="11" t="inlineStr">
+      <c r="E51" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr"/>
-      <c r="G51" s="1" t="inlineStr"/>
-      <c r="H51" s="1" t="inlineStr"/>
-      <c r="I51" s="1" t="inlineStr"/>
-      <c r="J51" s="1" t="inlineStr"/>
-      <c r="K51" s="1" t="inlineStr"/>
-      <c r="L51" s="1" t="inlineStr"/>
+      <c r="F51" s="9" t="inlineStr"/>
+      <c r="G51" s="9" t="inlineStr"/>
+      <c r="H51" s="9" t="inlineStr"/>
+      <c r="I51" s="9" t="inlineStr"/>
+      <c r="J51" s="9" t="inlineStr"/>
+      <c r="K51" s="9" t="inlineStr"/>
+      <c r="L51" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr"/>
-      <c r="B52" s="2" t="inlineStr"/>
-      <c r="C52" s="6" t="inlineStr">
+      <c r="A52" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B52" s="18" t="inlineStr"/>
+      <c r="C52" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="D52" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E52" s="7" t="inlineStr">
+      <c r="E52" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr"/>
-      <c r="G52" s="1" t="inlineStr"/>
-      <c r="H52" s="9" t="inlineStr">
+      <c r="F52" s="17" t="inlineStr"/>
+      <c r="G52" s="17" t="inlineStr"/>
+      <c r="H52" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="I52" s="17" t="inlineStr">
         <is>
           <t>70695</t>
         </is>
       </c>
-      <c r="J52" s="8" t="inlineStr">
+      <c r="J52" s="22" t="inlineStr">
         <is>
           <t>11250</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr"/>
-      <c r="L52" s="1" t="inlineStr"/>
+      <c r="K52" s="17" t="inlineStr"/>
+      <c r="L52" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr"/>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr"/>
-      <c r="D53" s="1" t="inlineStr"/>
-      <c r="E53" s="10" t="inlineStr">
+      <c r="A53" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B53" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11250.00
+Borrower Amount: 11250.00</t>
+        </is>
+      </c>
+      <c r="C53" s="17" t="inlineStr"/>
+      <c r="D53" s="17" t="inlineStr"/>
+      <c r="E53" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(B Art &amp; Block)</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr"/>
-      <c r="G53" s="1" t="inlineStr"/>
-      <c r="H53" s="1" t="inlineStr"/>
-      <c r="I53" s="1" t="inlineStr"/>
-      <c r="J53" s="1" t="inlineStr"/>
-      <c r="K53" s="1" t="inlineStr"/>
-      <c r="L53" s="1" t="inlineStr"/>
+      <c r="F53" s="17" t="inlineStr"/>
+      <c r="G53" s="17" t="inlineStr"/>
+      <c r="H53" s="17" t="inlineStr"/>
+      <c r="I53" s="17" t="inlineStr"/>
+      <c r="J53" s="17" t="inlineStr"/>
+      <c r="K53" s="17" t="inlineStr"/>
+      <c r="L53" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr"/>
-      <c r="B54" s="2" t="inlineStr"/>
-      <c r="C54" s="1" t="inlineStr"/>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="A54" s="17" t="inlineStr">
+        <is>
+          <t>M028</t>
+        </is>
+      </c>
+      <c r="B54" s="18" t="inlineStr"/>
+      <c r="C54" s="17" t="inlineStr"/>
+      <c r="D54" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E54" s="11" t="inlineStr">
+      <c r="E54" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr"/>
-      <c r="G54" s="1" t="inlineStr"/>
-      <c r="H54" s="1" t="inlineStr"/>
-      <c r="I54" s="1" t="inlineStr"/>
-      <c r="J54" s="1" t="inlineStr"/>
-      <c r="K54" s="1" t="inlineStr"/>
-      <c r="L54" s="1" t="inlineStr"/>
+      <c r="F54" s="17" t="inlineStr"/>
+      <c r="G54" s="17" t="inlineStr"/>
+      <c r="H54" s="17" t="inlineStr"/>
+      <c r="I54" s="17" t="inlineStr"/>
+      <c r="J54" s="17" t="inlineStr"/>
+      <c r="K54" s="17" t="inlineStr"/>
+      <c r="L54" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr"/>
-      <c r="B55" s="2" t="inlineStr"/>
-      <c r="C55" s="6" t="inlineStr">
+      <c r="A55" s="9" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="inlineStr"/>
+      <c r="C55" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="D55" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E55" s="7" t="inlineStr">
+      <c r="E55" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr"/>
-      <c r="G55" s="1" t="inlineStr"/>
-      <c r="H55" s="9" t="inlineStr">
+      <c r="F55" s="9" t="inlineStr"/>
+      <c r="G55" s="9" t="inlineStr"/>
+      <c r="H55" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="I55" s="9" t="inlineStr">
         <is>
           <t>70697</t>
         </is>
       </c>
-      <c r="J55" s="8" t="inlineStr">
+      <c r="J55" s="14" t="inlineStr">
         <is>
           <t>240723</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr"/>
-      <c r="L55" s="1" t="inlineStr"/>
+      <c r="K55" s="9" t="inlineStr"/>
+      <c r="L55" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr"/>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr"/>
-      <c r="D56" s="1" t="inlineStr"/>
-      <c r="E56" s="10" t="inlineStr">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B56" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 240723.00
+Borrower Amount: 240723.00</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr"/>
+      <c r="D56" s="9" t="inlineStr"/>
+      <c r="E56" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Berger Paints Bangladesh Ltd.)</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr"/>
-      <c r="G56" s="1" t="inlineStr"/>
-      <c r="H56" s="1" t="inlineStr"/>
-      <c r="I56" s="1" t="inlineStr"/>
-      <c r="J56" s="1" t="inlineStr"/>
-      <c r="K56" s="1" t="inlineStr"/>
-      <c r="L56" s="1" t="inlineStr"/>
+      <c r="F56" s="9" t="inlineStr"/>
+      <c r="G56" s="9" t="inlineStr"/>
+      <c r="H56" s="9" t="inlineStr"/>
+      <c r="I56" s="9" t="inlineStr"/>
+      <c r="J56" s="9" t="inlineStr"/>
+      <c r="K56" s="9" t="inlineStr"/>
+      <c r="L56" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr"/>
-      <c r="B57" s="2" t="inlineStr"/>
-      <c r="C57" s="1" t="inlineStr"/>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="A57" s="9" t="inlineStr">
+        <is>
+          <t>M029</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="inlineStr"/>
+      <c r="C57" s="9" t="inlineStr"/>
+      <c r="D57" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E57" s="11" t="inlineStr">
+      <c r="E57" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr"/>
-      <c r="G57" s="1" t="inlineStr"/>
-      <c r="H57" s="1" t="inlineStr"/>
-      <c r="I57" s="1" t="inlineStr"/>
-      <c r="J57" s="1" t="inlineStr"/>
-      <c r="K57" s="1" t="inlineStr"/>
-      <c r="L57" s="1" t="inlineStr"/>
+      <c r="F57" s="9" t="inlineStr"/>
+      <c r="G57" s="9" t="inlineStr"/>
+      <c r="H57" s="9" t="inlineStr"/>
+      <c r="I57" s="9" t="inlineStr"/>
+      <c r="J57" s="9" t="inlineStr"/>
+      <c r="K57" s="9" t="inlineStr"/>
+      <c r="L57" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr"/>
-      <c r="B58" s="2" t="inlineStr"/>
-      <c r="C58" s="6" t="inlineStr">
+      <c r="A58" s="17" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B58" s="18" t="inlineStr"/>
+      <c r="C58" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="D58" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E58" s="7" t="inlineStr">
+      <c r="E58" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr"/>
-      <c r="G58" s="1" t="inlineStr"/>
-      <c r="H58" s="9" t="inlineStr">
+      <c r="F58" s="17" t="inlineStr"/>
+      <c r="G58" s="17" t="inlineStr"/>
+      <c r="H58" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="I58" s="17" t="inlineStr">
         <is>
           <t>70698</t>
         </is>
       </c>
-      <c r="J58" s="8" t="inlineStr">
+      <c r="J58" s="22" t="inlineStr">
         <is>
           <t>59000</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr"/>
-      <c r="L58" s="1" t="inlineStr"/>
+      <c r="K58" s="17" t="inlineStr"/>
+      <c r="L58" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr"/>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr"/>
-      <c r="D59" s="1" t="inlineStr"/>
-      <c r="E59" s="10" t="inlineStr">
+      <c r="A59" s="17" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B59" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 59000.00
+Borrower Amount: 59000.00</t>
+        </is>
+      </c>
+      <c r="C59" s="17" t="inlineStr"/>
+      <c r="D59" s="17" t="inlineStr"/>
+      <c r="E59" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Delwar Paint &amp; Hardware)</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr"/>
-      <c r="G59" s="1" t="inlineStr"/>
-      <c r="H59" s="1" t="inlineStr"/>
-      <c r="I59" s="1" t="inlineStr"/>
-      <c r="J59" s="1" t="inlineStr"/>
-      <c r="K59" s="1" t="inlineStr"/>
-      <c r="L59" s="1" t="inlineStr"/>
+      <c r="F59" s="17" t="inlineStr"/>
+      <c r="G59" s="17" t="inlineStr"/>
+      <c r="H59" s="17" t="inlineStr"/>
+      <c r="I59" s="17" t="inlineStr"/>
+      <c r="J59" s="17" t="inlineStr"/>
+      <c r="K59" s="17" t="inlineStr"/>
+      <c r="L59" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr"/>
-      <c r="B60" s="2" t="inlineStr"/>
-      <c r="C60" s="1" t="inlineStr"/>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="A60" s="17" t="inlineStr">
+        <is>
+          <t>M030</t>
+        </is>
+      </c>
+      <c r="B60" s="18" t="inlineStr"/>
+      <c r="C60" s="17" t="inlineStr"/>
+      <c r="D60" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E60" s="11" t="inlineStr">
+      <c r="E60" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr"/>
-      <c r="G60" s="1" t="inlineStr"/>
-      <c r="H60" s="1" t="inlineStr"/>
-      <c r="I60" s="1" t="inlineStr"/>
-      <c r="J60" s="1" t="inlineStr"/>
-      <c r="K60" s="1" t="inlineStr"/>
-      <c r="L60" s="1" t="inlineStr"/>
+      <c r="F60" s="17" t="inlineStr"/>
+      <c r="G60" s="17" t="inlineStr"/>
+      <c r="H60" s="17" t="inlineStr"/>
+      <c r="I60" s="17" t="inlineStr"/>
+      <c r="J60" s="17" t="inlineStr"/>
+      <c r="K60" s="17" t="inlineStr"/>
+      <c r="L60" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr"/>
-      <c r="B61" s="2" t="inlineStr"/>
-      <c r="C61" s="6" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B61" s="10" t="inlineStr"/>
+      <c r="C61" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="D61" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E61" s="7" t="inlineStr">
+      <c r="E61" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr"/>
-      <c r="G61" s="1" t="inlineStr"/>
-      <c r="H61" s="9" t="inlineStr">
+      <c r="F61" s="9" t="inlineStr"/>
+      <c r="G61" s="9" t="inlineStr"/>
+      <c r="H61" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="I61" s="9" t="inlineStr">
         <is>
           <t>70699</t>
         </is>
       </c>
-      <c r="J61" s="8" t="inlineStr">
+      <c r="J61" s="14" t="inlineStr">
         <is>
           <t>3400</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr"/>
-      <c r="L61" s="1" t="inlineStr"/>
+      <c r="K61" s="9" t="inlineStr"/>
+      <c r="L61" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr"/>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr"/>
-      <c r="D62" s="1" t="inlineStr"/>
-      <c r="E62" s="10" t="inlineStr">
+      <c r="A62" s="9" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3400.00
+Borrower Amount: 3400.00</t>
+        </is>
+      </c>
+      <c r="C62" s="9" t="inlineStr"/>
+      <c r="D62" s="9" t="inlineStr"/>
+      <c r="E62" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr"/>
-      <c r="G62" s="1" t="inlineStr"/>
-      <c r="H62" s="1" t="inlineStr"/>
-      <c r="I62" s="1" t="inlineStr"/>
-      <c r="J62" s="1" t="inlineStr"/>
-      <c r="K62" s="1" t="inlineStr"/>
-      <c r="L62" s="1" t="inlineStr"/>
+      <c r="F62" s="9" t="inlineStr"/>
+      <c r="G62" s="9" t="inlineStr"/>
+      <c r="H62" s="9" t="inlineStr"/>
+      <c r="I62" s="9" t="inlineStr"/>
+      <c r="J62" s="9" t="inlineStr"/>
+      <c r="K62" s="9" t="inlineStr"/>
+      <c r="L62" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr"/>
-      <c r="B63" s="2" t="inlineStr"/>
-      <c r="C63" s="1" t="inlineStr"/>
-      <c r="D63" s="1" t="inlineStr">
+      <c r="A63" s="9" t="inlineStr">
+        <is>
+          <t>M031</t>
+        </is>
+      </c>
+      <c r="B63" s="10" t="inlineStr"/>
+      <c r="C63" s="9" t="inlineStr"/>
+      <c r="D63" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E63" s="11" t="inlineStr">
+      <c r="E63" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F63" s="1" t="inlineStr"/>
-      <c r="G63" s="1" t="inlineStr"/>
-      <c r="H63" s="1" t="inlineStr"/>
-      <c r="I63" s="1" t="inlineStr"/>
-      <c r="J63" s="1" t="inlineStr"/>
-      <c r="K63" s="1" t="inlineStr"/>
-      <c r="L63" s="1" t="inlineStr"/>
+      <c r="F63" s="9" t="inlineStr"/>
+      <c r="G63" s="9" t="inlineStr"/>
+      <c r="H63" s="9" t="inlineStr"/>
+      <c r="I63" s="9" t="inlineStr"/>
+      <c r="J63" s="9" t="inlineStr"/>
+      <c r="K63" s="9" t="inlineStr"/>
+      <c r="L63" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr"/>
-      <c r="B64" s="2" t="inlineStr"/>
-      <c r="C64" s="6" t="inlineStr">
+      <c r="A64" s="17" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B64" s="18" t="inlineStr"/>
+      <c r="C64" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D64" s="1" t="inlineStr">
+      <c r="D64" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E64" s="7" t="inlineStr">
+      <c r="E64" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F64" s="1" t="inlineStr"/>
-      <c r="G64" s="1" t="inlineStr"/>
-      <c r="H64" s="9" t="inlineStr">
+      <c r="F64" s="17" t="inlineStr"/>
+      <c r="G64" s="17" t="inlineStr"/>
+      <c r="H64" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I64" s="1" t="inlineStr">
+      <c r="I64" s="17" t="inlineStr">
         <is>
           <t>70700</t>
         </is>
       </c>
-      <c r="J64" s="8" t="inlineStr">
+      <c r="J64" s="22" t="inlineStr">
         <is>
           <t>2250</t>
         </is>
       </c>
-      <c r="K64" s="1" t="inlineStr"/>
-      <c r="L64" s="1" t="inlineStr"/>
+      <c r="K64" s="17" t="inlineStr"/>
+      <c r="L64" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr"/>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr"/>
-      <c r="D65" s="1" t="inlineStr"/>
-      <c r="E65" s="10" t="inlineStr">
+      <c r="A65" s="17" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B65" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 2250.00
+Borrower Amount: 2250.00</t>
+        </is>
+      </c>
+      <c r="C65" s="17" t="inlineStr"/>
+      <c r="D65" s="17" t="inlineStr"/>
+      <c r="E65" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F65" s="1" t="inlineStr"/>
-      <c r="G65" s="1" t="inlineStr"/>
-      <c r="H65" s="1" t="inlineStr"/>
-      <c r="I65" s="1" t="inlineStr"/>
-      <c r="J65" s="1" t="inlineStr"/>
-      <c r="K65" s="1" t="inlineStr"/>
-      <c r="L65" s="1" t="inlineStr"/>
+      <c r="F65" s="17" t="inlineStr"/>
+      <c r="G65" s="17" t="inlineStr"/>
+      <c r="H65" s="17" t="inlineStr"/>
+      <c r="I65" s="17" t="inlineStr"/>
+      <c r="J65" s="17" t="inlineStr"/>
+      <c r="K65" s="17" t="inlineStr"/>
+      <c r="L65" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr"/>
-      <c r="B66" s="2" t="inlineStr"/>
-      <c r="C66" s="1" t="inlineStr"/>
-      <c r="D66" s="1" t="inlineStr">
+      <c r="A66" s="17" t="inlineStr">
+        <is>
+          <t>M032</t>
+        </is>
+      </c>
+      <c r="B66" s="18" t="inlineStr"/>
+      <c r="C66" s="17" t="inlineStr"/>
+      <c r="D66" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E66" s="11" t="inlineStr">
+      <c r="E66" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F66" s="1" t="inlineStr"/>
-      <c r="G66" s="1" t="inlineStr"/>
-      <c r="H66" s="1" t="inlineStr"/>
-      <c r="I66" s="1" t="inlineStr"/>
-      <c r="J66" s="1" t="inlineStr"/>
-      <c r="K66" s="1" t="inlineStr"/>
-      <c r="L66" s="1" t="inlineStr"/>
+      <c r="F66" s="17" t="inlineStr"/>
+      <c r="G66" s="17" t="inlineStr"/>
+      <c r="H66" s="17" t="inlineStr"/>
+      <c r="I66" s="17" t="inlineStr"/>
+      <c r="J66" s="17" t="inlineStr"/>
+      <c r="K66" s="17" t="inlineStr"/>
+      <c r="L66" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr"/>
-      <c r="B67" s="2" t="inlineStr"/>
-      <c r="C67" s="6" t="inlineStr">
+      <c r="A67" s="9" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="inlineStr"/>
+      <c r="C67" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D67" s="1" t="inlineStr">
+      <c r="D67" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E67" s="7" t="inlineStr">
+      <c r="E67" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F67" s="1" t="inlineStr"/>
-      <c r="G67" s="1" t="inlineStr"/>
-      <c r="H67" s="9" t="inlineStr">
+      <c r="F67" s="9" t="inlineStr"/>
+      <c r="G67" s="9" t="inlineStr"/>
+      <c r="H67" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I67" s="1" t="inlineStr">
+      <c r="I67" s="9" t="inlineStr">
         <is>
           <t>70701</t>
         </is>
       </c>
-      <c r="J67" s="8" t="inlineStr">
+      <c r="J67" s="14" t="inlineStr">
         <is>
           <t>4360</t>
         </is>
       </c>
-      <c r="K67" s="1" t="inlineStr"/>
-      <c r="L67" s="1" t="inlineStr"/>
+      <c r="K67" s="9" t="inlineStr"/>
+      <c r="L67" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr"/>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C68" s="1" t="inlineStr"/>
-      <c r="D68" s="1" t="inlineStr"/>
-      <c r="E68" s="10" t="inlineStr">
+      <c r="A68" s="9" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B68" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 4360.00
+Borrower Amount: 4360.00</t>
+        </is>
+      </c>
+      <c r="C68" s="9" t="inlineStr"/>
+      <c r="D68" s="9" t="inlineStr"/>
+      <c r="E68" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F68" s="1" t="inlineStr"/>
-      <c r="G68" s="1" t="inlineStr"/>
-      <c r="H68" s="1" t="inlineStr"/>
-      <c r="I68" s="1" t="inlineStr"/>
-      <c r="J68" s="1" t="inlineStr"/>
-      <c r="K68" s="1" t="inlineStr"/>
-      <c r="L68" s="1" t="inlineStr"/>
+      <c r="F68" s="9" t="inlineStr"/>
+      <c r="G68" s="9" t="inlineStr"/>
+      <c r="H68" s="9" t="inlineStr"/>
+      <c r="I68" s="9" t="inlineStr"/>
+      <c r="J68" s="9" t="inlineStr"/>
+      <c r="K68" s="9" t="inlineStr"/>
+      <c r="L68" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr"/>
-      <c r="B69" s="2" t="inlineStr"/>
-      <c r="C69" s="1" t="inlineStr"/>
-      <c r="D69" s="1" t="inlineStr">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>M033</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="inlineStr"/>
+      <c r="C69" s="9" t="inlineStr"/>
+      <c r="D69" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E69" s="11" t="inlineStr">
+      <c r="E69" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F69" s="1" t="inlineStr"/>
-      <c r="G69" s="1" t="inlineStr"/>
-      <c r="H69" s="1" t="inlineStr"/>
-      <c r="I69" s="1" t="inlineStr"/>
-      <c r="J69" s="1" t="inlineStr"/>
-      <c r="K69" s="1" t="inlineStr"/>
-      <c r="L69" s="1" t="inlineStr"/>
+      <c r="F69" s="9" t="inlineStr"/>
+      <c r="G69" s="9" t="inlineStr"/>
+      <c r="H69" s="9" t="inlineStr"/>
+      <c r="I69" s="9" t="inlineStr"/>
+      <c r="J69" s="9" t="inlineStr"/>
+      <c r="K69" s="9" t="inlineStr"/>
+      <c r="L69" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr"/>
-      <c r="B70" s="2" t="inlineStr"/>
-      <c r="C70" s="6" t="inlineStr">
+      <c r="A70" s="17" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B70" s="18" t="inlineStr"/>
+      <c r="C70" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D70" s="1" t="inlineStr">
+      <c r="D70" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E70" s="7" t="inlineStr">
+      <c r="E70" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F70" s="1" t="inlineStr"/>
-      <c r="G70" s="1" t="inlineStr"/>
-      <c r="H70" s="9" t="inlineStr">
+      <c r="F70" s="17" t="inlineStr"/>
+      <c r="G70" s="17" t="inlineStr"/>
+      <c r="H70" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I70" s="1" t="inlineStr">
+      <c r="I70" s="17" t="inlineStr">
         <is>
           <t>70702</t>
         </is>
       </c>
-      <c r="J70" s="8" t="inlineStr">
+      <c r="J70" s="22" t="inlineStr">
         <is>
           <t>14940</t>
         </is>
       </c>
-      <c r="K70" s="1" t="inlineStr"/>
-      <c r="L70" s="1" t="inlineStr"/>
+      <c r="K70" s="17" t="inlineStr"/>
+      <c r="L70" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr"/>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C71" s="1" t="inlineStr"/>
-      <c r="D71" s="1" t="inlineStr"/>
-      <c r="E71" s="10" t="inlineStr">
+      <c r="A71" s="17" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B71" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 14940.00
+Borrower Amount: 14940.00</t>
+        </is>
+      </c>
+      <c r="C71" s="17" t="inlineStr"/>
+      <c r="D71" s="17" t="inlineStr"/>
+      <c r="E71" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S. Fardin Enterprise)</t>
         </is>
       </c>
-      <c r="F71" s="1" t="inlineStr"/>
-      <c r="G71" s="1" t="inlineStr"/>
-      <c r="H71" s="1" t="inlineStr"/>
-      <c r="I71" s="1" t="inlineStr"/>
-      <c r="J71" s="1" t="inlineStr"/>
-      <c r="K71" s="1" t="inlineStr"/>
-      <c r="L71" s="1" t="inlineStr"/>
+      <c r="F71" s="17" t="inlineStr"/>
+      <c r="G71" s="17" t="inlineStr"/>
+      <c r="H71" s="17" t="inlineStr"/>
+      <c r="I71" s="17" t="inlineStr"/>
+      <c r="J71" s="17" t="inlineStr"/>
+      <c r="K71" s="17" t="inlineStr"/>
+      <c r="L71" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr"/>
-      <c r="B72" s="2" t="inlineStr"/>
-      <c r="C72" s="1" t="inlineStr"/>
-      <c r="D72" s="1" t="inlineStr">
+      <c r="A72" s="17" t="inlineStr">
+        <is>
+          <t>M034</t>
+        </is>
+      </c>
+      <c r="B72" s="18" t="inlineStr"/>
+      <c r="C72" s="17" t="inlineStr"/>
+      <c r="D72" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E72" s="11" t="inlineStr">
+      <c r="E72" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F72" s="1" t="inlineStr"/>
-      <c r="G72" s="1" t="inlineStr"/>
-      <c r="H72" s="1" t="inlineStr"/>
-      <c r="I72" s="1" t="inlineStr"/>
-      <c r="J72" s="1" t="inlineStr"/>
-      <c r="K72" s="1" t="inlineStr"/>
-      <c r="L72" s="1" t="inlineStr"/>
+      <c r="F72" s="17" t="inlineStr"/>
+      <c r="G72" s="17" t="inlineStr"/>
+      <c r="H72" s="17" t="inlineStr"/>
+      <c r="I72" s="17" t="inlineStr"/>
+      <c r="J72" s="17" t="inlineStr"/>
+      <c r="K72" s="17" t="inlineStr"/>
+      <c r="L72" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr"/>
-      <c r="B73" s="2" t="inlineStr"/>
-      <c r="C73" s="6" t="inlineStr">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="inlineStr"/>
+      <c r="C73" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D73" s="1" t="inlineStr">
+      <c r="D73" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E73" s="7" t="inlineStr">
+      <c r="E73" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F73" s="1" t="inlineStr"/>
-      <c r="G73" s="1" t="inlineStr"/>
-      <c r="H73" s="9" t="inlineStr">
+      <c r="F73" s="9" t="inlineStr"/>
+      <c r="G73" s="9" t="inlineStr"/>
+      <c r="H73" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I73" s="1" t="inlineStr">
+      <c r="I73" s="9" t="inlineStr">
         <is>
           <t>70703</t>
         </is>
       </c>
-      <c r="J73" s="8" t="inlineStr">
+      <c r="J73" s="14" t="inlineStr">
         <is>
           <t>3027.5</t>
         </is>
       </c>
-      <c r="K73" s="1" t="inlineStr"/>
-      <c r="L73" s="1" t="inlineStr"/>
+      <c r="K73" s="9" t="inlineStr"/>
+      <c r="L73" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr"/>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C74" s="1" t="inlineStr"/>
-      <c r="D74" s="1" t="inlineStr"/>
-      <c r="E74" s="10" t="inlineStr">
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B74" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3027.50
+Borrower Amount: 3027.50</t>
+        </is>
+      </c>
+      <c r="C74" s="9" t="inlineStr"/>
+      <c r="D74" s="9" t="inlineStr"/>
+      <c r="E74" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Islam Electric Co.)</t>
         </is>
       </c>
-      <c r="F74" s="1" t="inlineStr"/>
-      <c r="G74" s="1" t="inlineStr"/>
-      <c r="H74" s="1" t="inlineStr"/>
-      <c r="I74" s="1" t="inlineStr"/>
-      <c r="J74" s="1" t="inlineStr"/>
-      <c r="K74" s="1" t="inlineStr"/>
-      <c r="L74" s="1" t="inlineStr"/>
+      <c r="F74" s="9" t="inlineStr"/>
+      <c r="G74" s="9" t="inlineStr"/>
+      <c r="H74" s="9" t="inlineStr"/>
+      <c r="I74" s="9" t="inlineStr"/>
+      <c r="J74" s="9" t="inlineStr"/>
+      <c r="K74" s="9" t="inlineStr"/>
+      <c r="L74" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr"/>
-      <c r="B75" s="2" t="inlineStr"/>
-      <c r="C75" s="1" t="inlineStr"/>
-      <c r="D75" s="1" t="inlineStr">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>M035</t>
+        </is>
+      </c>
+      <c r="B75" s="10" t="inlineStr"/>
+      <c r="C75" s="9" t="inlineStr"/>
+      <c r="D75" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E75" s="11" t="inlineStr">
+      <c r="E75" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F75" s="1" t="inlineStr"/>
-      <c r="G75" s="1" t="inlineStr"/>
-      <c r="H75" s="1" t="inlineStr"/>
-      <c r="I75" s="1" t="inlineStr"/>
-      <c r="J75" s="1" t="inlineStr"/>
-      <c r="K75" s="1" t="inlineStr"/>
-      <c r="L75" s="1" t="inlineStr"/>
+      <c r="F75" s="9" t="inlineStr"/>
+      <c r="G75" s="9" t="inlineStr"/>
+      <c r="H75" s="9" t="inlineStr"/>
+      <c r="I75" s="9" t="inlineStr"/>
+      <c r="J75" s="9" t="inlineStr"/>
+      <c r="K75" s="9" t="inlineStr"/>
+      <c r="L75" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr"/>
-      <c r="B76" s="2" t="inlineStr"/>
-      <c r="C76" s="6" t="inlineStr">
+      <c r="A76" s="17" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B76" s="18" t="inlineStr"/>
+      <c r="C76" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D76" s="1" t="inlineStr">
+      <c r="D76" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E76" s="7" t="inlineStr">
+      <c r="E76" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F76" s="1" t="inlineStr"/>
-      <c r="G76" s="1" t="inlineStr"/>
-      <c r="H76" s="9" t="inlineStr">
+      <c r="F76" s="17" t="inlineStr"/>
+      <c r="G76" s="17" t="inlineStr"/>
+      <c r="H76" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I76" s="1" t="inlineStr">
+      <c r="I76" s="17" t="inlineStr">
         <is>
           <t>70704</t>
         </is>
       </c>
-      <c r="J76" s="8" t="inlineStr">
+      <c r="J76" s="22" t="inlineStr">
         <is>
           <t>91900</t>
         </is>
       </c>
-      <c r="K76" s="1" t="inlineStr"/>
-      <c r="L76" s="1" t="inlineStr"/>
+      <c r="K76" s="17" t="inlineStr"/>
+      <c r="L76" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr"/>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr"/>
-      <c r="D77" s="1" t="inlineStr"/>
-      <c r="E77" s="10" t="inlineStr">
+      <c r="A77" s="17" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B77" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 91900.00
+Borrower Amount: 91900.00</t>
+        </is>
+      </c>
+      <c r="C77" s="17" t="inlineStr"/>
+      <c r="D77" s="17" t="inlineStr"/>
+      <c r="E77" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Islam Electric Co.)</t>
         </is>
       </c>
-      <c r="F77" s="1" t="inlineStr"/>
-      <c r="G77" s="1" t="inlineStr"/>
-      <c r="H77" s="1" t="inlineStr"/>
-      <c r="I77" s="1" t="inlineStr"/>
-      <c r="J77" s="1" t="inlineStr"/>
-      <c r="K77" s="1" t="inlineStr"/>
-      <c r="L77" s="1" t="inlineStr"/>
+      <c r="F77" s="17" t="inlineStr"/>
+      <c r="G77" s="17" t="inlineStr"/>
+      <c r="H77" s="17" t="inlineStr"/>
+      <c r="I77" s="17" t="inlineStr"/>
+      <c r="J77" s="17" t="inlineStr"/>
+      <c r="K77" s="17" t="inlineStr"/>
+      <c r="L77" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr"/>
-      <c r="B78" s="2" t="inlineStr"/>
-      <c r="C78" s="1" t="inlineStr"/>
-      <c r="D78" s="1" t="inlineStr">
+      <c r="A78" s="17" t="inlineStr">
+        <is>
+          <t>M036</t>
+        </is>
+      </c>
+      <c r="B78" s="18" t="inlineStr"/>
+      <c r="C78" s="17" t="inlineStr"/>
+      <c r="D78" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E78" s="11" t="inlineStr">
+      <c r="E78" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F78" s="1" t="inlineStr"/>
-      <c r="G78" s="1" t="inlineStr"/>
-      <c r="H78" s="1" t="inlineStr"/>
-      <c r="I78" s="1" t="inlineStr"/>
-      <c r="J78" s="1" t="inlineStr"/>
-      <c r="K78" s="1" t="inlineStr"/>
-      <c r="L78" s="1" t="inlineStr"/>
+      <c r="F78" s="17" t="inlineStr"/>
+      <c r="G78" s="17" t="inlineStr"/>
+      <c r="H78" s="17" t="inlineStr"/>
+      <c r="I78" s="17" t="inlineStr"/>
+      <c r="J78" s="17" t="inlineStr"/>
+      <c r="K78" s="17" t="inlineStr"/>
+      <c r="L78" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr"/>
-      <c r="B79" s="2" t="inlineStr"/>
-      <c r="C79" s="6" t="inlineStr">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B79" s="10" t="inlineStr"/>
+      <c r="C79" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D79" s="1" t="inlineStr">
+      <c r="D79" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E79" s="7" t="inlineStr">
+      <c r="E79" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F79" s="1" t="inlineStr"/>
-      <c r="G79" s="1" t="inlineStr"/>
-      <c r="H79" s="9" t="inlineStr">
+      <c r="F79" s="9" t="inlineStr"/>
+      <c r="G79" s="9" t="inlineStr"/>
+      <c r="H79" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I79" s="1" t="inlineStr">
+      <c r="I79" s="9" t="inlineStr">
         <is>
           <t>70705</t>
         </is>
       </c>
-      <c r="J79" s="8" t="inlineStr">
+      <c r="J79" s="14" t="inlineStr">
         <is>
           <t>31050</t>
         </is>
       </c>
-      <c r="K79" s="1" t="inlineStr"/>
-      <c r="L79" s="1" t="inlineStr"/>
+      <c r="K79" s="9" t="inlineStr"/>
+      <c r="L79" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr"/>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C80" s="1" t="inlineStr"/>
-      <c r="D80" s="1" t="inlineStr"/>
-      <c r="E80" s="10" t="inlineStr">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B80" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 31050.00
+Borrower Amount: 31050.00</t>
+        </is>
+      </c>
+      <c r="C80" s="9" t="inlineStr"/>
+      <c r="D80" s="9" t="inlineStr"/>
+      <c r="E80" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Jononi Enterprise)</t>
         </is>
       </c>
-      <c r="F80" s="1" t="inlineStr"/>
-      <c r="G80" s="1" t="inlineStr"/>
-      <c r="H80" s="1" t="inlineStr"/>
-      <c r="I80" s="1" t="inlineStr"/>
-      <c r="J80" s="1" t="inlineStr"/>
-      <c r="K80" s="1" t="inlineStr"/>
-      <c r="L80" s="1" t="inlineStr"/>
+      <c r="F80" s="9" t="inlineStr"/>
+      <c r="G80" s="9" t="inlineStr"/>
+      <c r="H80" s="9" t="inlineStr"/>
+      <c r="I80" s="9" t="inlineStr"/>
+      <c r="J80" s="9" t="inlineStr"/>
+      <c r="K80" s="9" t="inlineStr"/>
+      <c r="L80" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr"/>
-      <c r="B81" s="2" t="inlineStr"/>
-      <c r="C81" s="1" t="inlineStr"/>
-      <c r="D81" s="1" t="inlineStr">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>M037</t>
+        </is>
+      </c>
+      <c r="B81" s="10" t="inlineStr"/>
+      <c r="C81" s="9" t="inlineStr"/>
+      <c r="D81" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E81" s="11" t="inlineStr">
+      <c r="E81" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F81" s="1" t="inlineStr"/>
-      <c r="G81" s="1" t="inlineStr"/>
-      <c r="H81" s="1" t="inlineStr"/>
-      <c r="I81" s="1" t="inlineStr"/>
-      <c r="J81" s="1" t="inlineStr"/>
-      <c r="K81" s="1" t="inlineStr"/>
-      <c r="L81" s="1" t="inlineStr"/>
+      <c r="F81" s="9" t="inlineStr"/>
+      <c r="G81" s="9" t="inlineStr"/>
+      <c r="H81" s="9" t="inlineStr"/>
+      <c r="I81" s="9" t="inlineStr"/>
+      <c r="J81" s="9" t="inlineStr"/>
+      <c r="K81" s="9" t="inlineStr"/>
+      <c r="L81" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr"/>
-      <c r="B82" s="2" t="inlineStr"/>
-      <c r="C82" s="6" t="inlineStr">
+      <c r="A82" s="17" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B82" s="18" t="inlineStr"/>
+      <c r="C82" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D82" s="1" t="inlineStr">
+      <c r="D82" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E82" s="7" t="inlineStr">
+      <c r="E82" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F82" s="1" t="inlineStr"/>
-      <c r="G82" s="1" t="inlineStr"/>
-      <c r="H82" s="9" t="inlineStr">
+      <c r="F82" s="17" t="inlineStr"/>
+      <c r="G82" s="17" t="inlineStr"/>
+      <c r="H82" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I82" s="1" t="inlineStr">
+      <c r="I82" s="17" t="inlineStr">
         <is>
           <t>70706</t>
         </is>
       </c>
-      <c r="J82" s="8" t="inlineStr">
+      <c r="J82" s="22" t="inlineStr">
         <is>
           <t>20000</t>
         </is>
       </c>
-      <c r="K82" s="1" t="inlineStr"/>
-      <c r="L82" s="1" t="inlineStr"/>
+      <c r="K82" s="17" t="inlineStr"/>
+      <c r="L82" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr"/>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C83" s="1" t="inlineStr"/>
-      <c r="D83" s="1" t="inlineStr"/>
-      <c r="E83" s="10" t="inlineStr">
+      <c r="A83" s="17" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B83" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 20000.00
+Borrower Amount: 20000.00</t>
+        </is>
+      </c>
+      <c r="C83" s="17" t="inlineStr"/>
+      <c r="D83" s="17" t="inlineStr"/>
+      <c r="E83" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(JRS Corporation)</t>
         </is>
       </c>
-      <c r="F83" s="1" t="inlineStr"/>
-      <c r="G83" s="1" t="inlineStr"/>
-      <c r="H83" s="1" t="inlineStr"/>
-      <c r="I83" s="1" t="inlineStr"/>
-      <c r="J83" s="1" t="inlineStr"/>
-      <c r="K83" s="1" t="inlineStr"/>
-      <c r="L83" s="1" t="inlineStr"/>
+      <c r="F83" s="17" t="inlineStr"/>
+      <c r="G83" s="17" t="inlineStr"/>
+      <c r="H83" s="17" t="inlineStr"/>
+      <c r="I83" s="17" t="inlineStr"/>
+      <c r="J83" s="17" t="inlineStr"/>
+      <c r="K83" s="17" t="inlineStr"/>
+      <c r="L83" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr"/>
-      <c r="B84" s="2" t="inlineStr"/>
-      <c r="C84" s="1" t="inlineStr"/>
-      <c r="D84" s="1" t="inlineStr">
+      <c r="A84" s="17" t="inlineStr">
+        <is>
+          <t>M038</t>
+        </is>
+      </c>
+      <c r="B84" s="18" t="inlineStr"/>
+      <c r="C84" s="17" t="inlineStr"/>
+      <c r="D84" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E84" s="11" t="inlineStr">
+      <c r="E84" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F84" s="1" t="inlineStr"/>
-      <c r="G84" s="1" t="inlineStr"/>
-      <c r="H84" s="1" t="inlineStr"/>
-      <c r="I84" s="1" t="inlineStr"/>
-      <c r="J84" s="1" t="inlineStr"/>
-      <c r="K84" s="1" t="inlineStr"/>
-      <c r="L84" s="1" t="inlineStr"/>
+      <c r="F84" s="17" t="inlineStr"/>
+      <c r="G84" s="17" t="inlineStr"/>
+      <c r="H84" s="17" t="inlineStr"/>
+      <c r="I84" s="17" t="inlineStr"/>
+      <c r="J84" s="17" t="inlineStr"/>
+      <c r="K84" s="17" t="inlineStr"/>
+      <c r="L84" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr"/>
-      <c r="B85" s="2" t="inlineStr"/>
-      <c r="C85" s="6" t="inlineStr">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B85" s="10" t="inlineStr"/>
+      <c r="C85" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D85" s="1" t="inlineStr">
+      <c r="D85" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E85" s="7" t="inlineStr">
+      <c r="E85" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F85" s="1" t="inlineStr"/>
-      <c r="G85" s="1" t="inlineStr"/>
-      <c r="H85" s="9" t="inlineStr">
+      <c r="F85" s="9" t="inlineStr"/>
+      <c r="G85" s="9" t="inlineStr"/>
+      <c r="H85" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I85" s="1" t="inlineStr">
+      <c r="I85" s="9" t="inlineStr">
         <is>
           <t>70707</t>
         </is>
       </c>
-      <c r="J85" s="8" t="inlineStr">
+      <c r="J85" s="14" t="inlineStr">
         <is>
           <t>55440</t>
         </is>
       </c>
-      <c r="K85" s="1" t="inlineStr"/>
-      <c r="L85" s="1" t="inlineStr"/>
+      <c r="K85" s="9" t="inlineStr"/>
+      <c r="L85" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr"/>
-      <c r="B86" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C86" s="1" t="inlineStr"/>
-      <c r="D86" s="1" t="inlineStr"/>
-      <c r="E86" s="10" t="inlineStr">
+      <c r="A86" s="9" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 55440.00
+Borrower Amount: 55440.00</t>
+        </is>
+      </c>
+      <c r="C86" s="9" t="inlineStr"/>
+      <c r="D86" s="9" t="inlineStr"/>
+      <c r="E86" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(JRS Corporation)</t>
         </is>
       </c>
-      <c r="F86" s="1" t="inlineStr"/>
-      <c r="G86" s="1" t="inlineStr"/>
-      <c r="H86" s="1" t="inlineStr"/>
-      <c r="I86" s="1" t="inlineStr"/>
-      <c r="J86" s="1" t="inlineStr"/>
-      <c r="K86" s="1" t="inlineStr"/>
-      <c r="L86" s="1" t="inlineStr"/>
+      <c r="F86" s="9" t="inlineStr"/>
+      <c r="G86" s="9" t="inlineStr"/>
+      <c r="H86" s="9" t="inlineStr"/>
+      <c r="I86" s="9" t="inlineStr"/>
+      <c r="J86" s="9" t="inlineStr"/>
+      <c r="K86" s="9" t="inlineStr"/>
+      <c r="L86" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr"/>
-      <c r="B87" s="2" t="inlineStr"/>
-      <c r="C87" s="1" t="inlineStr"/>
-      <c r="D87" s="1" t="inlineStr">
+      <c r="A87" s="9" t="inlineStr">
+        <is>
+          <t>M039</t>
+        </is>
+      </c>
+      <c r="B87" s="10" t="inlineStr"/>
+      <c r="C87" s="9" t="inlineStr"/>
+      <c r="D87" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E87" s="11" t="inlineStr">
+      <c r="E87" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F87" s="1" t="inlineStr"/>
-      <c r="G87" s="1" t="inlineStr"/>
-      <c r="H87" s="1" t="inlineStr"/>
-      <c r="I87" s="1" t="inlineStr"/>
-      <c r="J87" s="1" t="inlineStr"/>
-      <c r="K87" s="1" t="inlineStr"/>
-      <c r="L87" s="1" t="inlineStr"/>
+      <c r="F87" s="9" t="inlineStr"/>
+      <c r="G87" s="9" t="inlineStr"/>
+      <c r="H87" s="9" t="inlineStr"/>
+      <c r="I87" s="9" t="inlineStr"/>
+      <c r="J87" s="9" t="inlineStr"/>
+      <c r="K87" s="9" t="inlineStr"/>
+      <c r="L87" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr"/>
-      <c r="B88" s="2" t="inlineStr"/>
-      <c r="C88" s="6" t="inlineStr">
+      <c r="A88" s="17" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B88" s="18" t="inlineStr"/>
+      <c r="C88" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D88" s="1" t="inlineStr">
+      <c r="D88" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E88" s="7" t="inlineStr">
+      <c r="E88" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F88" s="1" t="inlineStr"/>
-      <c r="G88" s="1" t="inlineStr"/>
-      <c r="H88" s="9" t="inlineStr">
+      <c r="F88" s="17" t="inlineStr"/>
+      <c r="G88" s="17" t="inlineStr"/>
+      <c r="H88" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I88" s="1" t="inlineStr">
+      <c r="I88" s="17" t="inlineStr">
         <is>
           <t>70708</t>
         </is>
       </c>
-      <c r="J88" s="8" t="inlineStr">
+      <c r="J88" s="22" t="inlineStr">
         <is>
           <t>4500</t>
         </is>
       </c>
-      <c r="K88" s="1" t="inlineStr"/>
-      <c r="L88" s="1" t="inlineStr"/>
+      <c r="K88" s="17" t="inlineStr"/>
+      <c r="L88" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr"/>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C89" s="1" t="inlineStr"/>
-      <c r="D89" s="1" t="inlineStr"/>
-      <c r="E89" s="10" t="inlineStr">
+      <c r="A89" s="17" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B89" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 4500.00
+Borrower Amount: 4500.00</t>
+        </is>
+      </c>
+      <c r="C89" s="17" t="inlineStr"/>
+      <c r="D89" s="17" t="inlineStr"/>
+      <c r="E89" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S Hafsa Enterprise)</t>
         </is>
       </c>
-      <c r="F89" s="1" t="inlineStr"/>
-      <c r="G89" s="1" t="inlineStr"/>
-      <c r="H89" s="1" t="inlineStr"/>
-      <c r="I89" s="1" t="inlineStr"/>
-      <c r="J89" s="1" t="inlineStr"/>
-      <c r="K89" s="1" t="inlineStr"/>
-      <c r="L89" s="1" t="inlineStr"/>
+      <c r="F89" s="17" t="inlineStr"/>
+      <c r="G89" s="17" t="inlineStr"/>
+      <c r="H89" s="17" t="inlineStr"/>
+      <c r="I89" s="17" t="inlineStr"/>
+      <c r="J89" s="17" t="inlineStr"/>
+      <c r="K89" s="17" t="inlineStr"/>
+      <c r="L89" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr"/>
-      <c r="B90" s="2" t="inlineStr"/>
-      <c r="C90" s="1" t="inlineStr"/>
-      <c r="D90" s="1" t="inlineStr">
+      <c r="A90" s="17" t="inlineStr">
+        <is>
+          <t>M040</t>
+        </is>
+      </c>
+      <c r="B90" s="18" t="inlineStr"/>
+      <c r="C90" s="17" t="inlineStr"/>
+      <c r="D90" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E90" s="11" t="inlineStr">
+      <c r="E90" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F90" s="1" t="inlineStr"/>
-      <c r="G90" s="1" t="inlineStr"/>
-      <c r="H90" s="1" t="inlineStr"/>
-      <c r="I90" s="1" t="inlineStr"/>
-      <c r="J90" s="1" t="inlineStr"/>
-      <c r="K90" s="1" t="inlineStr"/>
-      <c r="L90" s="1" t="inlineStr"/>
+      <c r="F90" s="17" t="inlineStr"/>
+      <c r="G90" s="17" t="inlineStr"/>
+      <c r="H90" s="17" t="inlineStr"/>
+      <c r="I90" s="17" t="inlineStr"/>
+      <c r="J90" s="17" t="inlineStr"/>
+      <c r="K90" s="17" t="inlineStr"/>
+      <c r="L90" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr"/>
-      <c r="B91" s="2" t="inlineStr"/>
-      <c r="C91" s="6" t="inlineStr">
+      <c r="A91" s="9" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B91" s="10" t="inlineStr"/>
+      <c r="C91" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D91" s="1" t="inlineStr">
+      <c r="D91" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E91" s="7" t="inlineStr">
+      <c r="E91" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F91" s="1" t="inlineStr"/>
-      <c r="G91" s="1" t="inlineStr"/>
-      <c r="H91" s="9" t="inlineStr">
+      <c r="F91" s="9" t="inlineStr"/>
+      <c r="G91" s="9" t="inlineStr"/>
+      <c r="H91" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I91" s="1" t="inlineStr">
+      <c r="I91" s="9" t="inlineStr">
         <is>
           <t>70709</t>
         </is>
       </c>
-      <c r="J91" s="8" t="inlineStr">
+      <c r="J91" s="14" t="inlineStr">
         <is>
           <t>140000</t>
         </is>
       </c>
-      <c r="K91" s="1" t="inlineStr"/>
-      <c r="L91" s="1" t="inlineStr"/>
+      <c r="K91" s="9" t="inlineStr"/>
+      <c r="L91" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr"/>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C92" s="1" t="inlineStr"/>
-      <c r="D92" s="1" t="inlineStr"/>
-      <c r="E92" s="10" t="inlineStr">
+      <c r="A92" s="9" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B92" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 140000.00
+Borrower Amount: 140000.00</t>
+        </is>
+      </c>
+      <c r="C92" s="9" t="inlineStr"/>
+      <c r="D92" s="9" t="inlineStr"/>
+      <c r="E92" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Ishaque Electric)</t>
         </is>
       </c>
-      <c r="F92" s="1" t="inlineStr"/>
-      <c r="G92" s="1" t="inlineStr"/>
-      <c r="H92" s="1" t="inlineStr"/>
-      <c r="I92" s="1" t="inlineStr"/>
-      <c r="J92" s="1" t="inlineStr"/>
-      <c r="K92" s="1" t="inlineStr"/>
-      <c r="L92" s="1" t="inlineStr"/>
+      <c r="F92" s="9" t="inlineStr"/>
+      <c r="G92" s="9" t="inlineStr"/>
+      <c r="H92" s="9" t="inlineStr"/>
+      <c r="I92" s="9" t="inlineStr"/>
+      <c r="J92" s="9" t="inlineStr"/>
+      <c r="K92" s="9" t="inlineStr"/>
+      <c r="L92" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr"/>
-      <c r="B93" s="2" t="inlineStr"/>
-      <c r="C93" s="1" t="inlineStr"/>
-      <c r="D93" s="1" t="inlineStr">
+      <c r="A93" s="9" t="inlineStr">
+        <is>
+          <t>M041</t>
+        </is>
+      </c>
+      <c r="B93" s="10" t="inlineStr"/>
+      <c r="C93" s="9" t="inlineStr"/>
+      <c r="D93" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E93" s="11" t="inlineStr">
+      <c r="E93" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F93" s="1" t="inlineStr"/>
-      <c r="G93" s="1" t="inlineStr"/>
-      <c r="H93" s="1" t="inlineStr"/>
-      <c r="I93" s="1" t="inlineStr"/>
-      <c r="J93" s="1" t="inlineStr"/>
-      <c r="K93" s="1" t="inlineStr"/>
-      <c r="L93" s="1" t="inlineStr"/>
+      <c r="F93" s="9" t="inlineStr"/>
+      <c r="G93" s="9" t="inlineStr"/>
+      <c r="H93" s="9" t="inlineStr"/>
+      <c r="I93" s="9" t="inlineStr"/>
+      <c r="J93" s="9" t="inlineStr"/>
+      <c r="K93" s="9" t="inlineStr"/>
+      <c r="L93" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr"/>
-      <c r="B94" s="2" t="inlineStr"/>
-      <c r="C94" s="6" t="inlineStr">
+      <c r="A94" s="17" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B94" s="18" t="inlineStr"/>
+      <c r="C94" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D94" s="1" t="inlineStr">
+      <c r="D94" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E94" s="7" t="inlineStr">
+      <c r="E94" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F94" s="1" t="inlineStr"/>
-      <c r="G94" s="1" t="inlineStr"/>
-      <c r="H94" s="9" t="inlineStr">
+      <c r="F94" s="17" t="inlineStr"/>
+      <c r="G94" s="17" t="inlineStr"/>
+      <c r="H94" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I94" s="1" t="inlineStr">
+      <c r="I94" s="17" t="inlineStr">
         <is>
           <t>70710</t>
         </is>
       </c>
-      <c r="J94" s="8" t="inlineStr">
+      <c r="J94" s="22" t="inlineStr">
         <is>
           <t>38240</t>
         </is>
       </c>
-      <c r="K94" s="1" t="inlineStr"/>
-      <c r="L94" s="1" t="inlineStr"/>
+      <c r="K94" s="17" t="inlineStr"/>
+      <c r="L94" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr"/>
-      <c r="B95" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C95" s="1" t="inlineStr"/>
-      <c r="D95" s="1" t="inlineStr"/>
-      <c r="E95" s="10" t="inlineStr">
+      <c r="A95" s="17" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B95" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 38240.00
+Borrower Amount: 38240.00</t>
+        </is>
+      </c>
+      <c r="C95" s="17" t="inlineStr"/>
+      <c r="D95" s="17" t="inlineStr"/>
+      <c r="E95" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Ishaque Electric)</t>
         </is>
       </c>
-      <c r="F95" s="1" t="inlineStr"/>
-      <c r="G95" s="1" t="inlineStr"/>
-      <c r="H95" s="1" t="inlineStr"/>
-      <c r="I95" s="1" t="inlineStr"/>
-      <c r="J95" s="1" t="inlineStr"/>
-      <c r="K95" s="1" t="inlineStr"/>
-      <c r="L95" s="1" t="inlineStr"/>
+      <c r="F95" s="17" t="inlineStr"/>
+      <c r="G95" s="17" t="inlineStr"/>
+      <c r="H95" s="17" t="inlineStr"/>
+      <c r="I95" s="17" t="inlineStr"/>
+      <c r="J95" s="17" t="inlineStr"/>
+      <c r="K95" s="17" t="inlineStr"/>
+      <c r="L95" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr"/>
-      <c r="B96" s="2" t="inlineStr"/>
-      <c r="C96" s="1" t="inlineStr"/>
-      <c r="D96" s="1" t="inlineStr">
+      <c r="A96" s="17" t="inlineStr">
+        <is>
+          <t>M042</t>
+        </is>
+      </c>
+      <c r="B96" s="18" t="inlineStr"/>
+      <c r="C96" s="17" t="inlineStr"/>
+      <c r="D96" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E96" s="11" t="inlineStr">
+      <c r="E96" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F96" s="1" t="inlineStr"/>
-      <c r="G96" s="1" t="inlineStr"/>
-      <c r="H96" s="1" t="inlineStr"/>
-      <c r="I96" s="1" t="inlineStr"/>
-      <c r="J96" s="1" t="inlineStr"/>
-      <c r="K96" s="1" t="inlineStr"/>
-      <c r="L96" s="1" t="inlineStr"/>
+      <c r="F96" s="17" t="inlineStr"/>
+      <c r="G96" s="17" t="inlineStr"/>
+      <c r="H96" s="17" t="inlineStr"/>
+      <c r="I96" s="17" t="inlineStr"/>
+      <c r="J96" s="17" t="inlineStr"/>
+      <c r="K96" s="17" t="inlineStr"/>
+      <c r="L96" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr"/>
-      <c r="B97" s="2" t="inlineStr"/>
-      <c r="C97" s="6" t="inlineStr">
+      <c r="A97" s="9" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B97" s="10" t="inlineStr"/>
+      <c r="C97" s="11" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D97" s="1" t="inlineStr">
+      <c r="D97" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E97" s="7" t="inlineStr">
+      <c r="E97" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F97" s="1" t="inlineStr"/>
-      <c r="G97" s="1" t="inlineStr"/>
-      <c r="H97" s="9" t="inlineStr">
+      <c r="F97" s="9" t="inlineStr"/>
+      <c r="G97" s="9" t="inlineStr"/>
+      <c r="H97" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I97" s="1" t="inlineStr">
+      <c r="I97" s="9" t="inlineStr">
         <is>
           <t>70711</t>
         </is>
       </c>
-      <c r="J97" s="8" t="inlineStr">
+      <c r="J97" s="14" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K97" s="1" t="inlineStr"/>
-      <c r="L97" s="1" t="inlineStr"/>
+      <c r="K97" s="9" t="inlineStr"/>
+      <c r="L97" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr"/>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Borrower's narration does not contain lender's short code
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C98" s="1" t="inlineStr"/>
-      <c r="D98" s="1" t="inlineStr"/>
-      <c r="E98" s="10" t="inlineStr">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B98" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr"/>
+      <c r="D98" s="9" t="inlineStr"/>
+      <c r="E98" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Salam &amp; Brothers)</t>
         </is>
       </c>
-      <c r="F98" s="1" t="inlineStr"/>
-      <c r="G98" s="1" t="inlineStr"/>
-      <c r="H98" s="1" t="inlineStr"/>
-      <c r="I98" s="1" t="inlineStr"/>
-      <c r="J98" s="1" t="inlineStr"/>
-      <c r="K98" s="1" t="inlineStr"/>
-      <c r="L98" s="1" t="inlineStr"/>
+      <c r="F98" s="9" t="inlineStr"/>
+      <c r="G98" s="9" t="inlineStr"/>
+      <c r="H98" s="9" t="inlineStr"/>
+      <c r="I98" s="9" t="inlineStr"/>
+      <c r="J98" s="9" t="inlineStr"/>
+      <c r="K98" s="9" t="inlineStr"/>
+      <c r="L98" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr"/>
-      <c r="B99" s="2" t="inlineStr"/>
-      <c r="C99" s="1" t="inlineStr"/>
-      <c r="D99" s="1" t="inlineStr">
+      <c r="A99" s="9" t="inlineStr">
+        <is>
+          <t>M043</t>
+        </is>
+      </c>
+      <c r="B99" s="10" t="inlineStr"/>
+      <c r="C99" s="9" t="inlineStr"/>
+      <c r="D99" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E99" s="11" t="inlineStr">
+      <c r="E99" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F99" s="1" t="inlineStr"/>
-      <c r="G99" s="1" t="inlineStr"/>
-      <c r="H99" s="1" t="inlineStr"/>
-      <c r="I99" s="1" t="inlineStr"/>
-      <c r="J99" s="1" t="inlineStr"/>
-      <c r="K99" s="1" t="inlineStr"/>
-      <c r="L99" s="1" t="inlineStr"/>
+      <c r="F99" s="9" t="inlineStr"/>
+      <c r="G99" s="9" t="inlineStr"/>
+      <c r="H99" s="9" t="inlineStr"/>
+      <c r="I99" s="9" t="inlineStr"/>
+      <c r="J99" s="9" t="inlineStr"/>
+      <c r="K99" s="9" t="inlineStr"/>
+      <c r="L99" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr"/>
-      <c r="B100" s="2" t="inlineStr"/>
-      <c r="C100" s="6" t="inlineStr">
+      <c r="A100" s="17" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B100" s="18" t="inlineStr"/>
+      <c r="C100" s="19" t="inlineStr">
         <is>
           <t>03/Jun/2025</t>
         </is>
       </c>
-      <c r="D100" s="1" t="inlineStr">
+      <c r="D100" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E100" s="7" t="inlineStr">
+      <c r="E100" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F100" s="1" t="inlineStr"/>
-      <c r="G100" s="1" t="inlineStr"/>
-      <c r="H100" s="9" t="inlineStr">
+      <c r="F100" s="17" t="inlineStr"/>
+      <c r="G100" s="17" t="inlineStr"/>
+      <c r="H100" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I100" s="1" t="inlineStr">
+      <c r="I100" s="17" t="inlineStr">
         <is>
           <t>70712</t>
         </is>
       </c>
-      <c r="J100" s="8" t="inlineStr">
+      <c r="J100" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K100" s="1" t="inlineStr"/>
-      <c r="L100" s="1" t="inlineStr"/>
+      <c r="K100" s="17" t="inlineStr"/>
+      <c r="L100" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr"/>
-      <c r="B101" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Borrower's narration does not contain lender's short code
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C101" s="1" t="inlineStr"/>
-      <c r="D101" s="1" t="inlineStr"/>
-      <c r="E101" s="10" t="inlineStr">
+      <c r="A101" s="17" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B101" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C101" s="17" t="inlineStr"/>
+      <c r="D101" s="17" t="inlineStr"/>
+      <c r="E101" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(M/S United Traders)</t>
         </is>
       </c>
-      <c r="F101" s="1" t="inlineStr"/>
-      <c r="G101" s="1" t="inlineStr"/>
-      <c r="H101" s="1" t="inlineStr"/>
-      <c r="I101" s="1" t="inlineStr"/>
-      <c r="J101" s="1" t="inlineStr"/>
-      <c r="K101" s="1" t="inlineStr"/>
-      <c r="L101" s="1" t="inlineStr"/>
+      <c r="F101" s="17" t="inlineStr"/>
+      <c r="G101" s="17" t="inlineStr"/>
+      <c r="H101" s="17" t="inlineStr"/>
+      <c r="I101" s="17" t="inlineStr"/>
+      <c r="J101" s="17" t="inlineStr"/>
+      <c r="K101" s="17" t="inlineStr"/>
+      <c r="L101" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr"/>
-      <c r="B102" s="2" t="inlineStr"/>
-      <c r="C102" s="1" t="inlineStr"/>
-      <c r="D102" s="1" t="inlineStr">
+      <c r="A102" s="17" t="inlineStr">
+        <is>
+          <t>M046</t>
+        </is>
+      </c>
+      <c r="B102" s="18" t="inlineStr"/>
+      <c r="C102" s="17" t="inlineStr"/>
+      <c r="D102" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E102" s="11" t="inlineStr">
+      <c r="E102" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F102" s="1" t="inlineStr"/>
-      <c r="G102" s="1" t="inlineStr"/>
-      <c r="H102" s="1" t="inlineStr"/>
-      <c r="I102" s="1" t="inlineStr"/>
-      <c r="J102" s="1" t="inlineStr"/>
-      <c r="K102" s="1" t="inlineStr"/>
-      <c r="L102" s="1" t="inlineStr"/>
+      <c r="F102" s="17" t="inlineStr"/>
+      <c r="G102" s="17" t="inlineStr"/>
+      <c r="H102" s="17" t="inlineStr"/>
+      <c r="I102" s="17" t="inlineStr"/>
+      <c r="J102" s="17" t="inlineStr"/>
+      <c r="K102" s="17" t="inlineStr"/>
+      <c r="L102" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="12" t="inlineStr">
+      <c r="A103" s="9" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B103" s="13" t="inlineStr"/>
-      <c r="C103" s="14" t="inlineStr">
+      <c r="B103" s="10" t="inlineStr"/>
+      <c r="C103" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D103" s="12" t="inlineStr">
+      <c r="D103" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E103" s="15" t="inlineStr">
+      <c r="E103" s="12" t="inlineStr">
         <is>
           <t>Dhaka Bank-STD-2051501833-CIL</t>
         </is>
       </c>
-      <c r="F103" s="12" t="inlineStr"/>
-      <c r="G103" s="12" t="inlineStr"/>
-      <c r="H103" s="16" t="inlineStr">
+      <c r="F103" s="9" t="inlineStr"/>
+      <c r="G103" s="9" t="inlineStr"/>
+      <c r="H103" s="13" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I103" s="12" t="inlineStr">
+      <c r="I103" s="9" t="inlineStr">
         <is>
           <t>939</t>
         </is>
       </c>
-      <c r="J103" s="12" t="inlineStr"/>
-      <c r="K103" s="17" t="inlineStr">
+      <c r="J103" s="9" t="inlineStr"/>
+      <c r="K103" s="14" t="inlineStr">
         <is>
           <t>12000000</t>
         </is>
       </c>
-      <c r="L103" s="12" t="inlineStr">
+      <c r="L103" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="12" t="inlineStr">
+      <c r="A104" s="9" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B104" s="13" t="inlineStr">
+      <c r="B104" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 12000000.00
 Borrower Amount: 12000000.00</t>
         </is>
       </c>
-      <c r="C104" s="12" t="inlineStr"/>
-      <c r="D104" s="12" t="inlineStr"/>
-      <c r="E104" s="18" t="inlineStr">
+      <c r="C104" s="9" t="inlineStr"/>
+      <c r="D104" s="9" t="inlineStr"/>
+      <c r="E104" s="15" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F104" s="12" t="inlineStr"/>
-      <c r="G104" s="12" t="inlineStr"/>
-      <c r="H104" s="12" t="inlineStr"/>
-      <c r="I104" s="12" t="inlineStr"/>
-      <c r="J104" s="12" t="inlineStr"/>
-      <c r="K104" s="12" t="inlineStr"/>
-      <c r="L104" s="12" t="inlineStr">
+      <c r="F104" s="9" t="inlineStr"/>
+      <c r="G104" s="9" t="inlineStr"/>
+      <c r="H104" s="9" t="inlineStr"/>
+      <c r="I104" s="9" t="inlineStr"/>
+      <c r="J104" s="9" t="inlineStr"/>
+      <c r="K104" s="9" t="inlineStr"/>
+      <c r="L104" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="12" t="inlineStr">
+      <c r="A105" s="9" t="inlineStr">
         <is>
           <t>M011</t>
         </is>
       </c>
-      <c r="B105" s="13" t="inlineStr"/>
-      <c r="C105" s="12" t="inlineStr"/>
-      <c r="D105" s="12" t="inlineStr">
+      <c r="B105" s="10" t="inlineStr"/>
+      <c r="C105" s="9" t="inlineStr"/>
+      <c r="D105" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E105" s="19" t="inlineStr">
+      <c r="E105" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F105" s="12" t="inlineStr"/>
-      <c r="G105" s="12" t="inlineStr"/>
-      <c r="H105" s="12" t="inlineStr"/>
-      <c r="I105" s="12" t="inlineStr"/>
-      <c r="J105" s="12" t="inlineStr"/>
-      <c r="K105" s="12" t="inlineStr"/>
-      <c r="L105" s="12" t="inlineStr">
+      <c r="F105" s="9" t="inlineStr"/>
+      <c r="G105" s="9" t="inlineStr"/>
+      <c r="H105" s="9" t="inlineStr"/>
+      <c r="I105" s="9" t="inlineStr"/>
+      <c r="J105" s="9" t="inlineStr"/>
+      <c r="K105" s="9" t="inlineStr"/>
+      <c r="L105" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="20" t="inlineStr">
+      <c r="A106" s="17" t="inlineStr">
         <is>
           <t>M012</t>
         </is>
       </c>
-      <c r="B106" s="21" t="inlineStr"/>
-      <c r="C106" s="22" t="inlineStr">
+      <c r="B106" s="18" t="inlineStr"/>
+      <c r="C106" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D106" s="20" t="inlineStr">
+      <c r="D106" s="17" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E106" s="23" t="inlineStr">
+      <c r="E106" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F106" s="20" t="inlineStr"/>
-      <c r="G106" s="20" t="inlineStr"/>
-      <c r="H106" s="24" t="inlineStr">
+      <c r="F106" s="17" t="inlineStr"/>
+      <c r="G106" s="17" t="inlineStr"/>
+      <c r="H106" s="21" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I106" s="20" t="inlineStr">
+      <c r="I106" s="17" t="inlineStr">
         <is>
           <t>940</t>
         </is>
       </c>
-      <c r="J106" s="20" t="inlineStr"/>
-      <c r="K106" s="25" t="inlineStr">
+      <c r="J106" s="17" t="inlineStr"/>
+      <c r="K106" s="22" t="inlineStr">
         <is>
           <t>22000000</t>
         </is>
       </c>
-      <c r="L106" s="20" t="inlineStr">
+      <c r="L106" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="20" t="inlineStr">
+      <c r="A107" s="17" t="inlineStr">
         <is>
           <t>M012</t>
         </is>
       </c>
-      <c r="B107" s="21" t="inlineStr">
+      <c r="B107" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0313
 Lender Amount: 22000000.00
 Borrower Amount: 22000000.00</t>
         </is>
       </c>
-      <c r="C107" s="20" t="inlineStr"/>
-      <c r="D107" s="20" t="inlineStr"/>
-      <c r="E107" s="26" t="inlineStr">
+      <c r="C107" s="17" t="inlineStr"/>
+      <c r="D107" s="17" t="inlineStr"/>
+      <c r="E107" s="23" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit,MDB#0313</t>
         </is>
       </c>
-      <c r="F107" s="20" t="inlineStr"/>
-      <c r="G107" s="20" t="inlineStr"/>
-      <c r="H107" s="20" t="inlineStr"/>
-      <c r="I107" s="20" t="inlineStr"/>
-      <c r="J107" s="20" t="inlineStr"/>
-      <c r="K107" s="20" t="inlineStr"/>
-      <c r="L107" s="20" t="inlineStr">
+      <c r="F107" s="17" t="inlineStr"/>
+      <c r="G107" s="17" t="inlineStr"/>
+      <c r="H107" s="17" t="inlineStr"/>
+      <c r="I107" s="17" t="inlineStr"/>
+      <c r="J107" s="17" t="inlineStr"/>
+      <c r="K107" s="17" t="inlineStr"/>
+      <c r="L107" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="20" t="inlineStr">
+      <c r="A108" s="17" t="inlineStr">
         <is>
           <t>M012</t>
         </is>
       </c>
-      <c r="B108" s="21" t="inlineStr"/>
-      <c r="C108" s="20" t="inlineStr"/>
-      <c r="D108" s="20" t="inlineStr">
+      <c r="B108" s="18" t="inlineStr"/>
+      <c r="C108" s="17" t="inlineStr"/>
+      <c r="D108" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E108" s="27" t="inlineStr">
+      <c r="E108" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F108" s="20" t="inlineStr"/>
-      <c r="G108" s="20" t="inlineStr"/>
-      <c r="H108" s="20" t="inlineStr"/>
-      <c r="I108" s="20" t="inlineStr"/>
-      <c r="J108" s="20" t="inlineStr"/>
-      <c r="K108" s="20" t="inlineStr"/>
-      <c r="L108" s="20" t="inlineStr">
+      <c r="F108" s="17" t="inlineStr"/>
+      <c r="G108" s="17" t="inlineStr"/>
+      <c r="H108" s="17" t="inlineStr"/>
+      <c r="I108" s="17" t="inlineStr"/>
+      <c r="J108" s="17" t="inlineStr"/>
+      <c r="K108" s="17" t="inlineStr"/>
+      <c r="L108" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr"/>
-      <c r="B109" s="2" t="inlineStr"/>
-      <c r="C109" s="6" t="inlineStr">
+      <c r="A109" s="9" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B109" s="10" t="inlineStr"/>
+      <c r="C109" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D109" s="1" t="inlineStr">
+      <c r="D109" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E109" s="7" t="inlineStr">
+      <c r="E109" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F109" s="1" t="inlineStr"/>
-      <c r="G109" s="1" t="inlineStr"/>
-      <c r="H109" s="9" t="inlineStr">
+      <c r="F109" s="9" t="inlineStr"/>
+      <c r="G109" s="9" t="inlineStr"/>
+      <c r="H109" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I109" s="1" t="inlineStr">
+      <c r="I109" s="9" t="inlineStr">
         <is>
           <t>70714</t>
         </is>
       </c>
-      <c r="J109" s="8" t="inlineStr">
+      <c r="J109" s="14" t="inlineStr">
         <is>
           <t>58108</t>
         </is>
       </c>
-      <c r="K109" s="1" t="inlineStr"/>
-      <c r="L109" s="1" t="inlineStr"/>
+      <c r="K109" s="9" t="inlineStr"/>
+      <c r="L109" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr"/>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C110" s="1" t="inlineStr"/>
-      <c r="D110" s="1" t="inlineStr"/>
-      <c r="E110" s="10" t="inlineStr">
+      <c r="A110" s="9" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B110" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 58108.00
+Borrower Amount: 58108.00</t>
+        </is>
+      </c>
+      <c r="C110" s="9" t="inlineStr"/>
+      <c r="D110" s="9" t="inlineStr"/>
+      <c r="E110" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Pragati Life Insurance Limited)</t>
         </is>
       </c>
-      <c r="F110" s="1" t="inlineStr"/>
-      <c r="G110" s="1" t="inlineStr"/>
-      <c r="H110" s="1" t="inlineStr"/>
-      <c r="I110" s="1" t="inlineStr"/>
-      <c r="J110" s="1" t="inlineStr"/>
-      <c r="K110" s="1" t="inlineStr"/>
-      <c r="L110" s="1" t="inlineStr"/>
+      <c r="F110" s="9" t="inlineStr"/>
+      <c r="G110" s="9" t="inlineStr"/>
+      <c r="H110" s="9" t="inlineStr"/>
+      <c r="I110" s="9" t="inlineStr"/>
+      <c r="J110" s="9" t="inlineStr"/>
+      <c r="K110" s="9" t="inlineStr"/>
+      <c r="L110" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr"/>
-      <c r="B111" s="2" t="inlineStr"/>
-      <c r="C111" s="1" t="inlineStr"/>
-      <c r="D111" s="1" t="inlineStr">
+      <c r="A111" s="9" t="inlineStr">
+        <is>
+          <t>M049</t>
+        </is>
+      </c>
+      <c r="B111" s="10" t="inlineStr"/>
+      <c r="C111" s="9" t="inlineStr"/>
+      <c r="D111" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E111" s="11" t="inlineStr">
+      <c r="E111" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F111" s="1" t="inlineStr"/>
-      <c r="G111" s="1" t="inlineStr"/>
-      <c r="H111" s="1" t="inlineStr"/>
-      <c r="I111" s="1" t="inlineStr"/>
-      <c r="J111" s="1" t="inlineStr"/>
-      <c r="K111" s="1" t="inlineStr"/>
-      <c r="L111" s="1" t="inlineStr"/>
+      <c r="F111" s="9" t="inlineStr"/>
+      <c r="G111" s="9" t="inlineStr"/>
+      <c r="H111" s="9" t="inlineStr"/>
+      <c r="I111" s="9" t="inlineStr"/>
+      <c r="J111" s="9" t="inlineStr"/>
+      <c r="K111" s="9" t="inlineStr"/>
+      <c r="L111" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr"/>
-      <c r="B112" s="2" t="inlineStr"/>
-      <c r="C112" s="6" t="inlineStr">
+      <c r="A112" s="17" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B112" s="18" t="inlineStr"/>
+      <c r="C112" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D112" s="1" t="inlineStr">
+      <c r="D112" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E112" s="7" t="inlineStr">
+      <c r="E112" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F112" s="1" t="inlineStr"/>
-      <c r="G112" s="1" t="inlineStr"/>
-      <c r="H112" s="9" t="inlineStr">
+      <c r="F112" s="17" t="inlineStr"/>
+      <c r="G112" s="17" t="inlineStr"/>
+      <c r="H112" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I112" s="1" t="inlineStr">
+      <c r="I112" s="17" t="inlineStr">
         <is>
           <t>70715</t>
         </is>
       </c>
-      <c r="J112" s="8" t="inlineStr">
+      <c r="J112" s="22" t="inlineStr">
         <is>
           <t>11535</t>
         </is>
       </c>
-      <c r="K112" s="1" t="inlineStr"/>
-      <c r="L112" s="1" t="inlineStr"/>
+      <c r="K112" s="17" t="inlineStr"/>
+      <c r="L112" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr"/>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C113" s="1" t="inlineStr"/>
-      <c r="D113" s="1" t="inlineStr"/>
-      <c r="E113" s="10" t="inlineStr">
+      <c r="A113" s="17" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B113" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11535.00
+Borrower Amount: 11535.00</t>
+        </is>
+      </c>
+      <c r="C113" s="17" t="inlineStr"/>
+      <c r="D113" s="17" t="inlineStr"/>
+      <c r="E113" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(ARK Fire Fighting Manufacture Co.)</t>
         </is>
       </c>
-      <c r="F113" s="1" t="inlineStr"/>
-      <c r="G113" s="1" t="inlineStr"/>
-      <c r="H113" s="1" t="inlineStr"/>
-      <c r="I113" s="1" t="inlineStr"/>
-      <c r="J113" s="1" t="inlineStr"/>
-      <c r="K113" s="1" t="inlineStr"/>
-      <c r="L113" s="1" t="inlineStr"/>
+      <c r="F113" s="17" t="inlineStr"/>
+      <c r="G113" s="17" t="inlineStr"/>
+      <c r="H113" s="17" t="inlineStr"/>
+      <c r="I113" s="17" t="inlineStr"/>
+      <c r="J113" s="17" t="inlineStr"/>
+      <c r="K113" s="17" t="inlineStr"/>
+      <c r="L113" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr"/>
-      <c r="B114" s="2" t="inlineStr"/>
-      <c r="C114" s="1" t="inlineStr"/>
-      <c r="D114" s="1" t="inlineStr">
+      <c r="A114" s="17" t="inlineStr">
+        <is>
+          <t>M050</t>
+        </is>
+      </c>
+      <c r="B114" s="18" t="inlineStr"/>
+      <c r="C114" s="17" t="inlineStr"/>
+      <c r="D114" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E114" s="11" t="inlineStr">
+      <c r="E114" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F114" s="1" t="inlineStr"/>
-      <c r="G114" s="1" t="inlineStr"/>
-      <c r="H114" s="1" t="inlineStr"/>
-      <c r="I114" s="1" t="inlineStr"/>
-      <c r="J114" s="1" t="inlineStr"/>
-      <c r="K114" s="1" t="inlineStr"/>
-      <c r="L114" s="1" t="inlineStr"/>
+      <c r="F114" s="17" t="inlineStr"/>
+      <c r="G114" s="17" t="inlineStr"/>
+      <c r="H114" s="17" t="inlineStr"/>
+      <c r="I114" s="17" t="inlineStr"/>
+      <c r="J114" s="17" t="inlineStr"/>
+      <c r="K114" s="17" t="inlineStr"/>
+      <c r="L114" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr"/>
-      <c r="B115" s="2" t="inlineStr"/>
-      <c r="C115" s="6" t="inlineStr">
+      <c r="A115" s="9" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B115" s="10" t="inlineStr"/>
+      <c r="C115" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D115" s="1" t="inlineStr">
+      <c r="D115" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E115" s="7" t="inlineStr">
+      <c r="E115" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F115" s="1" t="inlineStr"/>
-      <c r="G115" s="1" t="inlineStr"/>
-      <c r="H115" s="9" t="inlineStr">
+      <c r="F115" s="9" t="inlineStr"/>
+      <c r="G115" s="9" t="inlineStr"/>
+      <c r="H115" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I115" s="1" t="inlineStr">
+      <c r="I115" s="9" t="inlineStr">
         <is>
           <t>70716</t>
         </is>
       </c>
-      <c r="J115" s="8" t="inlineStr">
+      <c r="J115" s="14" t="inlineStr">
         <is>
           <t>1344000</t>
         </is>
       </c>
-      <c r="K115" s="1" t="inlineStr"/>
-      <c r="L115" s="1" t="inlineStr"/>
+      <c r="K115" s="9" t="inlineStr"/>
+      <c r="L115" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr"/>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C116" s="1" t="inlineStr"/>
-      <c r="D116" s="1" t="inlineStr"/>
-      <c r="E116" s="10" t="inlineStr">
+      <c r="A116" s="9" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B116" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1344000.00
+Borrower Amount: 1344000.00</t>
+        </is>
+      </c>
+      <c r="C116" s="9" t="inlineStr"/>
+      <c r="D116" s="9" t="inlineStr"/>
+      <c r="E116" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Rangpur Metal Industries Ltd.)</t>
         </is>
       </c>
-      <c r="F116" s="1" t="inlineStr"/>
-      <c r="G116" s="1" t="inlineStr"/>
-      <c r="H116" s="1" t="inlineStr"/>
-      <c r="I116" s="1" t="inlineStr"/>
-      <c r="J116" s="1" t="inlineStr"/>
-      <c r="K116" s="1" t="inlineStr"/>
-      <c r="L116" s="1" t="inlineStr"/>
+      <c r="F116" s="9" t="inlineStr"/>
+      <c r="G116" s="9" t="inlineStr"/>
+      <c r="H116" s="9" t="inlineStr"/>
+      <c r="I116" s="9" t="inlineStr"/>
+      <c r="J116" s="9" t="inlineStr"/>
+      <c r="K116" s="9" t="inlineStr"/>
+      <c r="L116" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr"/>
-      <c r="B117" s="2" t="inlineStr"/>
-      <c r="C117" s="1" t="inlineStr"/>
-      <c r="D117" s="1" t="inlineStr">
+      <c r="A117" s="9" t="inlineStr">
+        <is>
+          <t>M051</t>
+        </is>
+      </c>
+      <c r="B117" s="10" t="inlineStr"/>
+      <c r="C117" s="9" t="inlineStr"/>
+      <c r="D117" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E117" s="11" t="inlineStr">
+      <c r="E117" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F117" s="1" t="inlineStr"/>
-      <c r="G117" s="1" t="inlineStr"/>
-      <c r="H117" s="1" t="inlineStr"/>
-      <c r="I117" s="1" t="inlineStr"/>
-      <c r="J117" s="1" t="inlineStr"/>
-      <c r="K117" s="1" t="inlineStr"/>
-      <c r="L117" s="1" t="inlineStr"/>
+      <c r="F117" s="9" t="inlineStr"/>
+      <c r="G117" s="9" t="inlineStr"/>
+      <c r="H117" s="9" t="inlineStr"/>
+      <c r="I117" s="9" t="inlineStr"/>
+      <c r="J117" s="9" t="inlineStr"/>
+      <c r="K117" s="9" t="inlineStr"/>
+      <c r="L117" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr"/>
-      <c r="B118" s="2" t="inlineStr"/>
-      <c r="C118" s="6" t="inlineStr">
+      <c r="A118" s="17" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B118" s="18" t="inlineStr"/>
+      <c r="C118" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D118" s="1" t="inlineStr">
+      <c r="D118" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E118" s="7" t="inlineStr">
+      <c r="E118" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F118" s="1" t="inlineStr"/>
-      <c r="G118" s="1" t="inlineStr"/>
-      <c r="H118" s="9" t="inlineStr">
+      <c r="F118" s="17" t="inlineStr"/>
+      <c r="G118" s="17" t="inlineStr"/>
+      <c r="H118" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I118" s="1" t="inlineStr">
+      <c r="I118" s="17" t="inlineStr">
         <is>
           <t>70717</t>
         </is>
       </c>
-      <c r="J118" s="8" t="inlineStr">
+      <c r="J118" s="22" t="inlineStr">
         <is>
           <t>3457391</t>
         </is>
       </c>
-      <c r="K118" s="1" t="inlineStr"/>
-      <c r="L118" s="1" t="inlineStr"/>
+      <c r="K118" s="17" t="inlineStr"/>
+      <c r="L118" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr"/>
-      <c r="B119" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C119" s="1" t="inlineStr"/>
-      <c r="D119" s="1" t="inlineStr"/>
-      <c r="E119" s="10" t="inlineStr">
+      <c r="A119" s="17" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B119" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 3457391.00
+Borrower Amount: 3457391.00</t>
+        </is>
+      </c>
+      <c r="C119" s="17" t="inlineStr"/>
+      <c r="D119" s="17" t="inlineStr"/>
+      <c r="E119" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Rangpur Metal Industries Ltd.)</t>
         </is>
       </c>
-      <c r="F119" s="1" t="inlineStr"/>
-      <c r="G119" s="1" t="inlineStr"/>
-      <c r="H119" s="1" t="inlineStr"/>
-      <c r="I119" s="1" t="inlineStr"/>
-      <c r="J119" s="1" t="inlineStr"/>
-      <c r="K119" s="1" t="inlineStr"/>
-      <c r="L119" s="1" t="inlineStr"/>
+      <c r="F119" s="17" t="inlineStr"/>
+      <c r="G119" s="17" t="inlineStr"/>
+      <c r="H119" s="17" t="inlineStr"/>
+      <c r="I119" s="17" t="inlineStr"/>
+      <c r="J119" s="17" t="inlineStr"/>
+      <c r="K119" s="17" t="inlineStr"/>
+      <c r="L119" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr"/>
-      <c r="B120" s="2" t="inlineStr"/>
-      <c r="C120" s="1" t="inlineStr"/>
-      <c r="D120" s="1" t="inlineStr">
+      <c r="A120" s="17" t="inlineStr">
+        <is>
+          <t>M052</t>
+        </is>
+      </c>
+      <c r="B120" s="18" t="inlineStr"/>
+      <c r="C120" s="17" t="inlineStr"/>
+      <c r="D120" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E120" s="11" t="inlineStr">
+      <c r="E120" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F120" s="1" t="inlineStr"/>
-      <c r="G120" s="1" t="inlineStr"/>
-      <c r="H120" s="1" t="inlineStr"/>
-      <c r="I120" s="1" t="inlineStr"/>
-      <c r="J120" s="1" t="inlineStr"/>
-      <c r="K120" s="1" t="inlineStr"/>
-      <c r="L120" s="1" t="inlineStr"/>
+      <c r="F120" s="17" t="inlineStr"/>
+      <c r="G120" s="17" t="inlineStr"/>
+      <c r="H120" s="17" t="inlineStr"/>
+      <c r="I120" s="17" t="inlineStr"/>
+      <c r="J120" s="17" t="inlineStr"/>
+      <c r="K120" s="17" t="inlineStr"/>
+      <c r="L120" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr"/>
-      <c r="B121" s="2" t="inlineStr"/>
-      <c r="C121" s="6" t="inlineStr">
+      <c r="A121" s="9" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B121" s="10" t="inlineStr"/>
+      <c r="C121" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D121" s="1" t="inlineStr">
+      <c r="D121" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E121" s="7" t="inlineStr">
+      <c r="E121" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F121" s="1" t="inlineStr"/>
-      <c r="G121" s="1" t="inlineStr"/>
-      <c r="H121" s="9" t="inlineStr">
+      <c r="F121" s="9" t="inlineStr"/>
+      <c r="G121" s="9" t="inlineStr"/>
+      <c r="H121" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I121" s="1" t="inlineStr">
+      <c r="I121" s="9" t="inlineStr">
         <is>
           <t>70718</t>
         </is>
       </c>
-      <c r="J121" s="8" t="inlineStr">
+      <c r="J121" s="14" t="inlineStr">
         <is>
           <t>1234</t>
         </is>
       </c>
-      <c r="K121" s="1" t="inlineStr"/>
-      <c r="L121" s="1" t="inlineStr"/>
+      <c r="K121" s="9" t="inlineStr"/>
+      <c r="L121" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr"/>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C122" s="1" t="inlineStr"/>
-      <c r="D122" s="1" t="inlineStr"/>
-      <c r="E122" s="10" t="inlineStr">
+      <c r="A122" s="9" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B122" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1234.00
+Borrower Amount: 1234.00</t>
+        </is>
+      </c>
+      <c r="C122" s="9" t="inlineStr"/>
+      <c r="D122" s="9" t="inlineStr"/>
+      <c r="E122" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(Wintel Limited)</t>
         </is>
       </c>
-      <c r="F122" s="1" t="inlineStr"/>
-      <c r="G122" s="1" t="inlineStr"/>
-      <c r="H122" s="1" t="inlineStr"/>
-      <c r="I122" s="1" t="inlineStr"/>
-      <c r="J122" s="1" t="inlineStr"/>
-      <c r="K122" s="1" t="inlineStr"/>
-      <c r="L122" s="1" t="inlineStr"/>
+      <c r="F122" s="9" t="inlineStr"/>
+      <c r="G122" s="9" t="inlineStr"/>
+      <c r="H122" s="9" t="inlineStr"/>
+      <c r="I122" s="9" t="inlineStr"/>
+      <c r="J122" s="9" t="inlineStr"/>
+      <c r="K122" s="9" t="inlineStr"/>
+      <c r="L122" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr"/>
-      <c r="B123" s="2" t="inlineStr"/>
-      <c r="C123" s="1" t="inlineStr"/>
-      <c r="D123" s="1" t="inlineStr">
+      <c r="A123" s="9" t="inlineStr">
+        <is>
+          <t>M053</t>
+        </is>
+      </c>
+      <c r="B123" s="10" t="inlineStr"/>
+      <c r="C123" s="9" t="inlineStr"/>
+      <c r="D123" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E123" s="11" t="inlineStr">
+      <c r="E123" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F123" s="1" t="inlineStr"/>
-      <c r="G123" s="1" t="inlineStr"/>
-      <c r="H123" s="1" t="inlineStr"/>
-      <c r="I123" s="1" t="inlineStr"/>
-      <c r="J123" s="1" t="inlineStr"/>
-      <c r="K123" s="1" t="inlineStr"/>
-      <c r="L123" s="1" t="inlineStr"/>
+      <c r="F123" s="9" t="inlineStr"/>
+      <c r="G123" s="9" t="inlineStr"/>
+      <c r="H123" s="9" t="inlineStr"/>
+      <c r="I123" s="9" t="inlineStr"/>
+      <c r="J123" s="9" t="inlineStr"/>
+      <c r="K123" s="9" t="inlineStr"/>
+      <c r="L123" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr"/>
-      <c r="B124" s="2" t="inlineStr"/>
-      <c r="C124" s="6" t="inlineStr">
+      <c r="A124" s="17" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B124" s="18" t="inlineStr"/>
+      <c r="C124" s="19" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D124" s="1" t="inlineStr">
+      <c r="D124" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E124" s="7" t="inlineStr">
+      <c r="E124" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F124" s="1" t="inlineStr"/>
-      <c r="G124" s="1" t="inlineStr"/>
-      <c r="H124" s="9" t="inlineStr">
+      <c r="F124" s="17" t="inlineStr"/>
+      <c r="G124" s="17" t="inlineStr"/>
+      <c r="H124" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I124" s="1" t="inlineStr">
+      <c r="I124" s="17" t="inlineStr">
         <is>
           <t>70719</t>
         </is>
       </c>
-      <c r="J124" s="8" t="inlineStr">
+      <c r="J124" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K124" s="1" t="inlineStr"/>
-      <c r="L124" s="1" t="inlineStr"/>
+      <c r="K124" s="17" t="inlineStr"/>
+      <c r="L124" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr"/>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Borrower's narration does not contain lender's short code
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C125" s="1" t="inlineStr"/>
-      <c r="D125" s="1" t="inlineStr"/>
-      <c r="E125" s="10" t="inlineStr">
+      <c r="A125" s="17" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B125" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 200000.00
+Borrower Amount: 200000.00</t>
+        </is>
+      </c>
+      <c r="C125" s="17" t="inlineStr"/>
+      <c r="D125" s="17" t="inlineStr"/>
+      <c r="E125" s="23" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(A.B.M Anas Engineering)</t>
         </is>
       </c>
-      <c r="F125" s="1" t="inlineStr"/>
-      <c r="G125" s="1" t="inlineStr"/>
-      <c r="H125" s="1" t="inlineStr"/>
-      <c r="I125" s="1" t="inlineStr"/>
-      <c r="J125" s="1" t="inlineStr"/>
-      <c r="K125" s="1" t="inlineStr"/>
-      <c r="L125" s="1" t="inlineStr"/>
+      <c r="F125" s="17" t="inlineStr"/>
+      <c r="G125" s="17" t="inlineStr"/>
+      <c r="H125" s="17" t="inlineStr"/>
+      <c r="I125" s="17" t="inlineStr"/>
+      <c r="J125" s="17" t="inlineStr"/>
+      <c r="K125" s="17" t="inlineStr"/>
+      <c r="L125" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr"/>
-      <c r="B126" s="2" t="inlineStr"/>
-      <c r="C126" s="1" t="inlineStr"/>
-      <c r="D126" s="1" t="inlineStr">
+      <c r="A126" s="17" t="inlineStr">
+        <is>
+          <t>M054</t>
+        </is>
+      </c>
+      <c r="B126" s="18" t="inlineStr"/>
+      <c r="C126" s="17" t="inlineStr"/>
+      <c r="D126" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E126" s="11" t="inlineStr">
+      <c r="E126" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F126" s="1" t="inlineStr"/>
-      <c r="G126" s="1" t="inlineStr"/>
-      <c r="H126" s="1" t="inlineStr"/>
-      <c r="I126" s="1" t="inlineStr"/>
-      <c r="J126" s="1" t="inlineStr"/>
-      <c r="K126" s="1" t="inlineStr"/>
-      <c r="L126" s="1" t="inlineStr"/>
+      <c r="F126" s="17" t="inlineStr"/>
+      <c r="G126" s="17" t="inlineStr"/>
+      <c r="H126" s="17" t="inlineStr"/>
+      <c r="I126" s="17" t="inlineStr"/>
+      <c r="J126" s="17" t="inlineStr"/>
+      <c r="K126" s="17" t="inlineStr"/>
+      <c r="L126" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr"/>
-      <c r="B127" s="2" t="inlineStr"/>
-      <c r="C127" s="6" t="inlineStr">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B127" s="10" t="inlineStr"/>
+      <c r="C127" s="11" t="inlineStr">
         <is>
           <t>04/Jun/2025</t>
         </is>
       </c>
-      <c r="D127" s="1" t="inlineStr">
+      <c r="D127" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E127" s="7" t="inlineStr">
+      <c r="E127" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F127" s="1" t="inlineStr"/>
-      <c r="G127" s="1" t="inlineStr"/>
-      <c r="H127" s="9" t="inlineStr">
+      <c r="F127" s="9" t="inlineStr"/>
+      <c r="G127" s="9" t="inlineStr"/>
+      <c r="H127" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I127" s="1" t="inlineStr">
+      <c r="I127" s="9" t="inlineStr">
         <is>
           <t>70720</t>
         </is>
       </c>
-      <c r="J127" s="8" t="inlineStr">
+      <c r="J127" s="14" t="inlineStr">
         <is>
           <t>36900</t>
         </is>
       </c>
-      <c r="K127" s="1" t="inlineStr"/>
-      <c r="L127" s="1" t="inlineStr"/>
+      <c r="K127" s="9" t="inlineStr"/>
+      <c r="L127" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr"/>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C128" s="1" t="inlineStr"/>
-      <c r="D128" s="1" t="inlineStr"/>
-      <c r="E128" s="10" t="inlineStr">
+      <c r="A128" s="9" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B128" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 36900.00
+Borrower Amount: 36900.00</t>
+        </is>
+      </c>
+      <c r="C128" s="9" t="inlineStr"/>
+      <c r="D128" s="9" t="inlineStr"/>
+      <c r="E128" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(A.B.M Anas Engineering)</t>
         </is>
       </c>
-      <c r="F128" s="1" t="inlineStr"/>
-      <c r="G128" s="1" t="inlineStr"/>
-      <c r="H128" s="1" t="inlineStr"/>
-      <c r="I128" s="1" t="inlineStr"/>
-      <c r="J128" s="1" t="inlineStr"/>
-      <c r="K128" s="1" t="inlineStr"/>
-      <c r="L128" s="1" t="inlineStr"/>
+      <c r="F128" s="9" t="inlineStr"/>
+      <c r="G128" s="9" t="inlineStr"/>
+      <c r="H128" s="9" t="inlineStr"/>
+      <c r="I128" s="9" t="inlineStr"/>
+      <c r="J128" s="9" t="inlineStr"/>
+      <c r="K128" s="9" t="inlineStr"/>
+      <c r="L128" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr"/>
-      <c r="B129" s="2" t="inlineStr"/>
-      <c r="C129" s="1" t="inlineStr"/>
-      <c r="D129" s="1" t="inlineStr">
+      <c r="A129" s="9" t="inlineStr">
+        <is>
+          <t>M057</t>
+        </is>
+      </c>
+      <c r="B129" s="10" t="inlineStr"/>
+      <c r="C129" s="9" t="inlineStr"/>
+      <c r="D129" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E129" s="11" t="inlineStr">
+      <c r="E129" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F129" s="1" t="inlineStr"/>
-      <c r="G129" s="1" t="inlineStr"/>
-      <c r="H129" s="1" t="inlineStr"/>
-      <c r="I129" s="1" t="inlineStr"/>
-      <c r="J129" s="1" t="inlineStr"/>
-      <c r="K129" s="1" t="inlineStr"/>
-      <c r="L129" s="1" t="inlineStr"/>
+      <c r="F129" s="9" t="inlineStr"/>
+      <c r="G129" s="9" t="inlineStr"/>
+      <c r="H129" s="9" t="inlineStr"/>
+      <c r="I129" s="9" t="inlineStr"/>
+      <c r="J129" s="9" t="inlineStr"/>
+      <c r="K129" s="9" t="inlineStr"/>
+      <c r="L129" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr"/>
-      <c r="B130" s="2" t="inlineStr"/>
-      <c r="C130" s="6" t="inlineStr">
+      <c r="A130" s="17" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B130" s="18" t="inlineStr"/>
+      <c r="C130" s="19" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D130" s="1" t="inlineStr">
+      <c r="D130" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E130" s="7" t="inlineStr">
+      <c r="E130" s="20" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-(Hypo)-2411000001105</t>
         </is>
       </c>
-      <c r="F130" s="1" t="inlineStr"/>
-      <c r="G130" s="1" t="inlineStr"/>
-      <c r="H130" s="9" t="inlineStr">
+      <c r="F130" s="17" t="inlineStr"/>
+      <c r="G130" s="17" t="inlineStr"/>
+      <c r="H130" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I130" s="1" t="inlineStr">
+      <c r="I130" s="17" t="inlineStr">
         <is>
           <t>70688</t>
         </is>
       </c>
-      <c r="J130" s="8" t="inlineStr">
+      <c r="J130" s="22" t="inlineStr">
         <is>
           <t>1531483</t>
         </is>
       </c>
-      <c r="K130" s="1" t="inlineStr"/>
-      <c r="L130" s="1" t="inlineStr"/>
+      <c r="K130" s="17" t="inlineStr"/>
+      <c r="L130" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr"/>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 1 block
-2. Settlement mismatch: File 1 IDs [], File 2 IDs ['92117']</t>
-        </is>
-      </c>
-      <c r="C131" s="1" t="inlineStr"/>
-      <c r="D131" s="1" t="inlineStr"/>
-      <c r="E131" s="10" t="inlineStr">
+      <c r="A131" s="17" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B131" s="18" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 1531483.00
+Borrower Amount: 1531483.00</t>
+        </is>
+      </c>
+      <c r="C131" s="17" t="inlineStr"/>
+      <c r="D131" s="17" t="inlineStr"/>
+      <c r="E131" s="23" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Sadharan Bima Corporation)</t>
         </is>
       </c>
-      <c r="F131" s="1" t="inlineStr"/>
-      <c r="G131" s="1" t="inlineStr"/>
-      <c r="H131" s="1" t="inlineStr"/>
-      <c r="I131" s="1" t="inlineStr"/>
-      <c r="J131" s="1" t="inlineStr"/>
-      <c r="K131" s="1" t="inlineStr"/>
-      <c r="L131" s="1" t="inlineStr"/>
+      <c r="F131" s="17" t="inlineStr"/>
+      <c r="G131" s="17" t="inlineStr"/>
+      <c r="H131" s="17" t="inlineStr"/>
+      <c r="I131" s="17" t="inlineStr"/>
+      <c r="J131" s="17" t="inlineStr"/>
+      <c r="K131" s="17" t="inlineStr"/>
+      <c r="L131" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr"/>
-      <c r="B132" s="2" t="inlineStr"/>
-      <c r="C132" s="1" t="inlineStr"/>
-      <c r="D132" s="1" t="inlineStr">
+      <c r="A132" s="17" t="inlineStr">
+        <is>
+          <t>M058</t>
+        </is>
+      </c>
+      <c r="B132" s="18" t="inlineStr"/>
+      <c r="C132" s="17" t="inlineStr"/>
+      <c r="D132" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E132" s="11" t="inlineStr">
+      <c r="E132" s="24" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F132" s="1" t="inlineStr"/>
-      <c r="G132" s="1" t="inlineStr"/>
-      <c r="H132" s="1" t="inlineStr"/>
-      <c r="I132" s="1" t="inlineStr"/>
-      <c r="J132" s="1" t="inlineStr"/>
-      <c r="K132" s="1" t="inlineStr"/>
-      <c r="L132" s="1" t="inlineStr"/>
+      <c r="F132" s="17" t="inlineStr"/>
+      <c r="G132" s="17" t="inlineStr"/>
+      <c r="H132" s="17" t="inlineStr"/>
+      <c r="I132" s="17" t="inlineStr"/>
+      <c r="J132" s="17" t="inlineStr"/>
+      <c r="K132" s="17" t="inlineStr"/>
+      <c r="L132" s="17" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr"/>
-      <c r="B133" s="2" t="inlineStr"/>
-      <c r="C133" s="6" t="inlineStr">
+      <c r="A133" s="9" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B133" s="10" t="inlineStr"/>
+      <c r="C133" s="11" t="inlineStr">
         <is>
           <t>18/Jun/2025</t>
         </is>
       </c>
-      <c r="D133" s="1" t="inlineStr">
+      <c r="D133" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E133" s="7" t="inlineStr">
+      <c r="E133" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-(Hypo)-2411000001105</t>
         </is>
       </c>
-      <c r="F133" s="1" t="inlineStr"/>
-      <c r="G133" s="1" t="inlineStr"/>
-      <c r="H133" s="9" t="inlineStr">
+      <c r="F133" s="9" t="inlineStr"/>
+      <c r="G133" s="9" t="inlineStr"/>
+      <c r="H133" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I133" s="1" t="inlineStr">
+      <c r="I133" s="9" t="inlineStr">
         <is>
           <t>70689</t>
         </is>
       </c>
-      <c r="J133" s="8" t="inlineStr">
+      <c r="J133" s="14" t="inlineStr">
         <is>
           <t>589625</t>
         </is>
       </c>
-      <c r="K133" s="1" t="inlineStr"/>
-      <c r="L133" s="1" t="inlineStr"/>
+      <c r="K133" s="9" t="inlineStr"/>
+      <c r="L133" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr"/>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 1 block</t>
-        </is>
-      </c>
-      <c r="C134" s="1" t="inlineStr"/>
-      <c r="D134" s="1" t="inlineStr"/>
-      <c r="E134" s="10" t="inlineStr">
+      <c r="A134" s="9" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B134" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 589625.00
+Borrower Amount: 589625.00</t>
+        </is>
+      </c>
+      <c r="C134" s="9" t="inlineStr"/>
+      <c r="D134" s="9" t="inlineStr"/>
+      <c r="E134" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Narayanganj Palli Biddyut Samity-1)</t>
         </is>
       </c>
-      <c r="F134" s="1" t="inlineStr"/>
-      <c r="G134" s="1" t="inlineStr"/>
-      <c r="H134" s="1" t="inlineStr"/>
-      <c r="I134" s="1" t="inlineStr"/>
-      <c r="J134" s="1" t="inlineStr"/>
-      <c r="K134" s="1" t="inlineStr"/>
-      <c r="L134" s="1" t="inlineStr"/>
+      <c r="F134" s="9" t="inlineStr"/>
+      <c r="G134" s="9" t="inlineStr"/>
+      <c r="H134" s="9" t="inlineStr"/>
+      <c r="I134" s="9" t="inlineStr"/>
+      <c r="J134" s="9" t="inlineStr"/>
+      <c r="K134" s="9" t="inlineStr"/>
+      <c r="L134" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr"/>
-      <c r="B135" s="2" t="inlineStr"/>
-      <c r="C135" s="1" t="inlineStr"/>
-      <c r="D135" s="1" t="inlineStr">
+      <c r="A135" s="9" t="inlineStr">
+        <is>
+          <t>M059</t>
+        </is>
+      </c>
+      <c r="B135" s="10" t="inlineStr"/>
+      <c r="C135" s="9" t="inlineStr"/>
+      <c r="D135" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E135" s="11" t="inlineStr">
+      <c r="E135" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F135" s="1" t="inlineStr"/>
-      <c r="G135" s="1" t="inlineStr"/>
-      <c r="H135" s="1" t="inlineStr"/>
-      <c r="I135" s="1" t="inlineStr"/>
-      <c r="J135" s="1" t="inlineStr"/>
-      <c r="K135" s="1" t="inlineStr"/>
-      <c r="L135" s="1" t="inlineStr"/>
+      <c r="F135" s="9" t="inlineStr"/>
+      <c r="G135" s="9" t="inlineStr"/>
+      <c r="H135" s="9" t="inlineStr"/>
+      <c r="I135" s="9" t="inlineStr"/>
+      <c r="J135" s="9" t="inlineStr"/>
+      <c r="K135" s="9" t="inlineStr"/>
+      <c r="L135" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="12" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B136" s="13" t="inlineStr"/>
-      <c r="C136" s="14" t="inlineStr">
+      <c r="A136" s="17" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B136" s="18" t="inlineStr"/>
+      <c r="C136" s="19" t="inlineStr">
         <is>
           <t>21/Jun/2025</t>
         </is>
       </c>
-      <c r="D136" s="12" t="inlineStr">
+      <c r="D136" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E136" s="15" t="inlineStr">
+      <c r="E136" s="20" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F136" s="12" t="inlineStr"/>
-      <c r="G136" s="12" t="inlineStr"/>
-      <c r="H136" s="16" t="inlineStr">
+      <c r="F136" s="17" t="inlineStr"/>
+      <c r="G136" s="17" t="inlineStr"/>
+      <c r="H136" s="21" t="inlineStr">
         <is>
           <t>Journal</t>
         </is>
       </c>
-      <c r="I136" s="12" t="inlineStr">
+      <c r="I136" s="17" t="inlineStr">
         <is>
           <t>3538</t>
         </is>
       </c>
-      <c r="J136" s="17" t="inlineStr">
+      <c r="J136" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K136" s="12" t="inlineStr"/>
-      <c r="L136" s="12" t="inlineStr">
+      <c r="K136" s="17" t="inlineStr"/>
+      <c r="L136" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="12" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B137" s="13" t="inlineStr"/>
-      <c r="C137" s="12" t="inlineStr"/>
-      <c r="D137" s="12" t="inlineStr"/>
-      <c r="E137" s="15" t="inlineStr">
+      <c r="A137" s="17" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B137" s="18" t="inlineStr"/>
+      <c r="C137" s="17" t="inlineStr"/>
+      <c r="D137" s="17" t="inlineStr"/>
+      <c r="E137" s="20" t="inlineStr">
         <is>
           <t>Inter Unit Loan A/C-Pole Unit</t>
         </is>
       </c>
-      <c r="F137" s="12" t="inlineStr"/>
-      <c r="G137" s="12" t="inlineStr"/>
-      <c r="H137" s="12" t="inlineStr"/>
-      <c r="I137" s="12" t="inlineStr"/>
-      <c r="J137" s="17" t="inlineStr">
+      <c r="F137" s="17" t="inlineStr"/>
+      <c r="G137" s="17" t="inlineStr"/>
+      <c r="H137" s="17" t="inlineStr"/>
+      <c r="I137" s="17" t="inlineStr"/>
+      <c r="J137" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K137" s="12" t="inlineStr"/>
-      <c r="L137" s="12" t="inlineStr">
+      <c r="K137" s="17" t="inlineStr"/>
+      <c r="L137" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="12" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B138" s="13" t="inlineStr"/>
-      <c r="C138" s="12" t="inlineStr"/>
-      <c r="D138" s="12" t="inlineStr"/>
-      <c r="E138" s="15" t="inlineStr">
+      <c r="A138" s="17" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B138" s="18" t="inlineStr"/>
+      <c r="C138" s="17" t="inlineStr"/>
+      <c r="D138" s="17" t="inlineStr"/>
+      <c r="E138" s="20" t="inlineStr">
         <is>
           <t>Adv-Odoo Bangladesh</t>
         </is>
       </c>
-      <c r="F138" s="12" t="inlineStr"/>
-      <c r="G138" s="12" t="inlineStr"/>
-      <c r="H138" s="12" t="inlineStr"/>
-      <c r="I138" s="12" t="inlineStr"/>
-      <c r="J138" s="12" t="inlineStr"/>
-      <c r="K138" s="17" t="inlineStr">
+      <c r="F138" s="17" t="inlineStr"/>
+      <c r="G138" s="17" t="inlineStr"/>
+      <c r="H138" s="17" t="inlineStr"/>
+      <c r="I138" s="17" t="inlineStr"/>
+      <c r="J138" s="17" t="inlineStr"/>
+      <c r="K138" s="22" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L138" s="12" t="inlineStr">
+      <c r="L138" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="12" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B139" s="13" t="inlineStr">
+      <c r="A139" s="17" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B139" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 0.00
 Borrower Amount: 0.00</t>
         </is>
       </c>
-      <c r="C139" s="12" t="inlineStr"/>
-      <c r="D139" s="12" t="inlineStr"/>
-      <c r="E139" s="18" t="inlineStr">
+      <c r="C139" s="17" t="inlineStr"/>
+      <c r="D139" s="17" t="inlineStr"/>
+      <c r="E139" s="23" t="inlineStr">
         <is>
           <t>Advance Chq no-8163057.  paid to Odoo Bangladesh agt ERP Emplemention. Ref no-IT/2014/11/008. from CIL Steel unit but 50% bill Tk.2,00,000 recorded in CIL-Trancformer and CIL-Pole Tk.2,00,000 So, Now made voucher as interunit loan.</t>
         </is>
       </c>
-      <c r="F139" s="12" t="inlineStr"/>
-      <c r="G139" s="12" t="inlineStr"/>
-      <c r="H139" s="12" t="inlineStr"/>
-      <c r="I139" s="12" t="inlineStr"/>
-      <c r="J139" s="12" t="inlineStr"/>
-      <c r="K139" s="12" t="inlineStr"/>
-      <c r="L139" s="12" t="inlineStr">
+      <c r="F139" s="17" t="inlineStr"/>
+      <c r="G139" s="17" t="inlineStr"/>
+      <c r="H139" s="17" t="inlineStr"/>
+      <c r="I139" s="17" t="inlineStr"/>
+      <c r="J139" s="17" t="inlineStr"/>
+      <c r="K139" s="17" t="inlineStr"/>
+      <c r="L139" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="12" t="inlineStr">
-        <is>
-          <t>M001</t>
-        </is>
-      </c>
-      <c r="B140" s="13" t="inlineStr"/>
-      <c r="C140" s="12" t="inlineStr"/>
-      <c r="D140" s="12" t="inlineStr">
+      <c r="A140" s="17" t="inlineStr">
+        <is>
+          <t>M003</t>
+        </is>
+      </c>
+      <c r="B140" s="18" t="inlineStr"/>
+      <c r="C140" s="17" t="inlineStr"/>
+      <c r="D140" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E140" s="19" t="inlineStr">
+      <c r="E140" s="24" t="inlineStr">
         <is>
           <t>ziaul</t>
         </is>
       </c>
-      <c r="F140" s="12" t="inlineStr"/>
-      <c r="G140" s="12" t="inlineStr"/>
-      <c r="H140" s="12" t="inlineStr"/>
-      <c r="I140" s="12" t="inlineStr"/>
-      <c r="J140" s="12" t="inlineStr"/>
-      <c r="K140" s="12" t="inlineStr"/>
-      <c r="L140" s="12" t="inlineStr">
+      <c r="F140" s="17" t="inlineStr"/>
+      <c r="G140" s="17" t="inlineStr"/>
+      <c r="H140" s="17" t="inlineStr"/>
+      <c r="I140" s="17" t="inlineStr"/>
+      <c r="J140" s="17" t="inlineStr"/>
+      <c r="K140" s="17" t="inlineStr"/>
+      <c r="L140" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="20" t="inlineStr">
+      <c r="A141" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B141" s="21" t="inlineStr"/>
-      <c r="C141" s="22" t="inlineStr">
+      <c r="B141" s="10" t="inlineStr"/>
+      <c r="C141" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D141" s="20" t="inlineStr">
+      <c r="D141" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E141" s="23" t="inlineStr">
+      <c r="E141" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F141" s="20" t="inlineStr"/>
-      <c r="G141" s="20" t="inlineStr"/>
-      <c r="H141" s="24" t="inlineStr">
+      <c r="F141" s="9" t="inlineStr"/>
+      <c r="G141" s="9" t="inlineStr"/>
+      <c r="H141" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I141" s="20" t="inlineStr">
+      <c r="I141" s="9" t="inlineStr">
         <is>
           <t>70482</t>
         </is>
       </c>
-      <c r="J141" s="25" t="inlineStr">
+      <c r="J141" s="14" t="inlineStr">
         <is>
           <t>85000</t>
         </is>
       </c>
-      <c r="K141" s="20" t="inlineStr"/>
-      <c r="L141" s="20" t="inlineStr">
+      <c r="K141" s="9" t="inlineStr"/>
+      <c r="L141" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="20" t="inlineStr">
+      <c r="A142" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B142" s="21" t="inlineStr">
+      <c r="B142" s="10" t="inlineStr">
         <is>
           <t>LC Match: LC-308524012043/24
 Lender Amount: 85000.00
 Borrower Amount: 85000.00</t>
         </is>
       </c>
-      <c r="C142" s="20" t="inlineStr"/>
-      <c r="D142" s="20" t="inlineStr"/>
-      <c r="E142" s="26" t="inlineStr">
+      <c r="C142" s="9" t="inlineStr"/>
+      <c r="D142" s="9" t="inlineStr"/>
+      <c r="E142" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Port,Shipping &amp; Carrying Charges agt LC-308524012043/24-Transformer Unit-[Item-OLTC-Project-PBSH-G-89-Team-A][C-1164524]</t>
         </is>
       </c>
-      <c r="F142" s="20" t="inlineStr"/>
-      <c r="G142" s="20" t="inlineStr"/>
-      <c r="H142" s="20" t="inlineStr"/>
-      <c r="I142" s="20" t="inlineStr"/>
-      <c r="J142" s="20" t="inlineStr"/>
-      <c r="K142" s="20" t="inlineStr"/>
-      <c r="L142" s="20" t="inlineStr">
+      <c r="F142" s="9" t="inlineStr"/>
+      <c r="G142" s="9" t="inlineStr"/>
+      <c r="H142" s="9" t="inlineStr"/>
+      <c r="I142" s="9" t="inlineStr"/>
+      <c r="J142" s="9" t="inlineStr"/>
+      <c r="K142" s="9" t="inlineStr"/>
+      <c r="L142" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="20" t="inlineStr">
+      <c r="A143" s="9" t="inlineStr">
         <is>
           <t>M005</t>
         </is>
       </c>
-      <c r="B143" s="21" t="inlineStr"/>
-      <c r="C143" s="20" t="inlineStr"/>
-      <c r="D143" s="20" t="inlineStr">
+      <c r="B143" s="10" t="inlineStr"/>
+      <c r="C143" s="9" t="inlineStr"/>
+      <c r="D143" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E143" s="27" t="inlineStr">
+      <c r="E143" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F143" s="20" t="inlineStr"/>
-      <c r="G143" s="20" t="inlineStr"/>
-      <c r="H143" s="20" t="inlineStr"/>
-      <c r="I143" s="20" t="inlineStr"/>
-      <c r="J143" s="20" t="inlineStr"/>
-      <c r="K143" s="20" t="inlineStr"/>
-      <c r="L143" s="20" t="inlineStr">
+      <c r="F143" s="9" t="inlineStr"/>
+      <c r="G143" s="9" t="inlineStr"/>
+      <c r="H143" s="9" t="inlineStr"/>
+      <c r="I143" s="9" t="inlineStr"/>
+      <c r="J143" s="9" t="inlineStr"/>
+      <c r="K143" s="9" t="inlineStr"/>
+      <c r="L143" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="12" t="inlineStr">
+      <c r="A144" s="17" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B144" s="13" t="inlineStr"/>
-      <c r="C144" s="14" t="inlineStr">
+      <c r="B144" s="18" t="inlineStr"/>
+      <c r="C144" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D144" s="12" t="inlineStr">
+      <c r="D144" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E144" s="15" t="inlineStr">
+      <c r="E144" s="20" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F144" s="12" t="inlineStr"/>
-      <c r="G144" s="12" t="inlineStr"/>
-      <c r="H144" s="16" t="inlineStr">
+      <c r="F144" s="17" t="inlineStr"/>
+      <c r="G144" s="17" t="inlineStr"/>
+      <c r="H144" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I144" s="12" t="inlineStr">
+      <c r="I144" s="17" t="inlineStr">
         <is>
           <t>70541</t>
         </is>
       </c>
-      <c r="J144" s="17" t="inlineStr">
+      <c r="J144" s="22" t="inlineStr">
         <is>
           <t>272808.31</t>
         </is>
       </c>
-      <c r="K144" s="12" t="inlineStr"/>
-      <c r="L144" s="12" t="inlineStr">
+      <c r="K144" s="17" t="inlineStr"/>
+      <c r="L144" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="12" t="inlineStr">
+      <c r="A145" s="17" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B145" s="13" t="inlineStr">
+      <c r="B145" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 0.00
 Borrower Amount: 0.00</t>
         </is>
       </c>
-      <c r="C145" s="12" t="inlineStr"/>
-      <c r="D145" s="12" t="inlineStr"/>
-      <c r="E145" s="18" t="inlineStr">
+      <c r="C145" s="17" t="inlineStr"/>
+      <c r="D145" s="17" t="inlineStr"/>
+      <c r="E145" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2435445106</t>
         </is>
       </c>
-      <c r="F145" s="12" t="inlineStr"/>
-      <c r="G145" s="12" t="inlineStr"/>
-      <c r="H145" s="12" t="inlineStr"/>
-      <c r="I145" s="12" t="inlineStr"/>
-      <c r="J145" s="12" t="inlineStr"/>
-      <c r="K145" s="12" t="inlineStr"/>
-      <c r="L145" s="12" t="inlineStr">
+      <c r="F145" s="17" t="inlineStr"/>
+      <c r="G145" s="17" t="inlineStr"/>
+      <c r="H145" s="17" t="inlineStr"/>
+      <c r="I145" s="17" t="inlineStr"/>
+      <c r="J145" s="17" t="inlineStr"/>
+      <c r="K145" s="17" t="inlineStr"/>
+      <c r="L145" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="12" t="inlineStr">
+      <c r="A146" s="17" t="inlineStr">
         <is>
           <t>M007</t>
         </is>
       </c>
-      <c r="B146" s="13" t="inlineStr"/>
-      <c r="C146" s="12" t="inlineStr"/>
-      <c r="D146" s="12" t="inlineStr">
+      <c r="B146" s="18" t="inlineStr"/>
+      <c r="C146" s="17" t="inlineStr"/>
+      <c r="D146" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E146" s="19" t="inlineStr">
+      <c r="E146" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F146" s="12" t="inlineStr"/>
-      <c r="G146" s="12" t="inlineStr"/>
-      <c r="H146" s="12" t="inlineStr"/>
-      <c r="I146" s="12" t="inlineStr"/>
-      <c r="J146" s="12" t="inlineStr"/>
-      <c r="K146" s="12" t="inlineStr"/>
-      <c r="L146" s="12" t="inlineStr">
+      <c r="F146" s="17" t="inlineStr"/>
+      <c r="G146" s="17" t="inlineStr"/>
+      <c r="H146" s="17" t="inlineStr"/>
+      <c r="I146" s="17" t="inlineStr"/>
+      <c r="J146" s="17" t="inlineStr"/>
+      <c r="K146" s="17" t="inlineStr"/>
+      <c r="L146" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="20" t="inlineStr">
+      <c r="A147" s="9" t="inlineStr">
         <is>
           <t>M002</t>
         </is>
       </c>
-      <c r="B147" s="21" t="inlineStr"/>
-      <c r="C147" s="22" t="inlineStr">
+      <c r="B147" s="10" t="inlineStr"/>
+      <c r="C147" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D147" s="20" t="inlineStr">
+      <c r="D147" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E147" s="23" t="inlineStr">
+      <c r="E147" s="12" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F147" s="20" t="inlineStr"/>
-      <c r="G147" s="20" t="inlineStr"/>
-      <c r="H147" s="24" t="inlineStr">
+      <c r="F147" s="9" t="inlineStr"/>
+      <c r="G147" s="9" t="inlineStr"/>
+      <c r="H147" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I147" s="20" t="inlineStr">
+      <c r="I147" s="9" t="inlineStr">
         <is>
           <t>70548</t>
         </is>
       </c>
-      <c r="J147" s="25" t="inlineStr">
+      <c r="J147" s="14" t="inlineStr">
         <is>
           <t>133619.23</t>
         </is>
       </c>
-      <c r="K147" s="20" t="inlineStr"/>
-      <c r="L147" s="20" t="inlineStr">
+      <c r="K147" s="9" t="inlineStr"/>
+      <c r="L147" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="20" t="inlineStr">
+      <c r="A148" s="9" t="inlineStr">
         <is>
           <t>M002</t>
         </is>
       </c>
-      <c r="B148" s="21" t="inlineStr">
+      <c r="B148" s="10" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 0.00
 Borrower Amount: 0.00</t>
         </is>
       </c>
-      <c r="C148" s="20" t="inlineStr"/>
-      <c r="D148" s="20" t="inlineStr"/>
-      <c r="E148" s="26" t="inlineStr">
+      <c r="C148" s="9" t="inlineStr"/>
+      <c r="D148" s="9" t="inlineStr"/>
+      <c r="E148" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2503002237</t>
         </is>
       </c>
-      <c r="F148" s="20" t="inlineStr"/>
-      <c r="G148" s="20" t="inlineStr"/>
-      <c r="H148" s="20" t="inlineStr"/>
-      <c r="I148" s="20" t="inlineStr"/>
-      <c r="J148" s="20" t="inlineStr"/>
-      <c r="K148" s="20" t="inlineStr"/>
-      <c r="L148" s="20" t="inlineStr">
+      <c r="F148" s="9" t="inlineStr"/>
+      <c r="G148" s="9" t="inlineStr"/>
+      <c r="H148" s="9" t="inlineStr"/>
+      <c r="I148" s="9" t="inlineStr"/>
+      <c r="J148" s="9" t="inlineStr"/>
+      <c r="K148" s="9" t="inlineStr"/>
+      <c r="L148" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="20" t="inlineStr">
+      <c r="A149" s="9" t="inlineStr">
         <is>
           <t>M002</t>
         </is>
       </c>
-      <c r="B149" s="21" t="inlineStr"/>
-      <c r="C149" s="20" t="inlineStr"/>
-      <c r="D149" s="20" t="inlineStr">
+      <c r="B149" s="10" t="inlineStr"/>
+      <c r="C149" s="9" t="inlineStr"/>
+      <c r="D149" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E149" s="27" t="inlineStr">
+      <c r="E149" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F149" s="20" t="inlineStr"/>
-      <c r="G149" s="20" t="inlineStr"/>
-      <c r="H149" s="20" t="inlineStr"/>
-      <c r="I149" s="20" t="inlineStr"/>
-      <c r="J149" s="20" t="inlineStr"/>
-      <c r="K149" s="20" t="inlineStr"/>
-      <c r="L149" s="20" t="inlineStr">
+      <c r="F149" s="9" t="inlineStr"/>
+      <c r="G149" s="9" t="inlineStr"/>
+      <c r="H149" s="9" t="inlineStr"/>
+      <c r="I149" s="9" t="inlineStr"/>
+      <c r="J149" s="9" t="inlineStr"/>
+      <c r="K149" s="9" t="inlineStr"/>
+      <c r="L149" s="9" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="12" t="inlineStr">
-        <is>
-          <t>M004</t>
-        </is>
-      </c>
-      <c r="B150" s="13" t="inlineStr"/>
-      <c r="C150" s="14" t="inlineStr">
+      <c r="A150" s="17" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B150" s="18" t="inlineStr"/>
+      <c r="C150" s="19" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D150" s="12" t="inlineStr">
+      <c r="D150" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E150" s="15" t="inlineStr">
+      <c r="E150" s="20" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F150" s="12" t="inlineStr"/>
-      <c r="G150" s="12" t="inlineStr"/>
-      <c r="H150" s="16" t="inlineStr">
+      <c r="F150" s="17" t="inlineStr"/>
+      <c r="G150" s="17" t="inlineStr"/>
+      <c r="H150" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I150" s="12" t="inlineStr">
+      <c r="I150" s="17" t="inlineStr">
         <is>
           <t>70809</t>
         </is>
       </c>
-      <c r="J150" s="17" t="inlineStr">
+      <c r="J150" s="22" t="inlineStr">
         <is>
           <t>174172.7</t>
         </is>
       </c>
-      <c r="K150" s="12" t="inlineStr"/>
-      <c r="L150" s="12" t="inlineStr">
+      <c r="K150" s="17" t="inlineStr"/>
+      <c r="L150" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="12" t="inlineStr">
-        <is>
-          <t>M004</t>
-        </is>
-      </c>
-      <c r="B151" s="13" t="inlineStr">
+      <c r="A151" s="17" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B151" s="18" t="inlineStr">
         <is>
           <t>Narration Match
 Lender Amount: 0.00
 Borrower Amount: 0.00</t>
         </is>
       </c>
-      <c r="C151" s="12" t="inlineStr"/>
-      <c r="D151" s="12" t="inlineStr"/>
-      <c r="E151" s="18" t="inlineStr">
+      <c r="C151" s="17" t="inlineStr"/>
+      <c r="D151" s="17" t="inlineStr"/>
+      <c r="E151" s="23" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest repayment of Time Loan-CIL Transformer-LD-2432680080</t>
         </is>
       </c>
-      <c r="F151" s="12" t="inlineStr"/>
-      <c r="G151" s="12" t="inlineStr"/>
-      <c r="H151" s="12" t="inlineStr"/>
-      <c r="I151" s="12" t="inlineStr"/>
-      <c r="J151" s="12" t="inlineStr"/>
-      <c r="K151" s="12" t="inlineStr"/>
-      <c r="L151" s="12" t="inlineStr">
+      <c r="F151" s="17" t="inlineStr"/>
+      <c r="G151" s="17" t="inlineStr"/>
+      <c r="H151" s="17" t="inlineStr"/>
+      <c r="I151" s="17" t="inlineStr"/>
+      <c r="J151" s="17" t="inlineStr"/>
+      <c r="K151" s="17" t="inlineStr"/>
+      <c r="L151" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="12" t="inlineStr">
-        <is>
-          <t>M004</t>
-        </is>
-      </c>
-      <c r="B152" s="13" t="inlineStr"/>
-      <c r="C152" s="12" t="inlineStr"/>
-      <c r="D152" s="12" t="inlineStr">
+      <c r="A152" s="17" t="inlineStr">
+        <is>
+          <t>M001</t>
+        </is>
+      </c>
+      <c r="B152" s="18" t="inlineStr"/>
+      <c r="C152" s="17" t="inlineStr"/>
+      <c r="D152" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E152" s="19" t="inlineStr">
+      <c r="E152" s="24" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F152" s="12" t="inlineStr"/>
-      <c r="G152" s="12" t="inlineStr"/>
-      <c r="H152" s="12" t="inlineStr"/>
-      <c r="I152" s="12" t="inlineStr"/>
-      <c r="J152" s="12" t="inlineStr"/>
-      <c r="K152" s="12" t="inlineStr"/>
-      <c r="L152" s="12" t="inlineStr">
+      <c r="F152" s="17" t="inlineStr"/>
+      <c r="G152" s="17" t="inlineStr"/>
+      <c r="H152" s="17" t="inlineStr"/>
+      <c r="I152" s="17" t="inlineStr"/>
+      <c r="J152" s="17" t="inlineStr"/>
+      <c r="K152" s="17" t="inlineStr"/>
+      <c r="L152" s="17" t="inlineStr">
         <is>
           <t>Narration</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="20" t="inlineStr">
+      <c r="A153" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B153" s="21" t="inlineStr"/>
-      <c r="C153" s="22" t="inlineStr">
+      <c r="B153" s="10" t="inlineStr"/>
+      <c r="C153" s="11" t="inlineStr">
         <is>
           <t>23/Jun/2025</t>
         </is>
       </c>
-      <c r="D153" s="20" t="inlineStr">
+      <c r="D153" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E153" s="23" t="inlineStr">
+      <c r="E153" s="12" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F153" s="20" t="inlineStr"/>
-      <c r="G153" s="20" t="inlineStr"/>
-      <c r="H153" s="24" t="inlineStr">
+      <c r="F153" s="9" t="inlineStr"/>
+      <c r="G153" s="9" t="inlineStr"/>
+      <c r="H153" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I153" s="20" t="inlineStr">
+      <c r="I153" s="9" t="inlineStr">
         <is>
           <t>70810</t>
         </is>
       </c>
-      <c r="J153" s="25" t="inlineStr">
+      <c r="J153" s="14" t="inlineStr">
         <is>
           <t>83197.81</t>
         </is>
       </c>
-      <c r="K153" s="20" t="inlineStr"/>
-      <c r="L153" s="20" t="inlineStr">
+      <c r="K153" s="9" t="inlineStr"/>
+      <c r="L153" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="20" t="inlineStr">
+      <c r="A154" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B154" s="21" t="inlineStr">
+      <c r="B154" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#10855
 Lender Amount: 83197.81
 Borrower Amount: 83197.81</t>
         </is>
       </c>
-      <c r="C154" s="20" t="inlineStr"/>
-      <c r="D154" s="20" t="inlineStr"/>
-      <c r="E154" s="26" t="inlineStr">
+      <c r="C154" s="9" t="inlineStr"/>
+      <c r="D154" s="9" t="inlineStr"/>
+      <c r="E154" s="15" t="inlineStr">
         <is>
           <t>Amount being paid as Principal &amp; Interest Repayment of Time Loan of Transformer-LD-2502802705</t>
         </is>
       </c>
-      <c r="F154" s="20" t="inlineStr"/>
-      <c r="G154" s="20" t="inlineStr"/>
-      <c r="H154" s="20" t="inlineStr"/>
-      <c r="I154" s="20" t="inlineStr"/>
-      <c r="J154" s="20" t="inlineStr"/>
-      <c r="K154" s="20" t="inlineStr"/>
-      <c r="L154" s="20" t="inlineStr">
+      <c r="F154" s="9" t="inlineStr"/>
+      <c r="G154" s="9" t="inlineStr"/>
+      <c r="H154" s="9" t="inlineStr"/>
+      <c r="I154" s="9" t="inlineStr"/>
+      <c r="J154" s="9" t="inlineStr"/>
+      <c r="K154" s="9" t="inlineStr"/>
+      <c r="L154" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="20" t="inlineStr">
+      <c r="A155" s="9" t="inlineStr">
         <is>
           <t>M013</t>
         </is>
       </c>
-      <c r="B155" s="21" t="inlineStr"/>
-      <c r="C155" s="20" t="inlineStr"/>
-      <c r="D155" s="20" t="inlineStr">
+      <c r="B155" s="10" t="inlineStr"/>
+      <c r="C155" s="9" t="inlineStr"/>
+      <c r="D155" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E155" s="27" t="inlineStr">
+      <c r="E155" s="16" t="inlineStr">
         <is>
           <t>shabbirul</t>
         </is>
       </c>
-      <c r="F155" s="20" t="inlineStr"/>
-      <c r="G155" s="20" t="inlineStr"/>
-      <c r="H155" s="20" t="inlineStr"/>
-      <c r="I155" s="20" t="inlineStr"/>
-      <c r="J155" s="20" t="inlineStr"/>
-      <c r="K155" s="20" t="inlineStr"/>
-      <c r="L155" s="20" t="inlineStr">
+      <c r="F155" s="9" t="inlineStr"/>
+      <c r="G155" s="9" t="inlineStr"/>
+      <c r="H155" s="9" t="inlineStr"/>
+      <c r="I155" s="9" t="inlineStr"/>
+      <c r="J155" s="9" t="inlineStr"/>
+      <c r="K155" s="9" t="inlineStr"/>
+      <c r="L155" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="12" t="inlineStr">
+      <c r="A156" s="17" t="inlineStr">
         <is>
           <t>M014</t>
         </is>
       </c>
-      <c r="B156" s="13" t="inlineStr"/>
-      <c r="C156" s="14" t="inlineStr">
+      <c r="B156" s="18" t="inlineStr"/>
+      <c r="C156" s="19" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D156" s="12" t="inlineStr">
+      <c r="D156" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E156" s="15" t="inlineStr">
+      <c r="E156" s="20" t="inlineStr">
         <is>
           <t>Eastern Bank,STD-1011220144056</t>
         </is>
       </c>
-      <c r="F156" s="12" t="inlineStr"/>
-      <c r="G156" s="12" t="inlineStr"/>
-      <c r="H156" s="16" t="inlineStr">
+      <c r="F156" s="17" t="inlineStr"/>
+      <c r="G156" s="17" t="inlineStr"/>
+      <c r="H156" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I156" s="12" t="inlineStr">
+      <c r="I156" s="17" t="inlineStr">
         <is>
           <t>70557</t>
         </is>
       </c>
-      <c r="J156" s="17" t="inlineStr">
+      <c r="J156" s="22" t="inlineStr">
         <is>
           <t>200000</t>
         </is>
       </c>
-      <c r="K156" s="12" t="inlineStr"/>
-      <c r="L156" s="12" t="inlineStr">
+      <c r="K156" s="17" t="inlineStr"/>
+      <c r="L156" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="12" t="inlineStr">
+      <c r="A157" s="17" t="inlineStr">
         <is>
           <t>M014</t>
         </is>
       </c>
-      <c r="B157" s="13" t="inlineStr">
+      <c r="B157" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: EBL#4056
 Lender Amount: 200000.00
 Borrower Amount: 200000.00</t>
         </is>
       </c>
-      <c r="C157" s="12" t="inlineStr"/>
-      <c r="D157" s="12" t="inlineStr"/>
-      <c r="E157" s="18" t="inlineStr">
+      <c r="C157" s="17" t="inlineStr"/>
+      <c r="D157" s="17" t="inlineStr"/>
+      <c r="E157" s="23" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Inter Unit Loan A/C-Transformer Unit, EBL#44067</t>
         </is>
       </c>
-      <c r="F157" s="12" t="inlineStr"/>
-      <c r="G157" s="12" t="inlineStr"/>
-      <c r="H157" s="12" t="inlineStr"/>
-      <c r="I157" s="12" t="inlineStr"/>
-      <c r="J157" s="12" t="inlineStr"/>
-      <c r="K157" s="12" t="inlineStr"/>
-      <c r="L157" s="12" t="inlineStr">
+      <c r="F157" s="17" t="inlineStr"/>
+      <c r="G157" s="17" t="inlineStr"/>
+      <c r="H157" s="17" t="inlineStr"/>
+      <c r="I157" s="17" t="inlineStr"/>
+      <c r="J157" s="17" t="inlineStr"/>
+      <c r="K157" s="17" t="inlineStr"/>
+      <c r="L157" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="12" t="inlineStr">
+      <c r="A158" s="17" t="inlineStr">
         <is>
           <t>M014</t>
         </is>
       </c>
-      <c r="B158" s="13" t="inlineStr"/>
-      <c r="C158" s="12" t="inlineStr"/>
-      <c r="D158" s="12" t="inlineStr">
+      <c r="B158" s="18" t="inlineStr"/>
+      <c r="C158" s="17" t="inlineStr"/>
+      <c r="D158" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E158" s="19" t="inlineStr">
+      <c r="E158" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F158" s="12" t="inlineStr"/>
-      <c r="G158" s="12" t="inlineStr"/>
-      <c r="H158" s="12" t="inlineStr"/>
-      <c r="I158" s="12" t="inlineStr"/>
-      <c r="J158" s="12" t="inlineStr"/>
-      <c r="K158" s="12" t="inlineStr"/>
-      <c r="L158" s="12" t="inlineStr">
+      <c r="F158" s="17" t="inlineStr"/>
+      <c r="G158" s="17" t="inlineStr"/>
+      <c r="H158" s="17" t="inlineStr"/>
+      <c r="I158" s="17" t="inlineStr"/>
+      <c r="J158" s="17" t="inlineStr"/>
+      <c r="K158" s="17" t="inlineStr"/>
+      <c r="L158" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="20" t="inlineStr">
+      <c r="A159" s="9" t="inlineStr">
         <is>
           <t>M015</t>
         </is>
       </c>
-      <c r="B159" s="21" t="inlineStr"/>
-      <c r="C159" s="22" t="inlineStr">
+      <c r="B159" s="10" t="inlineStr"/>
+      <c r="C159" s="11" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D159" s="20" t="inlineStr">
+      <c r="D159" s="9" t="inlineStr">
         <is>
           <t>Dr</t>
         </is>
       </c>
-      <c r="E159" s="23" t="inlineStr">
+      <c r="E159" s="12" t="inlineStr">
         <is>
           <t>Prime Bank-CD-2126117010855</t>
         </is>
       </c>
-      <c r="F159" s="20" t="inlineStr"/>
-      <c r="G159" s="20" t="inlineStr"/>
-      <c r="H159" s="24" t="inlineStr">
+      <c r="F159" s="9" t="inlineStr"/>
+      <c r="G159" s="9" t="inlineStr"/>
+      <c r="H159" s="13" t="inlineStr">
         <is>
           <t>Receipt</t>
         </is>
       </c>
-      <c r="I159" s="20" t="inlineStr">
+      <c r="I159" s="9" t="inlineStr">
         <is>
           <t>964</t>
         </is>
       </c>
-      <c r="J159" s="20" t="inlineStr"/>
-      <c r="K159" s="25" t="inlineStr">
+      <c r="J159" s="9" t="inlineStr"/>
+      <c r="K159" s="14" t="inlineStr">
         <is>
           <t>50000</t>
         </is>
       </c>
-      <c r="L159" s="20" t="inlineStr">
+      <c r="L159" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="20" t="inlineStr">
+      <c r="A160" s="9" t="inlineStr">
         <is>
           <t>M015</t>
         </is>
       </c>
-      <c r="B160" s="21" t="inlineStr">
+      <c r="B160" s="10" t="inlineStr">
         <is>
           <t>Interunit Loan Match: PBL#1060
 Lender Amount: 50000.00
 Borrower Amount: 50000.00</t>
         </is>
       </c>
-      <c r="C160" s="20" t="inlineStr"/>
-      <c r="D160" s="20" t="inlineStr"/>
-      <c r="E160" s="26" t="inlineStr">
+      <c r="C160" s="9" t="inlineStr"/>
+      <c r="D160" s="9" t="inlineStr"/>
+      <c r="E160" s="15" t="inlineStr">
         <is>
           <t>Interunit fund transfer as Inter Unit Loan A/C-Transformer Unit,PBL#1060</t>
         </is>
       </c>
-      <c r="F160" s="20" t="inlineStr"/>
-      <c r="G160" s="20" t="inlineStr"/>
-      <c r="H160" s="20" t="inlineStr"/>
-      <c r="I160" s="20" t="inlineStr"/>
-      <c r="J160" s="20" t="inlineStr"/>
-      <c r="K160" s="20" t="inlineStr"/>
-      <c r="L160" s="20" t="inlineStr">
+      <c r="F160" s="9" t="inlineStr"/>
+      <c r="G160" s="9" t="inlineStr"/>
+      <c r="H160" s="9" t="inlineStr"/>
+      <c r="I160" s="9" t="inlineStr"/>
+      <c r="J160" s="9" t="inlineStr"/>
+      <c r="K160" s="9" t="inlineStr"/>
+      <c r="L160" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="20" t="inlineStr">
+      <c r="A161" s="9" t="inlineStr">
         <is>
           <t>M015</t>
         </is>
       </c>
-      <c r="B161" s="21" t="inlineStr"/>
-      <c r="C161" s="20" t="inlineStr"/>
-      <c r="D161" s="20" t="inlineStr">
+      <c r="B161" s="10" t="inlineStr"/>
+      <c r="C161" s="9" t="inlineStr"/>
+      <c r="D161" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E161" s="27" t="inlineStr">
+      <c r="E161" s="16" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F161" s="20" t="inlineStr"/>
-      <c r="G161" s="20" t="inlineStr"/>
-      <c r="H161" s="20" t="inlineStr"/>
-      <c r="I161" s="20" t="inlineStr"/>
-      <c r="J161" s="20" t="inlineStr"/>
-      <c r="K161" s="20" t="inlineStr"/>
-      <c r="L161" s="20" t="inlineStr">
+      <c r="F161" s="9" t="inlineStr"/>
+      <c r="G161" s="9" t="inlineStr"/>
+      <c r="H161" s="9" t="inlineStr"/>
+      <c r="I161" s="9" t="inlineStr"/>
+      <c r="J161" s="9" t="inlineStr"/>
+      <c r="K161" s="9" t="inlineStr"/>
+      <c r="L161" s="9" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="12" t="inlineStr">
+      <c r="A162" s="17" t="inlineStr">
         <is>
           <t>M016</t>
         </is>
       </c>
-      <c r="B162" s="13" t="inlineStr"/>
-      <c r="C162" s="14" t="inlineStr">
+      <c r="B162" s="18" t="inlineStr"/>
+      <c r="C162" s="19" t="inlineStr">
         <is>
           <t>25/Jun/2025</t>
         </is>
       </c>
-      <c r="D162" s="12" t="inlineStr">
+      <c r="D162" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E162" s="15" t="inlineStr">
+      <c r="E162" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F162" s="12" t="inlineStr"/>
-      <c r="G162" s="12" t="inlineStr"/>
-      <c r="H162" s="16" t="inlineStr">
+      <c r="F162" s="17" t="inlineStr"/>
+      <c r="G162" s="17" t="inlineStr"/>
+      <c r="H162" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I162" s="12" t="inlineStr">
+      <c r="I162" s="17" t="inlineStr">
         <is>
           <t>70775</t>
         </is>
       </c>
-      <c r="J162" s="17" t="inlineStr">
+      <c r="J162" s="22" t="inlineStr">
         <is>
           <t>4000000</t>
         </is>
       </c>
-      <c r="K162" s="12" t="inlineStr"/>
-      <c r="L162" s="12" t="inlineStr">
+      <c r="K162" s="17" t="inlineStr"/>
+      <c r="L162" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="12" t="inlineStr">
+      <c r="A163" s="17" t="inlineStr">
         <is>
           <t>M016</t>
         </is>
       </c>
-      <c r="B163" s="13" t="inlineStr">
+      <c r="B163" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 4000000.00
 Borrower Amount: 4000000.00</t>
         </is>
       </c>
-      <c r="C163" s="12" t="inlineStr"/>
-      <c r="D163" s="12" t="inlineStr"/>
-      <c r="E163" s="18" t="inlineStr">
+      <c r="C163" s="17" t="inlineStr"/>
+      <c r="D163" s="17" t="inlineStr"/>
+      <c r="E163" s="23" t="inlineStr">
         <is>
           <t>Interunit Fund Transfer as Inter Unit Loan A/C-Transformer Unit, MDB#0313</t>
         </is>
       </c>
-      <c r="F163" s="12" t="inlineStr"/>
-      <c r="G163" s="12" t="inlineStr"/>
-      <c r="H163" s="12" t="inlineStr"/>
-      <c r="I163" s="12" t="inlineStr"/>
-      <c r="J163" s="12" t="inlineStr"/>
-      <c r="K163" s="12" t="inlineStr"/>
-      <c r="L163" s="12" t="inlineStr">
+      <c r="F163" s="17" t="inlineStr"/>
+      <c r="G163" s="17" t="inlineStr"/>
+      <c r="H163" s="17" t="inlineStr"/>
+      <c r="I163" s="17" t="inlineStr"/>
+      <c r="J163" s="17" t="inlineStr"/>
+      <c r="K163" s="17" t="inlineStr"/>
+      <c r="L163" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="12" t="inlineStr">
+      <c r="A164" s="17" t="inlineStr">
         <is>
           <t>M016</t>
         </is>
       </c>
-      <c r="B164" s="13" t="inlineStr"/>
-      <c r="C164" s="12" t="inlineStr"/>
-      <c r="D164" s="12" t="inlineStr">
+      <c r="B164" s="18" t="inlineStr"/>
+      <c r="C164" s="17" t="inlineStr"/>
+      <c r="D164" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E164" s="19" t="inlineStr">
+      <c r="E164" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F164" s="12" t="inlineStr"/>
-      <c r="G164" s="12" t="inlineStr"/>
-      <c r="H164" s="12" t="inlineStr"/>
-      <c r="I164" s="12" t="inlineStr"/>
-      <c r="J164" s="12" t="inlineStr"/>
-      <c r="K164" s="12" t="inlineStr"/>
-      <c r="L164" s="12" t="inlineStr">
+      <c r="F164" s="17" t="inlineStr"/>
+      <c r="G164" s="17" t="inlineStr"/>
+      <c r="H164" s="17" t="inlineStr"/>
+      <c r="I164" s="17" t="inlineStr"/>
+      <c r="J164" s="17" t="inlineStr"/>
+      <c r="K164" s="17" t="inlineStr"/>
+      <c r="L164" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr"/>
-      <c r="B165" s="2" t="inlineStr"/>
-      <c r="C165" s="6" t="inlineStr">
+      <c r="A165" s="9" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B165" s="10" t="inlineStr"/>
+      <c r="C165" s="11" t="inlineStr">
         <is>
           <t>26/Jun/2025</t>
         </is>
       </c>
-      <c r="D165" s="1" t="inlineStr">
+      <c r="D165" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E165" s="7" t="inlineStr">
+      <c r="E165" s="12" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F165" s="1" t="inlineStr"/>
-      <c r="G165" s="1" t="inlineStr"/>
-      <c r="H165" s="9" t="inlineStr">
+      <c r="F165" s="9" t="inlineStr"/>
+      <c r="G165" s="9" t="inlineStr"/>
+      <c r="H165" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I165" s="1" t="inlineStr">
+      <c r="I165" s="9" t="inlineStr">
         <is>
           <t>70687</t>
         </is>
       </c>
-      <c r="J165" s="8" t="inlineStr">
+      <c r="J165" s="14" t="inlineStr">
         <is>
           <t>5137392</t>
         </is>
       </c>
-      <c r="K165" s="1" t="inlineStr"/>
-      <c r="L165" s="1" t="inlineStr"/>
+      <c r="K165" s="9" t="inlineStr"/>
+      <c r="L165" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr"/>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>No match found - No matching criteria met</t>
-        </is>
-      </c>
-      <c r="C166" s="1" t="inlineStr"/>
-      <c r="D166" s="1" t="inlineStr"/>
-      <c r="E166" s="10" t="inlineStr">
+      <c r="A166" s="9" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B166" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 5137392.00
+Borrower Amount: 5137392.00</t>
+        </is>
+      </c>
+      <c r="C166" s="9" t="inlineStr"/>
+      <c r="D166" s="9" t="inlineStr"/>
+      <c r="E166" s="15" t="inlineStr">
         <is>
           <t>Amount paid as interunit vendor payment.(RR Imperial Electricals Limited)</t>
         </is>
       </c>
-      <c r="F166" s="1" t="inlineStr"/>
-      <c r="G166" s="1" t="inlineStr"/>
-      <c r="H166" s="1" t="inlineStr"/>
-      <c r="I166" s="1" t="inlineStr"/>
-      <c r="J166" s="1" t="inlineStr"/>
-      <c r="K166" s="1" t="inlineStr"/>
-      <c r="L166" s="1" t="inlineStr"/>
+      <c r="F166" s="9" t="inlineStr"/>
+      <c r="G166" s="9" t="inlineStr"/>
+      <c r="H166" s="9" t="inlineStr"/>
+      <c r="I166" s="9" t="inlineStr"/>
+      <c r="J166" s="9" t="inlineStr"/>
+      <c r="K166" s="9" t="inlineStr"/>
+      <c r="L166" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr"/>
-      <c r="B167" s="2" t="inlineStr"/>
-      <c r="C167" s="1" t="inlineStr"/>
-      <c r="D167" s="1" t="inlineStr">
+      <c r="A167" s="9" t="inlineStr">
+        <is>
+          <t>M060</t>
+        </is>
+      </c>
+      <c r="B167" s="10" t="inlineStr"/>
+      <c r="C167" s="9" t="inlineStr"/>
+      <c r="D167" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E167" s="11" t="inlineStr">
+      <c r="E167" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F167" s="1" t="inlineStr"/>
-      <c r="G167" s="1" t="inlineStr"/>
-      <c r="H167" s="1" t="inlineStr"/>
-      <c r="I167" s="1" t="inlineStr"/>
-      <c r="J167" s="1" t="inlineStr"/>
-      <c r="K167" s="1" t="inlineStr"/>
-      <c r="L167" s="1" t="inlineStr"/>
+      <c r="F167" s="9" t="inlineStr"/>
+      <c r="G167" s="9" t="inlineStr"/>
+      <c r="H167" s="9" t="inlineStr"/>
+      <c r="I167" s="9" t="inlineStr"/>
+      <c r="J167" s="9" t="inlineStr"/>
+      <c r="K167" s="9" t="inlineStr"/>
+      <c r="L167" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="20" t="inlineStr">
+      <c r="A168" s="17" t="inlineStr">
         <is>
           <t>M017</t>
         </is>
       </c>
-      <c r="B168" s="21" t="inlineStr"/>
-      <c r="C168" s="22" t="inlineStr">
+      <c r="B168" s="18" t="inlineStr"/>
+      <c r="C168" s="19" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D168" s="20" t="inlineStr">
+      <c r="D168" s="17" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E168" s="23" t="inlineStr">
+      <c r="E168" s="20" t="inlineStr">
         <is>
           <t>(as per details)</t>
         </is>
       </c>
-      <c r="F168" s="20" t="inlineStr"/>
-      <c r="G168" s="20" t="inlineStr"/>
-      <c r="H168" s="24" t="inlineStr">
+      <c r="F168" s="17" t="inlineStr"/>
+      <c r="G168" s="17" t="inlineStr"/>
+      <c r="H168" s="21" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I168" s="20" t="inlineStr">
+      <c r="I168" s="17" t="inlineStr">
         <is>
           <t>70593</t>
         </is>
       </c>
-      <c r="J168" s="25" t="inlineStr">
+      <c r="J168" s="22" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="K168" s="20" t="inlineStr"/>
-      <c r="L168" s="20" t="inlineStr">
+      <c r="K168" s="17" t="inlineStr"/>
+      <c r="L168" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="20" t="inlineStr">
+      <c r="A169" s="17" t="inlineStr">
         <is>
           <t>M017</t>
         </is>
       </c>
-      <c r="B169" s="21" t="inlineStr"/>
-      <c r="C169" s="20" t="inlineStr"/>
-      <c r="D169" s="20" t="inlineStr"/>
-      <c r="E169" s="23" t="inlineStr">
+      <c r="B169" s="18" t="inlineStr"/>
+      <c r="C169" s="17" t="inlineStr"/>
+      <c r="D169" s="17" t="inlineStr"/>
+      <c r="E169" s="20" t="inlineStr">
         <is>
           <t>Inter Unit Loan A/C-Dredging Unit</t>
         </is>
       </c>
-      <c r="F169" s="20" t="inlineStr"/>
-      <c r="G169" s="20" t="inlineStr"/>
-      <c r="H169" s="20" t="inlineStr"/>
-      <c r="I169" s="20" t="inlineStr"/>
-      <c r="J169" s="25" t="inlineStr">
+      <c r="F169" s="17" t="inlineStr"/>
+      <c r="G169" s="17" t="inlineStr"/>
+      <c r="H169" s="17" t="inlineStr"/>
+      <c r="I169" s="17" t="inlineStr"/>
+      <c r="J169" s="22" t="inlineStr">
         <is>
           <t>3000000</t>
         </is>
       </c>
-      <c r="K169" s="20" t="inlineStr"/>
-      <c r="L169" s="20" t="inlineStr">
+      <c r="K169" s="17" t="inlineStr"/>
+      <c r="L169" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="20" t="inlineStr">
+      <c r="A170" s="17" t="inlineStr">
         <is>
           <t>M017</t>
         </is>
       </c>
-      <c r="B170" s="21" t="inlineStr"/>
-      <c r="C170" s="20" t="inlineStr"/>
-      <c r="D170" s="20" t="inlineStr"/>
-      <c r="E170" s="23" t="inlineStr">
+      <c r="B170" s="18" t="inlineStr"/>
+      <c r="C170" s="17" t="inlineStr"/>
+      <c r="D170" s="17" t="inlineStr"/>
+      <c r="E170" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F170" s="20" t="inlineStr"/>
-      <c r="G170" s="20" t="inlineStr"/>
-      <c r="H170" s="20" t="inlineStr"/>
-      <c r="I170" s="20" t="inlineStr"/>
-      <c r="J170" s="20" t="inlineStr"/>
-      <c r="K170" s="25" t="inlineStr">
+      <c r="F170" s="17" t="inlineStr"/>
+      <c r="G170" s="17" t="inlineStr"/>
+      <c r="H170" s="17" t="inlineStr"/>
+      <c r="I170" s="17" t="inlineStr"/>
+      <c r="J170" s="17" t="inlineStr"/>
+      <c r="K170" s="22" t="inlineStr">
         <is>
           <t>400000</t>
         </is>
       </c>
-      <c r="L170" s="20" t="inlineStr">
+      <c r="L170" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="20" t="inlineStr">
+      <c r="A171" s="17" t="inlineStr">
         <is>
           <t>M017</t>
         </is>
       </c>
-      <c r="B171" s="21" t="inlineStr"/>
-      <c r="C171" s="20" t="inlineStr"/>
-      <c r="D171" s="20" t="inlineStr"/>
-      <c r="E171" s="23" t="inlineStr">
+      <c r="B171" s="18" t="inlineStr"/>
+      <c r="C171" s="17" t="inlineStr"/>
+      <c r="D171" s="17" t="inlineStr"/>
+      <c r="E171" s="20" t="inlineStr">
         <is>
           <t>Midland-CE-0011-1060000331-CI</t>
         </is>
       </c>
-      <c r="F171" s="20" t="inlineStr"/>
-      <c r="G171" s="20" t="inlineStr"/>
-      <c r="H171" s="20" t="inlineStr"/>
-      <c r="I171" s="20" t="inlineStr"/>
-      <c r="J171" s="20" t="inlineStr"/>
-      <c r="K171" s="25" t="inlineStr">
+      <c r="F171" s="17" t="inlineStr"/>
+      <c r="G171" s="17" t="inlineStr"/>
+      <c r="H171" s="17" t="inlineStr"/>
+      <c r="I171" s="17" t="inlineStr"/>
+      <c r="J171" s="17" t="inlineStr"/>
+      <c r="K171" s="22" t="inlineStr">
         <is>
           <t>3000000</t>
         </is>
       </c>
-      <c r="L171" s="20" t="inlineStr">
+      <c r="L171" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="20" t="inlineStr">
+      <c r="A172" s="17" t="inlineStr">
         <is>
           <t>M017</t>
         </is>
       </c>
-      <c r="B172" s="21" t="inlineStr">
+      <c r="B172" s="18" t="inlineStr">
         <is>
           <t>Interunit Loan Match: MDB#0331
 Lender Amount: 400000.00
 Borrower Amount: 400000.00</t>
         </is>
       </c>
-      <c r="C172" s="20" t="inlineStr"/>
-      <c r="D172" s="20" t="inlineStr"/>
-      <c r="E172" s="26" t="inlineStr">
+      <c r="C172" s="17" t="inlineStr"/>
+      <c r="D172" s="17" t="inlineStr"/>
+      <c r="E172" s="23" t="inlineStr">
         <is>
           <t>Interunit fund Transfer as Inter Unit Loan A/C-Transformer Unit, MDB#0313 &amp; Inter Unit Loan A/C-Dredging Unit, MDB#0322</t>
         </is>
       </c>
-      <c r="F172" s="20" t="inlineStr"/>
-      <c r="G172" s="20" t="inlineStr"/>
-      <c r="H172" s="20" t="inlineStr"/>
-      <c r="I172" s="20" t="inlineStr"/>
-      <c r="J172" s="20" t="inlineStr"/>
-      <c r="K172" s="20" t="inlineStr"/>
-      <c r="L172" s="20" t="inlineStr">
+      <c r="F172" s="17" t="inlineStr"/>
+      <c r="G172" s="17" t="inlineStr"/>
+      <c r="H172" s="17" t="inlineStr"/>
+      <c r="I172" s="17" t="inlineStr"/>
+      <c r="J172" s="17" t="inlineStr"/>
+      <c r="K172" s="17" t="inlineStr"/>
+      <c r="L172" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="20" t="inlineStr">
+      <c r="A173" s="17" t="inlineStr">
         <is>
           <t>M017</t>
         </is>
       </c>
-      <c r="B173" s="21" t="inlineStr"/>
-      <c r="C173" s="20" t="inlineStr"/>
-      <c r="D173" s="20" t="inlineStr">
+      <c r="B173" s="18" t="inlineStr"/>
+      <c r="C173" s="17" t="inlineStr"/>
+      <c r="D173" s="17" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E173" s="27" t="inlineStr">
+      <c r="E173" s="24" t="inlineStr">
         <is>
           <t>ashiq</t>
         </is>
       </c>
-      <c r="F173" s="20" t="inlineStr"/>
-      <c r="G173" s="20" t="inlineStr"/>
-      <c r="H173" s="20" t="inlineStr"/>
-      <c r="I173" s="20" t="inlineStr"/>
-      <c r="J173" s="20" t="inlineStr"/>
-      <c r="K173" s="20" t="inlineStr"/>
-      <c r="L173" s="20" t="inlineStr">
+      <c r="F173" s="17" t="inlineStr"/>
+      <c r="G173" s="17" t="inlineStr"/>
+      <c r="H173" s="17" t="inlineStr"/>
+      <c r="I173" s="17" t="inlineStr"/>
+      <c r="J173" s="17" t="inlineStr"/>
+      <c r="K173" s="17" t="inlineStr"/>
+      <c r="L173" s="17" t="inlineStr">
         <is>
           <t>Interunit</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr"/>
-      <c r="B174" s="2" t="inlineStr"/>
-      <c r="C174" s="6" t="inlineStr">
+      <c r="A174" s="9" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B174" s="10" t="inlineStr"/>
+      <c r="C174" s="11" t="inlineStr">
         <is>
           <t>29/Jun/2025</t>
         </is>
       </c>
-      <c r="D174" s="1" t="inlineStr">
+      <c r="D174" s="9" t="inlineStr">
         <is>
           <t>Cr</t>
         </is>
       </c>
-      <c r="E174" s="7" t="inlineStr">
+      <c r="E174" s="12" t="inlineStr">
         <is>
           <t>Mutual Trust Bank Ltd-SND-002-0320004355</t>
         </is>
       </c>
-      <c r="F174" s="1" t="inlineStr"/>
-      <c r="G174" s="1" t="inlineStr"/>
-      <c r="H174" s="9" t="inlineStr">
+      <c r="F174" s="9" t="inlineStr"/>
+      <c r="G174" s="9" t="inlineStr"/>
+      <c r="H174" s="13" t="inlineStr">
         <is>
           <t>Bank Payment</t>
         </is>
       </c>
-      <c r="I174" s="1" t="inlineStr">
+      <c r="I174" s="9" t="inlineStr">
         <is>
           <t>70686</t>
         </is>
       </c>
-      <c r="J174" s="8" t="inlineStr">
+      <c r="J174" s="14" t="inlineStr">
         <is>
           <t>11780452</t>
         </is>
       </c>
-      <c r="K174" s="1" t="inlineStr"/>
-      <c r="L174" s="1" t="inlineStr"/>
+      <c r="K174" s="9" t="inlineStr"/>
+      <c r="L174" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr"/>
-      <c r="B175" s="2" t="inlineStr">
-        <is>
-          <t>Unmatched Record
-Reasons:
-1. No interunit account found in File 1 block</t>
-        </is>
-      </c>
-      <c r="C175" s="1" t="inlineStr"/>
-      <c r="D175" s="1" t="inlineStr"/>
-      <c r="E175" s="10" t="inlineStr">
+      <c r="A175" s="9" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B175" s="10" t="inlineStr">
+        <is>
+          <t>Manual Match
+Lender Amount: 11780452.00
+Borrower Amount: 11780452.00</t>
+        </is>
+      </c>
+      <c r="C175" s="9" t="inlineStr"/>
+      <c r="D175" s="9" t="inlineStr"/>
+      <c r="E175" s="15" t="inlineStr">
         <is>
           <t>Amount paid as Inter Unit Loan A/C-Transformer Unit (Rangpur Metal Industries Ltd.)</t>
         </is>
       </c>
-      <c r="F175" s="1" t="inlineStr"/>
-      <c r="G175" s="1" t="inlineStr"/>
-      <c r="H175" s="1" t="inlineStr"/>
-      <c r="I175" s="1" t="inlineStr"/>
-      <c r="J175" s="1" t="inlineStr"/>
-      <c r="K175" s="1" t="inlineStr"/>
-      <c r="L175" s="1" t="inlineStr"/>
+      <c r="F175" s="9" t="inlineStr"/>
+      <c r="G175" s="9" t="inlineStr"/>
+      <c r="H175" s="9" t="inlineStr"/>
+      <c r="I175" s="9" t="inlineStr"/>
+      <c r="J175" s="9" t="inlineStr"/>
+      <c r="K175" s="9" t="inlineStr"/>
+      <c r="L175" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr"/>
-      <c r="B176" s="2" t="inlineStr"/>
-      <c r="C176" s="1" t="inlineStr"/>
-      <c r="D176" s="1" t="inlineStr">
+      <c r="A176" s="9" t="inlineStr">
+        <is>
+          <t>M061</t>
+        </is>
+      </c>
+      <c r="B176" s="10" t="inlineStr"/>
+      <c r="C176" s="9" t="inlineStr"/>
+      <c r="D176" s="9" t="inlineStr">
         <is>
           <t>Entered By :</t>
         </is>
       </c>
-      <c r="E176" s="11" t="inlineStr">
+      <c r="E176" s="16" t="inlineStr">
         <is>
           <t>sayeda</t>
         </is>
       </c>
-      <c r="F176" s="1" t="inlineStr"/>
-      <c r="G176" s="1" t="inlineStr"/>
-      <c r="H176" s="1" t="inlineStr"/>
-      <c r="I176" s="1" t="inlineStr"/>
-      <c r="J176" s="1" t="inlineStr"/>
-      <c r="K176" s="1" t="inlineStr"/>
-      <c r="L176" s="1" t="inlineStr"/>
+      <c r="F176" s="9" t="inlineStr"/>
+      <c r="G176" s="9" t="inlineStr"/>
+      <c r="H176" s="9" t="inlineStr"/>
+      <c r="I176" s="9" t="inlineStr"/>
+      <c r="J176" s="9" t="inlineStr"/>
+      <c r="K176" s="9" t="inlineStr"/>
+      <c r="L176" s="9" t="inlineStr">
+        <is>
+          <t>Manual</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr"/>
@@ -5894,7 +6705,7 @@
       <c r="H177" s="1" t="inlineStr"/>
       <c r="I177" s="1" t="inlineStr"/>
       <c r="J177" s="1" t="inlineStr"/>
-      <c r="K177" s="28" t="inlineStr">
+      <c r="K177" s="25" t="inlineStr">
         <is>
           <t>95590149.25</t>
         </is>
@@ -5942,7 +6753,7 @@
       <c r="H179" s="1" t="inlineStr"/>
       <c r="I179" s="1" t="inlineStr"/>
       <c r="J179" s="1" t="inlineStr"/>
-      <c r="K179" s="28" t="inlineStr">
+      <c r="K179" s="25" t="inlineStr">
         <is>
           <t>95590149.25</t>
         </is>
